--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="240">
   <si>
     <t>File</t>
   </si>
@@ -34,106 +34,115 @@
     <t>severityIcon</t>
   </si>
   <si>
-    <t>appMenus/AppSwitcher.appMenu-meta.xml</t>
-  </si>
-  <si>
-    <t>AppMenu AppSwitcher</t>
+    <t>classes/ContractLineItemTriggerHandler.cls</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ApexClass ContractLineItemTriggerHandler</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
+    <t>classes/ContractLineItemTriggerHandler.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ExportRecordsController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ExportRecordsController</t>
+  </si>
+  <si>
+    <t>classes/ExportRecordsController.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/MapsGeoCodeService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MapsGeoCodeService</t>
+  </si>
+  <si>
+    <t>classes/MapsGeoCodeService.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/MapsGeoCodeWrapper.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MapsGeoCodeWrapper</t>
+  </si>
+  <si>
+    <t>classes/MapsGeoCodeWrapper.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/MapsGeoCodeWrapperTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MapsGeoCodeWrapperTest</t>
+  </si>
+  <si>
+    <t>classes/MapsGeoCodeWrapperTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ServiceBuilderController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceBuilderController</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
-  </si>
-  <si>
-    <t>applications/Krinkels_Field_Service.app-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomApplication Krinkels_Field_Service</t>
-  </si>
-  <si>
-    <t>brandingSets/LEXTHEMINGKrinkelsTheme.brandingSet-meta.xml</t>
-  </si>
-  <si>
-    <t>BrandingSet LEXTHEMINGKrinkelsTheme</t>
-  </si>
-  <si>
-    <t>briefcaseDefinitions/Operators_Briefcase.briefcaseDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>classes/MachineRestResource.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MachineRestResource</t>
-  </si>
-  <si>
-    <t>classes/MachineRestResource.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/PersonnelRestResource.cls</t>
-  </si>
-  <si>
-    <t>ApexClass PersonnelRestResource</t>
-  </si>
-  <si>
-    <t>classes/PersonnelRestResource.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ProjectRestResource.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ProjectRestResource</t>
-  </si>
-  <si>
-    <t>classes/ProjectRestResource.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ServiceBuilderController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceBuilderController</t>
-  </si>
-  <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
   </si>
   <si>
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>contentassets/Krinkels_logo2.asset</t>
-  </si>
-  <si>
-    <t>ContentAsset Krinkels_logo2</t>
-  </si>
-  <si>
-    <t>contentassets/Krinkels_logo2.asset-meta.xml</t>
-  </si>
-  <si>
-    <t>contentassets/Untitled.asset</t>
-  </si>
-  <si>
-    <t>ContentAsset Untitled</t>
-  </si>
-  <si>
-    <t>contentassets/Untitled.asset-meta.xml</t>
-  </si>
-  <si>
-    <t>flexipages/Location_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Location_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Product_Item_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Product_Item_Record_Page</t>
+    <t>customMetadata/Export_Configuration.ServiceContract.md-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomMetadata Export_Configuration.ServiceContract</t>
+  </si>
+  <si>
+    <t>duplicateRules/Contact.Contact_Mobile_Phone.duplicateRule-meta.xml</t>
+  </si>
+  <si>
+    <t>DuplicateRule Contact.Contact_Mobile_Phone</t>
+  </si>
+  <si>
+    <t>duplicateRules/Contact.Standard_Contact_Duplicate_Rule.duplicateRule-meta.xml</t>
+  </si>
+  <si>
+    <t>DuplicateRule Contact.Standard_Contact_Duplicate_Rule</t>
+  </si>
+  <si>
+    <t>duplicateRules/Contact.Standard_Contact_to_Lead_Duplicate_Rule.duplicateRule-meta.xml</t>
+  </si>
+  <si>
+    <t>DuplicateRule Contact.Standard_Contact_to_Lead_Duplicate_Rule</t>
+  </si>
+  <si>
+    <t>externalCredentials/GoogleMaps.externalCredential-meta.xml</t>
+  </si>
+  <si>
+    <t>ExternalCredential GoogleMaps</t>
+  </si>
+  <si>
+    <t>flexipages/Contact_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Contact_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Contract_Line_Item_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Contract_Line_Item_Record_Page</t>
   </si>
   <si>
     <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
@@ -142,40 +151,118 @@
     <t>FlexiPage Service_Contract_Record_Page</t>
   </si>
   <si>
-    <t>flexipages/Van_Crew_Member_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Van_Crew_Member_Record_Page</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Material_Item_Before_Save_Record_Triggered_Populate_Van_Crew_Field.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Material_Item_Before_Save_Record_Triggered_Populate_Van_Crew_Field</t>
-  </si>
-  <si>
-    <t>flows/Material_Item_Before_Save_Record_Triggered_Populate_Van_Crew_Field.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Material_Item_Before_Save_Record_Triggered_Populate_Van_Crew_Field</t>
-  </si>
-  <si>
-    <t>groups/Operators.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group Operators</t>
-  </si>
-  <si>
-    <t>layouts/Location-Van Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Location-Van Layout</t>
-  </si>
-  <si>
-    <t>layouts/ProductItem-Material Item Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ProductItem-Material Item Layout</t>
+    <t>flowDefinitions/Material_Item_After_Save_Record_Triggered_Populate_Van_Crew_Field.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Material_Item_After_Save_Record_Triggered_Populate_Van_Crew_Field</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_Appointment_After_Save_Record_Triggered_Update_Related_WO_Status.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_Appointment_After_Save_Record_Triggered_Update_Related_WO_Status</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Scheduled_High_Prio_Work_Order_Overdue.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Scheduled_High_Prio_Work_Order_Overdue</t>
+  </si>
+  <si>
+    <t>flows/Material_Item_After_Save_Record_Triggered_Populate_Van_Crew_Field.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Material_Item_After_Save_Record_Triggered_Populate_Van_Crew_Field</t>
+  </si>
+  <si>
+    <t>flows/Service_Appointment_After_Save_Record_Triggered_Update_Related_WO_Status.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_Appointment_After_Save_Record_Triggered_Update_Related_WO_Status</t>
+  </si>
+  <si>
+    <t>flows/Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Scheduled_High_Prio_Work_Order_Overdue.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Scheduled_High_Prio_Work_Order_Overdue</t>
+  </si>
+  <si>
+    <t>globalValueSets/Language.globalValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>GlobalValueSet Language</t>
+  </si>
+  <si>
+    <t>globalValueSets/Priority.globalValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>GlobalValueSet Priority</t>
+  </si>
+  <si>
+    <t>layouts/Account-Financial Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Financial Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Operational Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Operational Layout</t>
+  </si>
+  <si>
+    <t>layouts/Contact-Contact Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Contact-Contact Layout</t>
+  </si>
+  <si>
+    <t>layouts/Contract-Contract Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Contract-Contract Layout</t>
+  </si>
+  <si>
+    <t>layouts/ContractLineItem-Contract Line Item Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ContractLineItem-Contract Line Item Layout</t>
+  </si>
+  <si>
+    <t>layouts/Contract_Line_Financial_Account__c-Contract Line Financial Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Contract_Line_Financial_Account__c-Contract Line Financial Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Export_Configuration__mdt-Export Configuration Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Export_Configuration__mdt-Export Configuration Layout</t>
   </si>
   <si>
     <t>layouts/ServiceAppointment-Service Appointment Layout.layout-meta.xml</t>
@@ -190,48 +277,60 @@
     <t>Layout ServiceContract-Service Contract Layout</t>
   </si>
   <si>
-    <t>layouts/ServiceCrew-Van Crew Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceCrew-Van Crew Layout</t>
-  </si>
-  <si>
-    <t>layouts/ServiceCrewMember-Van Crew Member Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceCrewMember-Van Crew Member Layout</t>
-  </si>
-  <si>
-    <t>layouts/ServiceResource-Service Resource Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceResource-Service Resource Layout</t>
-  </si>
-  <si>
-    <t>layouts/ServiceTerritory-Service Territory Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceTerritory-Service Territory Layout</t>
-  </si>
-  <si>
     <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
   </si>
   <si>
     <t>Layout WorkOrder-Work Order Layout</t>
   </si>
   <si>
+    <t>lwc/exportRecords/exportRecords.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle exportRecords/exportRecords.html</t>
+  </si>
+  <si>
+    <t>lwc/exportRecords/exportRecords.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle exportRecords/exportRecords.js</t>
+  </si>
+  <si>
+    <t>lwc/exportRecords/exportRecords.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle exportRecords/exportRecords.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/prepareContractForNextYear/prepareContractForNextYear.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle prepareContractForNextYear/prepareContractForNextYear.html</t>
+  </si>
+  <si>
+    <t>lwc/prepareContractForNextYear/prepareContractForNextYear.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle prepareContractForNextYear/prepareContractForNextYear.js</t>
+  </si>
+  <si>
+    <t>lwc/prepareContractForNextYear/prepareContractForNextYear.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle prepareContractForNextYear/prepareContractForNextYear.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/recurrencePattern/recurrencePattern.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle recurrencePattern/recurrencePattern.html</t>
+  </si>
+  <si>
     <t>lwc/recurrencePattern/recurrencePattern.js</t>
   </si>
   <si>
     <t>LightningComponentBundle recurrencePattern/recurrencePattern.js</t>
   </si>
   <si>
-    <t>lwc/serviceBuilder/serviceBuilder.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle serviceBuilder/serviceBuilder.css</t>
-  </si>
-  <si>
     <t>lwc/serviceBuilder/serviceBuilder.html</t>
   </si>
   <si>
@@ -244,25 +343,211 @@
     <t>LightningComponentBundle serviceBuilder/serviceBuilder.js</t>
   </si>
   <si>
+    <t>matchingRules/Contact.matchingRule-meta.xml</t>
+  </si>
+  <si>
+    <t>MatchingRules Contact</t>
+  </si>
+  <si>
+    <t>namedCredentials/GoogleMaps.namedCredential-meta.xml</t>
+  </si>
+  <si>
+    <t>NamedCredential GoogleMaps</t>
+  </si>
+  <si>
+    <t>namedCredentials/MapsEncoding.namedCredential-meta.xml</t>
+  </si>
+  <si>
+    <t>NamedCredential MapsEncoding</t>
+  </si>
+  <si>
     <t>notificationTypeConfig/NotificationTypeConfig.config-meta.xml</t>
   </si>
   <si>
     <t>NotificationTypeConfig NotificationTypeConfig</t>
   </si>
   <si>
-    <t>objects/Location/fields/Van_Crew__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Van_Crew__c</t>
-  </si>
-  <si>
-    <t>objects/ProductItem/ProductItem.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject ProductItem/ProductItem</t>
-  </si>
-  <si>
-    <t>objects/ProductItem/fields/Van_Crew__c.field-meta.xml</t>
+    <t>notificationtypes/Standard_Notification.notiftype-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomNotificationType Standard_Notification</t>
+  </si>
+  <si>
+    <t>objects/Account/compactLayouts/Account_Compact_Layout.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Account_Compact_Layout</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Check_In_Work__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Check_In_Work__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Priority__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Priority__c</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Financial_Customer.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Financial_Customer</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Operational_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Operational_Account</t>
+  </si>
+  <si>
+    <t>objects/Contact/compactLayouts/Contact.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Contact</t>
+  </si>
+  <si>
+    <t>objects/Contact/fields/Language__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Language__c</t>
+  </si>
+  <si>
+    <t>objects/Contact/fields/Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Type__c</t>
+  </si>
+  <si>
+    <t>objects/Contract/Contract.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Contract/Contract</t>
+  </si>
+  <si>
+    <t>objects/Contract/fields/Check_in_Work__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Check_in_Work__c</t>
+  </si>
+  <si>
+    <t>objects/ContractLineItem/fields/Geolocation__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Geolocation__c</t>
+  </si>
+  <si>
+    <t>objects/ContractLineItem/fields/Parent_Customer__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Parent_Customer__c</t>
+  </si>
+  <si>
+    <t>objects/Contract_Event__e/Contract_Event__e.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Contract_Event__e/Contract_Event__e</t>
+  </si>
+  <si>
+    <t>objects/Contract_Event__e/fields/Record_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Record_Id__c</t>
+  </si>
+  <si>
+    <t>objects/Contract_Line_Financial_Account__c/Contract_Line_Financial_Account__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Contract_Line_Financial_Account__c/Contract_Line_Financial_Account__c</t>
+  </si>
+  <si>
+    <t>objects/Contract_Line_Financial_Account__c/fields/Contract_Line_Item__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contract_Line_Item__c</t>
+  </si>
+  <si>
+    <t>objects/Contract_Line_Financial_Account__c/fields/Financial_Customer__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Financial_Customer__c</t>
+  </si>
+  <si>
+    <t>objects/Export_Configuration__mdt/Export_Configuration__mdt.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Export_Configuration__mdt/Export_Configuration__mdt</t>
+  </si>
+  <si>
+    <t>objects/Export_Configuration__mdt/fields/Fields_to_Export__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Fields_to_Export__c</t>
+  </si>
+  <si>
+    <t>objects/Export_Configuration__mdt/fields/Object_API_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Object_API_Name__c</t>
+  </si>
+  <si>
+    <t>objects/Export_Configuration__mdt/fields/Parent_Relationship_Field__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Parent_Relationship_Field__c</t>
+  </si>
+  <si>
+    <t>objects/Export_Configuration__mdt/fields/Where_Clause__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Where_Clause__c</t>
+  </si>
+  <si>
+    <t>objects/Google_Maps_API__c/Google_Maps_API__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Google_Maps_API__c/Google_Maps_API__c</t>
+  </si>
+  <si>
+    <t>objects/Google_Maps_API__c/fields/Key__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Key__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Check_In_Work__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Priority__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/compactLayouts/Work_Order_Compact_Layout.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Work_Order_Compact_Layout</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Check_In_Work__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Collected_Items__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Collected_Items__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Shop_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Shop_Name__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Work_Order_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Work_Order_Type__c</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -385,100 +670,61 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>settings/AgentforceForDevelopers.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings AgentforceForDevelopers</t>
-  </si>
-  <si>
-    <t>settings/Analytics.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings Analytics</t>
-  </si>
-  <si>
-    <t>settings/Case.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings Case</t>
-  </si>
-  <si>
-    <t>settings/Content.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings Content</t>
-  </si>
-  <si>
-    <t>settings/ConversationalIntelligence.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings ConversationalIntelligence</t>
-  </si>
-  <si>
-    <t>settings/EAC.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings EAC</t>
-  </si>
-  <si>
-    <t>settings/FieldService.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings FieldService</t>
-  </si>
-  <si>
-    <t>settings/Forecasting.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings Forecasting</t>
-  </si>
-  <si>
-    <t>settings/Industries.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings Industries</t>
-  </si>
-  <si>
-    <t>settings/LightningExperience.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings LightningExperience</t>
-  </si>
-  <si>
-    <t>settings/MyDomain.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings MyDomain</t>
-  </si>
-  <si>
-    <t>settings/ProductDiscovery.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings ProductDiscovery</t>
-  </si>
-  <si>
-    <t>settings/UserInterface.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings UserInterface</t>
-  </si>
-  <si>
-    <t>settings/UserManagement.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings UserManagement</t>
-  </si>
-  <si>
-    <t>topicsForObjects/DynamicDataCapture.topicsForObjects-meta.xml</t>
-  </si>
-  <si>
-    <t>TopicsForObjects DynamicDataCapture</t>
-  </si>
-  <si>
-    <t>installedPackages/Salesforce Field Service App Package.json</t>
-  </si>
-  <si>
-    <t>InstalledPackage Salesforce Field Service App Package.json</t>
+    <t>quickActions/ServiceContract.Export_Lines.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction ServiceContract.Export_Lines</t>
+  </si>
+  <si>
+    <t>quickActions/ServiceContract.Prepare_for_Next_Year.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction ServiceContract.Prepare_for_Next_Year</t>
+  </si>
+  <si>
+    <t>settings/Search.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Search</t>
+  </si>
+  <si>
+    <t>standardValueSets/Salutation.standardValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>StandardValueSet Salutation</t>
+  </si>
+  <si>
+    <t>standardValueSets/ServiceAppointmentStatus.standardValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>StandardValueSet ServiceAppointmentStatus</t>
+  </si>
+  <si>
+    <t>standardValueSets/WorkOrderPriority.standardValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>StandardValueSet WorkOrderPriority</t>
+  </si>
+  <si>
+    <t>standardValueSets/WorkOrderStatus.standardValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>StandardValueSet WorkOrderStatus</t>
+  </si>
+  <si>
+    <t>topicsForObjects/Contract_Line_Financial_Account__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects Contract_Line_Financial_Account__c</t>
+  </si>
+  <si>
+    <t>triggers/ContractLineItemTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger ContractLineItemTrigger</t>
+  </si>
+  <si>
+    <t>triggers/ContractLineItemTrigger.trigger-meta.xml</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -861,12 +1107,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G121"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="106" customWidth="1"/>
+    <col min="1" max="1" width="112" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="81" customWidth="1"/>
+    <col min="3" max="3" width="90" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -899,13 +1145,10 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -919,13 +1162,10 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
@@ -937,16 +1177,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -957,13 +1194,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -974,13 +1211,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -991,13 +1228,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1008,13 +1245,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1025,13 +1262,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1042,13 +1279,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1059,13 +1296,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1076,16 +1313,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1096,16 +1333,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1116,13 +1353,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1133,13 +1370,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1152,11 +1389,14 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1169,11 +1409,14 @@
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1184,13 +1427,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1201,13 +1444,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1218,16 +1464,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1238,13 +1484,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1255,13 +1504,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1272,13 +1521,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1289,13 +1538,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1306,13 +1555,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1323,13 +1572,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1340,16 +1589,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1360,16 +1606,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1380,13 +1623,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1397,13 +1640,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1414,16 +1657,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1434,16 +1674,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1454,16 +1691,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1474,16 +1708,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1494,16 +1725,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1514,16 +1742,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1534,16 +1762,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1554,16 +1782,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1574,13 +1802,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1591,13 +1819,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1608,13 +1836,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>17</v>
+        <v>84</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1625,16 +1856,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1645,16 +1876,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1665,16 +1896,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1685,16 +1913,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1705,16 +1930,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -1725,16 +1947,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -1745,16 +1964,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -1765,16 +1981,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -1785,16 +1998,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -1805,16 +2018,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -1825,16 +2038,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -1845,16 +2058,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -1865,16 +2078,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -1885,16 +2098,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -1905,16 +2115,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -1925,16 +2132,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -1945,16 +2152,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -1965,16 +2169,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -1985,16 +2189,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2005,16 +2206,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -2025,13 +2223,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" t="s">
-        <v>17</v>
+        <v>126</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="D62" t="s">
+        <v>27</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2042,16 +2243,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2062,16 +2263,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2082,16 +2280,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2102,16 +2297,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2122,16 +2314,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>134</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2142,16 +2331,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
-      </c>
-      <c r="D68" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2162,16 +2348,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2182,16 +2365,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2202,16 +2382,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
+        <v>144</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2222,16 +2399,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>144</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2242,13 +2416,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2259,16 +2433,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
-      </c>
-      <c r="D74" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2279,16 +2450,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>150</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
-      </c>
-      <c r="D75" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2299,13 +2467,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2316,13 +2484,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -2333,16 +2501,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>156</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
-      </c>
-      <c r="D78" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2353,21 +2518,813 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
-      </c>
-      <c r="D79" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
       </c>
       <c r="G79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>163</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>165</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>171</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>123</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>174</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>176</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>178</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>186</v>
+      </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>188</v>
+      </c>
+      <c r="D94" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>204</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>208</v>
+      </c>
+      <c r="D104" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>210</v>
+      </c>
+      <c r="D105" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>212</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>214</v>
+      </c>
+      <c r="D107" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>216</v>
+      </c>
+      <c r="D108" t="s">
+        <v>27</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>218</v>
+      </c>
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>220</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>222</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>224</v>
+      </c>
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>226</v>
+      </c>
+      <c r="D113" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>228</v>
+      </c>
+      <c r="D114" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>230</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>232</v>
+      </c>
+      <c r="D116" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>234</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>236</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>238</v>
+      </c>
+      <c r="D120" t="s">
+        <v>27</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>File</t>
   </si>
@@ -47,6 +47,69 @@
   </si>
   <si>
     <t>📰</t>
+  </si>
+  <si>
+    <t>layouts/ServiceAppointment-Service Appointment Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceAppointment-Service Appointment Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkOrder-Work Order Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkOrderLineItem-Work Order Line Item Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkOrderLineItem-Work Order Line Item Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkType-Work Type Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkType-Work Type Layout</t>
+  </si>
+  <si>
+    <t>notificationTypeConfig/NotificationTypeConfig.config-meta.xml</t>
+  </si>
+  <si>
+    <t>NotificationTypeConfig NotificationTypeConfig</t>
+  </si>
+  <si>
+    <t>settings/FieldService.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings FieldService</t>
+  </si>
+  <si>
+    <t>settings/Search.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Search</t>
+  </si>
+  <si>
+    <t>sharingRules/DocumentRecipient.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SharingRules DocumentRecipient</t>
+  </si>
+  <si>
+    <t>topicsForObjects/DocumentRecipient.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects DocumentRecipient</t>
+  </si>
+  <si>
+    <t>manifest/package-all-org-items.xml</t>
+  </si>
+  <si>
+    <t>manifest/package-backup-items.xml</t>
   </si>
 </sst>
 </file>
@@ -423,12 +486,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="1" max="1" width="69" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -477,6 +540,220 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Z1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="220">
   <si>
     <t>File</t>
   </si>
@@ -34,19 +34,193 @@
     <t>severityIcon</t>
   </si>
   <si>
+    <t>applications/Krinkels_Field_Service.app-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomApplication Krinkels_Field_Service</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
+    <t>applications/Sales.app-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomApplication Sales</t>
+  </si>
+  <si>
+    <t>classes/GanttRoundPinAction.cls</t>
+  </si>
+  <si>
+    <t>ApexClass GanttRoundPinAction</t>
+  </si>
+  <si>
+    <t>classes/MaintenancePlanService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MaintenancePlanService</t>
+  </si>
+  <si>
+    <t>classes/ServiceAppointmentTriggerHandler.cls</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceAppointmentTriggerHandler</t>
+  </si>
+  <si>
+    <t>classes/ServiceAppointmentTriggerHandler.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ServiceBuilderController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceBuilderController</t>
+  </si>
+  <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
   </si>
   <si>
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
+    <t>duplicateRules/Account.Commercial_Account_Duplicate_Rule.duplicateRule-meta.xml</t>
+  </si>
+  <si>
+    <t>DuplicateRule Account.Commercial_Account_Duplicate_Rule</t>
+  </si>
+  <si>
+    <t>duplicateRules/Account.Standard_Account_Duplicate_Rule.duplicateRule-meta.xml</t>
+  </si>
+  <si>
+    <t>DuplicateRule Account.Standard_Account_Duplicate_Rule</t>
+  </si>
+  <si>
+    <t>flexipages/Commercial_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Commercial_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Financial_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Financial_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Operational_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Service_Contract_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_Appointment_After_Save_Record_Triggered_Set_Service_Territory.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_Appointment_After_Save_Record_Triggered_Set_Service_Territory</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue</t>
+  </si>
+  <si>
+    <t>flows/Service_Appointment_After_Save_Record_Triggered_Set_Service_Territory.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_Appointment_After_Save_Record_Triggered_Set_Service_Territory</t>
+  </si>
+  <si>
+    <t>flows/Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Scheduled_High_Prio_Work_Order_Overdue.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Scheduled_High_Prio_Work_Order_Overdue</t>
+  </si>
+  <si>
+    <t>groups/BURGGRAEVE_SIMON.group-meta.xml</t>
+  </si>
+  <si>
+    <t>Group BURGGRAEVE_SIMON</t>
+  </si>
+  <si>
+    <t>groups/HOMBROECKX_ARNE.group-meta.xml</t>
+  </si>
+  <si>
+    <t>Group HOMBROECKX_ARNE</t>
+  </si>
+  <si>
+    <t>groups/PLETINCKX_YENTL.group-meta.xml</t>
+  </si>
+  <si>
+    <t>Group PLETINCKX_YENTL</t>
+  </si>
+  <si>
+    <t>groups/VANDEWALLE_JIMMY.group-meta.xml</t>
+  </si>
+  <si>
+    <t>Group VANDEWALLE_JIMMY</t>
+  </si>
+  <si>
+    <t>groups/VERDONCK_DAVY.group-meta.xml</t>
+  </si>
+  <si>
+    <t>Group VERDONCK_DAVY</t>
+  </si>
+  <si>
+    <t>groups/VERSTRAETE_GAUTHIER.group-meta.xml</t>
+  </si>
+  <si>
+    <t>Group VERSTRAETE_GAUTHIER</t>
+  </si>
+  <si>
+    <t>groups/WANDELS_AURELIEN.group-meta.xml</t>
+  </si>
+  <si>
+    <t>Group WANDELS_AURELIEN</t>
+  </si>
+  <si>
+    <t>layouts/ATAK_Project__c-ATAK Project Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ATAK_Project__c-ATAK Project Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Commercial Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Commercial Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Financial Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Financial Layout</t>
+  </si>
+  <si>
+    <t>layouts/Asset-Asset Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Asset-Asset Layout</t>
   </si>
   <si>
     <t>layouts/ServiceAppointment-Service Appointment Layout.layout-meta.xml</t>
@@ -55,34 +229,397 @@
     <t>Layout ServiceAppointment-Service Appointment Layout</t>
   </si>
   <si>
+    <t>layouts/ServiceContract-Service Contract Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceContract-Service Contract Layout</t>
+  </si>
+  <si>
+    <t>layouts/ServiceTerritory-Service Territory Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceTerritory-Service Territory Layout</t>
+  </si>
+  <si>
+    <t>layouts/User-User Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout User-User Layout</t>
+  </si>
+  <si>
+    <t>layouts/UserAlt-User Profile Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout UserAlt-User Profile Layout</t>
+  </si>
+  <si>
     <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
   </si>
   <si>
     <t>Layout WorkOrder-Work Order Layout</t>
   </si>
   <si>
-    <t>layouts/WorkOrderLineItem-Work Order Line Item Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkOrderLineItem-Work Order Line Item Layout</t>
-  </si>
-  <si>
-    <t>layouts/WorkType-Work Type Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkType-Work Type Layout</t>
-  </si>
-  <si>
-    <t>notificationTypeConfig/NotificationTypeConfig.config-meta.xml</t>
-  </si>
-  <si>
-    <t>NotificationTypeConfig NotificationTypeConfig</t>
-  </si>
-  <si>
-    <t>settings/FieldService.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings FieldService</t>
+    <t>lwc/contractLineEditor/contractLineEditor.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle contractLineEditor/contractLineEditor.html</t>
+  </si>
+  <si>
+    <t>lwc/contractLineEditor/contractLineEditor.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle contractLineEditor/contractLineEditor.js</t>
+  </si>
+  <si>
+    <t>lwc/contractLineEditor/contractLineEditor.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle contractLineEditor/contractLineEditor.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/recurrencePattern/recurrencePattern.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle recurrencePattern/recurrencePattern.html</t>
+  </si>
+  <si>
+    <t>lwc/recurrencePattern/recurrencePattern.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle recurrencePattern/recurrencePattern.js</t>
+  </si>
+  <si>
+    <t>lwc/serviceBuilder/serviceBuilder.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle serviceBuilder/serviceBuilder.html</t>
+  </si>
+  <si>
+    <t>lwc/serviceBuilder/serviceBuilder.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle serviceBuilder/serviceBuilder.js</t>
+  </si>
+  <si>
+    <t>matchingRules/Account.matchingRule-meta.xml</t>
+  </si>
+  <si>
+    <t>MatchingRules Account</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/ATAK_Project__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject ATAK_Project__c/ATAK_Project__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Cost_centre_Atak_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Cost_centre_Atak_Id__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Cost_centre_Atak_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Cost_centre_Atak_Name__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Department_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Department_Code__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Department_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Department_Name__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Depot__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Depot__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Dossier__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Dossier__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/End_Date__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField End_Date__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Parent_Subproject__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Parent_Subproject__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Service_Territory__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Territory__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Start_Date__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Start_Date__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/SubProject_ATAK__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SubProject_ATAK__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Subproject_Description__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Subproject_Description__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Subproject_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Subproject_Name__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/listViews/All.listView-meta.xml</t>
+  </si>
+  <si>
+    <t>ListView All</t>
+  </si>
+  <si>
+    <t>objects/Account/compactLayouts/Commercial_Account.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Commercial_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Commercial_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Commercial_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Financial_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Financial_Account</t>
+  </si>
+  <si>
+    <t>objects/Asset/fields/ATAK_Project__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ATAK_Project__c</t>
+  </si>
+  <si>
+    <t>objects/Asset/fields/Service_Territory__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/Contract_Line_Financial_Account__c/fields/Financial_Customer__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Financial_Customer__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/Due_Date_in_the_Past__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Due_Date_in_the_Past__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/Overdue_Reminder_Send__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Overdue_Reminder_Send__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Location_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Location_Type__c</t>
+  </si>
+  <si>
+    <t>objects/User/fields/ATAK_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ATAK_Id__c</t>
+  </si>
+  <si>
+    <t>permissionsets/sfdcInternalInt__sfdc_fieldservice.permissionset-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSet sfdcInternalInt__sfdc_fieldservice</t>
+  </si>
+  <si>
+    <t>profilePasswordPolicies/Contract_Manager_profilePasswordPolicy1730106625061.profilePasswordPolicy-meta.xml</t>
+  </si>
+  <si>
+    <t>ProfilePasswordPolicy Contract_Manager_profilePasswordPolicy1730106625061</t>
+  </si>
+  <si>
+    <t>profileSessionSettings/null_profileSessionSetting1730106625079.profileSessionSetting-meta.xml</t>
+  </si>
+  <si>
+    <t>ProfileSessionSetting null_profileSessionSetting1730106625079</t>
+  </si>
+  <si>
+    <t>profiles/Admin.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Admin</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Security User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Security User</t>
+  </si>
+  <si>
+    <t>profiles/Business Support.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Business Support</t>
+  </si>
+  <si>
+    <t>profiles/CPQ Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile CPQ Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter External User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter External User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Free User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Free User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Moderator User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Moderator User</t>
+  </si>
+  <si>
+    <t>profiles/Contract Manager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Contract Manager</t>
+  </si>
+  <si>
+    <t>profiles/ContractManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ContractManager</t>
+  </si>
+  <si>
+    <t>profiles/Customer Community Plus User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Customer Community Plus User</t>
+  </si>
+  <si>
+    <t>profiles/External Operator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile External Operator</t>
+  </si>
+  <si>
+    <t>profiles/Guest License User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Guest License User</t>
+  </si>
+  <si>
+    <t>profiles/Identity User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Identity User</t>
+  </si>
+  <si>
+    <t>profiles/Manager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Manager</t>
+  </si>
+  <si>
+    <t>profiles/MarketingProfile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile MarketingProfile</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - API Only Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - API Only Integrations</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - Salesforce.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - Salesforce</t>
+  </si>
+  <si>
+    <t>profiles/Operator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Operator</t>
+  </si>
+  <si>
+    <t>profiles/Partner Community User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Partner Community User</t>
+  </si>
+  <si>
+    <t>profiles/Read Only.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Read Only</t>
+  </si>
+  <si>
+    <t>profiles/Sales Insights Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Insights Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Salesforce API Only System Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Salesforce API Only System Integrations</t>
+  </si>
+  <si>
+    <t>profiles/SolutionManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile SolutionManager</t>
+  </si>
+  <si>
+    <t>profiles/Standard.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Standard</t>
   </si>
   <si>
     <t>settings/Search.settings-meta.xml</t>
@@ -91,19 +628,43 @@
     <t>Settings Search</t>
   </si>
   <si>
-    <t>sharingRules/DocumentRecipient.sharingRules-meta.xml</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>SharingRules DocumentRecipient</t>
-  </si>
-  <si>
-    <t>topicsForObjects/DocumentRecipient.topicsForObjects-meta.xml</t>
-  </si>
-  <si>
-    <t>TopicsForObjects DocumentRecipient</t>
+    <t>settings/UserManagement.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings UserManagement</t>
+  </si>
+  <si>
+    <t>sharingRules/ATAK_Project__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules ATAK_Project__c</t>
+  </si>
+  <si>
+    <t>tabs/ATAK_Project__c.tab-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomTab ATAK_Project__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/ATAK_Project__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects ATAK_Project__c</t>
+  </si>
+  <si>
+    <t>triggers/ServiceAppointmentTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger ServiceAppointmentTrigger</t>
+  </si>
+  <si>
+    <t>triggers/ServiceAppointmentTrigger.trigger-meta.xml</t>
+  </si>
+  <si>
+    <t>installedPackages/FSL.json</t>
+  </si>
+  <si>
+    <t>InstalledPackage FSL.json</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -486,12 +1047,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G108"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="69" customWidth="1"/>
+    <col min="1" max="1" width="109" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="3" max="3" width="84" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -604,14 +1165,11 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -622,16 +1180,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -685,10 +1240,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -699,13 +1254,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
+      <c r="D11" t="s">
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -716,16 +1274,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -738,19 +1293,1757 @@
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>146</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>160</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>170</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>176</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>182</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>186</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>204</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>206</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>208</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" t="s">
+        <v>210</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" t="s">
+        <v>212</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" t="s">
+        <v>214</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>216</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>217</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>218</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>218</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>219</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="252">
   <si>
     <t>File</t>
   </si>
@@ -49,16 +49,22 @@
     <t>📰</t>
   </si>
   <si>
-    <t>applications/Sales.app-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomApplication Sales</t>
-  </si>
-  <si>
-    <t>classes/GanttRoundPinAction.cls</t>
-  </si>
-  <si>
-    <t>ApexClass GanttRoundPinAction</t>
+    <t>classes/AddressSearchService.cls</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ApexClass AddressSearchService</t>
+  </si>
+  <si>
+    <t>classes/AddressSearchService.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ExportRecordsController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ExportRecordsController</t>
   </si>
   <si>
     <t>classes/MaintenancePlanService.cls</t>
@@ -67,12 +73,15 @@
     <t>ApexClass MaintenancePlanService</t>
   </si>
   <si>
+    <t>classes/ServiceAppointmentRescheduler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceAppointmentRescheduler</t>
+  </si>
+  <si>
     <t>classes/ServiceAppointmentTriggerHandler.cls</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>ApexClass ServiceAppointmentTriggerHandler</t>
   </si>
   <si>
@@ -85,40 +94,40 @@
     <t>ApexClass ServiceBuilderController</t>
   </si>
   <si>
+    <t>classes/ServiceBuilderWrapper.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceBuilderWrapper</t>
+  </si>
+  <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
   </si>
   <si>
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>duplicateRules/Account.Commercial_Account_Duplicate_Rule.duplicateRule-meta.xml</t>
-  </si>
-  <si>
-    <t>DuplicateRule Account.Commercial_Account_Duplicate_Rule</t>
-  </si>
-  <si>
-    <t>duplicateRules/Account.Standard_Account_Duplicate_Rule.duplicateRule-meta.xml</t>
-  </si>
-  <si>
-    <t>DuplicateRule Account.Standard_Account_Duplicate_Rule</t>
-  </si>
-  <si>
-    <t>flexipages/Commercial_Account_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Commercial_Account_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Financial_Account_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Financial_Account_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Operational_Account_Record_Page</t>
+    <t>cspTrustedSites/bpost.cspTrustedSite-meta.xml</t>
+  </si>
+  <si>
+    <t>CspTrustedSite bpost</t>
+  </si>
+  <si>
+    <t>customMetadata/Export_Configuration.ServiceContract.md-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomMetadata Export_Configuration.ServiceContract</t>
+  </si>
+  <si>
+    <t>flexipages/Asset_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Asset_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/LMRA_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage LMRA_Record_Page</t>
   </si>
   <si>
     <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
@@ -127,76 +136,58 @@
     <t>FlexiPage Service_Contract_Record_Page</t>
   </si>
   <si>
-    <t>flowDefinitions/Service_Appointment_After_Save_Record_Triggered_Set_Service_Territory.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Service_Appointment_After_Save_Record_Triggered_Set_Service_Territory</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue</t>
-  </si>
-  <si>
-    <t>flows/Service_Appointment_After_Save_Record_Triggered_Set_Service_Territory.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Service_Appointment_After_Save_Record_Triggered_Set_Service_Territory</t>
-  </si>
-  <si>
-    <t>flows/Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Scheduled_High_Prio_Work_Order_Overdue.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Scheduled_High_Prio_Work_Order_Overdue</t>
-  </si>
-  <si>
-    <t>groups/BURGGRAEVE_SIMON.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group BURGGRAEVE_SIMON</t>
-  </si>
-  <si>
-    <t>groups/HOMBROECKX_ARNE.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group HOMBROECKX_ARNE</t>
-  </si>
-  <si>
-    <t>groups/PLETINCKX_YENTL.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group PLETINCKX_YENTL</t>
-  </si>
-  <si>
-    <t>groups/VANDEWALLE_JIMMY.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group VANDEWALLE_JIMMY</t>
-  </si>
-  <si>
-    <t>groups/VERDONCK_DAVY.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group VERDONCK_DAVY</t>
-  </si>
-  <si>
-    <t>groups/VERSTRAETE_GAUTHIER.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group VERSTRAETE_GAUTHIER</t>
-  </si>
-  <si>
-    <t>groups/WANDELS_AURELIEN.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group WANDELS_AURELIEN</t>
+    <t>flexipages/Work_Plan_Template_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Work_Plan_Template_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/ATAK_Project_After_Save_Record_Triggered_Set_Territory_And_Owner.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition ATAK_Project_After_Save_Record_Triggered_Set_Territory_And_Owner</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
+  </si>
+  <si>
+    <t>flows/ATAK_Project_After_Save_Record_Triggered_Set_Territory_And_Owner.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow ATAK_Project_After_Save_Record_Triggered_Set_Territory_And_Owner</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
   </si>
   <si>
     <t>layouts/ATAK_Project__c-ATAK Project Layout.layout-meta.xml</t>
@@ -217,12 +208,36 @@
     <t>Layout Account-Financial Layout</t>
   </si>
   <si>
+    <t>layouts/Account-Operational Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Operational Layout</t>
+  </si>
+  <si>
     <t>layouts/Asset-Asset Layout.layout-meta.xml</t>
   </si>
   <si>
     <t>Layout Asset-Asset Layout</t>
   </si>
   <si>
+    <t>layouts/Contract-Contract Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Contract-Contract Layout</t>
+  </si>
+  <si>
+    <t>layouts/CspTrustedSite-Trusted URL Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout CspTrustedSite-Trusted URL Layout</t>
+  </si>
+  <si>
+    <t>layouts/LMRA__c-LMRA Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout LMRA__c-LMRA Layout</t>
+  </si>
+  <si>
     <t>layouts/ServiceAppointment-Service Appointment Layout.layout-meta.xml</t>
   </si>
   <si>
@@ -235,12 +250,24 @@
     <t>Layout ServiceContract-Service Contract Layout</t>
   </si>
   <si>
+    <t>layouts/ServiceResource-Service Resource Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceResource-Service Resource Layout</t>
+  </si>
+  <si>
     <t>layouts/ServiceTerritory-Service Territory Layout.layout-meta.xml</t>
   </si>
   <si>
     <t>Layout ServiceTerritory-Service Territory Layout</t>
   </si>
   <si>
+    <t>layouts/Service_Item__c-Service Item Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Service_Item__c-Service Item Layout</t>
+  </si>
+  <si>
     <t>layouts/User-User Layout.layout-meta.xml</t>
   </si>
   <si>
@@ -259,6 +286,36 @@
     <t>Layout WorkOrder-Work Order Layout</t>
   </si>
   <si>
+    <t>layouts/WorkOrderLineItem-Work Order Line Item Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkOrderLineItem-Work Order Line Item Layout</t>
+  </si>
+  <si>
+    <t>lwc/addressSearch/addressSearch.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle addressSearch/addressSearch.css</t>
+  </si>
+  <si>
+    <t>lwc/addressSearch/addressSearch.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle addressSearch/addressSearch.html</t>
+  </si>
+  <si>
+    <t>lwc/addressSearch/addressSearch.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle addressSearch/addressSearch.js</t>
+  </si>
+  <si>
+    <t>lwc/addressSearch/addressSearch.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle addressSearch/addressSearch.js-meta.xml</t>
+  </si>
+  <si>
     <t>lwc/contractLineEditor/contractLineEditor.html</t>
   </si>
   <si>
@@ -271,10 +328,28 @@
     <t>LightningComponentBundle contractLineEditor/contractLineEditor.js</t>
   </si>
   <si>
-    <t>lwc/contractLineEditor/contractLineEditor.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle contractLineEditor/contractLineEditor.js-meta.xml</t>
+    <t>lwc/exportRecords/exportRecords.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle exportRecords/exportRecords.js</t>
+  </si>
+  <si>
+    <t>lwc/generateMaintenancePlan/generateMaintenancePlan.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle generateMaintenancePlan/generateMaintenancePlan.html</t>
+  </si>
+  <si>
+    <t>lwc/generateMaintenancePlan/generateMaintenancePlan.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle generateMaintenancePlan/generateMaintenancePlan.js</t>
+  </si>
+  <si>
+    <t>lwc/generateMaintenancePlan/generateMaintenancePlan.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle generateMaintenancePlan/generateMaintenancePlan.js-meta.xml</t>
   </si>
   <si>
     <t>lwc/recurrencePattern/recurrencePattern.html</t>
@@ -289,6 +364,12 @@
     <t>LightningComponentBundle recurrencePattern/recurrencePattern.js</t>
   </si>
   <si>
+    <t>lwc/serviceBuilder/serviceBuilder.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle serviceBuilder/serviceBuilder.css</t>
+  </si>
+  <si>
     <t>lwc/serviceBuilder/serviceBuilder.html</t>
   </si>
   <si>
@@ -301,94 +382,28 @@
     <t>LightningComponentBundle serviceBuilder/serviceBuilder.js</t>
   </si>
   <si>
-    <t>matchingRules/Account.matchingRule-meta.xml</t>
-  </si>
-  <si>
-    <t>MatchingRules Account</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/ATAK_Project__c.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject ATAK_Project__c/ATAK_Project__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Cost_centre_Atak_Id__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Cost_centre_Atak_Id__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Cost_centre_Atak_Name__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Cost_centre_Atak_Name__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Department_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Department_Code__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Department_Name__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Department_Name__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Depot__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Depot__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Dossier__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Dossier__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/End_Date__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField End_Date__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Parent_Subproject__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Parent_Subproject__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Service_Territory__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Service_Territory__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Start_Date__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Start_Date__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/SubProject_ATAK__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField SubProject_ATAK__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Subproject_Description__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Subproject_Description__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Subproject_Name__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Subproject_Name__c</t>
+    <t>namedCredentials/Google_Places.namedCredential-meta.xml</t>
+  </si>
+  <si>
+    <t>NamedCredential Google_Places</t>
+  </si>
+  <si>
+    <t>namedCredentials/MapsAutocomplete.namedCredential-meta.xml</t>
+  </si>
+  <si>
+    <t>NamedCredential MapsAutocomplete</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Financial_Account__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Financial_Account__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Site_Manager_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Site_Manager_Code__c</t>
   </si>
   <si>
     <t>objects/ATAK_Project__c/listViews/All.listView-meta.xml</t>
@@ -397,10 +412,16 @@
     <t>ListView All</t>
   </si>
   <si>
-    <t>objects/Account/compactLayouts/Commercial_Account.compactLayout-meta.xml</t>
-  </si>
-  <si>
-    <t>CompactLayout Commercial_Account</t>
+    <t>objects/Account/fields/Client_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Client_Code__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Group__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Group__c</t>
   </si>
   <si>
     <t>objects/Account/recordTypes/Commercial_Account.recordType-meta.xml</t>
@@ -415,31 +436,85 @@
     <t>RecordType Financial_Account</t>
   </si>
   <si>
-    <t>objects/Asset/fields/ATAK_Project__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ATAK_Project__c</t>
-  </si>
-  <si>
-    <t>objects/Asset/fields/Service_Territory__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/Contract_Line_Financial_Account__c/fields/Financial_Customer__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Financial_Customer__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceAppointment/fields/Due_Date_in_the_Past__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Due_Date_in_the_Past__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceAppointment/fields/Overdue_Reminder_Send__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Overdue_Reminder_Send__c</t>
+    <t>objects/Account/recordTypes/Operational_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Operational_Account</t>
+  </si>
+  <si>
+    <t>objects/LMRA__c/LMRA__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject LMRA__c/LMRA__c</t>
+  </si>
+  <si>
+    <t>objects/LMRA__c/fields/Corrective_Measures__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Corrective_Measures__c</t>
+  </si>
+  <si>
+    <t>objects/LMRA__c/fields/Date__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Date__c</t>
+  </si>
+  <si>
+    <t>objects/LMRA__c/fields/EPC_EPI_CBM_PBM__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField EPC_EPI_CBM_PBM__c</t>
+  </si>
+  <si>
+    <t>objects/LMRA__c/fields/LMRA_Ok__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LMRA_Ok__c</t>
+  </si>
+  <si>
+    <t>objects/LMRA__c/fields/LMRA_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LMRA_Type__c</t>
+  </si>
+  <si>
+    <t>objects/LMRA__c/fields/Surrounding_Risks__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Surrounding_Risks__c</t>
+  </si>
+  <si>
+    <t>objects/LMRA__c/fields/Tasks_of_the_Day__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Tasks_of_the_Day__c</t>
+  </si>
+  <si>
+    <t>objects/LMRA__c/fields/Work_Order__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Work_Order__c</t>
+  </si>
+  <si>
+    <t>objects/LMRA__c/listViews/All.listView-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Appointment_List_Columns.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Service_Appointment_List_Columns</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/Asset__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Asset__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Check_In_Work__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Check_In_Work__c</t>
   </si>
   <si>
     <t>objects/ServiceContract/fields/Location_Type__c.field-meta.xml</t>
@@ -448,28 +523,52 @@
     <t>CustomField Location_Type__c</t>
   </si>
   <si>
-    <t>objects/User/fields/ATAK_Id__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ATAK_Id__c</t>
-  </si>
-  <si>
-    <t>permissionsets/sfdcInternalInt__sfdc_fieldservice.permissionset-meta.xml</t>
-  </si>
-  <si>
-    <t>PermissionSet sfdcInternalInt__sfdc_fieldservice</t>
-  </si>
-  <si>
-    <t>profilePasswordPolicies/Contract_Manager_profilePasswordPolicy1730106625061.profilePasswordPolicy-meta.xml</t>
-  </si>
-  <si>
-    <t>ProfilePasswordPolicy Contract_Manager_profilePasswordPolicy1730106625061</t>
-  </si>
-  <si>
-    <t>profileSessionSettings/null_profileSessionSetting1730106625079.profileSessionSetting-meta.xml</t>
-  </si>
-  <si>
-    <t>ProfileSessionSetting null_profileSessionSetting1730106625079</t>
+    <t>objects/ServiceTerritory/fields/Main_Responsible__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Main_Responsible__c</t>
+  </si>
+  <si>
+    <t>objects/Service_Item__c/fields/Service_Item_Key__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Item_Key__c</t>
+  </si>
+  <si>
+    <t>objects/User/fields/ATAK_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ATAK_Code__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Shop_Visit_Date__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Shop_Visit_Date__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Shop_Visit_Duration__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Shop_Visit_Duration__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Shop_Visit_End_Time__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Shop_Visit_End_Time__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Shop_Visit_Reviewed_Approved__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Shop_Visit_Reviewed_Approved__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Shop_Visit_Start_Time__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Shop_Visit_Start_Time__c</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -622,49 +721,46 @@
     <t>Profile Standard</t>
   </si>
   <si>
+    <t>quickActions/ServiceContract.Generate_Maintenance_Plan.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction ServiceContract.Generate_Maintenance_Plan</t>
+  </si>
+  <si>
+    <t>remoteSiteSettings/bpost.remoteSite-meta.xml</t>
+  </si>
+  <si>
+    <t>RemoteSiteSetting bpost</t>
+  </si>
+  <si>
     <t>settings/Search.settings-meta.xml</t>
   </si>
   <si>
     <t>Settings Search</t>
   </si>
   <si>
-    <t>settings/UserManagement.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings UserManagement</t>
-  </si>
-  <si>
-    <t>sharingRules/ATAK_Project__c.sharingRules-meta.xml</t>
-  </si>
-  <si>
-    <t>SharingRules ATAK_Project__c</t>
-  </si>
-  <si>
-    <t>tabs/ATAK_Project__c.tab-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomTab ATAK_Project__c</t>
-  </si>
-  <si>
-    <t>topicsForObjects/ATAK_Project__c.topicsForObjects-meta.xml</t>
-  </si>
-  <si>
-    <t>TopicsForObjects ATAK_Project__c</t>
+    <t>sharingRules/LMRA__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules LMRA__c</t>
+  </si>
+  <si>
+    <t>tabs/LMRA__c.tab-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomTab LMRA__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/LMRA__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects LMRA__c</t>
   </si>
   <si>
     <t>triggers/ServiceAppointmentTrigger.trigger</t>
   </si>
   <si>
     <t>ApexTrigger ServiceAppointmentTrigger</t>
-  </si>
-  <si>
-    <t>triggers/ServiceAppointmentTrigger.trigger-meta.xml</t>
-  </si>
-  <si>
-    <t>installedPackages/FSL.json</t>
-  </si>
-  <si>
-    <t>InstalledPackage FSL.json</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -1047,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G124"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="109" customWidth="1"/>
+    <col min="1" max="1" width="104" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="84" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
@@ -1105,14 +1201,11 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1123,16 +1216,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1165,11 +1255,14 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1180,13 +1273,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1223,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1237,13 +1333,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
+      <c r="D10" t="s">
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1254,13 +1353,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1274,13 +1373,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
+      <c r="D12" t="s">
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1291,13 +1393,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1308,13 +1410,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
+      <c r="D14" t="s">
+        <v>9</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1325,13 +1430,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>36</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1345,13 +1450,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1362,13 +1467,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
+      <c r="D17" t="s">
+        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1379,13 +1487,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1396,13 +1504,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1413,16 +1521,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
         <v>46</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1433,13 +1538,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
+      <c r="D21" t="s">
+        <v>9</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1450,13 +1558,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1467,13 +1575,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1484,13 +1592,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1501,13 +1609,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
+      <c r="D25" t="s">
+        <v>9</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1518,13 +1629,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1535,13 +1646,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
+      <c r="D27" t="s">
+        <v>9</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1552,13 +1666,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
+      <c r="D28" t="s">
+        <v>9</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1569,13 +1686,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
         <v>64</v>
       </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
+      <c r="D29" t="s">
+        <v>9</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1586,13 +1706,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>66</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1606,13 +1726,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
         <v>68</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1626,13 +1746,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
         <v>70</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1646,16 +1766,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
         <v>72</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1666,16 +1783,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
         <v>74</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1686,13 +1800,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
         <v>76</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>77</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1706,13 +1820,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
         <v>78</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -1726,13 +1840,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
         <v>80</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>81</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1746,13 +1860,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
         <v>82</v>
       </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" t="s">
-        <v>83</v>
+      <c r="D38" t="s">
+        <v>9</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1763,13 +1880,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s">
-        <v>85</v>
+      <c r="D39" t="s">
+        <v>9</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1780,13 +1900,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
         <v>86</v>
       </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" t="s">
-        <v>87</v>
+      <c r="D40" t="s">
+        <v>9</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1797,13 +1920,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
         <v>88</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>89</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1817,13 +1940,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
         <v>90</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -1837,13 +1960,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
         <v>92</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>93</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1857,16 +1980,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
         <v>94</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1877,16 +1997,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
         <v>96</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1897,13 +2014,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
         <v>98</v>
-      </c>
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" t="s">
-        <v>99</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -1914,13 +2031,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
         <v>100</v>
-      </c>
-      <c r="B47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" t="s">
-        <v>101</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -1931,13 +2048,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
         <v>102</v>
       </c>
-      <c r="B48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" t="s">
-        <v>103</v>
+      <c r="D48" t="s">
+        <v>9</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -1948,13 +2068,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
         <v>104</v>
       </c>
-      <c r="B49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" t="s">
-        <v>105</v>
+      <c r="D49" t="s">
+        <v>9</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -1965,13 +2088,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
         <v>106</v>
       </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s">
-        <v>107</v>
+      <c r="D50" t="s">
+        <v>9</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -1982,13 +2108,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
         <v>108</v>
-      </c>
-      <c r="B51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" t="s">
-        <v>109</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -1999,13 +2125,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
         <v>110</v>
-      </c>
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" t="s">
-        <v>111</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -2016,13 +2142,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
         <v>112</v>
-      </c>
-      <c r="B53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" t="s">
-        <v>113</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2033,13 +2159,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
         <v>114</v>
       </c>
-      <c r="B54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" t="s">
-        <v>115</v>
+      <c r="D54" t="s">
+        <v>9</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2050,13 +2179,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
         <v>116</v>
       </c>
-      <c r="B55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" t="s">
-        <v>117</v>
+      <c r="D55" t="s">
+        <v>9</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2067,13 +2199,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
         <v>118</v>
       </c>
-      <c r="B56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" t="s">
-        <v>119</v>
+      <c r="D56" t="s">
+        <v>9</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2084,13 +2219,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
         <v>120</v>
       </c>
-      <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" t="s">
-        <v>121</v>
+      <c r="D57" t="s">
+        <v>9</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2101,13 +2239,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
         <v>122</v>
       </c>
-      <c r="B58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" t="s">
-        <v>123</v>
+      <c r="D58" t="s">
+        <v>9</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2118,13 +2259,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
         <v>124</v>
-      </c>
-      <c r="B59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" t="s">
-        <v>125</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2135,13 +2276,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
         <v>126</v>
-      </c>
-      <c r="B60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" t="s">
-        <v>127</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2152,13 +2293,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
         <v>128</v>
-      </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" t="s">
-        <v>129</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -2169,13 +2310,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
         <v>130</v>
-      </c>
-      <c r="B62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" t="s">
-        <v>131</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2186,13 +2327,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
         <v>132</v>
       </c>
-      <c r="B63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" t="s">
-        <v>133</v>
+      <c r="D63" t="s">
+        <v>9</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2203,13 +2347,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
         <v>134</v>
       </c>
-      <c r="B64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" t="s">
-        <v>135</v>
+      <c r="D64" t="s">
+        <v>9</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2220,13 +2367,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
         <v>136</v>
       </c>
-      <c r="B65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" t="s">
-        <v>117</v>
+      <c r="D65" t="s">
+        <v>9</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2259,11 +2409,14 @@
       <c r="A67" t="s">
         <v>139</v>
       </c>
-      <c r="B67" t="s">
-        <v>19</v>
+      <c r="B67">
+        <v>0</v>
       </c>
       <c r="C67" t="s">
         <v>140</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2276,11 +2429,14 @@
       <c r="A68" t="s">
         <v>141</v>
       </c>
-      <c r="B68" t="s">
-        <v>19</v>
+      <c r="B68">
+        <v>0</v>
       </c>
       <c r="C68" t="s">
         <v>142</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2294,7 +2450,7 @@
         <v>143</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
         <v>144</v>
@@ -2311,7 +2467,7 @@
         <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
         <v>146</v>
@@ -2327,14 +2483,11 @@
       <c r="A71" t="s">
         <v>147</v>
       </c>
-      <c r="B71">
-        <v>0</v>
+      <c r="B71" t="s">
+        <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>148</v>
-      </c>
-      <c r="D71" t="s">
-        <v>9</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2348,7 +2501,7 @@
         <v>149</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
         <v>150</v>
@@ -2365,7 +2518,7 @@
         <v>151</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
         <v>152</v>
@@ -2381,14 +2534,11 @@
       <c r="A74" t="s">
         <v>153</v>
       </c>
-      <c r="B74">
-        <v>0</v>
+      <c r="B74" t="s">
+        <v>13</v>
       </c>
       <c r="C74" t="s">
         <v>154</v>
-      </c>
-      <c r="D74" t="s">
-        <v>9</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2401,14 +2551,11 @@
       <c r="A75" t="s">
         <v>155</v>
       </c>
-      <c r="B75">
-        <v>0</v>
+      <c r="B75" t="s">
+        <v>13</v>
       </c>
       <c r="C75" t="s">
         <v>156</v>
-      </c>
-      <c r="D75" t="s">
-        <v>9</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2421,14 +2568,11 @@
       <c r="A76" t="s">
         <v>157</v>
       </c>
-      <c r="B76">
-        <v>0</v>
+      <c r="B76" t="s">
+        <v>13</v>
       </c>
       <c r="C76" t="s">
         <v>158</v>
-      </c>
-      <c r="D76" t="s">
-        <v>9</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2442,7 +2586,7 @@
         <v>159</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
         <v>160</v>
@@ -2458,14 +2602,11 @@
       <c r="A78" t="s">
         <v>161</v>
       </c>
-      <c r="B78">
-        <v>0</v>
+      <c r="B78" t="s">
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D78" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2476,13 +2617,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
         <v>163</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -2496,16 +2637,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
         <v>165</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
-        <v>166</v>
-      </c>
-      <c r="D80" t="s">
-        <v>9</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -2516,13 +2654,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
         <v>167</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81" t="s">
-        <v>168</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -2536,13 +2674,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
         <v>169</v>
       </c>
-      <c r="B82" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" t="s">
-        <v>170</v>
+      <c r="D82" t="s">
+        <v>9</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -2553,16 +2694,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
         <v>171</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83" t="s">
-        <v>172</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -2573,16 +2711,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
         <v>173</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84" t="s">
-        <v>174</v>
-      </c>
-      <c r="D84" t="s">
-        <v>9</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -2593,13 +2728,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
         <v>175</v>
-      </c>
-      <c r="B85" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" t="s">
-        <v>176</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -2610,16 +2745,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
         <v>177</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86" t="s">
-        <v>178</v>
-      </c>
-      <c r="D86" t="s">
-        <v>9</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -2630,16 +2762,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
         <v>179</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87" t="s">
-        <v>180</v>
-      </c>
-      <c r="D87" t="s">
-        <v>9</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -2650,13 +2779,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
         <v>181</v>
-      </c>
-      <c r="B88" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" t="s">
-        <v>182</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -2667,16 +2796,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
         <v>183</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89" t="s">
-        <v>184</v>
-      </c>
-      <c r="D89" t="s">
-        <v>9</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -2687,16 +2813,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
         <v>185</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>186</v>
-      </c>
-      <c r="D90" t="s">
-        <v>9</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -2707,13 +2830,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
         <v>187</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>188</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2727,13 +2850,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
         <v>189</v>
       </c>
-      <c r="B92" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" t="s">
-        <v>190</v>
+      <c r="D92" t="s">
+        <v>9</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -2744,13 +2870,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
         <v>191</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93" t="s">
-        <v>192</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -2764,13 +2890,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
         <v>193</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94" t="s">
-        <v>194</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2784,13 +2910,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
         <v>195</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>196</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -2804,13 +2930,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
         <v>197</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>198</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -2824,13 +2950,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
         <v>199</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97" t="s">
-        <v>200</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
@@ -2844,13 +2970,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
         <v>201</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98" t="s">
-        <v>202</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -2864,13 +2990,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
         <v>203</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99" t="s">
-        <v>204</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
@@ -2884,13 +3010,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
         <v>205</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100" t="s">
-        <v>206</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -2904,13 +3030,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
         <v>207</v>
       </c>
-      <c r="B101" t="s">
-        <v>19</v>
-      </c>
-      <c r="C101" t="s">
-        <v>208</v>
+      <c r="D101" t="s">
+        <v>9</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
@@ -2921,13 +3050,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
         <v>209</v>
       </c>
-      <c r="B102" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102" t="s">
-        <v>210</v>
+      <c r="D102" t="s">
+        <v>9</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -2938,13 +3070,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
         <v>211</v>
       </c>
-      <c r="B103" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" t="s">
-        <v>212</v>
+      <c r="D103" t="s">
+        <v>9</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
@@ -2955,13 +3090,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
         <v>213</v>
       </c>
-      <c r="B104" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" t="s">
-        <v>214</v>
+      <c r="D104" t="s">
+        <v>9</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
@@ -2972,13 +3110,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
         <v>215</v>
       </c>
-      <c r="B105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" t="s">
-        <v>214</v>
+      <c r="D105" t="s">
+        <v>9</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
@@ -3015,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -3029,13 +3170,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
@@ -3044,6 +3185,311 @@
         <v>10</v>
       </c>
       <c r="G108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>222</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>223</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>224</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>225</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>226</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>227</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>228</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>229</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>230</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>231</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>232</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>233</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>234</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>235</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>236</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>237</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>239</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>241</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>243</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>244</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>245</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>246</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>247</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>248</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>249</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>250</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>250</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>251</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>251</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="231">
   <si>
     <t>File</t>
   </si>
@@ -34,10 +34,10 @@
     <t>severityIcon</t>
   </si>
   <si>
-    <t>applications/Krinkels_Field_Service.app-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomApplication Krinkels_Field_Service</t>
+    <t>classes/MaintenancePlanService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MaintenancePlanService</t>
   </si>
   <si>
     <t>M</t>
@@ -49,34 +49,16 @@
     <t>📰</t>
   </si>
   <si>
-    <t>classes/AddressSearchService.cls</t>
+    <t>classes/SchedulingController.cls</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>ApexClass AddressSearchService</t>
-  </si>
-  <si>
-    <t>classes/AddressSearchService.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ExportRecordsController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ExportRecordsController</t>
-  </si>
-  <si>
-    <t>classes/MaintenancePlanService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MaintenancePlanService</t>
-  </si>
-  <si>
-    <t>classes/ServiceAppointmentRescheduler.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceAppointmentRescheduler</t>
+    <t>ApexClass SchedulingController</t>
+  </si>
+  <si>
+    <t>classes/SchedulingController.cls-meta.xml</t>
   </si>
   <si>
     <t>classes/ServiceAppointmentTriggerHandler.cls</t>
@@ -85,49 +67,46 @@
     <t>ApexClass ServiceAppointmentTriggerHandler</t>
   </si>
   <si>
-    <t>classes/ServiceAppointmentTriggerHandler.cls-meta.xml</t>
-  </si>
-  <si>
     <t>classes/ServiceBuilderController.cls</t>
   </si>
   <si>
     <t>ApexClass ServiceBuilderController</t>
   </si>
   <si>
-    <t>classes/ServiceBuilderWrapper.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceBuilderWrapper</t>
-  </si>
-  <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
   </si>
   <si>
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>cspTrustedSites/bpost.cspTrustedSite-meta.xml</t>
-  </si>
-  <si>
-    <t>CspTrustedSite bpost</t>
-  </si>
-  <si>
-    <t>customMetadata/Export_Configuration.ServiceContract.md-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomMetadata Export_Configuration.ServiceContract</t>
-  </si>
-  <si>
-    <t>flexipages/Asset_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Asset_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/LMRA_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage LMRA_Record_Page</t>
+    <t>flexipages/ATAK_Project_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage ATAK_Project_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Asset_Scheduler.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Asset_Scheduler</t>
+  </si>
+  <si>
+    <t>flexipages/Commercial_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Commercial_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Location_Visit_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Location_Visit_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Service_Appointment_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Service_Appointment_Record_Page</t>
   </si>
   <si>
     <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
@@ -136,58 +115,70 @@
     <t>FlexiPage Service_Contract_Record_Page</t>
   </si>
   <si>
-    <t>flexipages/Work_Plan_Template_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Work_Plan_Template_Record_Page</t>
-  </si>
-  <si>
-    <t>flowDefinitions/ATAK_Project_After_Save_Record_Triggered_Set_Territory_And_Owner.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition ATAK_Project_After_Save_Record_Triggered_Set_Territory_And_Owner</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
-  </si>
-  <si>
-    <t>flows/ATAK_Project_After_Save_Record_Triggered_Set_Territory_And_Owner.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow ATAK_Project_After_Save_Record_Triggered_Set_Territory_And_Owner</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
+    <t>flowDefinitions/ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_contract_Scheduled_Contract_Renewal_Reminder.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_contract_Scheduled_Contract_Renewal_Reminder</t>
+  </si>
+  <si>
+    <t>flows/ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention</t>
+  </si>
+  <si>
+    <t>flows/Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue</t>
+  </si>
+  <si>
+    <t>flows/Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication</t>
+  </si>
+  <si>
+    <t>flows/Service_contract_Scheduled_Contract_Renewal_Reminder.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_contract_Scheduled_Contract_Renewal_Reminder</t>
+  </si>
+  <si>
+    <t>groups/Charleroi.group-meta.xml</t>
+  </si>
+  <si>
+    <t>Group Charleroi</t>
+  </si>
+  <si>
+    <t>groups/Liege.group-meta.xml</t>
+  </si>
+  <si>
+    <t>Group Liege</t>
+  </si>
+  <si>
+    <t>groups/Phillippeville.group-meta.xml</t>
+  </si>
+  <si>
+    <t>Group Phillippeville</t>
   </si>
   <si>
     <t>layouts/ATAK_Project__c-ATAK Project Layout.layout-meta.xml</t>
@@ -202,40 +193,22 @@
     <t>Layout Account-Commercial Layout</t>
   </si>
   <si>
-    <t>layouts/Account-Financial Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-Financial Layout</t>
-  </si>
-  <si>
     <t>layouts/Account-Operational Layout.layout-meta.xml</t>
   </si>
   <si>
     <t>Layout Account-Operational Layout</t>
   </si>
   <si>
-    <t>layouts/Asset-Asset Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Asset-Asset Layout</t>
-  </si>
-  <si>
-    <t>layouts/Contract-Contract Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Contract-Contract Layout</t>
-  </si>
-  <si>
-    <t>layouts/CspTrustedSite-Trusted URL Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout CspTrustedSite-Trusted URL Layout</t>
-  </si>
-  <si>
-    <t>layouts/LMRA__c-LMRA Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout LMRA__c-LMRA Layout</t>
+    <t>layouts/Location_Visit__c-Location Visit Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Location_Visit__c-Location Visit Layout</t>
+  </si>
+  <si>
+    <t>layouts/Opportunity-Opportunity Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Opportunity-Opportunity Layout</t>
   </si>
   <si>
     <t>layouts/ServiceAppointment-Service Appointment Layout.layout-meta.xml</t>
@@ -262,106 +235,52 @@
     <t>Layout ServiceTerritory-Service Territory Layout</t>
   </si>
   <si>
-    <t>layouts/Service_Item__c-Service Item Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Service_Item__c-Service Item Layout</t>
-  </si>
-  <si>
-    <t>layouts/User-User Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout User-User Layout</t>
-  </si>
-  <si>
-    <t>layouts/UserAlt-User Profile Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout UserAlt-User Profile Layout</t>
-  </si>
-  <si>
-    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkOrder-Work Order Layout</t>
-  </si>
-  <si>
-    <t>layouts/WorkOrderLineItem-Work Order Line Item Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkOrderLineItem-Work Order Line Item Layout</t>
-  </si>
-  <si>
-    <t>lwc/addressSearch/addressSearch.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle addressSearch/addressSearch.css</t>
-  </si>
-  <si>
-    <t>lwc/addressSearch/addressSearch.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle addressSearch/addressSearch.html</t>
-  </si>
-  <si>
-    <t>lwc/addressSearch/addressSearch.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle addressSearch/addressSearch.js</t>
-  </si>
-  <si>
-    <t>lwc/addressSearch/addressSearch.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle addressSearch/addressSearch.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/contractLineEditor/contractLineEditor.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle contractLineEditor/contractLineEditor.html</t>
-  </si>
-  <si>
     <t>lwc/contractLineEditor/contractLineEditor.js</t>
   </si>
   <si>
     <t>LightningComponentBundle contractLineEditor/contractLineEditor.js</t>
   </si>
   <si>
-    <t>lwc/exportRecords/exportRecords.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle exportRecords/exportRecords.js</t>
-  </si>
-  <si>
-    <t>lwc/generateMaintenancePlan/generateMaintenancePlan.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle generateMaintenancePlan/generateMaintenancePlan.html</t>
-  </si>
-  <si>
-    <t>lwc/generateMaintenancePlan/generateMaintenancePlan.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle generateMaintenancePlan/generateMaintenancePlan.js</t>
-  </si>
-  <si>
-    <t>lwc/generateMaintenancePlan/generateMaintenancePlan.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle generateMaintenancePlan/generateMaintenancePlan.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/recurrencePattern/recurrencePattern.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle recurrencePattern/recurrencePattern.html</t>
-  </si>
-  <si>
-    <t>lwc/recurrencePattern/recurrencePattern.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle recurrencePattern/recurrencePattern.js</t>
+    <t>lwc/resourceCalendar/resourceCalendar.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle resourceCalendar/resourceCalendar.css</t>
+  </si>
+  <si>
+    <t>lwc/resourceCalendar/resourceCalendar.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle resourceCalendar/resourceCalendar.html</t>
+  </si>
+  <si>
+    <t>lwc/resourceCalendar/resourceCalendar.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle resourceCalendar/resourceCalendar.js</t>
+  </si>
+  <si>
+    <t>lwc/resourceCalendar/resourceCalendar.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle resourceCalendar/resourceCalendar.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/roundDispatcher/roundDispatcher.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle roundDispatcher/roundDispatcher.html</t>
+  </si>
+  <si>
+    <t>lwc/roundDispatcher/roundDispatcher.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle roundDispatcher/roundDispatcher.js</t>
+  </si>
+  <si>
+    <t>lwc/roundDispatcher/roundDispatcher.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle roundDispatcher/roundDispatcher.js-meta.xml</t>
   </si>
   <si>
     <t>lwc/serviceBuilder/serviceBuilder.css</t>
@@ -382,193 +301,193 @@
     <t>LightningComponentBundle serviceBuilder/serviceBuilder.js</t>
   </si>
   <si>
-    <t>namedCredentials/Google_Places.namedCredential-meta.xml</t>
-  </si>
-  <si>
-    <t>NamedCredential Google_Places</t>
-  </si>
-  <si>
-    <t>namedCredentials/MapsAutocomplete.namedCredential-meta.xml</t>
-  </si>
-  <si>
-    <t>NamedCredential MapsAutocomplete</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Financial_Account__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Financial_Account__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Site_Manager_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Site_Manager_Code__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/listViews/All.listView-meta.xml</t>
+    <t>lwc/servicesToSchedule/dragStateUtil.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle servicesToSchedule/dragStateUtil.js</t>
+  </si>
+  <si>
+    <t>lwc/servicesToSchedule/servicesToSchedule.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle servicesToSchedule/servicesToSchedule.css</t>
+  </si>
+  <si>
+    <t>lwc/servicesToSchedule/servicesToSchedule.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle servicesToSchedule/servicesToSchedule.html</t>
+  </si>
+  <si>
+    <t>lwc/servicesToSchedule/servicesToSchedule.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle servicesToSchedule/servicesToSchedule.js</t>
+  </si>
+  <si>
+    <t>lwc/servicesToSchedule/servicesToSchedule.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle servicesToSchedule/servicesToSchedule.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/simpleDispatcherConsole/simpleDispatcherConsole.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle simpleDispatcherConsole/simpleDispatcherConsole.css</t>
+  </si>
+  <si>
+    <t>lwc/simpleDispatcherConsole/simpleDispatcherConsole.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle simpleDispatcherConsole/simpleDispatcherConsole.html</t>
+  </si>
+  <si>
+    <t>lwc/simpleDispatcherConsole/simpleDispatcherConsole.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle simpleDispatcherConsole/simpleDispatcherConsole.js</t>
+  </si>
+  <si>
+    <t>lwc/simpleDispatcherConsole/simpleDispatcherConsole.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle simpleDispatcherConsole/simpleDispatcherConsole.js-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/ATAK_Project__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject ATAK_Project__c/ATAK_Project__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/Location_Visit__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Location_Visit__c/Location_Visit__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/compactLayouts/Location_Visit.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Location_Visit</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Commercial_Account__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Commercial_Account__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Operational_Account__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Operational_Account__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Opportunity__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Opportunity__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Service_Appointment__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Appointment__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Type__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Visit_Date__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Visit_Date__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Visit_Notes__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Visit_Notes__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/listViews/All.listView-meta.xml</t>
   </si>
   <si>
     <t>ListView All</t>
   </si>
   <si>
-    <t>objects/Account/fields/Client_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Client_Code__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Group__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Group__c</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Commercial_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Commercial_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Financial_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Financial_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Operational_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Operational_Account</t>
-  </si>
-  <si>
-    <t>objects/LMRA__c/LMRA__c.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject LMRA__c/LMRA__c</t>
-  </si>
-  <si>
-    <t>objects/LMRA__c/fields/Corrective_Measures__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Corrective_Measures__c</t>
-  </si>
-  <si>
-    <t>objects/LMRA__c/fields/Date__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Date__c</t>
-  </si>
-  <si>
-    <t>objects/LMRA__c/fields/EPC_EPI_CBM_PBM__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField EPC_EPI_CBM_PBM__c</t>
-  </si>
-  <si>
-    <t>objects/LMRA__c/fields/LMRA_Ok__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField LMRA_Ok__c</t>
-  </si>
-  <si>
-    <t>objects/LMRA__c/fields/LMRA_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField LMRA_Type__c</t>
-  </si>
-  <si>
-    <t>objects/LMRA__c/fields/Surrounding_Risks__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Surrounding_Risks__c</t>
-  </si>
-  <si>
-    <t>objects/LMRA__c/fields/Tasks_of_the_Day__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Tasks_of_the_Day__c</t>
-  </si>
-  <si>
-    <t>objects/LMRA__c/fields/Work_Order__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Work_Order__c</t>
-  </si>
-  <si>
-    <t>objects/LMRA__c/listViews/All.listView-meta.xml</t>
-  </si>
-  <si>
     <t>objects/ServiceAppointment/fieldSets/FSL__Service_Appointment_List_Columns.fieldSet-meta.xml</t>
   </si>
   <si>
     <t>FieldSet FSL__Service_Appointment_List_Columns</t>
   </si>
   <si>
-    <t>objects/ServiceAppointment/fields/Asset__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Asset__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Check_In_Work__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Check_In_Work__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Location_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Location_Type__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceTerritory/fields/Main_Responsible__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Main_Responsible__c</t>
-  </si>
-  <si>
-    <t>objects/Service_Item__c/fields/Service_Item_Key__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Service_Item_Key__c</t>
-  </si>
-  <si>
-    <t>objects/User/fields/ATAK_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ATAK_Code__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Shop_Visit_Date__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Shop_Visit_Date__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Shop_Visit_Duration__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Shop_Visit_Duration__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Shop_Visit_End_Time__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Shop_Visit_End_Time__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Shop_Visit_Reviewed_Approved__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Shop_Visit_Reviewed_Approved__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Shop_Visit_Start_Time__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Shop_Visit_Start_Time__c</t>
+    <t>objects/ServiceContract/compactLayouts/Service_Contract.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Service_Contract</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Accepted__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Accepted__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Allocation_Key__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Allocation_Key__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Checkin_work__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Checkin_work__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Payment_Conditions__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Payment_Conditions__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Renewal_Reminder_Needed__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Renewal_Reminder_Needed__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>platformEventChannelMembers/SchedulingEntitiesModifiedAttributesChannel_FSL_Optimization_Request_ChangeEvent.platformEventChannelMember-meta.xml</t>
+  </si>
+  <si>
+    <t>PlatformEventChannelMember SchedulingEntitiesModifiedAttributesChannel_FSL_Optimization_Request_ChangeEvent</t>
+  </si>
+  <si>
+    <t>platformEventChannelMembers/SchedulingEntitiesModifiedAttributesChannel_FSL_Time_Dependency_ChangeEvent.platformEventChannelMember-meta.xml</t>
+  </si>
+  <si>
+    <t>PlatformEventChannelMember SchedulingEntitiesModifiedAttributesChannel_FSL_Time_Dependency_ChangeEvent</t>
+  </si>
+  <si>
+    <t>profilePasswordPolicies/Contract_Manager_profilePasswordPolicy1730106625061.profilePasswordPolicy-meta.xml</t>
+  </si>
+  <si>
+    <t>ProfilePasswordPolicy Contract_Manager_profilePasswordPolicy1730106625061</t>
+  </si>
+  <si>
+    <t>profileSessionSettings/null_profileSessionSetting1730106625079.profileSessionSetting-meta.xml</t>
+  </si>
+  <si>
+    <t>ProfileSessionSetting null_profileSessionSetting1730106625079</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -619,10 +538,10 @@
     <t>Profile Chatter Moderator User</t>
   </si>
   <si>
-    <t>profiles/Contract Manager.profile-meta.xml</t>
-  </si>
-  <si>
-    <t>Profile Contract Manager</t>
+    <t>profiles/Contract Manager %28custom%29.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Contract Manager %28custom%29</t>
   </si>
   <si>
     <t>profiles/ContractManager.profile-meta.xml</t>
@@ -721,16 +640,34 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>quickActions/ServiceContract.Generate_Maintenance_Plan.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction ServiceContract.Generate_Maintenance_Plan</t>
-  </si>
-  <si>
-    <t>remoteSiteSettings/bpost.remoteSite-meta.xml</t>
-  </si>
-  <si>
-    <t>RemoteSiteSetting bpost</t>
+    <t>quickActions/Quote.SendEmail.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction Quote.SendEmail</t>
+  </si>
+  <si>
+    <t>quickActions/ServiceAppointment.SendEmail.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction ServiceAppointment.SendEmail</t>
+  </si>
+  <si>
+    <t>quickActions/WorkOrder.SendEmail.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkOrder.SendEmail</t>
+  </si>
+  <si>
+    <t>quickActions/WorkOrderLineItem.SendEmail.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkOrderLineItem.SendEmail</t>
+  </si>
+  <si>
+    <t>settings/EmailAdministration.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings EmailAdministration</t>
   </si>
   <si>
     <t>settings/Search.settings-meta.xml</t>
@@ -739,28 +676,28 @@
     <t>Settings Search</t>
   </si>
   <si>
-    <t>sharingRules/LMRA__c.sharingRules-meta.xml</t>
-  </si>
-  <si>
-    <t>SharingRules LMRA__c</t>
-  </si>
-  <si>
-    <t>tabs/LMRA__c.tab-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomTab LMRA__c</t>
-  </si>
-  <si>
-    <t>topicsForObjects/LMRA__c.topicsForObjects-meta.xml</t>
-  </si>
-  <si>
-    <t>TopicsForObjects LMRA__c</t>
-  </si>
-  <si>
-    <t>triggers/ServiceAppointmentTrigger.trigger</t>
-  </si>
-  <si>
-    <t>ApexTrigger ServiceAppointmentTrigger</t>
+    <t>sharingRules/Location_Visit__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules Location_Visit__c</t>
+  </si>
+  <si>
+    <t>tabs/Asset_Scheduler.tab-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomTab Asset_Scheduler</t>
+  </si>
+  <si>
+    <t>tabs/Location_Visit__c.tab-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomTab Location_Visit__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/Location_Visit__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects Location_Visit__c</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -1143,12 +1080,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G113"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="104" customWidth="1"/>
+    <col min="1" max="1" width="144" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="84" customWidth="1"/>
+    <col min="3" max="3" width="107" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -1295,14 +1232,11 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1315,14 +1249,11 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1333,13 +1264,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1353,16 +1284,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1373,13 +1301,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1393,13 +1321,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1410,16 +1341,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1430,13 +1358,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1450,13 +1378,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1467,16 +1398,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1487,13 +1415,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1504,13 +1432,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1521,13 +1452,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1538,16 +1472,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1558,13 +1489,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1575,13 +1506,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1592,13 +1523,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1609,13 +1540,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1629,13 +1560,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1646,13 +1580,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1666,16 +1600,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1686,13 +1617,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -1706,13 +1637,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1726,13 +1657,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1746,13 +1677,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1766,13 +1697,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
+        <v>72</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1783,13 +1717,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
+        <v>74</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1800,16 +1737,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1820,16 +1754,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1840,16 +1771,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1860,16 +1788,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1880,16 +1805,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1900,16 +1822,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1920,16 +1839,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1940,13 +1856,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -1960,13 +1876,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1980,13 +1896,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
+        <v>94</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1997,13 +1916,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2014,13 +1933,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -2031,13 +1950,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -2048,16 +1967,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -2068,16 +1984,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -2088,16 +2001,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -2108,13 +2018,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2125,13 +2035,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -2142,13 +2052,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2159,13 +2069,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -2179,16 +2089,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2199,16 +2106,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2219,16 +2123,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2239,16 +2140,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2259,13 +2157,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2276,13 +2174,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2293,13 +2191,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -2310,13 +2208,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2327,16 +2225,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2347,16 +2242,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
-      </c>
-      <c r="D64" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2367,13 +2259,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -2387,16 +2279,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2407,16 +2296,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>139</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2427,16 +2313,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>141</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
-      </c>
-      <c r="D68" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2447,13 +2330,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2464,13 +2347,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2481,13 +2364,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2498,13 +2381,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2551,11 +2434,14 @@
       <c r="A75" t="s">
         <v>155</v>
       </c>
-      <c r="B75" t="s">
-        <v>13</v>
+      <c r="B75">
+        <v>0</v>
       </c>
       <c r="C75" t="s">
         <v>156</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2568,11 +2454,14 @@
       <c r="A76" t="s">
         <v>157</v>
       </c>
-      <c r="B76" t="s">
-        <v>13</v>
+      <c r="B76">
+        <v>0</v>
       </c>
       <c r="C76" t="s">
         <v>158</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2585,11 +2474,14 @@
       <c r="A77" t="s">
         <v>159</v>
       </c>
-      <c r="B77" t="s">
-        <v>13</v>
+      <c r="B77">
+        <v>0</v>
       </c>
       <c r="C77" t="s">
         <v>160</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -2602,11 +2494,14 @@
       <c r="A78" t="s">
         <v>161</v>
       </c>
-      <c r="B78" t="s">
-        <v>13</v>
+      <c r="B78">
+        <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>162</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2617,13 +2512,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -2637,13 +2532,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>164</v>
-      </c>
-      <c r="B80" t="s">
-        <v>13</v>
+        <v>165</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -2654,13 +2552,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -2674,13 +2572,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -2694,13 +2592,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>170</v>
-      </c>
-      <c r="B83" t="s">
-        <v>13</v>
+        <v>171</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -2711,13 +2612,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>172</v>
-      </c>
-      <c r="B84" t="s">
-        <v>13</v>
+        <v>173</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -2728,13 +2632,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B85" t="s">
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -2745,13 +2649,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>176</v>
-      </c>
-      <c r="B86" t="s">
-        <v>13</v>
+        <v>177</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -2762,13 +2669,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>178</v>
-      </c>
-      <c r="B87" t="s">
-        <v>13</v>
+        <v>179</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -2779,13 +2689,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>180</v>
-      </c>
-      <c r="B88" t="s">
-        <v>13</v>
+        <v>181</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -2796,13 +2709,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>182</v>
-      </c>
-      <c r="B89" t="s">
-        <v>13</v>
+        <v>183</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -2813,13 +2729,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90" t="s">
-        <v>13</v>
+        <v>185</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -2830,13 +2749,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2850,13 +2769,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2870,13 +2789,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -2890,13 +2809,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2910,13 +2829,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -2930,13 +2849,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -2950,13 +2869,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
@@ -2970,13 +2889,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -2990,13 +2909,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
@@ -3010,13 +2929,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -3030,13 +2949,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
@@ -3050,13 +2969,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
@@ -3070,13 +2989,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -3090,13 +3009,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -3110,13 +3029,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
@@ -3130,13 +3049,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -3150,13 +3069,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -3170,16 +3089,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>220</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>221</v>
-      </c>
-      <c r="D108" t="s">
-        <v>9</v>
+        <v>222</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -3190,16 +3106,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>222</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
+        <v>223</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>223</v>
-      </c>
-      <c r="D109" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -3210,16 +3123,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>224</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>225</v>
-      </c>
-      <c r="D110" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -3230,16 +3140,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>226</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
+        <v>227</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>227</v>
-      </c>
-      <c r="D111" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -3250,7 +3157,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -3276,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -3285,211 +3192,6 @@
         <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>232</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114" t="s">
-        <v>233</v>
-      </c>
-      <c r="D114" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>234</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115" t="s">
-        <v>235</v>
-      </c>
-      <c r="D115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>236</v>
-      </c>
-      <c r="B116" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" t="s">
-        <v>237</v>
-      </c>
-      <c r="F116" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>238</v>
-      </c>
-      <c r="B117" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" t="s">
-        <v>239</v>
-      </c>
-      <c r="F117" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>240</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118" t="s">
-        <v>241</v>
-      </c>
-      <c r="D118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>242</v>
-      </c>
-      <c r="B119" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" t="s">
-        <v>243</v>
-      </c>
-      <c r="F119" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>244</v>
-      </c>
-      <c r="B120" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" t="s">
-        <v>245</v>
-      </c>
-      <c r="F120" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>246</v>
-      </c>
-      <c r="B121" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" t="s">
-        <v>247</v>
-      </c>
-      <c r="F121" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>248</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122" t="s">
-        <v>249</v>
-      </c>
-      <c r="D122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>250</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123" t="s">
-        <v>250</v>
-      </c>
-      <c r="D123" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>251</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124" t="s">
-        <v>251</v>
-      </c>
-      <c r="D124" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="244">
   <si>
     <t>File</t>
   </si>
@@ -34,10 +34,10 @@
     <t>severityIcon</t>
   </si>
   <si>
-    <t>classes/MaintenancePlanService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MaintenancePlanService</t>
+    <t>applications/Krinkels_Field_Service.app-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomApplication Krinkels_Field_Service</t>
   </si>
   <si>
     <t>M</t>
@@ -49,28 +49,28 @@
     <t>📰</t>
   </si>
   <si>
-    <t>classes/SchedulingController.cls</t>
+    <t>classes/ServiceAppointmentTriggerHandler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceAppointmentTriggerHandler</t>
+  </si>
+  <si>
+    <t>classes/ServiceBuilderController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceBuilderController</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderTriggerHandler.cls</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>ApexClass SchedulingController</t>
-  </si>
-  <si>
-    <t>classes/SchedulingController.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ServiceAppointmentTriggerHandler.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceAppointmentTriggerHandler</t>
-  </si>
-  <si>
-    <t>classes/ServiceBuilderController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceBuilderController</t>
+    <t>ApexClass WorkOrderTriggerHandler</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderTriggerHandler.cls-meta.xml</t>
   </si>
   <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
@@ -79,16 +79,46 @@
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>flexipages/ATAK_Project_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage ATAK_Project_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Asset_Scheduler.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Asset_Scheduler</t>
+    <t>digitalExperiences/experiencecontainer/FSL/FSL.digitalExperience-meta.xml</t>
+  </si>
+  <si>
+    <t>DigitalExperienceBundle experiencecontainer/FSL/FSL</t>
+  </si>
+  <si>
+    <t>digitalExperiences/experiencecontainer/FSL/experience__navigationMenu/menu/_meta.json</t>
+  </si>
+  <si>
+    <t>DigitalExperienceBundle experiencecontainer/FSL/experience__navigationMenu/menu/_meta.json</t>
+  </si>
+  <si>
+    <t>digitalExperiences/experiencecontainer/FSL/experience__navigationMenu/menu/content.json</t>
+  </si>
+  <si>
+    <t>DigitalExperienceBundle experiencecontainer/FSL/experience__navigationMenu/menu/content.json</t>
+  </si>
+  <si>
+    <t>digitalExperiences/experiencecontainer/FSL/experience__sfsECDefinition/sfs/_meta.json</t>
+  </si>
+  <si>
+    <t>DigitalExperienceBundle experiencecontainer/FSL/experience__sfsECDefinition/sfs/_meta.json</t>
+  </si>
+  <si>
+    <t>digitalExperiences/experiencecontainer/FSL/experience__sfsECDefinition/sfs/content.json</t>
+  </si>
+  <si>
+    <t>DigitalExperienceBundle experiencecontainer/FSL/experience__sfsECDefinition/sfs/content.json</t>
+  </si>
+  <si>
+    <t>digitalExperiences/experiencecontainer/FSL/sfdc_cms__languageSettings/languages/_meta.json</t>
+  </si>
+  <si>
+    <t>DigitalExperienceBundle experiencecontainer/FSL/sfdc_cms__languageSettings/languages/_meta.json</t>
+  </si>
+  <si>
+    <t>digitalExperiences/experiencecontainer/FSL/sfdc_cms__languageSettings/languages/content.json</t>
+  </si>
+  <si>
+    <t>DigitalExperienceBundle experiencecontainer/FSL/sfdc_cms__languageSettings/languages/content.json</t>
   </si>
   <si>
     <t>flexipages/Commercial_Account_Record_Page.flexipage-meta.xml</t>
@@ -97,16 +127,10 @@
     <t>FlexiPage Commercial_Account_Record_Page</t>
   </si>
   <si>
-    <t>flexipages/Location_Visit_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Location_Visit_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Service_Appointment_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Service_Appointment_Record_Page</t>
+    <t>flexipages/Location_Passport_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Location_Passport_Record_Page</t>
   </si>
   <si>
     <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
@@ -115,16 +139,16 @@
     <t>FlexiPage Service_Contract_Record_Page</t>
   </si>
   <si>
-    <t>flowDefinitions/ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue</t>
+    <t>flowDefinitions/Assigned_Resource_Before_Save_Record_Triggered_Identify_Assigned_Resource_Type.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Assigned_Resource_Before_Save_Record_Triggered_Identify_Assigned_Resource_Type</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
   </si>
   <si>
     <t>flowDefinitions/Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication.flowDefinition-meta.xml</t>
@@ -133,22 +157,22 @@
     <t>FlowDefinition Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication</t>
   </si>
   <si>
-    <t>flowDefinitions/Service_contract_Scheduled_Contract_Renewal_Reminder.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Service_contract_Scheduled_Contract_Renewal_Reminder</t>
-  </si>
-  <si>
-    <t>flows/ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention</t>
-  </si>
-  <si>
-    <t>flows/Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Service_Appointment_Scheduled_High_Prio_Work_Order_Overdue</t>
+    <t>flowDefinitions/Service_Contract_Before_Save_Record_Triggered_Set_Pricebook2Id.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_Contract_Before_Save_Record_Triggered_Set_Pricebook2Id</t>
+  </si>
+  <si>
+    <t>flows/Assigned_Resource_Before_Save_Record_Triggered_Identify_Assigned_Resource_Type.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Assigned_Resource_Before_Save_Record_Triggered_Identify_Assigned_Resource_Type</t>
+  </si>
+  <si>
+    <t>flows/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
   </si>
   <si>
     <t>flows/Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication.flow-meta.xml</t>
@@ -157,34 +181,10 @@
     <t>Flow Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication</t>
   </si>
   <si>
-    <t>flows/Service_contract_Scheduled_Contract_Renewal_Reminder.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Service_contract_Scheduled_Contract_Renewal_Reminder</t>
-  </si>
-  <si>
-    <t>groups/Charleroi.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group Charleroi</t>
-  </si>
-  <si>
-    <t>groups/Liege.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group Liege</t>
-  </si>
-  <si>
-    <t>groups/Phillippeville.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group Phillippeville</t>
-  </si>
-  <si>
-    <t>layouts/ATAK_Project__c-ATAK Project Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ATAK_Project__c-ATAK Project Layout</t>
+    <t>flows/Service_Contract_Before_Save_Record_Triggered_Set_Pricebook2Id.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_Contract_Before_Save_Record_Triggered_Set_Pricebook2Id</t>
   </si>
   <si>
     <t>layouts/Account-Commercial Layout.layout-meta.xml</t>
@@ -193,28 +193,52 @@
     <t>Layout Account-Commercial Layout</t>
   </si>
   <si>
+    <t>layouts/Account-FSL Operational Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-FSL Operational Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Financial Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Financial Layout</t>
+  </si>
+  <si>
     <t>layouts/Account-Operational Layout.layout-meta.xml</t>
   </si>
   <si>
     <t>Layout Account-Operational Layout</t>
   </si>
   <si>
-    <t>layouts/Location_Visit__c-Location Visit Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Location_Visit__c-Location Visit Layout</t>
-  </si>
-  <si>
-    <t>layouts/Opportunity-Opportunity Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Opportunity-Opportunity Layout</t>
-  </si>
-  <si>
-    <t>layouts/ServiceAppointment-Service Appointment Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceAppointment-Service Appointment Layout</t>
+    <t>layouts/ContractLineItem-Contract Line Item Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ContractLineItem-Contract Line Item Layout</t>
+  </si>
+  <si>
+    <t>layouts/LMRA__c-LMRA Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout LMRA__c-LMRA Layout</t>
+  </si>
+  <si>
+    <t>layouts/Location_Passport__c-FSL Location Passport.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Location_Passport__c-FSL Location Passport</t>
+  </si>
+  <si>
+    <t>layouts/Location_Passport__c-Location Passport Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Location_Passport__c-Location Passport Layout</t>
+  </si>
+  <si>
+    <t>layouts/Product2-Product Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Product2-Product Layout</t>
   </si>
   <si>
     <t>layouts/ServiceContract-Service Contract Layout.layout-meta.xml</t>
@@ -223,16 +247,16 @@
     <t>Layout ServiceContract-Service Contract Layout</t>
   </si>
   <si>
-    <t>layouts/ServiceResource-Service Resource Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceResource-Service Resource Layout</t>
-  </si>
-  <si>
-    <t>layouts/ServiceTerritory-Service Territory Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceTerritory-Service Territory Layout</t>
+    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkOrder-Work Order Layout</t>
+  </si>
+  <si>
+    <t>lwc/contractLineEditor/contractLineEditor.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle contractLineEditor/contractLineEditor.html</t>
   </si>
   <si>
     <t>lwc/contractLineEditor/contractLineEditor.js</t>
@@ -241,54 +265,6 @@
     <t>LightningComponentBundle contractLineEditor/contractLineEditor.js</t>
   </si>
   <si>
-    <t>lwc/resourceCalendar/resourceCalendar.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle resourceCalendar/resourceCalendar.css</t>
-  </si>
-  <si>
-    <t>lwc/resourceCalendar/resourceCalendar.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle resourceCalendar/resourceCalendar.html</t>
-  </si>
-  <si>
-    <t>lwc/resourceCalendar/resourceCalendar.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle resourceCalendar/resourceCalendar.js</t>
-  </si>
-  <si>
-    <t>lwc/resourceCalendar/resourceCalendar.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle resourceCalendar/resourceCalendar.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/roundDispatcher/roundDispatcher.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle roundDispatcher/roundDispatcher.html</t>
-  </si>
-  <si>
-    <t>lwc/roundDispatcher/roundDispatcher.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle roundDispatcher/roundDispatcher.js</t>
-  </si>
-  <si>
-    <t>lwc/roundDispatcher/roundDispatcher.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle roundDispatcher/roundDispatcher.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/serviceBuilder/serviceBuilder.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle serviceBuilder/serviceBuilder.css</t>
-  </si>
-  <si>
     <t>lwc/serviceBuilder/serviceBuilder.html</t>
   </si>
   <si>
@@ -301,193 +277,271 @@
     <t>LightningComponentBundle serviceBuilder/serviceBuilder.js</t>
   </si>
   <si>
-    <t>lwc/servicesToSchedule/dragStateUtil.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle servicesToSchedule/dragStateUtil.js</t>
-  </si>
-  <si>
-    <t>lwc/servicesToSchedule/servicesToSchedule.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle servicesToSchedule/servicesToSchedule.css</t>
-  </si>
-  <si>
-    <t>lwc/servicesToSchedule/servicesToSchedule.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle servicesToSchedule/servicesToSchedule.html</t>
-  </si>
-  <si>
-    <t>lwc/servicesToSchedule/servicesToSchedule.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle servicesToSchedule/servicesToSchedule.js</t>
-  </si>
-  <si>
-    <t>lwc/servicesToSchedule/servicesToSchedule.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle servicesToSchedule/servicesToSchedule.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/simpleDispatcherConsole/simpleDispatcherConsole.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle simpleDispatcherConsole/simpleDispatcherConsole.css</t>
-  </si>
-  <si>
-    <t>lwc/simpleDispatcherConsole/simpleDispatcherConsole.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle simpleDispatcherConsole/simpleDispatcherConsole.html</t>
-  </si>
-  <si>
-    <t>lwc/simpleDispatcherConsole/simpleDispatcherConsole.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle simpleDispatcherConsole/simpleDispatcherConsole.js</t>
-  </si>
-  <si>
-    <t>lwc/simpleDispatcherConsole/simpleDispatcherConsole.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle simpleDispatcherConsole/simpleDispatcherConsole.js-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/ATAK_Project__c.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject ATAK_Project__c/ATAK_Project__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/Location_Visit__c.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject Location_Visit__c/Location_Visit__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/compactLayouts/Location_Visit.compactLayout-meta.xml</t>
-  </si>
-  <si>
-    <t>CompactLayout Location_Visit</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Commercial_Account__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Commercial_Account__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Operational_Account__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Operational_Account__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Opportunity__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Opportunity__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Service_Appointment__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Service_Appointment__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Type__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Visit_Date__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Visit_Date__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Visit_Notes__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Visit_Notes__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/listViews/All.listView-meta.xml</t>
+    <t>objects/AssignedResource/fields/Resource_Is_A_Person__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Resource_Is_A_Person__c</t>
+  </si>
+  <si>
+    <t>objects/AssignedResource/fields/Service_Territory__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Territory__c</t>
+  </si>
+  <si>
+    <t>objects/ContractLineItem/fields/LMRA__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LMRA__c</t>
+  </si>
+  <si>
+    <t>objects/LMRA__c/fields/Project_Lead__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Project_Lead__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Passport__c/Location_Passport__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Location_Passport__c/Location_Passport__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Passport__c/fields/Access_Information__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Access_Information__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Passport__c/fields/Account__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Account__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Passport__c/fields/Attention_points_for_execution__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Attention_points_for_execution__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Passport__c/fields/Closing_Days__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Closing_Days__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Passport__c/fields/Contact__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contact__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Passport__c/fields/Opening_hours__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Opening_hours__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Passport__c/listViews/All.listView-meta.xml</t>
   </si>
   <si>
     <t>ListView All</t>
   </si>
   <si>
-    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Appointment_List_Columns.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Service_Appointment_List_Columns</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/compactLayouts/Service_Contract.compactLayout-meta.xml</t>
-  </si>
-  <si>
-    <t>CompactLayout Service_Contract</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Accepted__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Accepted__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Allocation_Key__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Allocation_Key__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Checkin_work__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Checkin_work__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Payment_Conditions__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Payment_Conditions__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Renewal_Reminder_Needed__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Renewal_Reminder_Needed__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>platformEventChannelMembers/SchedulingEntitiesModifiedAttributesChannel_FSL_Optimization_Request_ChangeEvent.platformEventChannelMember-meta.xml</t>
-  </si>
-  <si>
-    <t>PlatformEventChannelMember SchedulingEntitiesModifiedAttributesChannel_FSL_Optimization_Request_ChangeEvent</t>
-  </si>
-  <si>
-    <t>platformEventChannelMembers/SchedulingEntitiesModifiedAttributesChannel_FSL_Time_Dependency_ChangeEvent.platformEventChannelMember-meta.xml</t>
-  </si>
-  <si>
-    <t>PlatformEventChannelMember SchedulingEntitiesModifiedAttributesChannel_FSL_Time_Dependency_ChangeEvent</t>
-  </si>
-  <si>
-    <t>profilePasswordPolicies/Contract_Manager_profilePasswordPolicy1730106625061.profilePasswordPolicy-meta.xml</t>
-  </si>
-  <si>
-    <t>ProfilePasswordPolicy Contract_Manager_profilePasswordPolicy1730106625061</t>
-  </si>
-  <si>
-    <t>profileSessionSettings/null_profileSessionSetting1730106625079.profileSessionSetting-meta.xml</t>
-  </si>
-  <si>
-    <t>ProfileSessionSetting null_profileSessionSetting1730106625079</t>
+    <t>objects/ServiceAppointment/fields/Asset__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Asset__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Appointment_Grade__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Appointment_Grade__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Auto_Schedule__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Auto_Schedule__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Emergency__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Emergency__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__GanttColor__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__GanttColor__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__GanttIcon__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__GanttIcon__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__GanttLabel__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__GanttLabel__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Gantt_Display_Date__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Gantt_Display_Date__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__InJeopardyReason__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__InJeopardyReason__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__InJeopardy__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__InJeopardy__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__InternalSLRGeolocation__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__InternalSLRGeolocation__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__IsFillInCandidate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__IsFillInCandidate__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__IsMultiDay__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__IsMultiDay__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Last_Updated_Epoch__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Last_Updated_Epoch__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__MDS_Calculated_length__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__MDS_Calculated_length__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__MDT_Operational_Time__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__MDT_Operational_Time__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Pinned__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Pinned__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Prevent_Geocoding_For_Chatter_Actions__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Prevent_Geocoding_For_Chatter_Actions__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Related_Service__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Related_Service__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Same_Day__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Same_Day__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Same_Resource__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Same_Resource__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Schedule_Mode__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Schedule_Mode__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Schedule_over_lower_priority_appointment__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Schedule_over_lower_priority_appointment__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Scheduling_Policy_Used__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Scheduling_Policy_Used__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Time_Dependency__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Time_Dependency__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__UpdatedByOptimization__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__UpdatedByOptimization__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Use_Async_Logic__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Use_Async_Logic__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/FSL__Virtual_Service_For_Chatter_Action__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Virtual_Service_For_Chatter_Action__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/Overdue_Reminder_Send__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Overdue_Reminder_Send__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Default_LMRA__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Default_LMRA__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Product__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Product__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceResource/fields/Service_Resource_Is_Van__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Resource_Is_Van__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/LMRA__c.field-meta.xml</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -640,34 +694,16 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>quickActions/Quote.SendEmail.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction Quote.SendEmail</t>
-  </si>
-  <si>
-    <t>quickActions/ServiceAppointment.SendEmail.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction ServiceAppointment.SendEmail</t>
-  </si>
-  <si>
-    <t>quickActions/WorkOrder.SendEmail.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction WorkOrder.SendEmail</t>
-  </si>
-  <si>
-    <t>quickActions/WorkOrderLineItem.SendEmail.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction WorkOrderLineItem.SendEmail</t>
-  </si>
-  <si>
-    <t>settings/EmailAdministration.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings EmailAdministration</t>
+    <t>reportTypes/Service_Appointments_with_Service_Resources.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Service_Appointments_with_Service_Resources</t>
+  </si>
+  <si>
+    <t>reports/unfiled$public/Crew_Members_Planning_oXN.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report unfiled$public/Crew_Members_Planning_oXN</t>
   </si>
   <si>
     <t>settings/Search.settings-meta.xml</t>
@@ -676,28 +712,31 @@
     <t>Settings Search</t>
   </si>
   <si>
-    <t>sharingRules/Location_Visit__c.sharingRules-meta.xml</t>
-  </si>
-  <si>
-    <t>SharingRules Location_Visit__c</t>
-  </si>
-  <si>
-    <t>tabs/Asset_Scheduler.tab-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomTab Asset_Scheduler</t>
-  </si>
-  <si>
-    <t>tabs/Location_Visit__c.tab-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomTab Location_Visit__c</t>
-  </si>
-  <si>
-    <t>topicsForObjects/Location_Visit__c.topicsForObjects-meta.xml</t>
-  </si>
-  <si>
-    <t>TopicsForObjects Location_Visit__c</t>
+    <t>sharingRules/Location_Passport__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules Location_Passport__c</t>
+  </si>
+  <si>
+    <t>tabs/Location_Passport__c.tab-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomTab Location_Passport__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/Location_Passport__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects Location_Passport__c</t>
+  </si>
+  <si>
+    <t>triggers/WorkOrderTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger WorkOrderTrigger</t>
+  </si>
+  <si>
+    <t>triggers/WorkOrderTrigger.trigger-meta.xml</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -1080,12 +1119,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G120"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="144" customWidth="1"/>
+    <col min="1" max="1" width="118" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="107" customWidth="1"/>
+    <col min="3" max="3" width="97" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -1138,11 +1177,14 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1153,13 +1195,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1172,14 +1217,11 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1190,16 +1232,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1233,7 +1272,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1250,7 +1289,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -1266,14 +1305,11 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1287,7 +1323,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1303,14 +1339,11 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1323,14 +1356,11 @@
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1344,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -1380,14 +1410,11 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1400,11 +1427,14 @@
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
-        <v>13</v>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1418,7 +1448,7 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -1434,14 +1464,11 @@
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1475,7 +1502,7 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
@@ -1492,7 +1519,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>51</v>
@@ -1509,7 +1536,7 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>53</v>
@@ -1525,11 +1552,14 @@
       <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
-        <v>13</v>
+      <c r="B24">
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1542,14 +1572,11 @@
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1582,14 +1609,11 @@
       <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1602,11 +1626,14 @@
       <c r="A28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
+      <c r="B28">
+        <v>0</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1679,14 +1706,11 @@
       <c r="A32" t="s">
         <v>70</v>
       </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>17</v>
       </c>
       <c r="C32" t="s">
         <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1699,14 +1723,11 @@
       <c r="A33" t="s">
         <v>72</v>
       </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>17</v>
       </c>
       <c r="C33" t="s">
         <v>73</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1739,11 +1760,14 @@
       <c r="A35" t="s">
         <v>76</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
+      <c r="B35">
+        <v>0</v>
       </c>
       <c r="C35" t="s">
         <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1756,11 +1780,14 @@
       <c r="A36" t="s">
         <v>78</v>
       </c>
-      <c r="B36" t="s">
-        <v>13</v>
+      <c r="B36">
+        <v>0</v>
       </c>
       <c r="C36" t="s">
         <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1773,11 +1800,14 @@
       <c r="A37" t="s">
         <v>80</v>
       </c>
-      <c r="B37" t="s">
-        <v>13</v>
+      <c r="B37">
+        <v>0</v>
       </c>
       <c r="C37" t="s">
         <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1790,11 +1820,14 @@
       <c r="A38" t="s">
         <v>82</v>
       </c>
-      <c r="B38" t="s">
-        <v>13</v>
+      <c r="B38">
+        <v>0</v>
       </c>
       <c r="C38" t="s">
         <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1807,11 +1840,14 @@
       <c r="A39" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
-        <v>13</v>
+      <c r="B39">
+        <v>0</v>
       </c>
       <c r="C39" t="s">
         <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1824,11 +1860,14 @@
       <c r="A40" t="s">
         <v>86</v>
       </c>
-      <c r="B40" t="s">
-        <v>13</v>
+      <c r="B40">
+        <v>0</v>
       </c>
       <c r="C40" t="s">
         <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1842,7 +1881,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
         <v>89</v>
@@ -1858,14 +1897,11 @@
       <c r="A42" t="s">
         <v>90</v>
       </c>
-      <c r="B42">
-        <v>0</v>
+      <c r="B42" t="s">
+        <v>17</v>
       </c>
       <c r="C42" t="s">
         <v>91</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1878,14 +1914,11 @@
       <c r="A43" t="s">
         <v>92</v>
       </c>
-      <c r="B43">
-        <v>0</v>
+      <c r="B43" t="s">
+        <v>17</v>
       </c>
       <c r="C43" t="s">
         <v>93</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1898,14 +1931,11 @@
       <c r="A44" t="s">
         <v>94</v>
       </c>
-      <c r="B44">
-        <v>0</v>
+      <c r="B44" t="s">
+        <v>17</v>
       </c>
       <c r="C44" t="s">
         <v>95</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1919,7 +1949,7 @@
         <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
         <v>97</v>
@@ -1936,7 +1966,7 @@
         <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
         <v>99</v>
@@ -1953,7 +1983,7 @@
         <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
         <v>101</v>
@@ -1970,7 +2000,7 @@
         <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
         <v>103</v>
@@ -1987,7 +2017,7 @@
         <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
         <v>105</v>
@@ -2004,7 +2034,7 @@
         <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
         <v>107</v>
@@ -2021,7 +2051,7 @@
         <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>109</v>
@@ -2038,7 +2068,7 @@
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
         <v>111</v>
@@ -2054,11 +2084,14 @@
       <c r="A53" t="s">
         <v>112</v>
       </c>
-      <c r="B53" t="s">
-        <v>13</v>
+      <c r="B53">
+        <v>0</v>
       </c>
       <c r="C53" t="s">
         <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2091,11 +2124,14 @@
       <c r="A55" t="s">
         <v>116</v>
       </c>
-      <c r="B55" t="s">
-        <v>13</v>
+      <c r="B55">
+        <v>0</v>
       </c>
       <c r="C55" t="s">
         <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2108,11 +2144,14 @@
       <c r="A56" t="s">
         <v>118</v>
       </c>
-      <c r="B56" t="s">
-        <v>13</v>
+      <c r="B56">
+        <v>0</v>
       </c>
       <c r="C56" t="s">
         <v>119</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2125,11 +2164,14 @@
       <c r="A57" t="s">
         <v>120</v>
       </c>
-      <c r="B57" t="s">
-        <v>13</v>
+      <c r="B57">
+        <v>0</v>
       </c>
       <c r="C57" t="s">
         <v>121</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2142,11 +2184,14 @@
       <c r="A58" t="s">
         <v>122</v>
       </c>
-      <c r="B58" t="s">
-        <v>13</v>
+      <c r="B58">
+        <v>0</v>
       </c>
       <c r="C58" t="s">
         <v>123</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2159,11 +2204,14 @@
       <c r="A59" t="s">
         <v>124</v>
       </c>
-      <c r="B59" t="s">
-        <v>13</v>
+      <c r="B59">
+        <v>0</v>
       </c>
       <c r="C59" t="s">
         <v>125</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2176,11 +2224,14 @@
       <c r="A60" t="s">
         <v>126</v>
       </c>
-      <c r="B60" t="s">
-        <v>13</v>
+      <c r="B60">
+        <v>0</v>
       </c>
       <c r="C60" t="s">
         <v>127</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2193,11 +2244,14 @@
       <c r="A61" t="s">
         <v>128</v>
       </c>
-      <c r="B61" t="s">
-        <v>13</v>
+      <c r="B61">
+        <v>0</v>
       </c>
       <c r="C61" t="s">
         <v>129</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -2210,11 +2264,14 @@
       <c r="A62" t="s">
         <v>130</v>
       </c>
-      <c r="B62" t="s">
-        <v>13</v>
+      <c r="B62">
+        <v>0</v>
       </c>
       <c r="C62" t="s">
         <v>131</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2227,11 +2284,14 @@
       <c r="A63" t="s">
         <v>132</v>
       </c>
-      <c r="B63" t="s">
-        <v>13</v>
+      <c r="B63">
+        <v>0</v>
       </c>
       <c r="C63" t="s">
         <v>133</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2244,11 +2304,14 @@
       <c r="A64" t="s">
         <v>134</v>
       </c>
-      <c r="B64" t="s">
-        <v>13</v>
+      <c r="B64">
+        <v>0</v>
       </c>
       <c r="C64" t="s">
         <v>135</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2281,11 +2344,14 @@
       <c r="A66" t="s">
         <v>138</v>
       </c>
-      <c r="B66" t="s">
-        <v>13</v>
+      <c r="B66">
+        <v>0</v>
       </c>
       <c r="C66" t="s">
         <v>139</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2298,11 +2364,14 @@
       <c r="A67" t="s">
         <v>140</v>
       </c>
-      <c r="B67" t="s">
-        <v>13</v>
+      <c r="B67">
+        <v>0</v>
       </c>
       <c r="C67" t="s">
         <v>141</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2315,11 +2384,14 @@
       <c r="A68" t="s">
         <v>142</v>
       </c>
-      <c r="B68" t="s">
-        <v>13</v>
+      <c r="B68">
+        <v>0</v>
       </c>
       <c r="C68" t="s">
         <v>143</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2332,11 +2404,14 @@
       <c r="A69" t="s">
         <v>144</v>
       </c>
-      <c r="B69" t="s">
-        <v>13</v>
+      <c r="B69">
+        <v>0</v>
       </c>
       <c r="C69" t="s">
         <v>145</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2349,11 +2424,14 @@
       <c r="A70" t="s">
         <v>146</v>
       </c>
-      <c r="B70" t="s">
-        <v>13</v>
+      <c r="B70">
+        <v>0</v>
       </c>
       <c r="C70" t="s">
         <v>147</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2366,11 +2444,14 @@
       <c r="A71" t="s">
         <v>148</v>
       </c>
-      <c r="B71" t="s">
-        <v>13</v>
+      <c r="B71">
+        <v>0</v>
       </c>
       <c r="C71" t="s">
         <v>149</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2383,11 +2464,14 @@
       <c r="A72" t="s">
         <v>150</v>
       </c>
-      <c r="B72" t="s">
-        <v>13</v>
+      <c r="B72">
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>151</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2398,13 +2482,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>151</v>
-      </c>
-      <c r="B73" t="s">
-        <v>13</v>
+        <v>152</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2415,13 +2502,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" t="s">
-        <v>13</v>
+        <v>154</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2432,13 +2522,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -2452,13 +2542,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
@@ -2472,13 +2562,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -2492,13 +2582,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -2512,13 +2602,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -2532,13 +2622,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -2552,13 +2642,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -2572,16 +2662,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>169</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -2592,16 +2679,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>171</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -2612,16 +2696,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>173</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
-      </c>
-      <c r="D84" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -2632,13 +2713,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -3091,11 +3172,14 @@
       <c r="A108" t="s">
         <v>221</v>
       </c>
-      <c r="B108" t="s">
-        <v>13</v>
+      <c r="B108">
+        <v>0</v>
       </c>
       <c r="C108" t="s">
         <v>222</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -3108,11 +3192,14 @@
       <c r="A109" t="s">
         <v>223</v>
       </c>
-      <c r="B109" t="s">
-        <v>13</v>
+      <c r="B109">
+        <v>0</v>
       </c>
       <c r="C109" t="s">
         <v>224</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -3125,11 +3212,14 @@
       <c r="A110" t="s">
         <v>225</v>
       </c>
-      <c r="B110" t="s">
-        <v>13</v>
+      <c r="B110">
+        <v>0</v>
       </c>
       <c r="C110" t="s">
         <v>226</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -3143,7 +3233,7 @@
         <v>227</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C111" t="s">
         <v>228</v>
@@ -3159,14 +3249,11 @@
       <c r="A112" t="s">
         <v>229</v>
       </c>
-      <c r="B112">
-        <v>0</v>
+      <c r="B112" t="s">
+        <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>229</v>
-      </c>
-      <c r="D112" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -3177,13 +3264,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -3192,6 +3279,131 @@
         <v>10</v>
       </c>
       <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>234</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>236</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>238</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" t="s">
+        <v>240</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" t="s">
+        <v>240</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>242</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>243</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>243</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="294">
   <si>
     <t>File</t>
   </si>
@@ -34,25 +34,865 @@
     <t>severityIcon</t>
   </si>
   <si>
+    <t>applications/Krinkels_Field_Service.app-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomApplication Krinkels_Field_Service</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
     <t>applications/Sales.app-meta.xml</t>
   </si>
   <si>
     <t>CustomApplication Sales</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
+    <t>classes/GanttRoundPinAction.cls</t>
+  </si>
+  <si>
+    <t>ApexClass GanttRoundPinAction</t>
+  </si>
+  <si>
+    <t>classes/MaintenancePlanService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MaintenancePlanService</t>
+  </si>
+  <si>
+    <t>classes/ReadyForValidation.cls</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ApexClass ReadyForValidation</t>
+  </si>
+  <si>
+    <t>classes/ReadyForValidation.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/SchedulingController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass SchedulingController</t>
+  </si>
+  <si>
+    <t>classes/ServiceAppointmentRescheduler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceAppointmentRescheduler</t>
+  </si>
+  <si>
+    <t>classes/ServiceAppointmentTriggerHandler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceAppointmentTriggerHandler</t>
+  </si>
+  <si>
+    <t>classes/ServiceAppointmentTriggerHandler.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ServiceBuilderController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceBuilderController</t>
+  </si>
+  <si>
+    <t>classes/ServiceBuilderWrapper.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceBuilderWrapper</t>
+  </si>
+  <si>
+    <t>classes/ServiceContractHandler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceContractHandler</t>
+  </si>
+  <si>
+    <t>classes/ServiceContractHandler.cls-meta.xml</t>
   </si>
   <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
   </si>
   <si>
     <t>CleanDataService DataCloudGeoLocation</t>
+  </si>
+  <si>
+    <t>flexipages/Commercial_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Commercial_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Contact_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Contact_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Financial_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Financial_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Group_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Group_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Operational_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Service_Contract_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication</t>
+  </si>
+  <si>
+    <t>flows/ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention</t>
+  </si>
+  <si>
+    <t>flows/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
+  </si>
+  <si>
+    <t>flows/Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication</t>
+  </si>
+  <si>
+    <t>flows/Service_contract_Scheduled_Contract_Renewal_Reminder.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_contract_Scheduled_Contract_Renewal_Reminder</t>
+  </si>
+  <si>
+    <t>globalValueSets/Default_LMRA.globalValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>GlobalValueSet Default_LMRA</t>
+  </si>
+  <si>
+    <t>globalValueSets/Region.globalValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>GlobalValueSet Region</t>
+  </si>
+  <si>
+    <t>groups/WERKGEBIED_1.group-meta.xml</t>
+  </si>
+  <si>
+    <t>Group WERKGEBIED_1</t>
+  </si>
+  <si>
+    <t>layouts/Account-Commercial Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Commercial Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-FSL Operational Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-FSL Operational Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Financial Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Financial Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Group Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Group Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Operational Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Operational Layout</t>
+  </si>
+  <si>
+    <t>layouts/Asset-Asset Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Asset-Asset Layout</t>
+  </si>
+  <si>
+    <t>layouts/Asset_Financial_Account__c-Asset Financial Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Asset_Financial_Account__c-Asset Financial Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Contact-Contact Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Contact-Contact Layout</t>
+  </si>
+  <si>
+    <t>layouts/ContractLineItem-Contract Line Item Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ContractLineItem-Contract Line Item Layout</t>
+  </si>
+  <si>
+    <t>layouts/ServiceContract-Service Contract Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceContract-Service Contract Layout</t>
+  </si>
+  <si>
+    <t>lwc/contractLineEditor/contractLineEditor.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle contractLineEditor/contractLineEditor.js</t>
+  </si>
+  <si>
+    <t>lwc/generateMaintenancePlan/generateMaintenancePlan.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle generateMaintenancePlan/generateMaintenancePlan.js</t>
+  </si>
+  <si>
+    <t>lwc/readyForValidation/readyForValidation.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle readyForValidation/readyForValidation.html</t>
+  </si>
+  <si>
+    <t>lwc/readyForValidation/readyForValidation.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle readyForValidation/readyForValidation.js</t>
+  </si>
+  <si>
+    <t>lwc/readyForValidation/readyForValidation.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle readyForValidation/readyForValidation.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/serviceBuilder/serviceBuilder.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle serviceBuilder/serviceBuilder.html</t>
+  </si>
+  <si>
+    <t>lwc/serviceBuilder/serviceBuilder.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle serviceBuilder/serviceBuilder.js</t>
+  </si>
+  <si>
+    <t>notificationTypeConfig/NotificationTypeConfig.config-meta.xml</t>
+  </si>
+  <si>
+    <t>NotificationTypeConfig NotificationTypeConfig</t>
+  </si>
+  <si>
+    <t>notificationtypes/Service_Contract_Approval_Notification.notiftype-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomNotificationType Service_Contract_Approval_Notification</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/listViews/All.listView-meta.xml</t>
+  </si>
+  <si>
+    <t>ListView All</t>
+  </si>
+  <si>
+    <t>objects/Account/compactLayouts/Financial_Account.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Financial_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/compactLayouts/Group_Account.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Group_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/compactLayouts/Operational_Account.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Operational_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Access_Information__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Access_Information__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Alias_commercial_customer_name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Alias_commercial_customer_name__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Attention_points_for_execution__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Attention_points_for_execution__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Client_Region__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Client_Region__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Client_sector__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Client_sector__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Closing_Days__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Closing_Days__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Contactperson_commercial_customer_key__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contactperson_commercial_customer_key__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Contactperson_operational_customer_key__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contactperson_operational_customer_key__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Default_LMRA__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Default_LMRA__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Email__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Email__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Enterprise_Number__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Enterprise_Number__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Facility_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Facility_Type__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Financial_client_ATAK_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Financial_client_ATAK_Code__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Financial_client_type_ATAK__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Financial_client_type_ATAK__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Latitude__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Latitude__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Longitude__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Longitude__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Notes__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Notes__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Opening_hours__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Opening_hours__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Region__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Region__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Related_account__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Related_account__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Status__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Status__c</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Commercial_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Commercial_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Financial_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Financial_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Group_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Group_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Operational_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Operational_Account</t>
+  </si>
+  <si>
+    <t>objects/Asset_Financial_Account__c/Asset_Financial_Account__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Asset_Financial_Account__c/Asset_Financial_Account__c</t>
+  </si>
+  <si>
+    <t>objects/Asset_Financial_Account__c/fields/Account__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Account__c</t>
+  </si>
+  <si>
+    <t>objects/Asset_Financial_Account__c/fields/Asset__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Asset__c</t>
+  </si>
+  <si>
+    <t>objects/Asset_Financial_Account__c/fields/Key__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Key__c</t>
+  </si>
+  <si>
+    <t>objects/Contact/fields/Contract_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contract_Type__c</t>
+  </si>
+  <si>
+    <t>objects/Contact/fields/Decision_maker__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Decision_maker__c</t>
+  </si>
+  <si>
+    <t>objects/Contact/fields/Function_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Function_Type__c</t>
+  </si>
+  <si>
+    <t>objects/Contact/fields/Function__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Function__c</t>
+  </si>
+  <si>
+    <t>objects/Contact/fields/Functional_level__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Functional_level__c</t>
+  </si>
+  <si>
+    <t>objects/Contact/fields/Linkedin__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Linkedin__c</t>
+  </si>
+  <si>
+    <t>objects/Contact/fields/Notes__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/Contact/fields/Type_Formula__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Type_Formula__c</t>
+  </si>
+  <si>
+    <t>objects/Contact/fields/Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Type__c</t>
+  </si>
+  <si>
+    <t>objects/ContractLineItem/fields/Calculated_Duration__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Calculated_Duration__c</t>
+  </si>
+  <si>
+    <t>objects/ContractLineItem/fields/Estimated_Duration__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Estimated_Duration__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/compactLayouts/Service_Contract.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Service_Contract</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Additional_Work_in_scope_contract__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Additional_Work_in_scope_contract__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Allocation_key__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Allocation_key__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Cancellation_Date_Contract__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Cancellation_Date_Contract__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Check_In_At_Work_Reference__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Check_In_At_Work_Reference__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Check_In_At_Work_Required__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Check_In_At_Work_Required__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Contract_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Default_LMRA__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/External_Contract_Reference__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField External_Contract_Reference__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Indexation_Date__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Indexation_Date__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Indexation_Formula__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Indexation_Formula__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Indexation_Needed__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Indexation_Needed__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Link_contract__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Link_contract__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Location_Visit__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Location_Visit__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Request_date_for_indexation__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Request_date_for_indexation__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/SLA__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SLA__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/SPOC_Client__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SPOC_Client__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/SPOC_KGC__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SPOC_KGC__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Service_Package_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Package_Type__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Tender_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Tender_Code__c</t>
+  </si>
+  <si>
+    <t>profiles/Admin.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Admin</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Security User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Security User</t>
+  </si>
+  <si>
+    <t>profiles/Business Support.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Business Support</t>
+  </si>
+  <si>
+    <t>profiles/CPQ Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile CPQ Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter External User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter External User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Free User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Free User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Moderator User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Moderator User</t>
+  </si>
+  <si>
+    <t>profiles/Contract Manager %28custom%29.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Contract Manager %28custom%29</t>
+  </si>
+  <si>
+    <t>profiles/ContractManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ContractManager</t>
+  </si>
+  <si>
+    <t>profiles/Customer Community Plus User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Customer Community Plus User</t>
+  </si>
+  <si>
+    <t>profiles/External Operator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile External Operator</t>
+  </si>
+  <si>
+    <t>profiles/Guest License User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Guest License User</t>
+  </si>
+  <si>
+    <t>profiles/Identity User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Identity User</t>
+  </si>
+  <si>
+    <t>profiles/Manager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Manager</t>
+  </si>
+  <si>
+    <t>profiles/MarketingProfile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile MarketingProfile</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - API Only Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - API Only Integrations</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - Salesforce.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - Salesforce</t>
+  </si>
+  <si>
+    <t>profiles/Operator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Operator</t>
+  </si>
+  <si>
+    <t>profiles/Partner Community User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Partner Community User</t>
+  </si>
+  <si>
+    <t>profiles/Read Only.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Read Only</t>
+  </si>
+  <si>
+    <t>profiles/Sales Insights Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Insights Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Salesforce API Only System Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Salesforce API Only System Integrations</t>
+  </si>
+  <si>
+    <t>profiles/SolutionManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile SolutionManager</t>
+  </si>
+  <si>
+    <t>profiles/Standard.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Standard</t>
+  </si>
+  <si>
+    <t>quickActions/ServiceContract.Ready_for_Validation.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction ServiceContract.Ready_for_Validation</t>
+  </si>
+  <si>
+    <t>settings/Search.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Search</t>
+  </si>
+  <si>
+    <t>topicsForObjects/Asset_Financial_Account__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects Asset_Financial_Account__c</t>
+  </si>
+  <si>
+    <t>triggers/ServiceContractTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger ServiceContractTrigger</t>
+  </si>
+  <si>
+    <t>triggers/ServiceContractTrigger.trigger-meta.xml</t>
+  </si>
+  <si>
+    <t>manifest/package-all-org-items.xml</t>
+  </si>
+  <si>
+    <t>manifest/package-backup-items.xml</t>
   </si>
 </sst>
 </file>
@@ -429,12 +1269,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G147"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="1" max="1" width="116" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="3" max="3" width="91" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -503,6 +1343,2661 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>141</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>153</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>157</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>167</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>169</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>171</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>173</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>175</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>177</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>179</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>181</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" t="s">
+        <v>183</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" t="s">
+        <v>185</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s">
+        <v>149</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" t="s">
+        <v>188</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>190</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" t="s">
+        <v>192</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>194</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>196</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" t="s">
+        <v>198</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s">
+        <v>200</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>202</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" t="s">
+        <v>204</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>206</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" t="s">
+        <v>175</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>133</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" t="s">
+        <v>210</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" t="s">
+        <v>212</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" t="s">
+        <v>214</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" t="s">
+        <v>216</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" t="s">
+        <v>218</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" t="s">
+        <v>220</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" t="s">
+        <v>222</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" t="s">
+        <v>224</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" t="s">
+        <v>226</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" t="s">
+        <v>228</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" t="s">
+        <v>230</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" t="s">
+        <v>232</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>234</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>236</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>238</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>240</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>242</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>244</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>246</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>248</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>250</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>252</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>254</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>256</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>258</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>260</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>262</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>264</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>266</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>268</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>270</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>272</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>274</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>276</v>
+      </c>
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>278</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>280</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>282</v>
+      </c>
+      <c r="D140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" t="s">
+        <v>284</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>286</v>
+      </c>
+      <c r="D142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" t="s">
+        <v>288</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" t="s">
+        <v>290</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>291</v>
+      </c>
+      <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" t="s">
+        <v>290</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>292</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>292</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>293</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>293</v>
+      </c>
+      <c r="D147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Z1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="221">
   <si>
     <t>File</t>
   </si>
@@ -34,91 +34,151 @@
     <t>severityIcon</t>
   </si>
   <si>
-    <t>applications/Krinkels_Field_Service.app-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomApplication Krinkels_Field_Service</t>
+    <t>classes/ATAKProjectService.cls</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKProjectService</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
+    <t>classes/ATAKProjectService.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKProjectWrapper.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKProjectWrapper</t>
+  </si>
+  <si>
+    <t>classes/ATAKProjectWrapper.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKProjectWrapperTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKProjectWrapperTest</t>
+  </si>
+  <si>
+    <t>classes/ATAKProjectWrapperTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/FieldServiceTestData.cls</t>
+  </si>
+  <si>
+    <t>ApexClass FieldServiceTestData</t>
+  </si>
+  <si>
+    <t>classes/FieldServiceTestData.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/MaintenancePlanService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MaintenancePlanService</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
-  </si>
-  <si>
-    <t>applications/Sales.app-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomApplication Sales</t>
-  </si>
-  <si>
-    <t>classes/GanttRoundPinAction.cls</t>
-  </si>
-  <si>
-    <t>ApexClass GanttRoundPinAction</t>
-  </si>
-  <si>
-    <t>classes/MaintenancePlanService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MaintenancePlanService</t>
+    <t>classes/MaintenancePlanServiceTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MaintenancePlanServiceTest</t>
+  </si>
+  <si>
+    <t>classes/MaintenancePlanServiceTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ProjectRestResource.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ProjectRestResource</t>
+  </si>
+  <si>
+    <t>classes/RRuleAdjuster.cls</t>
+  </si>
+  <si>
+    <t>ApexClass RRuleAdjuster</t>
   </si>
   <si>
     <t>classes/ReadyForValidation.cls</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>ApexClass ReadyForValidation</t>
   </si>
   <si>
-    <t>classes/ReadyForValidation.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/SchedulingController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass SchedulingController</t>
-  </si>
-  <si>
-    <t>classes/ServiceAppointmentRescheduler.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceAppointmentRescheduler</t>
-  </si>
-  <si>
-    <t>classes/ServiceAppointmentTriggerHandler.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceAppointmentTriggerHandler</t>
-  </si>
-  <si>
-    <t>classes/ServiceAppointmentTriggerHandler.cls-meta.xml</t>
-  </si>
-  <si>
     <t>classes/ServiceBuilderController.cls</t>
   </si>
   <si>
     <t>ApexClass ServiceBuilderController</t>
   </si>
   <si>
-    <t>classes/ServiceBuilderWrapper.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceBuilderWrapper</t>
-  </si>
-  <si>
     <t>classes/ServiceContractHandler.cls</t>
   </si>
   <si>
     <t>ApexClass ServiceContractHandler</t>
   </si>
   <si>
-    <t>classes/ServiceContractHandler.cls-meta.xml</t>
+    <t>classes/ServiceResourceHandler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceResourceHandler</t>
+  </si>
+  <si>
+    <t>classes/ServiceResourceHandler.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderLocationQueueable.cls</t>
+  </si>
+  <si>
+    <t>ApexClass WorkOrderLocationQueueable</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderLocationQueueable.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderScheduler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass WorkOrderScheduler</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderScheduler.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderSchedulerBatch.cls</t>
+  </si>
+  <si>
+    <t>ApexClass WorkOrderSchedulerBatch</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderSchedulerBatch.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderSchedulerController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass WorkOrderSchedulerController</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderSchedulerController.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderTriggerHandler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass WorkOrderTriggerHandler</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderTriggerHandler.cls-meta.xml</t>
   </si>
   <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
@@ -127,34 +187,22 @@
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>flexipages/Commercial_Account_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Commercial_Account_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Contact_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Contact_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Financial_Account_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Financial_Account_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Group_Account_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Group_Account_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Operational_Account_Record_Page</t>
+    <t>customMetadata/Export_Configuration.ServiceContract.md-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomMetadata Export_Configuration.ServiceContract</t>
+  </si>
+  <si>
+    <t>flexipages/ATAK_Project_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage ATAK_Project_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Maintenance_Plan_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Maintenance_Plan_Record_Page</t>
   </si>
   <si>
     <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
@@ -163,94 +211,82 @@
     <t>FlexiPage Service_Contract_Record_Page</t>
   </si>
   <si>
-    <t>flowDefinitions/ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication</t>
-  </si>
-  <si>
-    <t>flows/ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow ATAK_Project_Before_Save_Record_Triggered_Set_Naming_Convention</t>
-  </si>
-  <si>
-    <t>flows/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
-  </si>
-  <si>
-    <t>flows/Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Service_Contract_After_Save_RecordTrigered_Account_Fields_duplication</t>
-  </si>
-  <si>
-    <t>flows/Service_contract_Scheduled_Contract_Renewal_Reminder.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Service_contract_Scheduled_Contract_Renewal_Reminder</t>
-  </si>
-  <si>
-    <t>globalValueSets/Default_LMRA.globalValueSet-meta.xml</t>
-  </si>
-  <si>
-    <t>GlobalValueSet Default_LMRA</t>
-  </si>
-  <si>
-    <t>globalValueSets/Region.globalValueSet-meta.xml</t>
-  </si>
-  <si>
-    <t>GlobalValueSet Region</t>
-  </si>
-  <si>
-    <t>groups/WERKGEBIED_1.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group WERKGEBIED_1</t>
-  </si>
-  <si>
-    <t>layouts/Account-Commercial Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-Commercial Layout</t>
-  </si>
-  <si>
-    <t>layouts/Account-FSL Operational Account Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-FSL Operational Account Layout</t>
-  </si>
-  <si>
-    <t>layouts/Account-Financial Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-Financial Layout</t>
-  </si>
-  <si>
-    <t>layouts/Account-Group Account Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-Group Account Layout</t>
-  </si>
-  <si>
-    <t>layouts/Account-Operational Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-Operational Layout</t>
+    <t>flowDefinitions/Operator_Created_Event_e_Create_Service_Resource.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Operator_Created_Event_e_Create_Service_Resource</t>
+  </si>
+  <si>
+    <t>flowDefinitions/User_After_Create_RecordTrigered_Create_Service_Resource.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition User_After_Create_RecordTrigered_Create_Service_Resource</t>
+  </si>
+  <si>
+    <t>flowDefinitions/User_After_Update_RecordTrigered_Create_Service_Resource.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition User_After_Update_RecordTrigered_Create_Service_Resource</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Check_In.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Check_In</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Check_Out.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Check_Out</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
+  </si>
+  <si>
+    <t>flows/Operator_Created_Event_e_Create_Service_Resource.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Operator_Created_Event_e_Create_Service_Resource</t>
+  </si>
+  <si>
+    <t>flows/User_After_Create_RecordTrigered_Create_Service_Resource.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow User_After_Create_RecordTrigered_Create_Service_Resource</t>
+  </si>
+  <si>
+    <t>flows/User_After_Update_RecordTrigered_Create_Service_Resource.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow User_After_Update_RecordTrigered_Create_Service_Resource</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Check_In.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Check_In</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Check_Out.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Check_Out</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
+  </si>
+  <si>
+    <t>layouts/ATAK_Project__c-ATAK Project Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ATAK_Project__c-ATAK Project Layout</t>
   </si>
   <si>
     <t>layouts/Asset-Asset Layout.layout-meta.xml</t>
@@ -259,28 +295,46 @@
     <t>Layout Asset-Asset Layout</t>
   </si>
   <si>
-    <t>layouts/Asset_Financial_Account__c-Asset Financial Account Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Asset_Financial_Account__c-Asset Financial Account Layout</t>
-  </si>
-  <si>
-    <t>layouts/Contact-Contact Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Contact-Contact Layout</t>
-  </si>
-  <si>
-    <t>layouts/ContractLineItem-Contract Line Item Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ContractLineItem-Contract Line Item Layout</t>
-  </si>
-  <si>
-    <t>layouts/ServiceContract-Service Contract Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceContract-Service Contract Layout</t>
+    <t>layouts/LMRA__c-LMRA Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout LMRA__c-LMRA Layout</t>
+  </si>
+  <si>
+    <t>layouts/MaintenanceAsset-Maintenance Asset Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout MaintenanceAsset-Maintenance Asset Layout</t>
+  </si>
+  <si>
+    <t>layouts/ServiceTerritory-Service Territory Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceTerritory-Service Territory Layout</t>
+  </si>
+  <si>
+    <t>layouts/User-User Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout User-User Layout</t>
+  </si>
+  <si>
+    <t>layouts/UserAlt-User Profile Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout UserAlt-User Profile Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkOrder-Work Order Layout</t>
+  </si>
+  <si>
+    <t>lwc/contractLineEditor/contractLineEditor.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle contractLineEditor/contractLineEditor.html</t>
   </si>
   <si>
     <t>lwc/contractLineEditor/contractLineEditor.js</t>
@@ -289,28 +343,34 @@
     <t>LightningComponentBundle contractLineEditor/contractLineEditor.js</t>
   </si>
   <si>
-    <t>lwc/generateMaintenancePlan/generateMaintenancePlan.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle generateMaintenancePlan/generateMaintenancePlan.js</t>
-  </si>
-  <si>
-    <t>lwc/readyForValidation/readyForValidation.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle readyForValidation/readyForValidation.html</t>
-  </si>
-  <si>
-    <t>lwc/readyForValidation/readyForValidation.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle readyForValidation/readyForValidation.js</t>
-  </si>
-  <si>
-    <t>lwc/readyForValidation/readyForValidation.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle readyForValidation/readyForValidation.js-meta.xml</t>
+    <t>lwc/prepareContractForNextYear/prepareContractForNextYear.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle prepareContractForNextYear/prepareContractForNextYear.js</t>
+  </si>
+  <si>
+    <t>lwc/recurrencePattern/recurrencePattern.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle recurrencePattern/recurrencePattern.html</t>
+  </si>
+  <si>
+    <t>lwc/scheduleWorkOrders/scheduleWorkOrders.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle scheduleWorkOrders/scheduleWorkOrders.html</t>
+  </si>
+  <si>
+    <t>lwc/scheduleWorkOrders/scheduleWorkOrders.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle scheduleWorkOrders/scheduleWorkOrders.js</t>
+  </si>
+  <si>
+    <t>lwc/scheduleWorkOrders/scheduleWorkOrders.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle scheduleWorkOrders/scheduleWorkOrders.js-meta.xml</t>
   </si>
   <si>
     <t>lwc/serviceBuilder/serviceBuilder.html</t>
@@ -325,16 +385,10 @@
     <t>LightningComponentBundle serviceBuilder/serviceBuilder.js</t>
   </si>
   <si>
-    <t>notificationTypeConfig/NotificationTypeConfig.config-meta.xml</t>
-  </si>
-  <si>
-    <t>NotificationTypeConfig NotificationTypeConfig</t>
-  </si>
-  <si>
-    <t>notificationtypes/Service_Contract_Approval_Notification.notiftype-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomNotificationType Service_Contract_Approval_Notification</t>
+    <t>objects/ATAK_Project__c/fields/ATAK_Creation_Date__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ATAK_Creation_Date__c</t>
   </si>
   <si>
     <t>objects/ATAK_Project__c/listViews/All.listView-meta.xml</t>
@@ -343,373 +397,106 @@
     <t>ListView All</t>
   </si>
   <si>
-    <t>objects/Account/compactLayouts/Financial_Account.compactLayout-meta.xml</t>
-  </si>
-  <si>
-    <t>CompactLayout Financial_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/compactLayouts/Group_Account.compactLayout-meta.xml</t>
-  </si>
-  <si>
-    <t>CompactLayout Group_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/compactLayouts/Operational_Account.compactLayout-meta.xml</t>
-  </si>
-  <si>
-    <t>CompactLayout Operational_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Access_Information__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Access_Information__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Alias_commercial_customer_name__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Alias_commercial_customer_name__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Attention_points_for_execution__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Attention_points_for_execution__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Client_Region__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Client_Region__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Client_sector__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Client_sector__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Closing_Days__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Closing_Days__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Contactperson_commercial_customer_key__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Contactperson_commercial_customer_key__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Contactperson_operational_customer_key__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Contactperson_operational_customer_key__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Default_LMRA__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Default_LMRA__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Email__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Email__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Enterprise_Number__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Enterprise_Number__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Facility_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Facility_Type__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Financial_client_ATAK_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Financial_client_ATAK_Code__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Financial_client_type_ATAK__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Financial_client_type_ATAK__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Latitude__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Latitude__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Longitude__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Longitude__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Notes__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Notes__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Opening_hours__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Opening_hours__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Region__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Region__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Related_account__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Related_account__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Status__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Status__c</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Commercial_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Commercial_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Financial_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Financial_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Group_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Group_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Operational_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Operational_Account</t>
-  </si>
-  <si>
-    <t>objects/Asset_Financial_Account__c/Asset_Financial_Account__c.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject Asset_Financial_Account__c/Asset_Financial_Account__c</t>
-  </si>
-  <si>
-    <t>objects/Asset_Financial_Account__c/fields/Account__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Account__c</t>
-  </si>
-  <si>
-    <t>objects/Asset_Financial_Account__c/fields/Asset__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Asset__c</t>
-  </si>
-  <si>
-    <t>objects/Asset_Financial_Account__c/fields/Key__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Key__c</t>
-  </si>
-  <si>
-    <t>objects/Contact/fields/Contract_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Contract_Type__c</t>
-  </si>
-  <si>
-    <t>objects/Contact/fields/Decision_maker__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Decision_maker__c</t>
-  </si>
-  <si>
-    <t>objects/Contact/fields/Function_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Function_Type__c</t>
-  </si>
-  <si>
-    <t>objects/Contact/fields/Function__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Function__c</t>
-  </si>
-  <si>
-    <t>objects/Contact/fields/Functional_level__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Functional_level__c</t>
-  </si>
-  <si>
-    <t>objects/Contact/fields/Linkedin__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Linkedin__c</t>
-  </si>
-  <si>
-    <t>objects/Contact/fields/Notes__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/Contact/fields/Type_Formula__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Type_Formula__c</t>
-  </si>
-  <si>
-    <t>objects/Contact/fields/Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Type__c</t>
-  </si>
-  <si>
-    <t>objects/ContractLineItem/fields/Calculated_Duration__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Calculated_Duration__c</t>
-  </si>
-  <si>
-    <t>objects/ContractLineItem/fields/Estimated_Duration__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Estimated_Duration__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/compactLayouts/Service_Contract.compactLayout-meta.xml</t>
-  </si>
-  <si>
-    <t>CompactLayout Service_Contract</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Additional_Work_in_scope_contract__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Additional_Work_in_scope_contract__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Allocation_key__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Allocation_key__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Cancellation_Date_Contract__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Cancellation_Date_Contract__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Check_In_At_Work_Reference__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Check_In_At_Work_Reference__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Check_In_At_Work_Required__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Check_In_At_Work_Required__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Contract_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Default_LMRA__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/External_Contract_Reference__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField External_Contract_Reference__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Indexation_Date__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Indexation_Date__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Indexation_Formula__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Indexation_Formula__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Indexation_Needed__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Indexation_Needed__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Link_contract__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Link_contract__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Location_Visit__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Location_Visit__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Request_date_for_indexation__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Request_date_for_indexation__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/SLA__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField SLA__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/SPOC_Client__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField SPOC_Client__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/SPOC_KGC__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField SPOC_KGC__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Service_Package_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Service_Package_Type__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Tender_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Tender_Code__c</t>
+    <t>objects/Asset/fields/Default_Duration_in_Minutes__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Default_Duration_in_Minutes__c</t>
+  </si>
+  <si>
+    <t>objects/Asset/fields/LMRA__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LMRA__c</t>
+  </si>
+  <si>
+    <t>objects/Asset/fields/LastSuggestedMaintenanceDate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LastSuggestedMaintenanceDate__c</t>
+  </si>
+  <si>
+    <t>objects/LMRA__c/fields/Project_Lead__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Project_Lead__c</t>
+  </si>
+  <si>
+    <t>objects/MaintenanceAsset/fields/Default_Duration_in_Minutes__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/MaintenanceAsset/fields/LastSuggestedMaintenanceDate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/Operator_Created_Event__e/Operator_Created_Event__e.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Operator_Created_Event__e/Operator_Created_Event__e</t>
+  </si>
+  <si>
+    <t>objects/Operator_Created_Event__e/fields/User_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField User_Id__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceTerritory/fields/Main_Responsible_Atak_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Main_Responsible_Atak_Code__c</t>
+  </si>
+  <si>
+    <t>objects/User/fields/ATAK_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ATAK_Code__c</t>
+  </si>
+  <si>
+    <t>objects/User/fields/Create_Field_Service_Resource__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Create_Field_Service_Resource__c</t>
+  </si>
+  <si>
+    <t>objects/User/fields/End_Date__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField End_Date__c</t>
+  </si>
+  <si>
+    <t>objects/User/fields/Interim_Office__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Interim_Office__c</t>
+  </si>
+  <si>
+    <t>objects/User/fields/Start_Date__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Start_Date__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/LMRA_Done__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LMRA_Done__c</t>
+  </si>
+  <si>
+    <t>objects/Work_Order_Creation_Event__e/Work_Order_Creation_Event__e.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Work_Order_Creation_Event__e/Work_Order_Creation_Event__e</t>
+  </si>
+  <si>
+    <t>objects/Work_Order_Creation_Event__e/fields/Maintenance_Plan_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Maintenance_Plan_Id__c</t>
+  </si>
+  <si>
+    <t>permissionsets/ATAK_Permissions.permissionset-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSet ATAK_Permissions</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -862,31 +649,25 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>quickActions/ServiceContract.Ready_for_Validation.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction ServiceContract.Ready_for_Validation</t>
-  </si>
-  <si>
-    <t>settings/Search.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings Search</t>
-  </si>
-  <si>
-    <t>topicsForObjects/Asset_Financial_Account__c.topicsForObjects-meta.xml</t>
-  </si>
-  <si>
-    <t>TopicsForObjects Asset_Financial_Account__c</t>
-  </si>
-  <si>
-    <t>triggers/ServiceContractTrigger.trigger</t>
-  </si>
-  <si>
-    <t>ApexTrigger ServiceContractTrigger</t>
-  </si>
-  <si>
-    <t>triggers/ServiceContractTrigger.trigger-meta.xml</t>
+    <t>quickActions/MaintenancePlan.Create_Work_Orders.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction MaintenancePlan.Create_Work_Orders</t>
+  </si>
+  <si>
+    <t>settings/AgentforceForDevelopers.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings AgentforceForDevelopers</t>
+  </si>
+  <si>
+    <t>triggers/ServiceResourceEvent.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger ServiceResourceEvent</t>
+  </si>
+  <si>
+    <t>triggers/ServiceResourceEvent.trigger-meta.xml</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -1269,12 +1050,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G114"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="116" customWidth="1"/>
+    <col min="1" max="1" width="96" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="91" customWidth="1"/>
+    <col min="3" max="3" width="81" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -1307,13 +1088,10 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -1327,13 +1105,10 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
@@ -1345,16 +1120,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1365,16 +1137,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1385,13 +1154,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1402,13 +1171,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1419,16 +1188,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1439,16 +1205,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1459,16 +1222,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1479,16 +1242,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1499,16 +1259,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1519,16 +1276,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1539,13 +1296,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1556,13 +1316,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1573,16 +1336,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1593,16 +1356,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1613,16 +1376,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1633,16 +1393,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1653,13 +1410,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1670,16 +1427,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1690,16 +1444,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1710,16 +1461,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1730,16 +1478,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1750,16 +1495,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1770,16 +1512,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1790,16 +1529,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1810,16 +1546,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1830,16 +1566,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1850,13 +1586,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1867,13 +1606,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1884,13 +1626,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1901,16 +1646,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1921,16 +1666,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1941,16 +1686,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1961,13 +1703,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1978,16 +1720,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1998,16 +1737,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -2018,13 +1754,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -2035,16 +1771,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -2055,16 +1791,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -2075,16 +1808,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2095,16 +1825,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -2115,16 +1842,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -2135,13 +1859,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2152,13 +1876,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" t="s">
-        <v>19</v>
+        <v>88</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -2169,13 +1896,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" t="s">
-        <v>19</v>
+        <v>90</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -2186,16 +1916,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -2206,16 +1936,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -2226,16 +1956,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -2246,13 +1976,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2263,16 +1996,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -2283,13 +2016,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" t="s">
-        <v>19</v>
+        <v>102</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2300,13 +2036,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2317,13 +2056,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" t="s">
-        <v>19</v>
+        <v>106</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>107</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2334,13 +2076,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" t="s">
-        <v>19</v>
+        <v>108</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2351,13 +2096,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" t="s">
-        <v>19</v>
+        <v>110</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2368,13 +2116,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" t="s">
-        <v>19</v>
+        <v>112</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2385,13 +2136,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2402,13 +2153,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2419,13 +2170,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -2436,13 +2187,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B62" t="s">
-        <v>19</v>
+        <v>120</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>121</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2453,13 +2207,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" t="s">
-        <v>19</v>
+        <v>122</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2470,13 +2227,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2487,13 +2244,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" t="s">
-        <v>19</v>
+        <v>126</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2504,13 +2264,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2521,13 +2281,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2538,13 +2298,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2555,13 +2315,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" t="s">
-        <v>19</v>
+        <v>134</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>135</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2572,13 +2335,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2589,13 +2352,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2606,13 +2369,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2623,13 +2386,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2640,13 +2403,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2657,13 +2420,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" t="s">
-        <v>19</v>
+        <v>144</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
+        <v>145</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2674,13 +2440,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2691,16 +2457,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>158</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -2711,16 +2474,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>161</v>
-      </c>
-      <c r="D78" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2731,13 +2491,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -2748,16 +2508,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>164</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
-      </c>
-      <c r="D80" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -2768,13 +2525,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -2785,13 +2542,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -2802,13 +2559,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -2819,13 +2576,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>172</v>
-      </c>
-      <c r="B84" t="s">
-        <v>19</v>
+        <v>162</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>163</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -2836,13 +2596,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>174</v>
-      </c>
-      <c r="B85" t="s">
-        <v>19</v>
+        <v>164</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>165</v>
+      </c>
+      <c r="D85" t="s">
+        <v>24</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -2853,13 +2616,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>176</v>
-      </c>
-      <c r="B86" t="s">
-        <v>19</v>
+        <v>166</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>167</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -2870,13 +2636,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>178</v>
-      </c>
-      <c r="B87" t="s">
-        <v>19</v>
+        <v>168</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>169</v>
+      </c>
+      <c r="D87" t="s">
+        <v>24</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -2887,13 +2656,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>180</v>
-      </c>
-      <c r="B88" t="s">
-        <v>19</v>
+        <v>170</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>171</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -2904,13 +2676,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>182</v>
-      </c>
-      <c r="B89" t="s">
-        <v>19</v>
+        <v>172</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>173</v>
+      </c>
+      <c r="D89" t="s">
+        <v>24</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -2921,13 +2696,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90" t="s">
-        <v>19</v>
+        <v>174</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>185</v>
+        <v>175</v>
+      </c>
+      <c r="D90" t="s">
+        <v>24</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -2938,13 +2716,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>186</v>
-      </c>
-      <c r="B91" t="s">
-        <v>19</v>
+        <v>176</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>149</v>
+        <v>177</v>
+      </c>
+      <c r="D91" t="s">
+        <v>24</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -2955,13 +2736,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>187</v>
-      </c>
-      <c r="B92" t="s">
-        <v>19</v>
+        <v>178</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>188</v>
+        <v>179</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -2972,16 +2756,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -2992,13 +2776,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>191</v>
-      </c>
-      <c r="B94" t="s">
-        <v>19</v>
+        <v>182</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>192</v>
+        <v>183</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -3009,13 +2796,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95" t="s">
-        <v>19</v>
+        <v>184</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>194</v>
+        <v>185</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -3026,16 +2816,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -3046,13 +2836,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>197</v>
-      </c>
-      <c r="B97" t="s">
-        <v>19</v>
+        <v>188</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>198</v>
+        <v>189</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -3063,13 +2856,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>199</v>
-      </c>
-      <c r="B98" t="s">
-        <v>19</v>
+        <v>190</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>200</v>
+        <v>191</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -3080,13 +2876,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>201</v>
-      </c>
-      <c r="B99" t="s">
-        <v>19</v>
+        <v>192</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>202</v>
+        <v>193</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -3097,13 +2896,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>203</v>
-      </c>
-      <c r="B100" t="s">
-        <v>19</v>
+        <v>194</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>204</v>
+        <v>195</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -3114,13 +2916,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>205</v>
-      </c>
-      <c r="B101" t="s">
-        <v>19</v>
+        <v>196</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>206</v>
+        <v>197</v>
+      </c>
+      <c r="D101" t="s">
+        <v>24</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
@@ -3131,13 +2936,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>207</v>
-      </c>
-      <c r="B102" t="s">
-        <v>19</v>
+        <v>198</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>175</v>
+        <v>199</v>
+      </c>
+      <c r="D102" t="s">
+        <v>24</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -3148,16 +2956,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
@@ -3168,13 +2976,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>209</v>
-      </c>
-      <c r="B104" t="s">
-        <v>19</v>
+        <v>202</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>210</v>
+        <v>203</v>
+      </c>
+      <c r="D104" t="s">
+        <v>24</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
@@ -3185,13 +2996,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>211</v>
-      </c>
-      <c r="B105" t="s">
-        <v>19</v>
+        <v>204</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>212</v>
+        <v>205</v>
+      </c>
+      <c r="D105" t="s">
+        <v>24</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
@@ -3202,13 +3016,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>213</v>
-      </c>
-      <c r="B106" t="s">
-        <v>19</v>
+        <v>206</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>214</v>
+        <v>207</v>
+      </c>
+      <c r="D106" t="s">
+        <v>24</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -3219,13 +3036,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>215</v>
-      </c>
-      <c r="B107" t="s">
-        <v>19</v>
+        <v>208</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>216</v>
+        <v>209</v>
+      </c>
+      <c r="D107" t="s">
+        <v>24</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -3236,13 +3056,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>217</v>
-      </c>
-      <c r="B108" t="s">
-        <v>19</v>
+        <v>210</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="D108" t="s">
+        <v>24</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -3253,13 +3076,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -3270,13 +3093,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>221</v>
-      </c>
-      <c r="B110" t="s">
-        <v>19</v>
+        <v>214</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>222</v>
+        <v>215</v>
+      </c>
+      <c r="D110" t="s">
+        <v>24</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -3287,13 +3113,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -3304,13 +3130,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -3321,13 +3147,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>227</v>
-      </c>
-      <c r="B113" t="s">
-        <v>19</v>
+        <v>219</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="D113" t="s">
+        <v>24</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
@@ -3338,663 +3167,21 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>229</v>
-      </c>
-      <c r="B114" t="s">
-        <v>19</v>
+        <v>220</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>230</v>
+        <v>220</v>
+      </c>
+      <c r="D114" t="s">
+        <v>24</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>231</v>
-      </c>
-      <c r="B115" t="s">
-        <v>19</v>
-      </c>
-      <c r="C115" t="s">
-        <v>232</v>
-      </c>
-      <c r="F115" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>233</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116" t="s">
-        <v>234</v>
-      </c>
-      <c r="D116" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>235</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-      <c r="C117" t="s">
-        <v>236</v>
-      </c>
-      <c r="D117" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>237</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118" t="s">
-        <v>238</v>
-      </c>
-      <c r="D118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>239</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119" t="s">
-        <v>240</v>
-      </c>
-      <c r="D119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>241</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120" t="s">
-        <v>242</v>
-      </c>
-      <c r="D120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>243</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121" t="s">
-        <v>244</v>
-      </c>
-      <c r="D121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>245</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122" t="s">
-        <v>246</v>
-      </c>
-      <c r="D122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>247</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123" t="s">
-        <v>248</v>
-      </c>
-      <c r="D123" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>249</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124" t="s">
-        <v>250</v>
-      </c>
-      <c r="D124" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>251</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125" t="s">
-        <v>252</v>
-      </c>
-      <c r="D125" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>253</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126" t="s">
-        <v>254</v>
-      </c>
-      <c r="D126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>255</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127" t="s">
-        <v>256</v>
-      </c>
-      <c r="D127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>257</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128" t="s">
-        <v>258</v>
-      </c>
-      <c r="D128" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>259</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129" t="s">
-        <v>260</v>
-      </c>
-      <c r="D129" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>261</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130" t="s">
-        <v>262</v>
-      </c>
-      <c r="D130" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>263</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="C131" t="s">
-        <v>264</v>
-      </c>
-      <c r="D131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>265</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="C132" t="s">
-        <v>266</v>
-      </c>
-      <c r="D132" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>267</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133" t="s">
-        <v>268</v>
-      </c>
-      <c r="D133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>269</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="C134" t="s">
-        <v>270</v>
-      </c>
-      <c r="D134" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>271</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135" t="s">
-        <v>272</v>
-      </c>
-      <c r="D135" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>273</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136" t="s">
-        <v>274</v>
-      </c>
-      <c r="D136" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>275</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137" t="s">
-        <v>276</v>
-      </c>
-      <c r="D137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>277</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138" t="s">
-        <v>278</v>
-      </c>
-      <c r="D138" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>279</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139" t="s">
-        <v>280</v>
-      </c>
-      <c r="D139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>281</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140" t="s">
-        <v>282</v>
-      </c>
-      <c r="D140" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>283</v>
-      </c>
-      <c r="B141" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" t="s">
-        <v>284</v>
-      </c>
-      <c r="F141" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>285</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142" t="s">
-        <v>286</v>
-      </c>
-      <c r="D142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>287</v>
-      </c>
-      <c r="B143" t="s">
-        <v>19</v>
-      </c>
-      <c r="C143" t="s">
-        <v>288</v>
-      </c>
-      <c r="F143" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>289</v>
-      </c>
-      <c r="B144" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" t="s">
-        <v>290</v>
-      </c>
-      <c r="F144" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>291</v>
-      </c>
-      <c r="B145" t="s">
-        <v>19</v>
-      </c>
-      <c r="C145" t="s">
-        <v>290</v>
-      </c>
-      <c r="F145" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>292</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146" t="s">
-        <v>292</v>
-      </c>
-      <c r="D146" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>293</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147" t="s">
-        <v>293</v>
-      </c>
-      <c r="D147" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="149">
   <si>
     <t>File</t>
   </si>
@@ -34,85 +34,55 @@
     <t>severityIcon</t>
   </si>
   <si>
-    <t>classes/ATAKProjectService.cls</t>
+    <t>applications/Krinkels_Field_Service.app-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomApplication Krinkels_Field_Service</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
+    <t>classes/GanttRoundPinAction.cls</t>
+  </si>
+  <si>
+    <t>ApexClass GanttRoundPinAction</t>
+  </si>
+  <si>
+    <t>classes/MaintenancePlanService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MaintenancePlanService</t>
+  </si>
+  <si>
+    <t>classes/RRuleAdjuster.cls</t>
+  </si>
+  <si>
+    <t>ApexClass RRuleAdjuster</t>
+  </si>
+  <si>
+    <t>classes/RRuleDescriptionGenerator.cls</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>ApexClass ATAKProjectService</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
-  </si>
-  <si>
-    <t>classes/ATAKProjectService.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ATAKProjectWrapper.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKProjectWrapper</t>
-  </si>
-  <si>
-    <t>classes/ATAKProjectWrapper.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ATAKProjectWrapperTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKProjectWrapperTest</t>
-  </si>
-  <si>
-    <t>classes/ATAKProjectWrapperTest.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/FieldServiceTestData.cls</t>
-  </si>
-  <si>
-    <t>ApexClass FieldServiceTestData</t>
-  </si>
-  <si>
-    <t>classes/FieldServiceTestData.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/MaintenancePlanService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MaintenancePlanService</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>classes/MaintenancePlanServiceTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MaintenancePlanServiceTest</t>
-  </si>
-  <si>
-    <t>classes/MaintenancePlanServiceTest.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ProjectRestResource.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ProjectRestResource</t>
-  </si>
-  <si>
-    <t>classes/RRuleAdjuster.cls</t>
-  </si>
-  <si>
-    <t>ApexClass RRuleAdjuster</t>
-  </si>
-  <si>
-    <t>classes/ReadyForValidation.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ReadyForValidation</t>
+    <t>ApexClass RRuleDescriptionGenerator</t>
+  </si>
+  <si>
+    <t>classes/RRuleDescriptionGenerator.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ServiceAppointmentRescheduler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceAppointmentRescheduler</t>
   </si>
   <si>
     <t>classes/ServiceBuilderController.cls</t>
@@ -121,37 +91,13 @@
     <t>ApexClass ServiceBuilderController</t>
   </si>
   <si>
-    <t>classes/ServiceContractHandler.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceContractHandler</t>
-  </si>
-  <si>
-    <t>classes/ServiceResourceHandler.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceResourceHandler</t>
-  </si>
-  <si>
-    <t>classes/ServiceResourceHandler.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/WorkOrderLocationQueueable.cls</t>
-  </si>
-  <si>
-    <t>ApexClass WorkOrderLocationQueueable</t>
-  </si>
-  <si>
-    <t>classes/WorkOrderLocationQueueable.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/WorkOrderScheduler.cls</t>
-  </si>
-  <si>
-    <t>ApexClass WorkOrderScheduler</t>
-  </si>
-  <si>
-    <t>classes/WorkOrderScheduler.cls-meta.xml</t>
+    <t>classes/WorkOrderLocationBatch.cls</t>
+  </si>
+  <si>
+    <t>ApexClass WorkOrderLocationBatch</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderLocationBatch.cls-meta.xml</t>
   </si>
   <si>
     <t>classes/WorkOrderSchedulerBatch.cls</t>
@@ -163,15 +109,6 @@
     <t>classes/WorkOrderSchedulerBatch.cls-meta.xml</t>
   </si>
   <si>
-    <t>classes/WorkOrderSchedulerController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass WorkOrderSchedulerController</t>
-  </si>
-  <si>
-    <t>classes/WorkOrderSchedulerController.cls-meta.xml</t>
-  </si>
-  <si>
     <t>classes/WorkOrderTriggerHandler.cls</t>
   </si>
   <si>
@@ -193,10 +130,16 @@
     <t>CustomMetadata Export_Configuration.ServiceContract</t>
   </si>
   <si>
-    <t>flexipages/ATAK_Project_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage ATAK_Project_Record_Page</t>
+    <t>dashboards/Service_Dashboards/QglvVbUkcDZgjzwmRguwhqYLIVYhMn.dashboard-meta.xml</t>
+  </si>
+  <si>
+    <t>Dashboard Service_Dashboards/QglvVbUkcDZgjzwmRguwhqYLIVYhMn</t>
+  </si>
+  <si>
+    <t>flexipages/Home_Page_Default.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Home_Page_Default</t>
   </si>
   <si>
     <t>flexipages/Maintenance_Plan_Record_Page.flexipage-meta.xml</t>
@@ -211,82 +154,40 @@
     <t>FlexiPage Service_Contract_Record_Page</t>
   </si>
   <si>
-    <t>flowDefinitions/Operator_Created_Event_e_Create_Service_Resource.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Operator_Created_Event_e_Create_Service_Resource</t>
-  </si>
-  <si>
-    <t>flowDefinitions/User_After_Create_RecordTrigered_Create_Service_Resource.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition User_After_Create_RecordTrigered_Create_Service_Resource</t>
-  </si>
-  <si>
-    <t>flowDefinitions/User_After_Update_RecordTrigered_Create_Service_Resource.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition User_After_Update_RecordTrigered_Create_Service_Resource</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Check_In.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Check_In</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Check_Out.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Check_Out</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
-  </si>
-  <si>
-    <t>flows/Operator_Created_Event_e_Create_Service_Resource.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Operator_Created_Event_e_Create_Service_Resource</t>
-  </si>
-  <si>
-    <t>flows/User_After_Create_RecordTrigered_Create_Service_Resource.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow User_After_Create_RecordTrigered_Create_Service_Resource</t>
-  </si>
-  <si>
-    <t>flows/User_After_Update_RecordTrigered_Create_Service_Resource.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow User_After_Update_RecordTrigered_Create_Service_Resource</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Check_In.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Check_In</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Check_Out.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Check_Out</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
-  </si>
-  <si>
-    <t>layouts/ATAK_Project__c-ATAK Project Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ATAK_Project__c-ATAK Project Layout</t>
+    <t>groups/Bastogne.group-meta.xml</t>
+  </si>
+  <si>
+    <t>Group Bastogne</t>
+  </si>
+  <si>
+    <t>groups/Mons.group-meta.xml</t>
+  </si>
+  <si>
+    <t>Group Mons</t>
+  </si>
+  <si>
+    <t>groups/Namur.group-meta.xml</t>
+  </si>
+  <si>
+    <t>Group Namur</t>
+  </si>
+  <si>
+    <t>layouts/ApptBundleAggrPolicy-Appointment Bundle Aggregation Policy Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ApptBundleAggrPolicy-Appointment Bundle Aggregation Policy Layout</t>
+  </si>
+  <si>
+    <t>layouts/ApptBundlePolicySvcTerr-Appointment Bundle Policy Service Territory Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ApptBundlePolicySvcTerr-Appointment Bundle Policy Service Territory Layout</t>
+  </si>
+  <si>
+    <t>layouts/ApptBundleRestrictPolicy-Appointment Bundle Restriction Policy Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ApptBundleRestrictPolicy-Appointment Bundle Restriction Policy Layout</t>
   </si>
   <si>
     <t>layouts/Asset-Asset Layout.layout-meta.xml</t>
@@ -295,208 +196,76 @@
     <t>Layout Asset-Asset Layout</t>
   </si>
   <si>
-    <t>layouts/LMRA__c-LMRA Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout LMRA__c-LMRA Layout</t>
-  </si>
-  <si>
     <t>layouts/MaintenanceAsset-Maintenance Asset Layout.layout-meta.xml</t>
   </si>
   <si>
     <t>Layout MaintenanceAsset-Maintenance Asset Layout</t>
   </si>
   <si>
-    <t>layouts/ServiceTerritory-Service Territory Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceTerritory-Service Territory Layout</t>
-  </si>
-  <si>
-    <t>layouts/User-User Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout User-User Layout</t>
-  </si>
-  <si>
-    <t>layouts/UserAlt-User Profile Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout UserAlt-User Profile Layout</t>
-  </si>
-  <si>
-    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkOrder-Work Order Layout</t>
-  </si>
-  <si>
-    <t>lwc/contractLineEditor/contractLineEditor.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle contractLineEditor/contractLineEditor.html</t>
-  </si>
-  <si>
-    <t>lwc/contractLineEditor/contractLineEditor.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle contractLineEditor/contractLineEditor.js</t>
-  </si>
-  <si>
-    <t>lwc/prepareContractForNextYear/prepareContractForNextYear.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle prepareContractForNextYear/prepareContractForNextYear.js</t>
-  </si>
-  <si>
-    <t>lwc/recurrencePattern/recurrencePattern.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle recurrencePattern/recurrencePattern.html</t>
-  </si>
-  <si>
-    <t>lwc/scheduleWorkOrders/scheduleWorkOrders.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle scheduleWorkOrders/scheduleWorkOrders.html</t>
-  </si>
-  <si>
-    <t>lwc/scheduleWorkOrders/scheduleWorkOrders.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle scheduleWorkOrders/scheduleWorkOrders.js</t>
-  </si>
-  <si>
-    <t>lwc/scheduleWorkOrders/scheduleWorkOrders.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle scheduleWorkOrders/scheduleWorkOrders.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/serviceBuilder/serviceBuilder.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle serviceBuilder/serviceBuilder.html</t>
-  </si>
-  <si>
-    <t>lwc/serviceBuilder/serviceBuilder.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle serviceBuilder/serviceBuilder.js</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/ATAK_Creation_Date__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ATAK_Creation_Date__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/listViews/All.listView-meta.xml</t>
-  </si>
-  <si>
-    <t>ListView All</t>
-  </si>
-  <si>
-    <t>objects/Asset/fields/Default_Duration_in_Minutes__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Default_Duration_in_Minutes__c</t>
-  </si>
-  <si>
-    <t>objects/Asset/fields/LMRA__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField LMRA__c</t>
-  </si>
-  <si>
-    <t>objects/Asset/fields/LastSuggestedMaintenanceDate__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField LastSuggestedMaintenanceDate__c</t>
-  </si>
-  <si>
-    <t>objects/LMRA__c/fields/Project_Lead__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Project_Lead__c</t>
-  </si>
-  <si>
-    <t>objects/MaintenanceAsset/fields/Default_Duration_in_Minutes__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/MaintenanceAsset/fields/LastSuggestedMaintenanceDate__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/Operator_Created_Event__e/Operator_Created_Event__e.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject Operator_Created_Event__e/Operator_Created_Event__e</t>
-  </si>
-  <si>
-    <t>objects/Operator_Created_Event__e/fields/User_Id__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField User_Id__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceTerritory/fields/Main_Responsible_Atak_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Main_Responsible_Atak_Code__c</t>
-  </si>
-  <si>
-    <t>objects/User/fields/ATAK_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ATAK_Code__c</t>
-  </si>
-  <si>
-    <t>objects/User/fields/Create_Field_Service_Resource__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Create_Field_Service_Resource__c</t>
-  </si>
-  <si>
-    <t>objects/User/fields/End_Date__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField End_Date__c</t>
-  </si>
-  <si>
-    <t>objects/User/fields/Interim_Office__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Interim_Office__c</t>
-  </si>
-  <si>
-    <t>objects/User/fields/Start_Date__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Start_Date__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/LMRA_Done__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField LMRA_Done__c</t>
-  </si>
-  <si>
-    <t>objects/Work_Order_Creation_Event__e/Work_Order_Creation_Event__e.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject Work_Order_Creation_Event__e/Work_Order_Creation_Event__e</t>
-  </si>
-  <si>
-    <t>objects/Work_Order_Creation_Event__e/fields/Maintenance_Plan_Id__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Maintenance_Plan_Id__c</t>
-  </si>
-  <si>
-    <t>permissionsets/ATAK_Permissions.permissionset-meta.xml</t>
-  </si>
-  <si>
-    <t>PermissionSet ATAK_Permissions</t>
+    <t>layouts/MaintenancePlan-Maintenance Plan Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout MaintenancePlan-Maintenance Plan Layout</t>
+  </si>
+  <si>
+    <t>layouts/ServiceAppointment-Service Appointment Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceAppointment-Service Appointment Layout</t>
+  </si>
+  <si>
+    <t>lwc/generateMaintenancePlan/generateMaintenancePlan.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle generateMaintenancePlan/generateMaintenancePlan.html</t>
+  </si>
+  <si>
+    <t>lwc/generateMaintenancePlan/generateMaintenancePlan.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle generateMaintenancePlan/generateMaintenancePlan.js</t>
+  </si>
+  <si>
+    <t>objects/Asset/fields/Recurrence_Text__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Recurrence_Text__c</t>
+  </si>
+  <si>
+    <t>objects/ContractLineItem/fields/Planning_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Planning_Type__c</t>
+  </si>
+  <si>
+    <t>objects/MaintenanceAsset/fields/Contract_Manager__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contract_Manager__c</t>
+  </si>
+  <si>
+    <t>objects/MaintenanceAsset/fields/Number_of_Work_Orders__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Number_of_Work_Orders__c</t>
+  </si>
+  <si>
+    <t>objects/MaintenanceAsset/fields/Total_Minutes_of_Work__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Total_Minutes_of_Work__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Appointment_Expanded.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Service_Appointment_Expanded</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/Recurrence__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Recurrence__c</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -649,25 +418,40 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>quickActions/MaintenancePlan.Create_Work_Orders.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction MaintenancePlan.Create_Work_Orders</t>
-  </si>
-  <si>
-    <t>settings/AgentforceForDevelopers.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings AgentforceForDevelopers</t>
-  </si>
-  <si>
-    <t>triggers/ServiceResourceEvent.trigger</t>
-  </si>
-  <si>
-    <t>ApexTrigger ServiceResourceEvent</t>
-  </si>
-  <si>
-    <t>triggers/ServiceResourceEvent.trigger-meta.xml</t>
+    <t>reportTypes/Maintenance_Plans_with_Maintenance_Assets.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Maintenance_Plans_with_Maintenance_Assets</t>
+  </si>
+  <si>
+    <t>reportTypes/Service_Appointments.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Service_Appointments</t>
+  </si>
+  <si>
+    <t>reportTypes/Service_Appointments_with_Service_Resources.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Service_Appointments_with_Service_Resources</t>
+  </si>
+  <si>
+    <t>settings/Security.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Security</t>
+  </si>
+  <si>
+    <t>timeSheetTemplates/Default_Timesheet_Daily.timeSheetTemplate-meta.xml</t>
+  </si>
+  <si>
+    <t>TimeSheetTemplate Default_Timesheet_Daily</t>
+  </si>
+  <si>
+    <t>triggers/ContractLineItemTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger ContractLineItemTrigger</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -1050,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G73"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="96" customWidth="1"/>
+    <col min="1" max="1" width="98" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="81" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
@@ -1088,10 +872,13 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -1105,10 +892,13 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
@@ -1120,13 +910,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1137,13 +930,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1154,13 +950,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1171,13 +967,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1188,13 +984,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1205,13 +1004,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1222,16 +1024,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1242,13 +1041,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1259,13 +1058,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1276,16 +1078,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1296,16 +1098,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1316,7 +1118,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1325,7 +1127,7 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1336,16 +1138,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1356,16 +1158,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1376,13 +1178,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1393,13 +1195,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1410,13 +1212,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1427,13 +1232,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1444,13 +1252,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1461,13 +1269,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1478,13 +1286,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1495,13 +1303,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1512,13 +1320,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1529,13 +1337,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1546,16 +1354,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1566,16 +1374,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1586,16 +1394,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1606,16 +1414,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1626,16 +1434,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1646,16 +1454,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1666,16 +1474,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1686,13 +1491,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
+        <v>73</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1703,13 +1511,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1720,13 +1528,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1737,13 +1545,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1754,13 +1562,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
+        <v>81</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1771,16 +1582,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1791,13 +1599,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
+        <v>85</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1808,13 +1619,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
+        <v>87</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1825,13 +1639,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
+        <v>89</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1842,13 +1659,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
+        <v>91</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1859,13 +1679,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
+        <v>93</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1876,16 +1699,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -1896,16 +1719,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -1916,16 +1739,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -1936,16 +1759,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -1956,16 +1779,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -1976,16 +1799,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -1996,16 +1819,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -2016,16 +1839,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2036,16 +1859,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2056,16 +1879,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2076,16 +1899,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2096,16 +1919,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2116,16 +1939,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2136,13 +1959,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" t="s">
-        <v>8</v>
+        <v>121</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2153,13 +1979,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
+        <v>123</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2170,13 +1999,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" t="s">
-        <v>8</v>
+        <v>125</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -2187,16 +2019,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2207,16 +2039,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2227,13 +2059,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" t="s">
-        <v>8</v>
+        <v>131</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2244,16 +2079,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2264,13 +2099,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2281,13 +2116,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2298,13 +2133,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" t="s">
-        <v>8</v>
+        <v>139</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2315,16 +2153,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2335,13 +2173,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2352,13 +2190,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>137</v>
-      </c>
-      <c r="B71" t="s">
-        <v>8</v>
+        <v>145</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>146</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2369,13 +2210,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>138</v>
-      </c>
-      <c r="B72" t="s">
-        <v>8</v>
+        <v>147</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>147</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2386,802 +2230,21 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73" t="s">
-        <v>8</v>
+        <v>148</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>148</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>142</v>
-      </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
-        <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>144</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>146</v>
-      </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
-        <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>148</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>150</v>
-      </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
-        <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>152</v>
-      </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>154</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>156</v>
-      </c>
-      <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" t="s">
-        <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>158</v>
-      </c>
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>160</v>
-      </c>
-      <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" t="s">
-        <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>162</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84" t="s">
-        <v>163</v>
-      </c>
-      <c r="D84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>164</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85" t="s">
-        <v>165</v>
-      </c>
-      <c r="D85" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>166</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86" t="s">
-        <v>167</v>
-      </c>
-      <c r="D86" t="s">
-        <v>24</v>
-      </c>
-      <c r="F86" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>168</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87" t="s">
-        <v>169</v>
-      </c>
-      <c r="D87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>170</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>171</v>
-      </c>
-      <c r="D88" t="s">
-        <v>24</v>
-      </c>
-      <c r="F88" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>172</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89" t="s">
-        <v>173</v>
-      </c>
-      <c r="D89" t="s">
-        <v>24</v>
-      </c>
-      <c r="F89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>174</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>175</v>
-      </c>
-      <c r="D90" t="s">
-        <v>24</v>
-      </c>
-      <c r="F90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>176</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>177</v>
-      </c>
-      <c r="D91" t="s">
-        <v>24</v>
-      </c>
-      <c r="F91" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>178</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92" t="s">
-        <v>179</v>
-      </c>
-      <c r="D92" t="s">
-        <v>24</v>
-      </c>
-      <c r="F92" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>180</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93" t="s">
-        <v>181</v>
-      </c>
-      <c r="D93" t="s">
-        <v>24</v>
-      </c>
-      <c r="F93" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>182</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94" t="s">
-        <v>183</v>
-      </c>
-      <c r="D94" t="s">
-        <v>24</v>
-      </c>
-      <c r="F94" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>184</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>185</v>
-      </c>
-      <c r="D95" t="s">
-        <v>24</v>
-      </c>
-      <c r="F95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>186</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>187</v>
-      </c>
-      <c r="D96" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>188</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97" t="s">
-        <v>189</v>
-      </c>
-      <c r="D97" t="s">
-        <v>24</v>
-      </c>
-      <c r="F97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>190</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98" t="s">
-        <v>191</v>
-      </c>
-      <c r="D98" t="s">
-        <v>24</v>
-      </c>
-      <c r="F98" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>192</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99" t="s">
-        <v>193</v>
-      </c>
-      <c r="D99" t="s">
-        <v>24</v>
-      </c>
-      <c r="F99" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>194</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100" t="s">
-        <v>195</v>
-      </c>
-      <c r="D100" t="s">
-        <v>24</v>
-      </c>
-      <c r="F100" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>196</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101" t="s">
-        <v>197</v>
-      </c>
-      <c r="D101" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>198</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102" t="s">
-        <v>199</v>
-      </c>
-      <c r="D102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F102" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>200</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103" t="s">
-        <v>201</v>
-      </c>
-      <c r="D103" t="s">
-        <v>24</v>
-      </c>
-      <c r="F103" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>202</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104" t="s">
-        <v>203</v>
-      </c>
-      <c r="D104" t="s">
-        <v>24</v>
-      </c>
-      <c r="F104" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>204</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105" t="s">
-        <v>205</v>
-      </c>
-      <c r="D105" t="s">
-        <v>24</v>
-      </c>
-      <c r="F105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>206</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106" t="s">
-        <v>207</v>
-      </c>
-      <c r="D106" t="s">
-        <v>24</v>
-      </c>
-      <c r="F106" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>208</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107" t="s">
-        <v>209</v>
-      </c>
-      <c r="D107" t="s">
-        <v>24</v>
-      </c>
-      <c r="F107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>210</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108" t="s">
-        <v>211</v>
-      </c>
-      <c r="D108" t="s">
-        <v>24</v>
-      </c>
-      <c r="F108" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>212</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>214</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110" t="s">
-        <v>215</v>
-      </c>
-      <c r="D110" t="s">
-        <v>24</v>
-      </c>
-      <c r="F110" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>216</v>
-      </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" t="s">
-        <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>218</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" t="s">
-        <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>219</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113" t="s">
-        <v>219</v>
-      </c>
-      <c r="D113" t="s">
-        <v>24</v>
-      </c>
-      <c r="F113" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>220</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114" t="s">
-        <v>220</v>
-      </c>
-      <c r="D114" t="s">
-        <v>24</v>
-      </c>
-      <c r="F114" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="321">
   <si>
     <t>File</t>
   </si>
@@ -34,10 +34,10 @@
     <t>severityIcon</t>
   </si>
   <si>
-    <t>applications/Krinkels_Field_Service.app-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomApplication Krinkels_Field_Service</t>
+    <t>classes/GanttRoundPinAction.cls</t>
+  </si>
+  <si>
+    <t>ApexClass GanttRoundPinAction</t>
   </si>
   <si>
     <t>M</t>
@@ -49,55 +49,52 @@
     <t>📰</t>
   </si>
   <si>
-    <t>classes/GanttRoundPinAction.cls</t>
-  </si>
-  <si>
-    <t>ApexClass GanttRoundPinAction</t>
-  </si>
-  <si>
     <t>classes/MaintenancePlanService.cls</t>
   </si>
   <si>
     <t>ApexClass MaintenancePlanService</t>
   </si>
   <si>
+    <t>classes/MaintenancePlanServiceTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MaintenancePlanServiceTest</t>
+  </si>
+  <si>
     <t>classes/RRuleAdjuster.cls</t>
   </si>
   <si>
     <t>ApexClass RRuleAdjuster</t>
   </si>
   <si>
-    <t>classes/RRuleDescriptionGenerator.cls</t>
+    <t>classes/ReadyForValidation.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ReadyForValidation</t>
+  </si>
+  <si>
+    <t>classes/ServiceAppointmentTriggerHandler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceAppointmentTriggerHandler</t>
+  </si>
+  <si>
+    <t>classes/ServiceBuilderController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceBuilderController</t>
+  </si>
+  <si>
+    <t>classes/ServiceContractTriggerHandler.cls</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>ApexClass RRuleDescriptionGenerator</t>
-  </si>
-  <si>
-    <t>classes/RRuleDescriptionGenerator.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ServiceAppointmentRescheduler.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceAppointmentRescheduler</t>
-  </si>
-  <si>
-    <t>classes/ServiceBuilderController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceBuilderController</t>
-  </si>
-  <si>
-    <t>classes/WorkOrderLocationBatch.cls</t>
-  </si>
-  <si>
-    <t>ApexClass WorkOrderLocationBatch</t>
-  </si>
-  <si>
-    <t>classes/WorkOrderLocationBatch.cls-meta.xml</t>
+    <t>ApexClass ServiceContractTriggerHandler</t>
+  </si>
+  <si>
+    <t>classes/ServiceContractTriggerHandler.cls-meta.xml</t>
   </si>
   <si>
     <t>classes/WorkOrderSchedulerBatch.cls</t>
@@ -106,46 +103,70 @@
     <t>ApexClass WorkOrderSchedulerBatch</t>
   </si>
   <si>
-    <t>classes/WorkOrderSchedulerBatch.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/WorkOrderTriggerHandler.cls</t>
-  </si>
-  <si>
-    <t>ApexClass WorkOrderTriggerHandler</t>
-  </si>
-  <si>
-    <t>classes/WorkOrderTriggerHandler.cls-meta.xml</t>
-  </si>
-  <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
   </si>
   <si>
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>customMetadata/Export_Configuration.ServiceContract.md-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomMetadata Export_Configuration.ServiceContract</t>
-  </si>
-  <si>
-    <t>dashboards/Service_Dashboards/QglvVbUkcDZgjzwmRguwhqYLIVYhMn.dashboard-meta.xml</t>
-  </si>
-  <si>
-    <t>Dashboard Service_Dashboards/QglvVbUkcDZgjzwmRguwhqYLIVYhMn</t>
-  </si>
-  <si>
-    <t>flexipages/Home_Page_Default.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Home_Page_Default</t>
-  </si>
-  <si>
-    <t>flexipages/Maintenance_Plan_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Maintenance_Plan_Record_Page</t>
+    <t>customMetadata/bmpyrckt__Timeline_Configuration.Account_ServiceAppointments.md-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomMetadata bmpyrckt__Timeline_Configuration.Account_ServiceAppointments</t>
+  </si>
+  <si>
+    <t>customMetadata/bmpyrckt__Timeline_Configuration.Asset_ServiceAppointments.md-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomMetadata bmpyrckt__Timeline_Configuration.Asset_ServiceAppointments</t>
+  </si>
+  <si>
+    <t>flexipages/ATAK_Project_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage ATAK_Project_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Asset_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Asset_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Commercial_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Commercial_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Contact_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Contact_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Financial_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Financial_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Group_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Group_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Location_Visit_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Location_Visit_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Operational_Account_Record_Page</t>
   </si>
   <si>
     <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
@@ -154,58 +175,172 @@
     <t>FlexiPage Service_Contract_Record_Page</t>
   </si>
   <si>
-    <t>groups/Bastogne.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group Bastogne</t>
-  </si>
-  <si>
-    <t>groups/Mons.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group Mons</t>
-  </si>
-  <si>
-    <t>groups/Namur.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group Namur</t>
-  </si>
-  <si>
-    <t>layouts/ApptBundleAggrPolicy-Appointment Bundle Aggregation Policy Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ApptBundleAggrPolicy-Appointment Bundle Aggregation Policy Layout</t>
-  </si>
-  <si>
-    <t>layouts/ApptBundlePolicySvcTerr-Appointment Bundle Policy Service Territory Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ApptBundlePolicySvcTerr-Appointment Bundle Policy Service Territory Layout</t>
-  </si>
-  <si>
-    <t>layouts/ApptBundleRestrictPolicy-Appointment Bundle Restriction Policy Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ApptBundleRestrictPolicy-Appointment Bundle Restriction Policy Layout</t>
-  </si>
-  <si>
-    <t>layouts/Asset-Asset Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Asset-Asset Layout</t>
-  </si>
-  <si>
-    <t>layouts/MaintenanceAsset-Maintenance Asset Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout MaintenanceAsset-Maintenance Asset Layout</t>
-  </si>
-  <si>
-    <t>layouts/MaintenancePlan-Maintenance Plan Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout MaintenancePlan-Maintenance Plan Layout</t>
+    <t>flexipages/Work_Order_Line_Item_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Work_Order_Line_Item_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Check_Out.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Check_Out</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
+  </si>
+  <si>
+    <t>flows/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
+  </si>
+  <si>
+    <t>flows/Service_contract_Scheduled_Contract_Renewal_Reminder.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_contract_Scheduled_Contract_Renewal_Reminder</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Check_Out.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Check_Out</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
+  </si>
+  <si>
+    <t>globalValueSets/LMRA_Type.globalValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>GlobalValueSet LMRA_Type</t>
+  </si>
+  <si>
+    <t>globalValueSets/Service_package_type.globalValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>GlobalValueSet Service_package_type</t>
+  </si>
+  <si>
+    <t>layouts/ATAK_Project__c-ATAK Project Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ATAK_Project__c-ATAK Project Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Commercial Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Commercial Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-FSL Commercial Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-FSL Commercial Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-FSL Financial Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-FSL Financial Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-FSL Group Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-FSL Group Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-FSL Operational Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-FSL Operational Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Financial Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Financial Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Group Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Group Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Operational Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Operational Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/AccountContactRelation-Account Contact Relationship Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout AccountContactRelation-Account Contact Relationship Layout</t>
+  </si>
+  <si>
+    <t>layouts/Asset-FSL Asset Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Asset-FSL Asset Layout</t>
+  </si>
+  <si>
+    <t>layouts/Contact-Contact Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Contact-Contact Layout</t>
+  </si>
+  <si>
+    <t>layouts/Contact-FSL Contact Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Contact-FSL Contact Layout</t>
+  </si>
+  <si>
+    <t>layouts/Global-FSL Global Actions.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Global-FSL Global Actions</t>
+  </si>
+  <si>
+    <t>layouts/LMRA__c-FSL LMRA Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout LMRA__c-FSL LMRA Layout</t>
+  </si>
+  <si>
+    <t>layouts/Location_Visit__c-Location Visit Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Location_Visit__c-Location Visit Layout</t>
   </si>
   <si>
     <t>layouts/ServiceAppointment-Service Appointment Layout.layout-meta.xml</t>
@@ -214,58 +349,406 @@
     <t>Layout ServiceAppointment-Service Appointment Layout</t>
   </si>
   <si>
-    <t>lwc/generateMaintenancePlan/generateMaintenancePlan.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle generateMaintenancePlan/generateMaintenancePlan.html</t>
-  </si>
-  <si>
-    <t>lwc/generateMaintenancePlan/generateMaintenancePlan.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle generateMaintenancePlan/generateMaintenancePlan.js</t>
-  </si>
-  <si>
-    <t>objects/Asset/fields/Recurrence_Text__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Recurrence_Text__c</t>
-  </si>
-  <si>
-    <t>objects/ContractLineItem/fields/Planning_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Planning_Type__c</t>
-  </si>
-  <si>
-    <t>objects/MaintenanceAsset/fields/Contract_Manager__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Contract_Manager__c</t>
-  </si>
-  <si>
-    <t>objects/MaintenanceAsset/fields/Number_of_Work_Orders__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Number_of_Work_Orders__c</t>
-  </si>
-  <si>
-    <t>objects/MaintenanceAsset/fields/Total_Minutes_of_Work__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Total_Minutes_of_Work__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Appointment_Expanded.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Service_Appointment_Expanded</t>
-  </si>
-  <si>
-    <t>objects/ServiceAppointment/fields/Recurrence__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Recurrence__c</t>
+    <t>layouts/ServiceContract-Service Contract Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceContract-Service Contract Layout</t>
+  </si>
+  <si>
+    <t>layouts/SkillRequirement-FSL Skill Requirement Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout SkillRequirement-FSL Skill Requirement Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkOrderLineItem-Work Order Line Item Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkOrderLineItem-Work Order Line Item Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkPlan-FSL Work Plan Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkPlan-FSL Work Plan Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkPlan-Work Plan Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkPlan-Work Plan Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkStep-FSL Work Step Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkStep-FSL Work Step Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkStep-Work Step Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkStep-Work Step Layout</t>
+  </si>
+  <si>
+    <t>lwc/recurrencePattern/recurrencePattern.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle recurrencePattern/recurrencePattern.html</t>
+  </si>
+  <si>
+    <t>lwc/recurrencePattern/recurrencePattern.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle recurrencePattern/recurrencePattern.js</t>
+  </si>
+  <si>
+    <t>lwc/serviceBuilder/serviceBuilder.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle serviceBuilder/serviceBuilder.js</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Branche__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Branche__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Client_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Client_Type__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Cost_Centre_Atak_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Cost_Centre_Atak_Name__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Cost_centre_Atak_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Cost_centre_Atak_Id__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Group__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Group__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/SubProject_ATAK__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SubProject_ATAK__c</t>
+  </si>
+  <si>
+    <t>objects/Account/compactLayouts/Group_Account.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Group_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/ATAK_Project__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ATAK_Project__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Alias_commercial_customer_name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Alias_commercial_customer_name__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Attention_points_for_execution__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Attention_points_for_execution__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Contactperson_commercial_customer_key__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contactperson_commercial_customer_key__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Contactperson_operational_customer_key__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contactperson_operational_customer_key__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/ContractType__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ContractType__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Facility_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Facility_Type__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Financial_client_ATAK_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Financial_client_ATAK_Code__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Financial_client_type_ATAK__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Financial_client_type_ATAK__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/LMRA_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LMRA_Type__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Opening_hours__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Opening_hours__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Related_account__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Related_account__c</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Commercial_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Commercial_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Financial_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Financial_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Group_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Group_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Operational_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Operational_Account</t>
+  </si>
+  <si>
+    <t>objects/Asset/fields/LMRA__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LMRA__c</t>
+  </si>
+  <si>
+    <t>objects/Contact/fields/ContractType__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/Contact/fields/Decision_maker__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Decision_maker__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/compactLayouts/Location_Visit.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Location_Visit</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Asset_Evaluation__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Asset_Evaluation__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Assets_Additional__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Assets_Additional__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Assets__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Assets__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Demand_type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Demand_type__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Estimation_Intervention_Time__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Estimation_Intervention_Time__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Execution_Deadline_Request__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Execution_Deadline_Request__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Frequency_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Frequency_Type__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Frequency__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Frequency__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Location_Passport_Status__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Location_Passport_Status__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Location_Passport__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Location_Passport__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Location_Visit_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Location_Visit_Type__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Machines_Required__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Machines_Required__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Overall_Evaluation__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Overall_Evaluation__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Priority_Request__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Priority_Request__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Quantity__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Quantity__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Remarks_Demand_type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Remarks_Demand_type__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Remarks__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Remarks__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Safety_Information__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Safety_Information__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Safety_Instruction_Status__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Safety_Instruction_Status__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Scoring__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Scoring__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Service_Contract__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Contract__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Service_Package_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Package_Name__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Unit__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Unit__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/compactLayouts/Service_Contract.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Service_Contract</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Contract_type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contract_type__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Default_LMRA__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Default_LMRA__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Is_New__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Is_New__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Product__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Product__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Service_Package_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Package_Type__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/LMRA__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>permissionsets/ATAK_Permissions.permissionset-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSet ATAK_Permissions</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -418,40 +901,73 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>reportTypes/Maintenance_Plans_with_Maintenance_Assets.reportType-meta.xml</t>
-  </si>
-  <si>
-    <t>ReportType Maintenance_Plans_with_Maintenance_Assets</t>
-  </si>
-  <si>
-    <t>reportTypes/Service_Appointments.reportType-meta.xml</t>
-  </si>
-  <si>
-    <t>ReportType Service_Appointments</t>
-  </si>
-  <si>
-    <t>reportTypes/Service_Appointments_with_Service_Resources.reportType-meta.xml</t>
-  </si>
-  <si>
-    <t>ReportType Service_Appointments_with_Service_Resources</t>
-  </si>
-  <si>
-    <t>settings/Security.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings Security</t>
-  </si>
-  <si>
-    <t>timeSheetTemplates/Default_Timesheet_Daily.timeSheetTemplate-meta.xml</t>
-  </si>
-  <si>
-    <t>TimeSheetTemplate Default_Timesheet_Daily</t>
-  </si>
-  <si>
-    <t>triggers/ContractLineItemTrigger.trigger</t>
-  </si>
-  <si>
-    <t>ApexTrigger ContractLineItemTrigger</t>
+    <t>quickActions/ServiceContract.Create_Service_Contract.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction ServiceContract.Create_Service_Contract</t>
+  </si>
+  <si>
+    <t>quickActions/WorkOrderLineItem.Complete_Service.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkOrderLineItem.Complete_Service</t>
+  </si>
+  <si>
+    <t>reports/unfiled$public/Crew_Members_Planning_oXN.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report unfiled$public/Crew_Members_Planning_oXN</t>
+  </si>
+  <si>
+    <t>settings/Account.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Account</t>
+  </si>
+  <si>
+    <t>settings/DynamicForms.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings DynamicForms</t>
+  </si>
+  <si>
+    <t>settings/FieldService.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings FieldService</t>
+  </si>
+  <si>
+    <t>settings/Mobile.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Mobile</t>
+  </si>
+  <si>
+    <t>standardValueSets/AccountContactMultiRoles.standardValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>StandardValueSet AccountContactMultiRoles</t>
+  </si>
+  <si>
+    <t>standardValueSets/AccountType.standardValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>StandardValueSet AccountType</t>
+  </si>
+  <si>
+    <t>triggers/ServiceContractTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger ServiceContractTrigger</t>
+  </si>
+  <si>
+    <t>uiFormatSpecificationSets/Type.uiFormatSpecificationSet-meta.xml</t>
+  </si>
+  <si>
+    <t>installedPackages/Time Warp.json</t>
+  </si>
+  <si>
+    <t>InstalledPackage Time Warp.json</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -834,12 +1350,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G159"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="98" customWidth="1"/>
+    <col min="1" max="1" width="116" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="81" customWidth="1"/>
+    <col min="3" max="3" width="91" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -952,11 +1468,14 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -967,13 +1486,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1006,14 +1528,11 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1024,13 +1543,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1043,11 +1562,14 @@
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
+      <c r="B11">
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1058,13 +1580,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1078,16 +1600,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1098,16 +1617,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1118,13 +1634,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1138,13 +1654,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1158,13 +1674,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1178,13 +1694,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1195,13 +1714,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1212,13 +1734,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -1232,13 +1754,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1252,13 +1774,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1269,13 +1794,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1286,13 +1814,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1303,13 +1831,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1320,13 +1851,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1337,13 +1871,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1354,13 +1891,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1374,13 +1911,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -1394,13 +1931,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1414,13 +1951,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1434,13 +1971,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1454,13 +1991,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1474,13 +2011,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1491,16 +2028,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1511,13 +2045,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
+        <v>78</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1528,13 +2065,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1545,13 +2082,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1562,16 +2099,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1582,13 +2116,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1599,13 +2133,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1619,16 +2153,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1639,13 +2170,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1659,16 +2190,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1679,16 +2207,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1699,16 +2224,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -1719,13 +2241,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1739,16 +2261,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -1759,16 +2278,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -1779,16 +2295,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -1799,13 +2312,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1819,13 +2332,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1839,13 +2352,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -1859,16 +2372,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -1879,13 +2389,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -1899,16 +2409,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -1919,13 +2426,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -1939,16 +2446,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -1959,13 +2463,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -1979,13 +2483,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -1999,13 +2503,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -2019,13 +2523,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -2039,16 +2543,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2059,16 +2560,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2079,16 +2577,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2099,13 +2594,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66" t="s">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2116,13 +2614,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2133,13 +2631,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -2153,13 +2651,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -2173,13 +2671,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2190,13 +2688,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -2210,13 +2708,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -2230,13 +2728,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
@@ -2245,6 +2743,1627 @@
         <v>10</v>
       </c>
       <c r="G73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" t="s">
+        <v>165</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" t="s">
+        <v>157</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" t="s">
+        <v>186</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" t="s">
+        <v>188</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" t="s">
+        <v>192</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" t="s">
+        <v>194</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" t="s">
+        <v>196</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" t="s">
+        <v>198</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" t="s">
+        <v>200</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" t="s">
+        <v>202</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" t="s">
+        <v>204</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" t="s">
+        <v>206</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>208</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>210</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>212</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>214</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" t="s">
+        <v>216</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" t="s">
+        <v>218</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="s">
+        <v>220</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" t="s">
+        <v>222</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" t="s">
+        <v>224</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" t="s">
+        <v>226</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" t="s">
+        <v>228</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" t="s">
+        <v>230</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>232</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" t="s">
+        <v>234</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" t="s">
+        <v>238</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>240</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>242</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>243</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>179</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>244</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>245</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>246</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>247</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>248</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>249</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>250</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>251</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>252</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>253</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>254</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>255</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>256</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>257</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>258</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>259</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>260</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>261</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>262</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>263</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>264</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>265</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>266</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>267</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>268</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>269</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>270</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>271</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>272</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>273</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>274</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>275</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>276</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>277</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>278</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>279</v>
+      </c>
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>280</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>281</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>282</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>283</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>284</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>285</v>
+      </c>
+      <c r="D140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>286</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>287</v>
+      </c>
+      <c r="D141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>288</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>289</v>
+      </c>
+      <c r="D142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>290</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>291</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>292</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>293</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>294</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>295</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>296</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" t="s">
+        <v>297</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>298</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" t="s">
+        <v>299</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>300</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>301</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>302</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>303</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>304</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>305</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>306</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>307</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>308</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>309</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>310</v>
+      </c>
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" t="s">
+        <v>311</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>312</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>313</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>314</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>315</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>316</v>
+      </c>
+      <c r="B156" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" t="s">
+        <v>316</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>317</v>
+      </c>
+      <c r="B157" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" t="s">
+        <v>318</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>319</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>319</v>
+      </c>
+      <c r="D158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>320</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>320</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="587">
   <si>
     <t>File</t>
   </si>
@@ -34,103 +34,163 @@
     <t>severityIcon</t>
   </si>
   <si>
-    <t>classes/GanttRoundPinAction.cls</t>
-  </si>
-  <si>
-    <t>ApexClass GanttRoundPinAction</t>
+    <t>aura/fsc_openUrl/fsc_openUrl.cmp</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AuraDefinitionBundle fsc_openUrl/fsc_openUrl.cmp</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
+    <t>aura/fsc_openUrl/fsc_openUrl.cmp-meta.xml</t>
+  </si>
+  <si>
+    <t>AuraDefinitionBundle fsc_openUrl/fsc_openUrl.cmp-meta.xml</t>
+  </si>
+  <si>
+    <t>aura/fsc_openUrl/fsc_openUrl.design</t>
+  </si>
+  <si>
+    <t>AuraDefinitionBundle fsc_openUrl/fsc_openUrl.design</t>
+  </si>
+  <si>
+    <t>aura/fsc_openUrl/fsc_openUrlController.js</t>
+  </si>
+  <si>
+    <t>AuraDefinitionBundle fsc_openUrl/fsc_openUrlController.js</t>
+  </si>
+  <si>
+    <t>aura/fsc_screenFlowApp/fsc_screenFlowApp.app</t>
+  </si>
+  <si>
+    <t>AuraDefinitionBundle fsc_screenFlowApp/fsc_screenFlowApp.app</t>
+  </si>
+  <si>
+    <t>aura/fsc_screenFlowApp/fsc_screenFlowApp.app-meta.xml</t>
+  </si>
+  <si>
+    <t>AuraDefinitionBundle fsc_screenFlowApp/fsc_screenFlowApp.app-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmail.cls</t>
+  </si>
+  <si>
+    <t>ApexClass SendBetterEmail</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmail.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailAddAttachmentToEmail.cls</t>
+  </si>
+  <si>
+    <t>ApexClass SendBetterEmailAddAttachmentToEmail</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailAddAttachmentToEmail.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailAddTasksToEmail.cls</t>
+  </si>
+  <si>
+    <t>ApexClass SendBetterEmailAddTasksToEmail</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailAddTasksToEmail.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailBulk.cls</t>
+  </si>
+  <si>
+    <t>ApexClass SendBetterEmailBulk</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailBulk.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailBulkRequestSetup.cls</t>
+  </si>
+  <si>
+    <t>ApexClass SendBetterEmailBulkRequestSetup</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailBulkRequestSetup.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailConstant.cls</t>
+  </si>
+  <si>
+    <t>ApexClass SendBetterEmailConstant</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailConstant.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailRequest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass SendBetterEmailRequest</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailRequest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailResponse.cls</t>
+  </si>
+  <si>
+    <t>ApexClass SendBetterEmailResponse</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailResponse.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass SendBetterEmailTest</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailUtil.cls</t>
+  </si>
+  <si>
+    <t>ApexClass SendBetterEmailUtil</t>
+  </si>
+  <si>
+    <t>classes/SendBetterEmailUtil.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ServiceContractTriggerHandler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceContractTriggerHandler</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
-  </si>
-  <si>
-    <t>classes/MaintenancePlanService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MaintenancePlanService</t>
-  </si>
-  <si>
-    <t>classes/MaintenancePlanServiceTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MaintenancePlanServiceTest</t>
-  </si>
-  <si>
-    <t>classes/RRuleAdjuster.cls</t>
-  </si>
-  <si>
-    <t>ApexClass RRuleAdjuster</t>
-  </si>
-  <si>
-    <t>classes/ReadyForValidation.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ReadyForValidation</t>
-  </si>
-  <si>
-    <t>classes/ServiceAppointmentTriggerHandler.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceAppointmentTriggerHandler</t>
-  </si>
-  <si>
-    <t>classes/ServiceBuilderController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceBuilderController</t>
-  </si>
-  <si>
-    <t>classes/ServiceContractTriggerHandler.cls</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceContractTriggerHandler</t>
-  </si>
-  <si>
-    <t>classes/ServiceContractTriggerHandler.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/WorkOrderSchedulerBatch.cls</t>
-  </si>
-  <si>
-    <t>ApexClass WorkOrderSchedulerBatch</t>
-  </si>
-  <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
   </si>
   <si>
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>customMetadata/bmpyrckt__Timeline_Configuration.Account_ServiceAppointments.md-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomMetadata bmpyrckt__Timeline_Configuration.Account_ServiceAppointments</t>
-  </si>
-  <si>
-    <t>customMetadata/bmpyrckt__Timeline_Configuration.Asset_ServiceAppointments.md-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomMetadata bmpyrckt__Timeline_Configuration.Asset_ServiceAppointments</t>
-  </si>
-  <si>
-    <t>flexipages/ATAK_Project_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage ATAK_Project_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Asset_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Asset_Record_Page</t>
+    <t>email/unfiled$public/Service_Report_Email_1731064851557.email</t>
+  </si>
+  <si>
+    <t>EmailTemplate unfiled$public/Service_Report_Email_1731064851557</t>
+  </si>
+  <si>
+    <t>email/unfiled$public/Service_Report_Email_1731064851557.email-meta.xml</t>
   </si>
   <si>
     <t>flexipages/Commercial_Account_Record_Page.flexipage-meta.xml</t>
@@ -157,10 +217,16 @@
     <t>FlexiPage Group_Account_Record_Page</t>
   </si>
   <si>
-    <t>flexipages/Location_Visit_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Location_Visit_Record_Page</t>
+    <t>flexipages/Home_Page_Default.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Home_Page_Default</t>
+  </si>
+  <si>
+    <t>flexipages/Maintenance_Plan_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Maintenance_Plan_Record_Page</t>
   </si>
   <si>
     <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
@@ -169,22 +235,22 @@
     <t>FlexiPage Operational_Account_Record_Page</t>
   </si>
   <si>
-    <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Service_Contract_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Work_Order_Line_Item_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Work_Order_Line_Item_Record_Page</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
+    <t>flowDefinitions/Send_Better_Email_Testflow.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Send_Better_Email_Testflow</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_Appointment_Mobile_flow_Screen_flow_Send_Service_Report_to_Customer.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_Appointment_Mobile_flow_Screen_flow_Send_Service_Report_to_Customer</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Check_In.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Check_In</t>
   </si>
   <si>
     <t>flowDefinitions/Work_Order_Mobile_Flow_Check_Out.flowDefinition-meta.xml</t>
@@ -199,22 +265,28 @@
     <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information</t>
   </si>
   <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
-  </si>
-  <si>
-    <t>flows/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
-  </si>
-  <si>
-    <t>flows/Service_contract_Scheduled_Contract_Renewal_Reminder.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Service_contract_Scheduled_Contract_Renewal_Reminder</t>
+    <t>flowDefinitions/sendBetterEmail_Test_Create_Test_Templates_if_needed.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition sendBetterEmail_Test_Create_Test_Templates_if_needed</t>
+  </si>
+  <si>
+    <t>flows/Send_Better_Email_Testflow.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Send_Better_Email_Testflow</t>
+  </si>
+  <si>
+    <t>flows/Service_Appointment_Mobile_flow_Screen_flow_Send_Service_Report_to_Customer.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_Appointment_Mobile_flow_Screen_flow_Send_Service_Report_to_Customer</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Check_In.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Check_In</t>
   </si>
   <si>
     <t>flows/Work_Order_Mobile_Flow_Check_Out.flow-meta.xml</t>
@@ -223,34 +295,16 @@
     <t>Flow Work_Order_Mobile_Flow_Check_Out</t>
   </si>
   <si>
-    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Enter_Shop_Visit_Information</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
-  </si>
-  <si>
-    <t>globalValueSets/LMRA_Type.globalValueSet-meta.xml</t>
-  </si>
-  <si>
-    <t>GlobalValueSet LMRA_Type</t>
-  </si>
-  <si>
-    <t>globalValueSets/Service_package_type.globalValueSet-meta.xml</t>
-  </si>
-  <si>
-    <t>GlobalValueSet Service_package_type</t>
-  </si>
-  <si>
-    <t>layouts/ATAK_Project__c-ATAK Project Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ATAK_Project__c-ATAK Project Layout</t>
+    <t>flows/sendBetterEmail_Test_Create_Test_Templates_if_needed.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow sendBetterEmail_Test_Create_Test_Templates_if_needed</t>
+  </si>
+  <si>
+    <t>labels/CustomLabels.labels-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomLabel CustomLabels</t>
   </si>
   <si>
     <t>layouts/Account-Commercial Account Layout.layout-meta.xml</t>
@@ -259,42 +313,12 @@
     <t>Layout Account-Commercial Account Layout</t>
   </si>
   <si>
-    <t>layouts/Account-FSL Commercial Account Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-FSL Commercial Account Layout</t>
-  </si>
-  <si>
-    <t>layouts/Account-FSL Financial Account Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-FSL Financial Account Layout</t>
-  </si>
-  <si>
-    <t>layouts/Account-FSL Group Account Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-FSL Group Account Layout</t>
-  </si>
-  <si>
-    <t>layouts/Account-FSL Operational Account Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-FSL Operational Account Layout</t>
-  </si>
-  <si>
     <t>layouts/Account-Financial Account Layout.layout-meta.xml</t>
   </si>
   <si>
     <t>Layout Account-Financial Account Layout</t>
   </si>
   <si>
-    <t>layouts/Account-Group Account Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-Group Account Layout</t>
-  </si>
-  <si>
     <t>layouts/Account-Operational Account Layout.layout-meta.xml</t>
   </si>
   <si>
@@ -307,40 +331,22 @@
     <t>Layout AccountContactRelation-Account Contact Relationship Layout</t>
   </si>
   <si>
-    <t>layouts/Asset-FSL Asset Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Asset-FSL Asset Layout</t>
-  </si>
-  <si>
-    <t>layouts/Contact-Contact Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Contact-Contact Layout</t>
-  </si>
-  <si>
-    <t>layouts/Contact-FSL Contact Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Contact-FSL Contact Layout</t>
-  </si>
-  <si>
-    <t>layouts/Global-FSL Global Actions.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Global-FSL Global Actions</t>
-  </si>
-  <si>
-    <t>layouts/LMRA__c-FSL LMRA Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout LMRA__c-FSL LMRA Layout</t>
-  </si>
-  <si>
-    <t>layouts/Location_Visit__c-Location Visit Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Location_Visit__c-Location Visit Layout</t>
+    <t>layouts/DocumentRecipient-Document Recipient Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout DocumentRecipient-Document Recipient Layout</t>
+  </si>
+  <si>
+    <t>layouts/FlowPersonalConfiguration__c-Flow Personal Configuration Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout FlowPersonalConfiguration__c-Flow Personal Configuration Layout</t>
+  </si>
+  <si>
+    <t>layouts/FlowTableViewDefinition__c-FlowTableViewDefinition Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout FlowTableViewDefinition__c-FlowTableViewDefinition Layout</t>
   </si>
   <si>
     <t>layouts/ServiceAppointment-Service Appointment Layout.layout-meta.xml</t>
@@ -349,406 +355,1159 @@
     <t>Layout ServiceAppointment-Service Appointment Layout</t>
   </si>
   <si>
-    <t>layouts/ServiceContract-Service Contract Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceContract-Service Contract Layout</t>
-  </si>
-  <si>
-    <t>layouts/SkillRequirement-FSL Skill Requirement Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout SkillRequirement-FSL Skill Requirement Layout</t>
-  </si>
-  <si>
-    <t>layouts/WorkOrderLineItem-Work Order Line Item Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkOrderLineItem-Work Order Line Item Layout</t>
-  </si>
-  <si>
-    <t>layouts/WorkPlan-FSL Work Plan Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkPlan-FSL Work Plan Layout</t>
-  </si>
-  <si>
-    <t>layouts/WorkPlan-Work Plan Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkPlan-Work Plan Layout</t>
-  </si>
-  <si>
-    <t>layouts/WorkStep-FSL Work Step Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkStep-FSL Work Step Layout</t>
-  </si>
-  <si>
-    <t>layouts/WorkStep-Work Step Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkStep-Work Step Layout</t>
-  </si>
-  <si>
-    <t>lwc/recurrencePattern/recurrencePattern.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle recurrencePattern/recurrencePattern.html</t>
-  </si>
-  <si>
-    <t>lwc/recurrencePattern/recurrencePattern.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle recurrencePattern/recurrencePattern.js</t>
-  </si>
-  <si>
-    <t>lwc/serviceBuilder/serviceBuilder.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle serviceBuilder/serviceBuilder.js</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Branche__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Branche__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Client_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Client_Type__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Cost_Centre_Atak_Name__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Cost_Centre_Atak_Name__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Cost_centre_Atak_Id__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Cost_centre_Atak_Id__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Group__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Group__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/SubProject_ATAK__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField SubProject_ATAK__c</t>
-  </si>
-  <si>
-    <t>objects/Account/compactLayouts/Group_Account.compactLayout-meta.xml</t>
-  </si>
-  <si>
-    <t>CompactLayout Group_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/ATAK_Project__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ATAK_Project__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Alias_commercial_customer_name__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Alias_commercial_customer_name__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Attention_points_for_execution__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Attention_points_for_execution__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Contactperson_commercial_customer_key__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Contactperson_commercial_customer_key__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Contactperson_operational_customer_key__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Contactperson_operational_customer_key__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/ContractType__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ContractType__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Facility_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Facility_Type__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Financial_client_ATAK_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Financial_client_ATAK_Code__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Financial_client_type_ATAK__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Financial_client_type_ATAK__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/LMRA_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField LMRA_Type__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Opening_hours__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Opening_hours__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Related_account__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Related_account__c</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Commercial_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Commercial_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Financial_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Financial_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Group_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Group_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Operational_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Operational_Account</t>
-  </si>
-  <si>
-    <t>objects/Asset/fields/LMRA__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField LMRA__c</t>
-  </si>
-  <si>
-    <t>objects/Contact/fields/ContractType__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/Contact/fields/Decision_maker__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Decision_maker__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/compactLayouts/Location_Visit.compactLayout-meta.xml</t>
-  </si>
-  <si>
-    <t>CompactLayout Location_Visit</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Asset_Evaluation__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Asset_Evaluation__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Assets_Additional__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Assets_Additional__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Assets__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Assets__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Demand_type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Demand_type__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Estimation_Intervention_Time__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Estimation_Intervention_Time__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Execution_Deadline_Request__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Execution_Deadline_Request__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Frequency_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Frequency_Type__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Frequency__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Frequency__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Location_Passport_Status__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Location_Passport_Status__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Location_Passport__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Location_Passport__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Location_Visit_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Location_Visit_Type__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Machines_Required__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Machines_Required__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Overall_Evaluation__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Overall_Evaluation__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Priority_Request__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Priority_Request__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Quantity__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Quantity__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Remarks_Demand_type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Remarks_Demand_type__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Remarks__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Remarks__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Safety_Information__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Safety_Information__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Safety_Instruction_Status__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Safety_Instruction_Status__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Scoring__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Scoring__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Service_Contract__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Service_Contract__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Service_Package_Name__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Service_Package_Name__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Unit__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Unit__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/compactLayouts/Service_Contract.compactLayout-meta.xml</t>
-  </si>
-  <si>
-    <t>CompactLayout Service_Contract</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Contract_type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Contract_type__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Default_LMRA__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Default_LMRA__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Is_New__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Is_New__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Product__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Product__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Service_Package_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Service_Package_Type__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/LMRA__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>permissionsets/ATAK_Permissions.permissionset-meta.xml</t>
-  </si>
-  <si>
-    <t>PermissionSet ATAK_Permissions</t>
+    <t>lwc/fsc_actionList3/fsc_actionList3.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_actionList3/fsc_actionList3.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_actionList3/fsc_actionList3.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_actionList3/fsc_actionList3.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_actionList3/fsc_actionList3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_actionList3/fsc_actionList3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_displayError/fsc_displayError.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_displayError/fsc_displayError.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_displayError/fsc_displayError.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_displayError/fsc_displayError.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_displayError/fsc_displayError.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_displayError/fsc_displayError.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_drawLine/fsc_drawLine.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_drawLine/fsc_drawLine.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_drawLine/fsc_drawLine.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_drawLine/fsc_drawLine.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_drawLine/fsc_drawLine.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_drawLine/fsc_drawLine.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_drawLineCPE/fsc_drawLineCPE.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_drawLineCPE/fsc_drawLineCPE.css</t>
+  </si>
+  <si>
+    <t>lwc/fsc_drawLineCPE/fsc_drawLineCPE.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_drawLineCPE/fsc_drawLineCPE.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_drawLineCPE/fsc_drawLineCPE.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_drawLineCPE/fsc_drawLineCPE.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_drawLineCPE/fsc_drawLineCPE.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_drawLineCPE/fsc_drawLineCPE.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_dualListBox3/fsc_dualListBox3.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_dualListBox3/fsc_dualListBox3.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_dualListBox3/fsc_dualListBox3.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_dualListBox3/fsc_dualListBox3.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_dualListBox3/fsc_dualListBox3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_dualListBox3/fsc_dualListBox3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_dualListBoxCPE/fsc_dualListBoxCPE.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_dualListBoxCPE/fsc_dualListBoxCPE.css</t>
+  </si>
+  <si>
+    <t>lwc/fsc_dualListBoxCPE/fsc_dualListBoxCPE.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_dualListBoxCPE/fsc_dualListBoxCPE.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_dualListBoxCPE/fsc_dualListBoxCPE.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_dualListBoxCPE/fsc_dualListBoxCPE.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_dualListBoxCPE/fsc_dualListBoxCPE.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_dualListBoxCPE/fsc_dualListBoxCPE.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_dualListBoxUtils/fsc_dualListBoxUtils.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_dualListBoxUtils/fsc_dualListBoxUtils.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_dualListBoxUtils/fsc_dualListBoxUtils.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_dualListBoxUtils/fsc_dualListBoxUtils.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_expressionBuilder3/fsc_expressionBuilder3.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_expressionBuilder3/fsc_expressionBuilder3.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_expressionBuilder3/fsc_expressionBuilder3.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_expressionBuilder3/fsc_expressionBuilder3.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_expressionBuilder3/fsc_expressionBuilder3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_expressionBuilder3/fsc_expressionBuilder3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_expressionLine/fsc_expressionLine.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_expressionLine/fsc_expressionLine.css</t>
+  </si>
+  <si>
+    <t>lwc/fsc_expressionLine/fsc_expressionLine.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_expressionLine/fsc_expressionLine.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_expressionLine/fsc_expressionLine.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_expressionLine/fsc_expressionLine.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_expressionLine/fsc_expressionLine.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_expressionLine/fsc_expressionLine.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_extendedBaseDualListBox/fsc_extendedBaseDualListBox.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_extendedBaseDualListBox/fsc_extendedBaseDualListBox.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_extendedBaseDualListBox/fsc_extendedBaseDualListBox.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_extendedBaseDualListBox/fsc_extendedBaseDualListBox.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_extendedBaseDualListBox/fsc_extendedBaseDualListBox.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_extendedBaseDualListBox/fsc_extendedBaseDualListBox.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_fieldSelector3/fsc_fieldSelector3.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_fieldSelector3/fsc_fieldSelector3.css</t>
+  </si>
+  <si>
+    <t>lwc/fsc_fieldSelector3/fsc_fieldSelector3.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_fieldSelector3/fsc_fieldSelector3.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_fieldSelector3/fsc_fieldSelector3.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_fieldSelector3/fsc_fieldSelector3.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_fieldSelector3/fsc_fieldSelector3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_fieldSelector3/fsc_fieldSelector3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_fieldViewer/fsc_fieldViewer.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_fieldViewer/fsc_fieldViewer.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_fieldViewer/fsc_fieldViewer.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_fieldViewer/fsc_fieldViewer.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_fieldViewer/fsc_fieldViewer.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_fieldViewer/fsc_fieldViewer.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flexcardCPE/fsc_flexcardCPE.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flexcardCPE/fsc_flexcardCPE.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flexcardCPE/fsc_flexcardCPE.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flexcardCPE/fsc_flexcardCPE.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flexcardCPE/fsc_flexcardCPE.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flexcardCPE/fsc_flexcardCPE.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flexcardFlow/fsc_flexcardFlow.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flexcardFlow/fsc_flexcardFlow.css</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flexcardFlow/fsc_flexcardFlow.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flexcardFlow/fsc_flexcardFlow.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flexcardFlow/fsc_flexcardFlow.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flexcardFlow/fsc_flexcardFlow.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flexcardFlow/fsc_flexcardFlow.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flexcardFlow/fsc_flexcardFlow.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flexcardHeader/fsc_flexcardHeader.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flexcardHeader/fsc_flexcardHeader.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flexcardHeader/fsc_flexcardHeader.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flexcardHeader/fsc_flexcardHeader.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flexcardHeader/fsc_flexcardHeader.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flexcardHeader/fsc_flexcardHeader.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowBanner/fsc_flowBanner.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowBanner/fsc_flowBanner.css</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowBanner/fsc_flowBanner.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowBanner/fsc_flowBanner.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowBanner/fsc_flowBanner.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowBanner/fsc_flowBanner.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowBanner/fsc_flowBanner.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowBanner/fsc_flowBanner.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowButtonBar/fsc_flowButtonBar.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowButtonBar/fsc_flowButtonBar.css</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowButtonBar/fsc_flowButtonBar.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowButtonBar/fsc_flowButtonBar.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowButtonBar/fsc_flowButtonBar.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowButtonBar/fsc_flowButtonBar.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowButtonBar/fsc_flowButtonBar.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowButtonBar/fsc_flowButtonBar.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowButtonBarCPE/fsc_flowButtonBarCPE.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowButtonBarCPE/fsc_flowButtonBarCPE.css</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowButtonBarCPE/fsc_flowButtonBarCPE.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowButtonBarCPE/fsc_flowButtonBarCPE.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowButtonBarCPE/fsc_flowButtonBarCPE.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowButtonBarCPE/fsc_flowButtonBarCPE.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowButtonBarCPE/fsc_flowButtonBarCPE.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowButtonBarCPE/fsc_flowButtonBarCPE.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowCheckbox/fsc_flowCheckbox.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowCheckbox/fsc_flowCheckbox.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowCheckbox/fsc_flowCheckbox.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowCheckbox/fsc_flowCheckbox.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowCheckbox/fsc_flowCheckbox.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowCheckbox/fsc_flowCheckbox.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowCombobox/fsc_flowCombobox.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowCombobox/fsc_flowCombobox.css</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowCombobox/fsc_flowCombobox.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowCombobox/fsc_flowCombobox.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowCombobox/fsc_flowCombobox.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowCombobox/fsc_flowCombobox.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowCombobox/fsc_flowCombobox.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowCombobox/fsc_flowCombobox.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowComboboxUtils/fsc_flowComboboxUtils.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowComboboxUtils/fsc_flowComboboxUtils.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowComboboxUtils/fsc_flowComboboxUtils.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowComboboxUtils/fsc_flowComboboxUtils.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowPicker3/fsc_flowPicker3.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowPicker3/fsc_flowPicker3.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowPicker3/fsc_flowPicker3.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowPicker3/fsc_flowPicker3.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_flowPicker3/fsc_flowPicker3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_flowPicker3/fsc_flowPicker3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_formulaBuilder3/fsc_formulaBuilder3.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_formulaBuilder3/fsc_formulaBuilder3.css</t>
+  </si>
+  <si>
+    <t>lwc/fsc_formulaBuilder3/fsc_formulaBuilder3.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_formulaBuilder3/fsc_formulaBuilder3.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_formulaBuilder3/fsc_formulaBuilder3.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_formulaBuilder3/fsc_formulaBuilder3.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_formulaBuilder3/fsc_formulaBuilder3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_formulaBuilder3/fsc_formulaBuilder3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_keyValuePairBuilderContainer/fsc_keyValuePairBuilderContainer.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_keyValuePairBuilderContainer/fsc_keyValuePairBuilderContainer.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_keyValuePairBuilderContainer/fsc_keyValuePairBuilderContainer.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_keyValuePairBuilderContainer/fsc_keyValuePairBuilderContainer.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_keyValuePairBuilderContainer/fsc_keyValuePairBuilderContainer.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_keyValuePairBuilderContainer/fsc_keyValuePairBuilderContainer.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_keyValuePairBuilderRow/fsc_keyValuePairBuilderRow.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_keyValuePairBuilderRow/fsc_keyValuePairBuilderRow.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_keyValuePairBuilderRow/fsc_keyValuePairBuilderRow.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_keyValuePairBuilderRow/fsc_keyValuePairBuilderRow.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_keyValuePairBuilderRow/fsc_keyValuePairBuilderRow.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_keyValuePairBuilderRow/fsc_keyValuePairBuilderRow.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_lookup_quickRecord/fsc_lookup_quickRecord.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_lookup_quickRecord/fsc_lookup_quickRecord.css</t>
+  </si>
+  <si>
+    <t>lwc/fsc_lookup_quickRecord/fsc_lookup_quickRecord.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_lookup_quickRecord/fsc_lookup_quickRecord.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_lookup_quickRecord/fsc_lookup_quickRecord.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_lookup_quickRecord/fsc_lookup_quickRecord.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_lookup_quickRecord/fsc_lookup_quickRecord.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_lookup_quickRecord/fsc_lookup_quickRecord.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_lwcLogger/fsc_lwcLogger.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_lwcLogger/fsc_lwcLogger.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_lwcLogger/fsc_lwcLogger.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_lwcLogger/fsc_lwcLogger.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_lwcModal/fsc_lwcModal.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_lwcModal/fsc_lwcModal.css</t>
+  </si>
+  <si>
+    <t>lwc/fsc_lwcModal/fsc_lwcModal.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_lwcModal/fsc_lwcModal.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_lwcModal/fsc_lwcModal.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_lwcModal/fsc_lwcModal.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_lwcModal/fsc_lwcModal.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_lwcModal/fsc_lwcModal.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_lwcModalUtil/fsc_lwcModalUtil.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_lwcModalUtil/fsc_lwcModalUtil.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_lwcModalUtil/fsc_lwcModalUtil.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_lwcModalUtil/fsc_lwcModalUtil.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_modalFlow/fsc_modalFlow.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_modalFlow/fsc_modalFlow.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_modalFlow/fsc_modalFlow.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_modalFlow/fsc_modalFlow.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_modalFlow/fsc_modalFlow.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_modalFlow/fsc_modalFlow.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_pickIcon/fsc_pickIcon.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_pickIcon/fsc_pickIcon.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_pickIcon/fsc_pickIcon.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_pickIcon/fsc_pickIcon.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_pickIcon/fsc_pickIcon.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_pickIcon/fsc_pickIcon.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_pickIconCpe/fsc_pickIconCpe.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_pickIconCpe/fsc_pickIconCpe.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_pickIconCpe/fsc_pickIconCpe.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_pickIconCpe/fsc_pickIconCpe.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_pickIconCpe/fsc_pickIconCpe.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_pickIconCpe/fsc_pickIconCpe.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_pickObjectAndField3/fsc_pickObjectAndField3.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_pickObjectAndField3/fsc_pickObjectAndField3.css</t>
+  </si>
+  <si>
+    <t>lwc/fsc_pickObjectAndField3/fsc_pickObjectAndField3.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_pickObjectAndField3/fsc_pickObjectAndField3.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_pickObjectAndField3/fsc_pickObjectAndField3.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_pickObjectAndField3/fsc_pickObjectAndField3.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_pickObjectAndField3/fsc_pickObjectAndField3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_pickObjectAndField3/fsc_pickObjectAndField3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_pickObjectAndFieldUtils/fsc_pickObjectAndFieldUtils.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_pickObjectAndFieldUtils/fsc_pickObjectAndFieldUtils.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_pickObjectAndFieldUtils/fsc_pickObjectAndFieldUtils.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_pickObjectAndFieldUtils/fsc_pickObjectAndFieldUtils.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_quickChoiceCpe/fsc_quickChoiceCpe.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_quickChoiceCpe/fsc_quickChoiceCpe.css</t>
+  </si>
+  <si>
+    <t>lwc/fsc_quickChoiceCpe/fsc_quickChoiceCpe.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_quickChoiceCpe/fsc_quickChoiceCpe.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_quickChoiceCpe/fsc_quickChoiceCpe.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_quickChoiceCpe/fsc_quickChoiceCpe.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_quickChoiceCpe/fsc_quickChoiceCpe.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_quickChoiceCpe/fsc_quickChoiceCpe.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_quickChoiceFSC/fsc_quickChoiceFSC.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_quickChoiceFSC/fsc_quickChoiceFSC.css</t>
+  </si>
+  <si>
+    <t>lwc/fsc_quickChoiceFSC/fsc_quickChoiceFSC.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_quickChoiceFSC/fsc_quickChoiceFSC.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_quickChoiceFSC/fsc_quickChoiceFSC.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_quickChoiceFSC/fsc_quickChoiceFSC.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_quickChoiceFSC/fsc_quickChoiceFSC.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_quickChoiceFSC/fsc_quickChoiceFSC.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_reactiveConditionalVisibility/fsc_reactiveConditionalVisibility.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_reactiveConditionalVisibility/fsc_reactiveConditionalVisibility.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_reactiveConditionalVisibility/fsc_reactiveConditionalVisibility.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_reactiveConditionalVisibility/fsc_reactiveConditionalVisibility.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_reactiveConditionalVisibility/fsc_reactiveConditionalVisibility.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_reactiveConditionalVisibility/fsc_reactiveConditionalVisibility.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_screenFlow/fsc_screenFlow.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_screenFlow/fsc_screenFlow.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_screenFlow/fsc_screenFlow.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_screenFlow/fsc_screenFlow.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_screenFlow/fsc_screenFlow.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_screenFlow/fsc_screenFlow.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_searchableDataTable/fsc_searchableDataTable.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_searchableDataTable/fsc_searchableDataTable.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_searchableDataTable/fsc_searchableDataTable.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_searchableDataTable/fsc_searchableDataTable.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_searchableDataTable/fsc_searchableDataTable.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_searchableDataTable/fsc_searchableDataTable.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_sortingConfiguration3/fsc_sortingConfiguration3.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_sortingConfiguration3/fsc_sortingConfiguration3.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_sortingConfiguration3/fsc_sortingConfiguration3.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_sortingConfiguration3/fsc_sortingConfiguration3.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_sortingConfiguration3/fsc_sortingConfiguration3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_sortingConfiguration3/fsc_sortingConfiguration3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_sortingConfigurationLine/fsc_sortingConfigurationLine.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_sortingConfigurationLine/fsc_sortingConfigurationLine.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_sortingConfigurationLine/fsc_sortingConfigurationLine.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_sortingConfigurationLine/fsc_sortingConfigurationLine.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_sortingConfigurationLine/fsc_sortingConfigurationLine.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_sortingConfigurationLine/fsc_sortingConfigurationLine.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_toastMessage/fsc_toastMessage.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_toastMessage/fsc_toastMessage.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_toastMessage/fsc_toastMessage.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_toastMessage/fsc_toastMessage.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_toastMessage/fsc_toastMessage.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_toastMessage/fsc_toastMessage.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fsc_transferMetadata3/fsc_transferMetadata3.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_transferMetadata3/fsc_transferMetadata3.html</t>
+  </si>
+  <si>
+    <t>lwc/fsc_transferMetadata3/fsc_transferMetadata3.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_transferMetadata3/fsc_transferMetadata3.js</t>
+  </si>
+  <si>
+    <t>lwc/fsc_transferMetadata3/fsc_transferMetadata3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fsc_transferMetadata3/fsc_transferMetadata3.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/sendBetterEmailAddNewMembers/sendBetterEmailAddNewMembers.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle sendBetterEmailAddNewMembers/sendBetterEmailAddNewMembers.html</t>
+  </si>
+  <si>
+    <t>lwc/sendBetterEmailAddNewMembers/sendBetterEmailAddNewMembers.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle sendBetterEmailAddNewMembers/sendBetterEmailAddNewMembers.js</t>
+  </si>
+  <si>
+    <t>lwc/sendBetterEmailAddNewMembers/sendBetterEmailAddNewMembers.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle sendBetterEmailAddNewMembers/sendBetterEmailAddNewMembers.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/sendBetterEmailCPE/sendBetterEmailCPE.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle sendBetterEmailCPE/sendBetterEmailCPE.html</t>
+  </si>
+  <si>
+    <t>lwc/sendBetterEmailCPE/sendBetterEmailCPE.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle sendBetterEmailCPE/sendBetterEmailCPE.js</t>
+  </si>
+  <si>
+    <t>lwc/sendBetterEmailCPE/sendBetterEmailCPE.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle sendBetterEmailCPE/sendBetterEmailCPE.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/sendBetterEmailUcModal/sendBetterEmailUcModal.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle sendBetterEmailUcModal/sendBetterEmailUcModal.html</t>
+  </si>
+  <si>
+    <t>lwc/sendBetterEmailUcModal/sendBetterEmailUcModal.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle sendBetterEmailUcModal/sendBetterEmailUcModal.js</t>
+  </si>
+  <si>
+    <t>lwc/sendBetterEmailUcModal/sendBetterEmailUcModal.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle sendBetterEmailUcModal/sendBetterEmailUcModal.js-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/AccountContactRelation/AccountContactRelation.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject AccountContactRelation/AccountContactRelation</t>
+  </si>
+  <si>
+    <t>objects/AccountContactRelation/fields/Commercial_SPOC__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Commercial_SPOC__c</t>
+  </si>
+  <si>
+    <t>objects/AccountContactRelation/fields/Operational_SPOC__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Operational_SPOC__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/FlowPersonalConfiguration__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject FlowPersonalConfiguration__c/FlowPersonalConfiguration__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/ActorId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ActorId__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config1Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config1Name__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config1Value__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config1Value__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config2Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config2Name__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config2Value__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config2Value__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config3Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config3Name__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config3Value__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config3Value__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config4Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config4Name__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config4Value__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config4Value__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config5Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config5Name__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config5Value__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config5Value__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config6Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config6Name__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config6Value__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config6Value__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config7Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config7Name__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config7Value__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config7Value__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config8Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config8Name__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config8Value__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config8Value__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config9Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config9Name__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/Config9Value__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Config9Value__c</t>
+  </si>
+  <si>
+    <t>objects/FlowPersonalConfiguration__c/fields/LocationId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LocationId__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/FlowTableViewDefinition__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject FlowTableViewDefinition__c/FlowTableViewDefinition__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/Active__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Active__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/Alignments__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Alignments__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/Cell_Attributes__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Cell_Attributes__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/Edits__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Edits__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/Field_API_Names__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Field_API_Names__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/Field_Sorting__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Field_Sorting__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/Filters__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Filters__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/Icons__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Icons__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/Labels__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Labels__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/Object_API_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Object_API_Name__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/Other_Attributes__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Other_Attributes__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/Selection_Method__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Selection_Method__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/Type_Attributes__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Type_Attributes__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/View_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField View_Name__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/Widths__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Widths__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/fields/Wraps__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Wraps__c</t>
+  </si>
+  <si>
+    <t>objects/FlowTableViewDefinition__c/listViews/All.listView-meta.xml</t>
+  </si>
+  <si>
+    <t>ListView All</t>
+  </si>
+  <si>
+    <t>pages/fsc_screenFlow.page</t>
+  </si>
+  <si>
+    <t>ApexPage fsc_screenFlow</t>
+  </si>
+  <si>
+    <t>pages/fsc_screenFlow.page-meta.xml</t>
+  </si>
+  <si>
+    <t>permissionsets/USF_Flow_Screen_Component_Custom_Objects.permissionset-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSet USF_Flow_Screen_Component_Custom_Objects</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -901,58 +1660,88 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>quickActions/ServiceContract.Create_Service_Contract.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction ServiceContract.Create_Service_Contract</t>
-  </si>
-  <si>
-    <t>quickActions/WorkOrderLineItem.Complete_Service.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction WorkOrderLineItem.Complete_Service</t>
-  </si>
-  <si>
-    <t>reports/unfiled$public/Crew_Members_Planning_oXN.report-meta.xml</t>
-  </si>
-  <si>
-    <t>Report unfiled$public/Crew_Members_Planning_oXN</t>
-  </si>
-  <si>
-    <t>settings/Account.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings Account</t>
-  </si>
-  <si>
-    <t>settings/DynamicForms.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings DynamicForms</t>
-  </si>
-  <si>
     <t>settings/FieldService.settings-meta.xml</t>
   </si>
   <si>
     <t>Settings FieldService</t>
   </si>
   <si>
-    <t>settings/Mobile.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings Mobile</t>
-  </si>
-  <si>
-    <t>standardValueSets/AccountContactMultiRoles.standardValueSet-meta.xml</t>
-  </si>
-  <si>
-    <t>StandardValueSet AccountContactMultiRoles</t>
-  </si>
-  <si>
-    <t>standardValueSets/AccountType.standardValueSet-meta.xml</t>
-  </si>
-  <si>
-    <t>StandardValueSet AccountType</t>
+    <t>settings/Search.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Search</t>
+  </si>
+  <si>
+    <t>sharingRules/FlowPersonalConfiguration__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules FlowPersonalConfiguration__c</t>
+  </si>
+  <si>
+    <t>sharingRules/FlowTableViewDefinition__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules FlowTableViewDefinition__c</t>
+  </si>
+  <si>
+    <t>staticresources/fsc_Quickchoice_Images.resource-meta.xml</t>
+  </si>
+  <si>
+    <t>StaticResource fsc_Quickchoice_Images</t>
+  </si>
+  <si>
+    <t>staticresources/fsc_Quickchoice_Images/Maintenance_App.PNG</t>
+  </si>
+  <si>
+    <t>StaticResource fsc_Quickchoice_Images/Maintenance_App.PNG</t>
+  </si>
+  <si>
+    <t>staticresources/fsc_Quickchoice_Images/Sales.PNG</t>
+  </si>
+  <si>
+    <t>StaticResource fsc_Quickchoice_Images/Sales.PNG</t>
+  </si>
+  <si>
+    <t>staticresources/fsc_Quickchoice_Images/Service.PNG</t>
+  </si>
+  <si>
+    <t>StaticResource fsc_Quickchoice_Images/Service.PNG</t>
+  </si>
+  <si>
+    <t>staticresources/fsc_Quickchoice_Images/Service_Delivery.PNG</t>
+  </si>
+  <si>
+    <t>StaticResource fsc_Quickchoice_Images/Service_Delivery.PNG</t>
+  </si>
+  <si>
+    <t>staticresources/fsc_Quickchoice_Images/Software_Development.PNG</t>
+  </si>
+  <si>
+    <t>StaticResource fsc_Quickchoice_Images/Software_Development.PNG</t>
+  </si>
+  <si>
+    <t>staticresources/fsc_Quickchoice_Images/astro.png</t>
+  </si>
+  <si>
+    <t>StaticResource fsc_Quickchoice_Images/astro.png</t>
+  </si>
+  <si>
+    <t>staticresources/fsc_Quickchoice_Images/traailhead.PNG</t>
+  </si>
+  <si>
+    <t>StaticResource fsc_Quickchoice_Images/traailhead.PNG</t>
+  </si>
+  <si>
+    <t>topicsForObjects/FlowPersonalConfiguration__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects FlowPersonalConfiguration__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/FlowTableViewDefinition__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects FlowTableViewDefinition__c</t>
   </si>
   <si>
     <t>triggers/ServiceContractTrigger.trigger</t>
@@ -961,13 +1750,22 @@
     <t>ApexTrigger ServiceContractTrigger</t>
   </si>
   <si>
-    <t>uiFormatSpecificationSets/Type.uiFormatSpecificationSet-meta.xml</t>
-  </si>
-  <si>
-    <t>installedPackages/Time Warp.json</t>
-  </si>
-  <si>
-    <t>InstalledPackage Time Warp.json</t>
+    <t>installedPackages/FlowActionsBasePack.json</t>
+  </si>
+  <si>
+    <t>InstalledPackage FlowActionsBasePack.json</t>
+  </si>
+  <si>
+    <t>installedPackages/FlowScreenComponentsBasePack.json</t>
+  </si>
+  <si>
+    <t>InstalledPackage FlowScreenComponentsBasePack.json</t>
+  </si>
+  <si>
+    <t>installedPackages/SendBetterEmail.json</t>
+  </si>
+  <si>
+    <t>InstalledPackage SendBetterEmail.json</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -1350,12 +2148,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:G296"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="116" customWidth="1"/>
+    <col min="1" max="1" width="115" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="91" customWidth="1"/>
+    <col min="3" max="3" width="104" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -1388,13 +2186,10 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -1408,14 +2203,11 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1428,14 +2220,11 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1448,14 +2237,11 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1468,14 +2254,11 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1488,14 +2271,11 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1508,14 +2288,11 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1529,10 +2306,10 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1543,10 +2320,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -1560,16 +2337,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1580,16 +2354,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1600,13 +2371,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1617,13 +2388,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1634,16 +2405,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1654,16 +2422,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1674,16 +2439,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1694,16 +2456,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1714,16 +2473,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1734,16 +2490,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1754,16 +2507,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1774,16 +2524,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1794,16 +2541,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1814,13 +2558,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1831,16 +2575,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1851,16 +2592,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1871,16 +2609,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1891,16 +2626,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1911,16 +2646,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1931,16 +2666,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1951,16 +2683,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1971,16 +2700,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1991,16 +2720,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -2011,13 +2740,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -2028,13 +2760,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" t="s">
-        <v>25</v>
+        <v>66</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -2045,16 +2780,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2065,13 +2800,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" t="s">
-        <v>25</v>
+        <v>70</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>54</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -2082,13 +2820,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -2099,13 +2840,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -2116,13 +2857,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -2133,16 +2874,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -2153,13 +2894,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" t="s">
-        <v>25</v>
+        <v>80</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2170,16 +2914,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -2190,13 +2934,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -2207,13 +2951,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2224,13 +2968,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -2241,16 +2985,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -2261,13 +3005,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" t="s">
-        <v>25</v>
+        <v>92</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -2278,13 +3025,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -2295,13 +3042,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -2312,16 +3059,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2332,16 +3079,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -2352,16 +3099,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2372,13 +3119,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" t="s">
-        <v>25</v>
+        <v>104</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="D54" t="s">
+        <v>54</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2389,16 +3139,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2409,13 +3156,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2426,16 +3173,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2446,13 +3190,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
+        <v>112</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>113</v>
+      </c>
+      <c r="D58" t="s">
+        <v>54</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2463,16 +3210,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2483,16 +3227,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2503,16 +3244,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -2523,16 +3261,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2543,13 +3278,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2560,13 +3295,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2577,13 +3312,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2594,16 +3329,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2614,13 +3346,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2631,16 +3363,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2651,16 +3380,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2671,13 +3397,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2688,16 +3414,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
-      </c>
-      <c r="D71" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2708,16 +3431,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2728,16 +3448,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
-      </c>
-      <c r="D73" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2748,16 +3465,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
-      </c>
-      <c r="D74" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2768,13 +3482,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2785,16 +3499,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>158</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
-      </c>
-      <c r="D76" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2805,16 +3516,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>160</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -2825,16 +3533,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>162</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
-      </c>
-      <c r="D78" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2845,13 +3550,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -2862,16 +3567,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
-      </c>
-      <c r="D80" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -2882,16 +3584,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>168</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -2902,16 +3601,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>170</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -2922,16 +3618,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>172</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -2942,16 +3635,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>174</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
-      </c>
-      <c r="D84" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -2962,16 +3652,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>176</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
-      </c>
-      <c r="D85" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -2982,16 +3669,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>178</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
-      </c>
-      <c r="D86" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -3002,13 +3686,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -3019,16 +3703,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>181</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>182</v>
-      </c>
-      <c r="D88" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -3039,16 +3720,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>183</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
-      </c>
-      <c r="D89" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -3059,13 +3737,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -3076,13 +3754,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B91" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -3093,13 +3771,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -3110,13 +3788,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -3127,13 +3805,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -3144,13 +3822,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -3161,13 +3839,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -3178,13 +3856,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -3195,13 +3873,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -3212,13 +3890,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -3229,13 +3907,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -3246,13 +3924,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
@@ -3263,13 +3941,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -3280,13 +3958,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B103" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
@@ -3297,13 +3975,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
@@ -3314,13 +3992,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
@@ -3331,13 +4009,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -3348,13 +4026,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B107" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -3365,13 +4043,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -3382,13 +4060,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B109" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -3399,13 +4077,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -3416,13 +4094,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -3433,13 +4111,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -3450,16 +4128,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>231</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>232</v>
-      </c>
-      <c r="D113" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
@@ -3470,13 +4145,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B114" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -3487,16 +4162,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>235</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
+        <v>226</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>236</v>
-      </c>
-      <c r="D115" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
@@ -3507,13 +4179,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B116" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -3524,16 +4196,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>239</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
+        <v>230</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>240</v>
-      </c>
-      <c r="D117" t="s">
-        <v>9</v>
+        <v>231</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
@@ -3544,16 +4213,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>241</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>242</v>
-      </c>
-      <c r="D118" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
@@ -3564,16 +4230,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>243</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
+        <v>234</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>179</v>
-      </c>
-      <c r="D119" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
@@ -3584,16 +4247,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>244</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>245</v>
-      </c>
-      <c r="D120" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="F120" t="s">
         <v>10</v>
@@ -3604,16 +4264,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>246</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>247</v>
-      </c>
-      <c r="D121" t="s">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="F121" t="s">
         <v>10</v>
@@ -3624,16 +4281,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>248</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>249</v>
-      </c>
-      <c r="D122" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
@@ -3644,16 +4298,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>250</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>251</v>
-      </c>
-      <c r="D123" t="s">
-        <v>9</v>
+        <v>243</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
@@ -3664,16 +4315,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>252</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>253</v>
-      </c>
-      <c r="D124" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -3684,16 +4332,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>254</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>255</v>
-      </c>
-      <c r="D125" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -3704,16 +4349,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>256</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>257</v>
-      </c>
-      <c r="D126" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
@@ -3724,16 +4366,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>258</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
+        <v>250</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>259</v>
-      </c>
-      <c r="D127" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -3744,16 +4383,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>260</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
+        <v>252</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>261</v>
-      </c>
-      <c r="D128" t="s">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -3764,16 +4400,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>262</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
+        <v>254</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>263</v>
-      </c>
-      <c r="D129" t="s">
-        <v>9</v>
+        <v>255</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
@@ -3784,16 +4417,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>264</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
+        <v>256</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>265</v>
-      </c>
-      <c r="D130" t="s">
-        <v>9</v>
+        <v>257</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
@@ -3804,16 +4434,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>266</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
+        <v>258</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>267</v>
-      </c>
-      <c r="D131" t="s">
-        <v>9</v>
+        <v>259</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
@@ -3824,16 +4451,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>268</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
+        <v>260</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>269</v>
-      </c>
-      <c r="D132" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -3844,16 +4468,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>270</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
+        <v>262</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>271</v>
-      </c>
-      <c r="D133" t="s">
-        <v>9</v>
+        <v>263</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
@@ -3864,16 +4485,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>272</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
+        <v>264</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>273</v>
-      </c>
-      <c r="D134" t="s">
-        <v>9</v>
+        <v>265</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
@@ -3884,16 +4502,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>274</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
+        <v>266</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>275</v>
-      </c>
-      <c r="D135" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="F135" t="s">
         <v>10</v>
@@ -3904,16 +4519,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>276</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
+        <v>268</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>277</v>
-      </c>
-      <c r="D136" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
@@ -3924,16 +4536,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>278</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
+        <v>270</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>279</v>
-      </c>
-      <c r="D137" t="s">
-        <v>9</v>
+        <v>271</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -3944,16 +4553,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>280</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
+        <v>272</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>281</v>
-      </c>
-      <c r="D138" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -3964,16 +4570,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>282</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
+        <v>274</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>283</v>
-      </c>
-      <c r="D139" t="s">
-        <v>9</v>
+        <v>275</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
@@ -3984,16 +4587,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>284</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
+        <v>276</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>285</v>
-      </c>
-      <c r="D140" t="s">
-        <v>9</v>
+        <v>277</v>
       </c>
       <c r="F140" t="s">
         <v>10</v>
@@ -4004,16 +4604,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>286</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
+        <v>278</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>287</v>
-      </c>
-      <c r="D141" t="s">
-        <v>9</v>
+        <v>279</v>
       </c>
       <c r="F141" t="s">
         <v>10</v>
@@ -4024,16 +4621,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>288</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
+        <v>280</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>289</v>
-      </c>
-      <c r="D142" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="F142" t="s">
         <v>10</v>
@@ -4044,16 +4638,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>290</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
+        <v>282</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>291</v>
-      </c>
-      <c r="D143" t="s">
-        <v>9</v>
+        <v>283</v>
       </c>
       <c r="F143" t="s">
         <v>10</v>
@@ -4064,16 +4655,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>292</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
+        <v>284</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>293</v>
-      </c>
-      <c r="D144" t="s">
-        <v>9</v>
+        <v>285</v>
       </c>
       <c r="F144" t="s">
         <v>10</v>
@@ -4084,16 +4672,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>294</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
+        <v>286</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>295</v>
-      </c>
-      <c r="D145" t="s">
-        <v>9</v>
+        <v>287</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -4104,13 +4689,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B146" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
@@ -4121,13 +4706,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B147" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F147" t="s">
         <v>10</v>
@@ -4138,16 +4723,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>300</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
+        <v>292</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>301</v>
-      </c>
-      <c r="D148" t="s">
-        <v>9</v>
+        <v>293</v>
       </c>
       <c r="F148" t="s">
         <v>10</v>
@@ -4158,16 +4740,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>302</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>303</v>
-      </c>
-      <c r="D149" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -4178,16 +4757,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>304</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
+        <v>296</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>305</v>
-      </c>
-      <c r="D150" t="s">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="F150" t="s">
         <v>10</v>
@@ -4198,16 +4774,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>306</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
+        <v>298</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>307</v>
-      </c>
-      <c r="D151" t="s">
-        <v>9</v>
+        <v>299</v>
       </c>
       <c r="F151" t="s">
         <v>10</v>
@@ -4218,16 +4791,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>308</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>309</v>
-      </c>
-      <c r="D152" t="s">
-        <v>9</v>
+        <v>301</v>
       </c>
       <c r="F152" t="s">
         <v>10</v>
@@ -4238,13 +4808,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B153" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F153" t="s">
         <v>10</v>
@@ -4255,16 +4825,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>312</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
+        <v>304</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>313</v>
-      </c>
-      <c r="D154" t="s">
-        <v>9</v>
+        <v>305</v>
       </c>
       <c r="F154" t="s">
         <v>10</v>
@@ -4275,16 +4842,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>314</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
+        <v>306</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>315</v>
-      </c>
-      <c r="D155" t="s">
-        <v>9</v>
+        <v>307</v>
       </c>
       <c r="F155" t="s">
         <v>10</v>
@@ -4295,13 +4859,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B156" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F156" t="s">
         <v>10</v>
@@ -4312,13 +4876,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B157" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
@@ -4329,16 +4893,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>319</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
+        <v>312</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>319</v>
-      </c>
-      <c r="D158" t="s">
-        <v>9</v>
+        <v>313</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
@@ -4349,21 +4910,2437 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>315</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>317</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>319</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>320</v>
       </c>
-      <c r="B159">
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>321</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>323</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>325</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>327</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>329</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>330</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>331</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>333</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>335</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>336</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>337</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>339</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>341</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>342</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>343</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>344</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>345</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>346</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>347</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>348</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>349</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>350</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>351</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>352</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>353</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>354</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>355</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>356</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>357</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>358</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>359</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>360</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="s">
+        <v>361</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>362</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>363</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>364</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>365</v>
+      </c>
+      <c r="F184" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>366</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>367</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>369</v>
+      </c>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>371</v>
+      </c>
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>372</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>373</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>374</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>375</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>376</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>377</v>
+      </c>
+      <c r="F190" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>378</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" t="s">
+        <v>379</v>
+      </c>
+      <c r="F191" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>380</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" t="s">
+        <v>381</v>
+      </c>
+      <c r="F192" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>382</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>383</v>
+      </c>
+      <c r="F193" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>384</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" t="s">
+        <v>385</v>
+      </c>
+      <c r="F194" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>386</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" t="s">
+        <v>387</v>
+      </c>
+      <c r="F195" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>388</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>389</v>
+      </c>
+      <c r="F196" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>390</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>391</v>
+      </c>
+      <c r="F197" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>392</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>393</v>
+      </c>
+      <c r="F198" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>394</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>395</v>
+      </c>
+      <c r="F199" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>396</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>397</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>398</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" t="s">
+        <v>399</v>
+      </c>
+      <c r="F201" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>400</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" t="s">
+        <v>401</v>
+      </c>
+      <c r="F202" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>402</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" t="s">
+        <v>403</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>404</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" t="s">
+        <v>405</v>
+      </c>
+      <c r="F204" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>406</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>407</v>
+      </c>
+      <c r="F205" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>408</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" t="s">
+        <v>409</v>
+      </c>
+      <c r="F206" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>410</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" t="s">
+        <v>411</v>
+      </c>
+      <c r="F207" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>412</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" t="s">
+        <v>413</v>
+      </c>
+      <c r="F208" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>414</v>
+      </c>
+      <c r="B209" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" t="s">
+        <v>415</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>416</v>
+      </c>
+      <c r="B210" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" t="s">
+        <v>417</v>
+      </c>
+      <c r="F210" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>418</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" t="s">
+        <v>419</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>420</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" t="s">
+        <v>421</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>422</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" t="s">
+        <v>423</v>
+      </c>
+      <c r="F213" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>424</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" t="s">
+        <v>425</v>
+      </c>
+      <c r="F214" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>426</v>
+      </c>
+      <c r="B215" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" t="s">
+        <v>427</v>
+      </c>
+      <c r="F215" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>428</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" t="s">
+        <v>429</v>
+      </c>
+      <c r="F216" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>430</v>
+      </c>
+      <c r="B217" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" t="s">
+        <v>431</v>
+      </c>
+      <c r="F217" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>432</v>
+      </c>
+      <c r="B218" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" t="s">
+        <v>433</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>434</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>435</v>
+      </c>
+      <c r="F219" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>436</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" t="s">
+        <v>437</v>
+      </c>
+      <c r="F220" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>438</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" t="s">
+        <v>439</v>
+      </c>
+      <c r="F221" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>440</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" t="s">
+        <v>441</v>
+      </c>
+      <c r="F222" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>442</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" t="s">
+        <v>443</v>
+      </c>
+      <c r="F223" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>444</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" t="s">
+        <v>445</v>
+      </c>
+      <c r="F224" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>446</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" t="s">
+        <v>447</v>
+      </c>
+      <c r="F225" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>448</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" t="s">
+        <v>449</v>
+      </c>
+      <c r="F226" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>450</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" t="s">
+        <v>451</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>452</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" t="s">
+        <v>453</v>
+      </c>
+      <c r="F228" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>454</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" t="s">
+        <v>455</v>
+      </c>
+      <c r="F229" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>456</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" t="s">
+        <v>457</v>
+      </c>
+      <c r="F230" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>458</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" t="s">
+        <v>459</v>
+      </c>
+      <c r="F231" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>460</v>
+      </c>
+      <c r="B232" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" t="s">
+        <v>461</v>
+      </c>
+      <c r="F232" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>462</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" t="s">
+        <v>463</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>464</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" t="s">
+        <v>465</v>
+      </c>
+      <c r="F234" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>466</v>
+      </c>
+      <c r="B235" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" t="s">
+        <v>467</v>
+      </c>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>468</v>
+      </c>
+      <c r="B236" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" t="s">
+        <v>469</v>
+      </c>
+      <c r="F236" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>470</v>
+      </c>
+      <c r="B237" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" t="s">
+        <v>471</v>
+      </c>
+      <c r="F237" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>472</v>
+      </c>
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" t="s">
+        <v>473</v>
+      </c>
+      <c r="F238" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>474</v>
+      </c>
+      <c r="B239" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" t="s">
+        <v>475</v>
+      </c>
+      <c r="F239" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>476</v>
+      </c>
+      <c r="B240" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" t="s">
+        <v>477</v>
+      </c>
+      <c r="F240" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>478</v>
+      </c>
+      <c r="B241" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" t="s">
+        <v>479</v>
+      </c>
+      <c r="F241" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>480</v>
+      </c>
+      <c r="B242" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" t="s">
+        <v>481</v>
+      </c>
+      <c r="F242" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>482</v>
+      </c>
+      <c r="B243" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" t="s">
+        <v>483</v>
+      </c>
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>484</v>
+      </c>
+      <c r="B244" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" t="s">
+        <v>485</v>
+      </c>
+      <c r="F244" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>486</v>
+      </c>
+      <c r="B245" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" t="s">
+        <v>487</v>
+      </c>
+      <c r="F245" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>488</v>
+      </c>
+      <c r="B246" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" t="s">
+        <v>489</v>
+      </c>
+      <c r="F246" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>490</v>
+      </c>
+      <c r="B247" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" t="s">
+        <v>491</v>
+      </c>
+      <c r="F247" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>492</v>
+      </c>
+      <c r="B248" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" t="s">
+        <v>493</v>
+      </c>
+      <c r="F248" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>494</v>
+      </c>
+      <c r="B249" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" t="s">
+        <v>495</v>
+      </c>
+      <c r="F249" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>496</v>
+      </c>
+      <c r="B250" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" t="s">
+        <v>495</v>
+      </c>
+      <c r="F250" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>497</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" t="s">
+        <v>498</v>
+      </c>
+      <c r="F251" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>499</v>
+      </c>
+      <c r="B252">
         <v>0</v>
       </c>
-      <c r="C159" t="s">
-        <v>320</v>
-      </c>
-      <c r="D159" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" t="s">
+      <c r="C252" t="s">
+        <v>500</v>
+      </c>
+      <c r="D252" t="s">
+        <v>54</v>
+      </c>
+      <c r="F252" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>501</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253" t="s">
+        <v>502</v>
+      </c>
+      <c r="D253" t="s">
+        <v>54</v>
+      </c>
+      <c r="F253" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>503</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254" t="s">
+        <v>504</v>
+      </c>
+      <c r="D254" t="s">
+        <v>54</v>
+      </c>
+      <c r="F254" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>505</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255" t="s">
+        <v>506</v>
+      </c>
+      <c r="D255" t="s">
+        <v>54</v>
+      </c>
+      <c r="F255" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>507</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>508</v>
+      </c>
+      <c r="D256" t="s">
+        <v>54</v>
+      </c>
+      <c r="F256" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>509</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>510</v>
+      </c>
+      <c r="D257" t="s">
+        <v>54</v>
+      </c>
+      <c r="F257" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>511</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258" t="s">
+        <v>512</v>
+      </c>
+      <c r="D258" t="s">
+        <v>54</v>
+      </c>
+      <c r="F258" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>513</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259" t="s">
+        <v>514</v>
+      </c>
+      <c r="D259" t="s">
+        <v>54</v>
+      </c>
+      <c r="F259" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>515</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
+        <v>516</v>
+      </c>
+      <c r="D260" t="s">
+        <v>54</v>
+      </c>
+      <c r="F260" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>517</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261" t="s">
+        <v>518</v>
+      </c>
+      <c r="D261" t="s">
+        <v>54</v>
+      </c>
+      <c r="F261" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>519</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262" t="s">
+        <v>520</v>
+      </c>
+      <c r="D262" t="s">
+        <v>54</v>
+      </c>
+      <c r="F262" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>521</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263" t="s">
+        <v>522</v>
+      </c>
+      <c r="D263" t="s">
+        <v>54</v>
+      </c>
+      <c r="F263" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>523</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264" t="s">
+        <v>524</v>
+      </c>
+      <c r="D264" t="s">
+        <v>54</v>
+      </c>
+      <c r="F264" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>525</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265" t="s">
+        <v>526</v>
+      </c>
+      <c r="D265" t="s">
+        <v>54</v>
+      </c>
+      <c r="F265" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>527</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266" t="s">
+        <v>528</v>
+      </c>
+      <c r="D266" t="s">
+        <v>54</v>
+      </c>
+      <c r="F266" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>529</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267" t="s">
+        <v>530</v>
+      </c>
+      <c r="D267" t="s">
+        <v>54</v>
+      </c>
+      <c r="F267" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>531</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268" t="s">
+        <v>532</v>
+      </c>
+      <c r="D268" t="s">
+        <v>54</v>
+      </c>
+      <c r="F268" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>533</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269" t="s">
+        <v>534</v>
+      </c>
+      <c r="D269" t="s">
+        <v>54</v>
+      </c>
+      <c r="F269" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>535</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270" t="s">
+        <v>536</v>
+      </c>
+      <c r="D270" t="s">
+        <v>54</v>
+      </c>
+      <c r="F270" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>537</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271" t="s">
+        <v>538</v>
+      </c>
+      <c r="D271" t="s">
+        <v>54</v>
+      </c>
+      <c r="F271" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>539</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272" t="s">
+        <v>540</v>
+      </c>
+      <c r="D272" t="s">
+        <v>54</v>
+      </c>
+      <c r="F272" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>541</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273" t="s">
+        <v>542</v>
+      </c>
+      <c r="D273" t="s">
+        <v>54</v>
+      </c>
+      <c r="F273" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>543</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274" t="s">
+        <v>544</v>
+      </c>
+      <c r="D274" t="s">
+        <v>54</v>
+      </c>
+      <c r="F274" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>545</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275" t="s">
+        <v>546</v>
+      </c>
+      <c r="D275" t="s">
+        <v>54</v>
+      </c>
+      <c r="F275" t="s">
+        <v>10</v>
+      </c>
+      <c r="G275" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>547</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276" t="s">
+        <v>548</v>
+      </c>
+      <c r="D276" t="s">
+        <v>54</v>
+      </c>
+      <c r="F276" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>549</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277" t="s">
+        <v>550</v>
+      </c>
+      <c r="D277" t="s">
+        <v>54</v>
+      </c>
+      <c r="F277" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>551</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278" t="s">
+        <v>552</v>
+      </c>
+      <c r="D278" t="s">
+        <v>54</v>
+      </c>
+      <c r="F278" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>553</v>
+      </c>
+      <c r="B279" t="s">
+        <v>8</v>
+      </c>
+      <c r="C279" t="s">
+        <v>554</v>
+      </c>
+      <c r="F279" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>555</v>
+      </c>
+      <c r="B280" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" t="s">
+        <v>556</v>
+      </c>
+      <c r="F280" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>557</v>
+      </c>
+      <c r="B281" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281" t="s">
+        <v>558</v>
+      </c>
+      <c r="F281" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>559</v>
+      </c>
+      <c r="B282" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" t="s">
+        <v>560</v>
+      </c>
+      <c r="F282" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>561</v>
+      </c>
+      <c r="B283" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" t="s">
+        <v>562</v>
+      </c>
+      <c r="F283" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>563</v>
+      </c>
+      <c r="B284" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" t="s">
+        <v>564</v>
+      </c>
+      <c r="F284" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>565</v>
+      </c>
+      <c r="B285" t="s">
+        <v>8</v>
+      </c>
+      <c r="C285" t="s">
+        <v>566</v>
+      </c>
+      <c r="F285" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>567</v>
+      </c>
+      <c r="B286" t="s">
+        <v>8</v>
+      </c>
+      <c r="C286" t="s">
+        <v>568</v>
+      </c>
+      <c r="F286" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>569</v>
+      </c>
+      <c r="B287" t="s">
+        <v>8</v>
+      </c>
+      <c r="C287" t="s">
+        <v>570</v>
+      </c>
+      <c r="F287" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>571</v>
+      </c>
+      <c r="B288" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" t="s">
+        <v>572</v>
+      </c>
+      <c r="F288" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>573</v>
+      </c>
+      <c r="B289" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" t="s">
+        <v>574</v>
+      </c>
+      <c r="F289" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>575</v>
+      </c>
+      <c r="B290" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" t="s">
+        <v>576</v>
+      </c>
+      <c r="F290" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>577</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291" t="s">
+        <v>578</v>
+      </c>
+      <c r="D291" t="s">
+        <v>54</v>
+      </c>
+      <c r="F291" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>579</v>
+      </c>
+      <c r="B292" t="s">
+        <v>8</v>
+      </c>
+      <c r="C292" t="s">
+        <v>580</v>
+      </c>
+      <c r="F292" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>581</v>
+      </c>
+      <c r="B293" t="s">
+        <v>8</v>
+      </c>
+      <c r="C293" t="s">
+        <v>582</v>
+      </c>
+      <c r="F293" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>583</v>
+      </c>
+      <c r="B294" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" t="s">
+        <v>584</v>
+      </c>
+      <c r="F294" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>585</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295" t="s">
+        <v>585</v>
+      </c>
+      <c r="D295" t="s">
+        <v>54</v>
+      </c>
+      <c r="F295" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>586</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296" t="s">
+        <v>586</v>
+      </c>
+      <c r="D296" t="s">
+        <v>54</v>
+      </c>
+      <c r="F296" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>File</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>CleanDataService DataCloudGeoLocation</t>
+  </si>
+  <si>
+    <t>installedPackages/FSL.json</t>
+  </si>
+  <si>
+    <t>InstalledPackage FSL.json</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" customWidth="1"/>
@@ -503,6 +509,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Z1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="286">
   <si>
     <t>File</t>
   </si>
@@ -34,19 +34,145 @@
     <t>severityIcon</t>
   </si>
   <si>
+    <t>appMenus/AppSwitcher.appMenu-meta.xml</t>
+  </si>
+  <si>
+    <t>AppMenu AppSwitcher</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
     <t>applications/Sales.app-meta.xml</t>
   </si>
   <si>
     <t>CustomApplication Sales</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
+    <t>classes/ATAKMaterialService.cls</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKMaterialService</t>
+  </si>
+  <si>
+    <t>classes/ATAKMaterialService.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKMaterialWrapper.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKMaterialWrapper</t>
+  </si>
+  <si>
+    <t>classes/ATAKMaterialWrapper.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKMaterialWrapperTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKMaterialWrapperTest</t>
+  </si>
+  <si>
+    <t>classes/ATAKMaterialWrapperTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKPersonnelService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKPersonnelService</t>
+  </si>
+  <si>
+    <t>classes/ATAKPersonnelService.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKPersonnelWrapper.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKPersonnelWrapper</t>
+  </si>
+  <si>
+    <t>classes/ATAKPersonnelWrapper.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKPersonnelWrapperTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKPersonnelWrapperTest</t>
+  </si>
+  <si>
+    <t>classes/ATAKPersonnelWrapperTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKVehicleService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKVehicleService</t>
+  </si>
+  <si>
+    <t>classes/ATAKVehicleService.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKVehicleWrapper.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKVehicleWrapper</t>
+  </si>
+  <si>
+    <t>classes/ATAKVehicleWrapper.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKVehicleWrapperTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKVehicleWrapperTest</t>
+  </si>
+  <si>
+    <t>classes/ATAKVehicleWrapperTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/FileUploadImprovedHelper.cls</t>
+  </si>
+  <si>
+    <t>ApexClass FileUploadImprovedHelper</t>
+  </si>
+  <si>
+    <t>classes/FileUploadImprovedHelper.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/FileUploadImproved_Test.cls</t>
+  </si>
+  <si>
+    <t>ApexClass FileUploadImproved_Test</t>
+  </si>
+  <si>
+    <t>classes/FileUploadImproved_Test.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/MachineRestResource.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MachineRestResource</t>
+  </si>
+  <si>
+    <t>classes/PersonnelRestResource.cls</t>
+  </si>
+  <si>
+    <t>ApexClass PersonnelRestResource</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderSchedulerBatch.cls</t>
+  </si>
+  <si>
+    <t>ApexClass WorkOrderSchedulerBatch</t>
   </si>
   <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
@@ -55,10 +181,694 @@
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>installedPackages/FSL.json</t>
-  </si>
-  <si>
-    <t>InstalledPackage FSL.json</t>
+    <t>flexipages/Commercial_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Commercial_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Location_Visit_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Location_Visit_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Operational_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Service_Contract_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_Appointment_After_Save_Record_Triggered_Update_Related_WO_Status.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_Appointment_After_Save_Record_Triggered_Update_Related_WO_Status</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Populate_Contact_on_WO_and_SA.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Populate_Contact_on_WO_and_SA</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Take_After_Work_Photos.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Take_After_Work_Photos</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Take_Before_Work_Photos.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Take_Before_Work_Photos</t>
+  </si>
+  <si>
+    <t>flows/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
+  </si>
+  <si>
+    <t>flows/Service_Appointment_After_Save_Record_Triggered_Update_Related_WO_Status.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_Appointment_After_Save_Record_Triggered_Update_Related_WO_Status</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_After_Save_Record_Triggered_Populate_Contact_on_WO_and_SA.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_After_Save_Record_Triggered_Populate_Contact_on_WO_and_SA</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Take_After_Work_Photos.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Take_After_Work_Photos</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Take_Before_Work_Photos.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Take_Before_Work_Photos</t>
+  </si>
+  <si>
+    <t>layouts/ATAK_Personnel__c-ATAK Personnel Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ATAK_Personnel__c-ATAK Personnel Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Operational Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Operational Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/FlowInterview-Flow Interview Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout FlowInterview-Flow Interview Layout</t>
+  </si>
+  <si>
+    <t>layouts/Location_Visit__c-Location Visit Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Location_Visit__c-Location Visit Layout</t>
+  </si>
+  <si>
+    <t>layouts/Product2-Product Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Product2-Product Layout</t>
+  </si>
+  <si>
+    <t>layouts/ServiceContract-Service Contract Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceContract-Service Contract Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkOrder-Work Order Layout</t>
+  </si>
+  <si>
+    <t>lwc/fileUploadImproved/fileUploadImproved.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fileUploadImproved/fileUploadImproved.html</t>
+  </si>
+  <si>
+    <t>lwc/fileUploadImproved/fileUploadImproved.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fileUploadImproved/fileUploadImproved.js</t>
+  </si>
+  <si>
+    <t>lwc/fileUploadImproved/fileUploadImproved.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fileUploadImproved/fileUploadImproved.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/fileUploadImprovedCPE/fileUploadImprovedCPE.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fileUploadImprovedCPE/fileUploadImprovedCPE.html</t>
+  </si>
+  <si>
+    <t>lwc/fileUploadImprovedCPE/fileUploadImprovedCPE.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fileUploadImprovedCPE/fileUploadImprovedCPE.js</t>
+  </si>
+  <si>
+    <t>lwc/fileUploadImprovedCPE/fileUploadImprovedCPE.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fileUploadImprovedCPE/fileUploadImprovedCPE.js-meta.xml</t>
+  </si>
+  <si>
+    <t>notificationTypeConfig/NotificationTypeConfig.config-meta.xml</t>
+  </si>
+  <si>
+    <t>NotificationTypeConfig NotificationTypeConfig</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/ATAK_Personnel__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject ATAK_Personnel__c/ATAK_Personnel__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/compactLayouts/Custom_Compact_Layout.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Custom_Compact_Layout</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Code__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Department_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Department_Code__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Department_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Department_Name__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Depot_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Depot_Code__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Depot_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Depot_Name__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Dossier__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Dossier__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Email__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Email__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Enddate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Enddate__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Mobile__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Mobile__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Name__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Phone__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Phone__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Sitemanager_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Sitemanager_Code__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Sitemanager_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Sitemanager_Name__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Startdate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Startdate__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Statute__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Statute__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/listViews/All.listView-meta.xml</t>
+  </si>
+  <si>
+    <t>ListView All</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Commercial_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Commercial_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Financial_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Financial_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Group_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Group_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Operational_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Operational_Account</t>
+  </si>
+  <si>
+    <t>objects/Contact/fields/Function_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Function_Type__c</t>
+  </si>
+  <si>
+    <t>objects/Contact/fields/Functional_level__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Functional_level__c</t>
+  </si>
+  <si>
+    <t>objects/ContentVersion/ContentVersion.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject ContentVersion/ContentVersion</t>
+  </si>
+  <si>
+    <t>objects/ContentVersion/fields/Guest_Record_fileupload__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Guest_Record_fileupload__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Asset_Evaluation__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Asset_Evaluation__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Location_Passport_Status__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Location_Passport_Status__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Overall_Evaluation__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Overall_Evaluation__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Safety_Instruction_Status__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Safety_Instruction_Status__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Service_Contract_Status__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Contract_Status__c</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/ATAK_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ATAK_Code__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/compactLayouts/Service_Contract.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Service_Contract</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Status_custom__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Status_custom__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/After_Work_Comments__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField After_Work_Comments__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Before_Work_Comments__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Before_Work_Comments__c</t>
+  </si>
+  <si>
+    <t>permissionsetgroups/Admin_Permission_Set_Group.permissionsetgroup-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSetGroup Admin_Permission_Set_Group</t>
+  </si>
+  <si>
+    <t>permissionsetgroups/Business_Support_Permission_Set_Group.permissionsetgroup-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSetGroup Business_Support_Permission_Set_Group</t>
+  </si>
+  <si>
+    <t>permissionsetgroups/Contract_Manager_Permission_Set_Group.permissionsetgroup-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSetGroup Contract_Manager_Permission_Set_Group</t>
+  </si>
+  <si>
+    <t>permissionsetgroups/Operator_Permission_Set_Group.permissionsetgroup-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSetGroup Operator_Permission_Set_Group</t>
+  </si>
+  <si>
+    <t>permissionsets/ATAK_Permissions.permissionset-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSet ATAK_Permissions</t>
+  </si>
+  <si>
+    <t>permissionsets/fileUploadImproved.permissionset-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSet fileUploadImproved</t>
+  </si>
+  <si>
+    <t>profileSessionSettings/Salesforce_API_Only_System_Integrations_profileSessionSetting1731425383850.profileSessionSetting-meta.xml</t>
+  </si>
+  <si>
+    <t>ProfileSessionSetting Salesforce_API_Only_System_Integrations_profileSessionSetting1731425383850</t>
+  </si>
+  <si>
+    <t>profiles/Admin.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Admin</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Security User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Security User</t>
+  </si>
+  <si>
+    <t>profiles/Business Support.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Business Support</t>
+  </si>
+  <si>
+    <t>profiles/CPQ Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile CPQ Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter External User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter External User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Free User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Free User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Moderator User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Moderator User</t>
+  </si>
+  <si>
+    <t>profiles/Contract Manager %28custom%29.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Contract Manager %28custom%29</t>
+  </si>
+  <si>
+    <t>profiles/ContractManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ContractManager</t>
+  </si>
+  <si>
+    <t>profiles/Customer Community Plus User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Customer Community Plus User</t>
+  </si>
+  <si>
+    <t>profiles/External Operator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile External Operator</t>
+  </si>
+  <si>
+    <t>profiles/Guest License User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Guest License User</t>
+  </si>
+  <si>
+    <t>profiles/Identity User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Identity User</t>
+  </si>
+  <si>
+    <t>profiles/Manager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Manager</t>
+  </si>
+  <si>
+    <t>profiles/MarketingProfile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile MarketingProfile</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - API Only Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - API Only Integrations</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - Salesforce.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - Salesforce</t>
+  </si>
+  <si>
+    <t>profiles/Operator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Operator</t>
+  </si>
+  <si>
+    <t>profiles/Partner Community User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Partner Community User</t>
+  </si>
+  <si>
+    <t>profiles/Read Only.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Read Only</t>
+  </si>
+  <si>
+    <t>profiles/Sales Insights Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Insights Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Salesforce API Only System Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Salesforce API Only System Integrations</t>
+  </si>
+  <si>
+    <t>profiles/SolutionManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile SolutionManager</t>
+  </si>
+  <si>
+    <t>profiles/Standard.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Standard</t>
+  </si>
+  <si>
+    <t>remoteSiteSettings/BOFCRMSEnvironment1731427604238.remoteSite-meta.xml</t>
+  </si>
+  <si>
+    <t>RemoteSiteSetting BOFCRMSEnvironment1731427604238</t>
+  </si>
+  <si>
+    <t>remoteSiteSettings/BOFCRMSEnvironment1731427604935.remoteSite-meta.xml</t>
+  </si>
+  <si>
+    <t>RemoteSiteSetting BOFCRMSEnvironment1731427604935</t>
+  </si>
+  <si>
+    <t>remoteSiteSettings/BOFCRMSLoad1.remoteSite-meta.xml</t>
+  </si>
+  <si>
+    <t>RemoteSiteSetting BOFCRMSLoad1</t>
+  </si>
+  <si>
+    <t>remoteSiteSettings/BOFCRMSLoad2.remoteSite-meta.xml</t>
+  </si>
+  <si>
+    <t>RemoteSiteSetting BOFCRMSLoad2</t>
+  </si>
+  <si>
+    <t>remoteSiteSettings/BOFCRMSLoad3.remoteSite-meta.xml</t>
+  </si>
+  <si>
+    <t>RemoteSiteSetting BOFCRMSLoad3</t>
+  </si>
+  <si>
+    <t>remoteSiteSettings/BOFCRMSLoad4.remoteSite-meta.xml</t>
+  </si>
+  <si>
+    <t>RemoteSiteSetting BOFCRMSLoad4</t>
+  </si>
+  <si>
+    <t>remoteSiteSettings/BOFCRMSLoad5.remoteSite-meta.xml</t>
+  </si>
+  <si>
+    <t>RemoteSiteSetting BOFCRMSLoad5</t>
+  </si>
+  <si>
+    <t>remoteSiteSettings/BOFCRMSLoad6.remoteSite-meta.xml</t>
+  </si>
+  <si>
+    <t>RemoteSiteSetting BOFCRMSLoad6</t>
+  </si>
+  <si>
+    <t>remoteSiteSettings/BOFCRMSLoad7.remoteSite-meta.xml</t>
+  </si>
+  <si>
+    <t>RemoteSiteSetting BOFCRMSLoad7</t>
+  </si>
+  <si>
+    <t>settings/Search.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Search</t>
+  </si>
+  <si>
+    <t>sharingRules/ATAK_Personnel__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules ATAK_Personnel__c</t>
+  </si>
+  <si>
+    <t>standardValueSets/AccountContactMultiRoles.standardValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>StandardValueSet AccountContactMultiRoles</t>
+  </si>
+  <si>
+    <t>standardValueSets/LeadSource.standardValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>StandardValueSet LeadSource</t>
+  </si>
+  <si>
+    <t>standardValueSets/Salutation.standardValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>StandardValueSet Salutation</t>
+  </si>
+  <si>
+    <t>tabs/ATAK_Personnel__c.tab-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomTab ATAK_Personnel__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/ATAK_Personnel__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects ATAK_Personnel__c</t>
+  </si>
+  <si>
+    <t>installedPackages/Salesforce Mobile Apps.json</t>
+  </si>
+  <si>
+    <t>InstalledPackage Salesforce Mobile Apps.json</t>
+  </si>
+  <si>
+    <t>installedPackages/fileUploadImproved.json</t>
+  </si>
+  <si>
+    <t>InstalledPackage fileUploadImproved.json</t>
+  </si>
+  <si>
+    <t>manifest/package-all-org-items.xml</t>
+  </si>
+  <si>
+    <t>manifest/package-backup-items.xml</t>
   </si>
 </sst>
 </file>
@@ -435,12 +1245,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G145"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="1" max="1" width="128" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="3" max="3" width="96" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -513,19 +1323,2599 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>117</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>121</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>137</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>141</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>145</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>159</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>161</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>173</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>175</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>179</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>183</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>185</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>187</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>189</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>191</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>193</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>197</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>199</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>201</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>203</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>207</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>211</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>213</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>215</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>217</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>223</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>225</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>227</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>229</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>231</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>233</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>235</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>237</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>241</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>243</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>245</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>247</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>249</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>251</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>253</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" t="s">
+        <v>255</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>257</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" t="s">
+        <v>259</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" t="s">
+        <v>261</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>263</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s">
+        <v>265</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>267</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="s">
+        <v>269</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>271</v>
+      </c>
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>273</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>275</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" t="s">
+        <v>277</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s">
+        <v>279</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>281</v>
+      </c>
+      <c r="D142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>283</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>284</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>285</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="235">
   <si>
     <t>File</t>
   </si>
@@ -34,10 +34,10 @@
     <t>severityIcon</t>
   </si>
   <si>
-    <t>appMenus/AppSwitcher.appMenu-meta.xml</t>
-  </si>
-  <si>
-    <t>AppMenu AppSwitcher</t>
+    <t>applications/Krinkels_Field_Service.app-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomApplication Krinkels_Field_Service</t>
   </si>
   <si>
     <t>M</t>
@@ -55,124 +55,49 @@
     <t>CustomApplication Sales</t>
   </si>
   <si>
-    <t>classes/ATAKMaterialService.cls</t>
+    <t>classes/ATAKProjectService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKProjectService</t>
+  </si>
+  <si>
+    <t>classes/ATAKVehicleService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKVehicleService</t>
+  </si>
+  <si>
+    <t>classes/InboundLoggerService.cls</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>ApexClass ATAKMaterialService</t>
-  </si>
-  <si>
-    <t>classes/ATAKMaterialService.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ATAKMaterialWrapper.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKMaterialWrapper</t>
-  </si>
-  <si>
-    <t>classes/ATAKMaterialWrapper.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ATAKMaterialWrapperTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKMaterialWrapperTest</t>
-  </si>
-  <si>
-    <t>classes/ATAKMaterialWrapperTest.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ATAKPersonnelService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKPersonnelService</t>
-  </si>
-  <si>
-    <t>classes/ATAKPersonnelService.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ATAKPersonnelWrapper.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKPersonnelWrapper</t>
-  </si>
-  <si>
-    <t>classes/ATAKPersonnelWrapper.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ATAKPersonnelWrapperTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKPersonnelWrapperTest</t>
-  </si>
-  <si>
-    <t>classes/ATAKPersonnelWrapperTest.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ATAKVehicleService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKVehicleService</t>
-  </si>
-  <si>
-    <t>classes/ATAKVehicleService.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ATAKVehicleWrapper.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKVehicleWrapper</t>
-  </si>
-  <si>
-    <t>classes/ATAKVehicleWrapper.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ATAKVehicleWrapperTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKVehicleWrapperTest</t>
-  </si>
-  <si>
-    <t>classes/ATAKVehicleWrapperTest.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/FileUploadImprovedHelper.cls</t>
-  </si>
-  <si>
-    <t>ApexClass FileUploadImprovedHelper</t>
-  </si>
-  <si>
-    <t>classes/FileUploadImprovedHelper.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/FileUploadImproved_Test.cls</t>
-  </si>
-  <si>
-    <t>ApexClass FileUploadImproved_Test</t>
-  </si>
-  <si>
-    <t>classes/FileUploadImproved_Test.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/MachineRestResource.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MachineRestResource</t>
-  </si>
-  <si>
-    <t>classes/PersonnelRestResource.cls</t>
-  </si>
-  <si>
-    <t>ApexClass PersonnelRestResource</t>
-  </si>
-  <si>
-    <t>classes/WorkOrderSchedulerBatch.cls</t>
-  </si>
-  <si>
-    <t>ApexClass WorkOrderSchedulerBatch</t>
+    <t>ApexClass InboundLoggerService</t>
+  </si>
+  <si>
+    <t>classes/InboundLoggerService.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ProjectRestResource.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ProjectRestResource</t>
+  </si>
+  <si>
+    <t>classes/RRuleAdjuster.cls</t>
+  </si>
+  <si>
+    <t>ApexClass RRuleAdjuster</t>
+  </si>
+  <si>
+    <t>classes/SDWorxToResourceAbsenceService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass SDWorxToResourceAbsenceService</t>
+  </si>
+  <si>
+    <t>classes/SDWorxToResourceAbsenceService.cls-meta.xml</t>
   </si>
   <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
@@ -181,112 +106,34 @@
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>flexipages/Commercial_Account_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Commercial_Account_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Location_Visit_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Location_Visit_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Operational_Account_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Service_Contract_Record_Page</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Service_Appointment_After_Save_Record_Triggered_Update_Related_WO_Status.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Service_Appointment_After_Save_Record_Triggered_Update_Related_WO_Status</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Populate_Contact_on_WO_and_SA.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Populate_Contact_on_WO_and_SA</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Take_After_Work_Photos.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Take_After_Work_Photos</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Take_Before_Work_Photos.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Take_Before_Work_Photos</t>
-  </si>
-  <si>
-    <t>flows/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
-  </si>
-  <si>
-    <t>flows/Service_Appointment_After_Save_Record_Triggered_Update_Related_WO_Status.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Service_Appointment_After_Save_Record_Triggered_Update_Related_WO_Status</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_After_Save_Record_Triggered_Populate_Contact_on_WO_and_SA.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_After_Save_Record_Triggered_Populate_Contact_on_WO_and_SA</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Take_After_Work_Photos.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Take_After_Work_Photos</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Take_Before_Work_Photos.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Take_Before_Work_Photos</t>
-  </si>
-  <si>
-    <t>layouts/ATAK_Personnel__c-ATAK Personnel Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ATAK_Personnel__c-ATAK Personnel Layout</t>
-  </si>
-  <si>
-    <t>layouts/Account-Operational Account Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-Operational Account Layout</t>
-  </si>
-  <si>
-    <t>layouts/FlowInterview-Flow Interview Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout FlowInterview-Flow Interview Layout</t>
-  </si>
-  <si>
-    <t>layouts/Location_Visit__c-Location Visit Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Location_Visit__c-Location Visit Layout</t>
+    <t>flexipages/ATAK_Project_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage ATAK_Project_Record_Page</t>
+  </si>
+  <si>
+    <t>layouts/ATAK_Project__c-ATAK Project Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ATAK_Project__c-ATAK Project Layout</t>
+  </si>
+  <si>
+    <t>layouts/Inbound_Log__c-Inbound Log Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Inbound_Log__c-Inbound Log Layout</t>
+  </si>
+  <si>
+    <t>layouts/Location-Van Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Location-Van Layout</t>
+  </si>
+  <si>
+    <t>layouts/Mileage_Entry__c-Mileage Entry Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Mileage_Entry__c-Mileage Entry Layout</t>
   </si>
   <si>
     <t>layouts/Product2-Product Layout.layout-meta.xml</t>
@@ -295,298 +142,352 @@
     <t>Layout Product2-Product Layout</t>
   </si>
   <si>
-    <t>layouts/ServiceContract-Service Contract Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceContract-Service Contract Layout</t>
-  </si>
-  <si>
-    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkOrder-Work Order Layout</t>
-  </si>
-  <si>
-    <t>lwc/fileUploadImproved/fileUploadImproved.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle fileUploadImproved/fileUploadImproved.html</t>
-  </si>
-  <si>
-    <t>lwc/fileUploadImproved/fileUploadImproved.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle fileUploadImproved/fileUploadImproved.js</t>
-  </si>
-  <si>
-    <t>lwc/fileUploadImproved/fileUploadImproved.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle fileUploadImproved/fileUploadImproved.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/fileUploadImprovedCPE/fileUploadImprovedCPE.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle fileUploadImprovedCPE/fileUploadImprovedCPE.html</t>
-  </si>
-  <si>
-    <t>lwc/fileUploadImprovedCPE/fileUploadImprovedCPE.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle fileUploadImprovedCPE/fileUploadImprovedCPE.js</t>
-  </si>
-  <si>
-    <t>lwc/fileUploadImprovedCPE/fileUploadImprovedCPE.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle fileUploadImprovedCPE/fileUploadImprovedCPE.js-meta.xml</t>
-  </si>
-  <si>
-    <t>notificationTypeConfig/NotificationTypeConfig.config-meta.xml</t>
-  </si>
-  <si>
-    <t>NotificationTypeConfig NotificationTypeConfig</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/ATAK_Personnel__c.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject ATAK_Personnel__c/ATAK_Personnel__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/compactLayouts/Custom_Compact_Layout.compactLayout-meta.xml</t>
+    <t>layouts/ResourceAbsence-Resource Absence Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ResourceAbsence-Resource Absence Layout</t>
+  </si>
+  <si>
+    <t>layouts/SD_Import__c-SD Import Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout SD_Import__c-SD Import Layout</t>
+  </si>
+  <si>
+    <t>layouts/ServiceCrew-Van Crew Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceCrew-Van Crew Layout</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Discipline__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Discipline__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/fields/Region__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Region__c</t>
+  </si>
+  <si>
+    <t>objects/Inbound_Log__c/Inbound_Log__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Inbound_Log__c/Inbound_Log__c</t>
+  </si>
+  <si>
+    <t>objects/Inbound_Log__c/fields/JSON_Body__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField JSON_Body__c</t>
+  </si>
+  <si>
+    <t>objects/Inbound_Log__c/fields/Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Type__c</t>
+  </si>
+  <si>
+    <t>objects/Inbound_Log__c/listViews/All.listView-meta.xml</t>
+  </si>
+  <si>
+    <t>ListView All</t>
+  </si>
+  <si>
+    <t>objects/Location/fields/Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Code__c</t>
+  </si>
+  <si>
+    <t>objects/Location/fields/Driver_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Driver_Code__c</t>
+  </si>
+  <si>
+    <t>objects/Location/fields/License_Plate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField License_Plate__c</t>
+  </si>
+  <si>
+    <t>objects/Logger_Settings__c/Logger_Settings__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Logger_Settings__c/Logger_Settings__c</t>
+  </si>
+  <si>
+    <t>objects/Logger_Settings__c/fields/Enable_Inbound_Logs__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Enable_Inbound_Logs__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/Mileage_Entry__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Mileage_Entry__c/Mileage_Entry__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/listViews/All.listView-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/Date_Out_of_Service__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Date_Out_of_Service__c</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/Date_Use_End__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Date_Use_End__c</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/Department_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Department_Code__c</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/Department_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Department_Name__c</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/Depot_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Depot_Code__c</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/Depot_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Depot_Name__c</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/Driver_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/Driver_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Driver_Name__c</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/Group_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Group_Code__c</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/Group_Description__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Group_Description__c</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/License_Plate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/Means_Category__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Means_Category__c</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/Means_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Means_Code__c</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/Means_Description__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Means_Description__c</t>
+  </si>
+  <si>
+    <t>objects/Product2/fields/Rate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Rate__c</t>
+  </si>
+  <si>
+    <t>objects/Product2/recordTypes/Material.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Material</t>
+  </si>
+  <si>
+    <t>objects/Product2/recordTypes/Service.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Service</t>
+  </si>
+  <si>
+    <t>objects/Product2/recordTypes/Service_Package.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Service_Package</t>
+  </si>
+  <si>
+    <t>objects/Product2/recordTypes/Vehicle.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Vehicle</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Unique_Key__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Unique_Key__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/FSL__Non_Availability.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType FSL__Non_Availability</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/SD_Import__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject SD_Import__c/SD_Import__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/compactLayouts/Custom_Compact_Layout.compactLayout-meta.xml</t>
   </si>
   <si>
     <t>CompactLayout Custom_Compact_Layout</t>
   </si>
   <si>
-    <t>objects/ATAK_Personnel__c/fields/Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Code__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/fields/Department_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Department_Code__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/fields/Department_Name__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Department_Name__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/fields/Depot_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Depot_Code__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/fields/Depot_Name__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Depot_Name__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/fields/Dossier__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Dossier__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/fields/Email__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Email__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/fields/Enddate__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Enddate__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/fields/Mobile__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Mobile__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/fields/Name__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Name__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/fields/Phone__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Phone__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/fields/Sitemanager_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Sitemanager_Code__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/fields/Sitemanager_Name__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Sitemanager_Name__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/fields/Startdate__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Startdate__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/fields/Statute__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Statute__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/listViews/All.listView-meta.xml</t>
-  </si>
-  <si>
-    <t>ListView All</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Commercial_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Commercial_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Financial_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Financial_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Group_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Group_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Operational_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Operational_Account</t>
-  </si>
-  <si>
-    <t>objects/Contact/fields/Function_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Function_Type__c</t>
-  </si>
-  <si>
-    <t>objects/Contact/fields/Functional_level__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Functional_level__c</t>
-  </si>
-  <si>
-    <t>objects/ContentVersion/ContentVersion.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject ContentVersion/ContentVersion</t>
-  </si>
-  <si>
-    <t>objects/ContentVersion/fields/Guest_Record_fileupload__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Guest_Record_fileupload__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Asset_Evaluation__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Asset_Evaluation__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Location_Passport_Status__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Location_Passport_Status__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Overall_Evaluation__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Overall_Evaluation__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Safety_Instruction_Status__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Safety_Instruction_Status__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Service_Contract_Status__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Service_Contract_Status__c</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/ATAK_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ATAK_Code__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/compactLayouts/Service_Contract.compactLayout-meta.xml</t>
-  </si>
-  <si>
-    <t>CompactLayout Service_Contract</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Status_custom__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Status_custom__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/After_Work_Comments__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField After_Work_Comments__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Before_Work_Comments__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Before_Work_Comments__c</t>
-  </si>
-  <si>
-    <t>permissionsetgroups/Admin_Permission_Set_Group.permissionsetgroup-meta.xml</t>
-  </si>
-  <si>
-    <t>PermissionSetGroup Admin_Permission_Set_Group</t>
-  </si>
-  <si>
-    <t>permissionsetgroups/Business_Support_Permission_Set_Group.permissionsetgroup-meta.xml</t>
-  </si>
-  <si>
-    <t>PermissionSetGroup Business_Support_Permission_Set_Group</t>
-  </si>
-  <si>
-    <t>permissionsetgroups/Contract_Manager_Permission_Set_Group.permissionsetgroup-meta.xml</t>
-  </si>
-  <si>
-    <t>PermissionSetGroup Contract_Manager_Permission_Set_Group</t>
-  </si>
-  <si>
-    <t>permissionsetgroups/Operator_Permission_Set_Group.permissionsetgroup-meta.xml</t>
-  </si>
-  <si>
-    <t>PermissionSetGroup Operator_Permission_Set_Group</t>
+    <t>objects/SD_Import__c/fields/AfdelingLabel__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField AfdelingLabel__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/AfwezigheidDagdeelKode__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField AfwezigheidDagdeelKode__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/AfwezigheidPresturen__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField AfwezigheidPresturen__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/AfwezigheidStatusKode__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField AfwezigheidStatusKode__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/AfwezigheidsCodeNilosCode__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField AfwezigheidsCodeNilosCode__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/AfwezigheidscodelabelCode__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField AfwezigheidscodelabelCode__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/AfwezigheidscodelabelLabel__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField AfwezigheidscodelabelLabel__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/ArbeidsContractWerknemer__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ArbeidsContractWerknemer__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/FirmaNaam__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FirmaNaam__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/FirmaWerkgeversNr__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FirmaWerkgeversNr__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/KalenderdagDat__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField KalenderdagDat__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/KalenderdagInactiviteitsKode__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField KalenderdagInactiviteitsKode__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/KalenderdagPloegKode__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField KalenderdagPloegKode__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/KalenderdagPrestDag__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField KalenderdagPrestDag__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/KalenderdagPrestUren__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField KalenderdagPrestUren__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/KalenderdagPresturenVM__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField KalenderdagPresturenVM__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/PersoonId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField PersoonId__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/PersoonRoepAchternaam__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField PersoonRoepAchternaam__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/PersoonRoepVoornaam__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField PersoonRoepVoornaam__c</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/listViews/All.listView-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/ServiceCrew/fields/Driver_Code__c.field-meta.xml</t>
   </si>
   <si>
     <t>permissionsets/ATAK_Permissions.permissionset-meta.xml</t>
@@ -595,18 +496,6 @@
     <t>PermissionSet ATAK_Permissions</t>
   </si>
   <si>
-    <t>permissionsets/fileUploadImproved.permissionset-meta.xml</t>
-  </si>
-  <si>
-    <t>PermissionSet fileUploadImproved</t>
-  </si>
-  <si>
-    <t>profileSessionSettings/Salesforce_API_Only_System_Integrations_profileSessionSetting1731425383850.profileSessionSetting-meta.xml</t>
-  </si>
-  <si>
-    <t>ProfileSessionSetting Salesforce_API_Only_System_Integrations_profileSessionSetting1731425383850</t>
-  </si>
-  <si>
     <t>profiles/Admin.profile-meta.xml</t>
   </si>
   <si>
@@ -757,112 +646,70 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>remoteSiteSettings/BOFCRMSEnvironment1731427604238.remoteSite-meta.xml</t>
-  </si>
-  <si>
-    <t>RemoteSiteSetting BOFCRMSEnvironment1731427604238</t>
-  </si>
-  <si>
-    <t>remoteSiteSettings/BOFCRMSEnvironment1731427604935.remoteSite-meta.xml</t>
-  </si>
-  <si>
-    <t>RemoteSiteSetting BOFCRMSEnvironment1731427604935</t>
-  </si>
-  <si>
-    <t>remoteSiteSettings/BOFCRMSLoad1.remoteSite-meta.xml</t>
-  </si>
-  <si>
-    <t>RemoteSiteSetting BOFCRMSLoad1</t>
-  </si>
-  <si>
-    <t>remoteSiteSettings/BOFCRMSLoad2.remoteSite-meta.xml</t>
-  </si>
-  <si>
-    <t>RemoteSiteSetting BOFCRMSLoad2</t>
-  </si>
-  <si>
-    <t>remoteSiteSettings/BOFCRMSLoad3.remoteSite-meta.xml</t>
-  </si>
-  <si>
-    <t>RemoteSiteSetting BOFCRMSLoad3</t>
-  </si>
-  <si>
-    <t>remoteSiteSettings/BOFCRMSLoad4.remoteSite-meta.xml</t>
-  </si>
-  <si>
-    <t>RemoteSiteSetting BOFCRMSLoad4</t>
-  </si>
-  <si>
-    <t>remoteSiteSettings/BOFCRMSLoad5.remoteSite-meta.xml</t>
-  </si>
-  <si>
-    <t>RemoteSiteSetting BOFCRMSLoad5</t>
-  </si>
-  <si>
-    <t>remoteSiteSettings/BOFCRMSLoad6.remoteSite-meta.xml</t>
-  </si>
-  <si>
-    <t>RemoteSiteSetting BOFCRMSLoad6</t>
-  </si>
-  <si>
-    <t>remoteSiteSettings/BOFCRMSLoad7.remoteSite-meta.xml</t>
-  </si>
-  <si>
-    <t>RemoteSiteSetting BOFCRMSLoad7</t>
-  </si>
-  <si>
     <t>settings/Search.settings-meta.xml</t>
   </si>
   <si>
     <t>Settings Search</t>
   </si>
   <si>
-    <t>sharingRules/ATAK_Personnel__c.sharingRules-meta.xml</t>
-  </si>
-  <si>
-    <t>SharingRules ATAK_Personnel__c</t>
-  </si>
-  <si>
-    <t>standardValueSets/AccountContactMultiRoles.standardValueSet-meta.xml</t>
-  </si>
-  <si>
-    <t>StandardValueSet AccountContactMultiRoles</t>
-  </si>
-  <si>
-    <t>standardValueSets/LeadSource.standardValueSet-meta.xml</t>
-  </si>
-  <si>
-    <t>StandardValueSet LeadSource</t>
-  </si>
-  <si>
-    <t>standardValueSets/Salutation.standardValueSet-meta.xml</t>
-  </si>
-  <si>
-    <t>StandardValueSet Salutation</t>
-  </si>
-  <si>
-    <t>tabs/ATAK_Personnel__c.tab-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomTab ATAK_Personnel__c</t>
-  </si>
-  <si>
-    <t>topicsForObjects/ATAK_Personnel__c.topicsForObjects-meta.xml</t>
-  </si>
-  <si>
-    <t>TopicsForObjects ATAK_Personnel__c</t>
-  </si>
-  <si>
-    <t>installedPackages/Salesforce Mobile Apps.json</t>
-  </si>
-  <si>
-    <t>InstalledPackage Salesforce Mobile Apps.json</t>
-  </si>
-  <si>
-    <t>installedPackages/fileUploadImproved.json</t>
-  </si>
-  <si>
-    <t>InstalledPackage fileUploadImproved.json</t>
+    <t>sharingRules/Inbound_Log__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules Inbound_Log__c</t>
+  </si>
+  <si>
+    <t>sharingRules/Mileage_Entry__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules Mileage_Entry__c</t>
+  </si>
+  <si>
+    <t>sharingRules/SD_Import__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules SD_Import__c</t>
+  </si>
+  <si>
+    <t>standardValueSets/ResourceAbsenceType.standardValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>StandardValueSet ResourceAbsenceType</t>
+  </si>
+  <si>
+    <t>tabs/Inbound_Log__c.tab-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomTab Inbound_Log__c</t>
+  </si>
+  <si>
+    <t>tabs/Mileage_Entry__c.tab-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomTab Mileage_Entry__c</t>
+  </si>
+  <si>
+    <t>tabs/SD_Import__c.tab-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomTab SD_Import__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/Inbound_Log__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects Inbound_Log__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/Mileage_Entry__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects Mileage_Entry__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/SD_Import__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects SD_Import__c</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -1245,12 +1092,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G118"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="128" customWidth="1"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="96" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -1323,11 +1170,14 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1338,13 +1188,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1358,10 +1211,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1372,13 +1225,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1389,13 +1242,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1406,13 +1262,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1423,13 +1282,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1440,13 +1299,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1457,13 +1316,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1474,13 +1336,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1491,13 +1356,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1508,13 +1376,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1525,13 +1393,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1542,13 +1413,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1559,13 +1430,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1576,13 +1450,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1593,13 +1470,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1610,13 +1487,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1627,13 +1507,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1644,13 +1524,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1661,13 +1541,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1678,13 +1558,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1695,16 +1575,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1715,16 +1592,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1735,16 +1609,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1755,16 +1626,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1775,16 +1643,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1795,16 +1660,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1815,16 +1677,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1835,16 +1694,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1855,16 +1711,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1875,16 +1728,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1895,13 +1745,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1912,13 +1762,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1929,13 +1779,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1946,16 +1796,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1966,16 +1813,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1986,13 +1830,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -2003,13 +1847,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2020,13 +1864,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -2037,13 +1881,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -2054,16 +1898,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2074,13 +1915,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -2091,16 +1932,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -2111,16 +1949,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -2131,16 +1966,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -2151,16 +1983,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -2171,13 +2000,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" t="s">
-        <v>15</v>
+        <v>103</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2188,13 +2020,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" t="s">
-        <v>15</v>
+        <v>105</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>106</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -2205,13 +2040,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2222,13 +2060,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2239,13 +2077,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2256,13 +2094,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" t="s">
-        <v>15</v>
+        <v>113</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2273,16 +2114,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2293,13 +2131,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2310,13 +2148,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2327,13 +2165,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2344,13 +2182,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -2361,13 +2199,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2378,13 +2216,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2395,13 +2233,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2412,13 +2250,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2429,13 +2267,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2446,13 +2284,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2463,13 +2301,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2480,13 +2318,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2497,13 +2335,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2514,13 +2352,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2531,13 +2369,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2548,13 +2386,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2565,13 +2403,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2582,13 +2420,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2599,16 +2437,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
-      </c>
-      <c r="D76" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2619,16 +2454,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>150</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
-      </c>
-      <c r="D77" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -2639,16 +2471,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>152</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
-      </c>
-      <c r="D78" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2659,16 +2488,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
-      </c>
-      <c r="D79" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -2679,13 +2505,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -2699,13 +2525,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -2719,13 +2545,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>160</v>
-      </c>
-      <c r="B82" t="s">
-        <v>15</v>
+        <v>163</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>164</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -2736,13 +2565,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>162</v>
-      </c>
-      <c r="B83" t="s">
-        <v>15</v>
+        <v>165</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>166</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -2753,13 +2585,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -2773,13 +2605,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -2793,13 +2625,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -2813,13 +2645,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -2833,13 +2665,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B88" t="s">
-        <v>15</v>
+        <v>175</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>176</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -2850,13 +2685,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B89" t="s">
-        <v>15</v>
+        <v>177</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>175</v>
+        <v>178</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -2867,13 +2705,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -2887,13 +2725,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>178</v>
-      </c>
-      <c r="B91" t="s">
-        <v>15</v>
+        <v>181</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -2904,13 +2745,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" t="s">
-        <v>15</v>
+        <v>183</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -2921,13 +2765,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" t="s">
-        <v>15</v>
+        <v>185</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -2938,13 +2785,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>184</v>
-      </c>
-      <c r="B94" t="s">
-        <v>15</v>
+        <v>187</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -2955,13 +2805,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" t="s">
-        <v>15</v>
+        <v>189</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>190</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -2972,13 +2825,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>188</v>
-      </c>
-      <c r="B96" t="s">
-        <v>15</v>
+        <v>191</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -2989,13 +2845,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>190</v>
-      </c>
-      <c r="B97" t="s">
-        <v>15</v>
+        <v>193</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -3006,13 +2865,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -3026,13 +2885,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>194</v>
-      </c>
-      <c r="B99" t="s">
-        <v>15</v>
+        <v>197</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>195</v>
+        <v>198</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -3043,13 +2905,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>196</v>
-      </c>
-      <c r="B100" t="s">
-        <v>15</v>
+        <v>199</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -3060,13 +2925,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
@@ -3080,13 +2945,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
@@ -3100,13 +2965,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -3120,13 +2985,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -3140,13 +3005,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
@@ -3160,13 +3025,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -3180,16 +3045,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>210</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
-      </c>
-      <c r="D107" t="s">
-        <v>9</v>
+        <v>214</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -3200,16 +3062,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>212</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>213</v>
-      </c>
-      <c r="D108" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -3220,16 +3079,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>214</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>215</v>
-      </c>
-      <c r="D109" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -3240,13 +3096,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
@@ -3260,16 +3116,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>218</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>219</v>
-      </c>
-      <c r="D111" t="s">
-        <v>9</v>
+        <v>222</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -3280,16 +3133,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>220</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
+        <v>223</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>221</v>
-      </c>
-      <c r="D112" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -3300,16 +3150,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>222</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
-      </c>
-      <c r="D113" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
@@ -3320,16 +3167,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>224</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
+        <v>227</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>225</v>
-      </c>
-      <c r="D114" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -3340,16 +3184,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>226</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
+        <v>229</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>227</v>
-      </c>
-      <c r="D115" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
@@ -3360,16 +3201,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>228</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
+        <v>231</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>229</v>
-      </c>
-      <c r="D116" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -3380,13 +3218,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
@@ -3400,13 +3238,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
@@ -3415,507 +3253,6 @@
         <v>10</v>
       </c>
       <c r="G118" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>234</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119" t="s">
-        <v>235</v>
-      </c>
-      <c r="D119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>236</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120" t="s">
-        <v>237</v>
-      </c>
-      <c r="D120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>238</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121" t="s">
-        <v>239</v>
-      </c>
-      <c r="D121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>240</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122" t="s">
-        <v>241</v>
-      </c>
-      <c r="D122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>242</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123" t="s">
-        <v>243</v>
-      </c>
-      <c r="D123" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>244</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124" t="s">
-        <v>245</v>
-      </c>
-      <c r="D124" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>246</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125" t="s">
-        <v>247</v>
-      </c>
-      <c r="D125" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>248</v>
-      </c>
-      <c r="B126" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" t="s">
-        <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>250</v>
-      </c>
-      <c r="B127" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" t="s">
-        <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>252</v>
-      </c>
-      <c r="B128" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" t="s">
-        <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>254</v>
-      </c>
-      <c r="B129" t="s">
-        <v>15</v>
-      </c>
-      <c r="C129" t="s">
-        <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>256</v>
-      </c>
-      <c r="B130" t="s">
-        <v>15</v>
-      </c>
-      <c r="C130" t="s">
-        <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>258</v>
-      </c>
-      <c r="B131" t="s">
-        <v>15</v>
-      </c>
-      <c r="C131" t="s">
-        <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>260</v>
-      </c>
-      <c r="B132" t="s">
-        <v>15</v>
-      </c>
-      <c r="C132" t="s">
-        <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>262</v>
-      </c>
-      <c r="B133" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133" t="s">
-        <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>264</v>
-      </c>
-      <c r="B134" t="s">
-        <v>15</v>
-      </c>
-      <c r="C134" t="s">
-        <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>266</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135" t="s">
-        <v>267</v>
-      </c>
-      <c r="D135" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>268</v>
-      </c>
-      <c r="B136" t="s">
-        <v>15</v>
-      </c>
-      <c r="C136" t="s">
-        <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>270</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137" t="s">
-        <v>271</v>
-      </c>
-      <c r="D137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>272</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138" t="s">
-        <v>273</v>
-      </c>
-      <c r="D138" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>274</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139" t="s">
-        <v>275</v>
-      </c>
-      <c r="D139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>276</v>
-      </c>
-      <c r="B140" t="s">
-        <v>15</v>
-      </c>
-      <c r="C140" t="s">
-        <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>278</v>
-      </c>
-      <c r="B141" t="s">
-        <v>15</v>
-      </c>
-      <c r="C141" t="s">
-        <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>280</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142" t="s">
-        <v>281</v>
-      </c>
-      <c r="D142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>282</v>
-      </c>
-      <c r="B143" t="s">
-        <v>15</v>
-      </c>
-      <c r="C143" t="s">
-        <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>284</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="C144" t="s">
-        <v>284</v>
-      </c>
-      <c r="D144" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>285</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145" t="s">
-        <v>285</v>
-      </c>
-      <c r="D145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="590">
   <si>
     <t>File</t>
   </si>
@@ -49,46 +49,25 @@
     <t>📰</t>
   </si>
   <si>
-    <t>applications/Sales.app-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomApplication Sales</t>
-  </si>
-  <si>
-    <t>classes/ATAKProjectService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKProjectService</t>
-  </si>
-  <si>
-    <t>classes/ATAKVehicleService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKVehicleService</t>
-  </si>
-  <si>
-    <t>classes/InboundLoggerService.cls</t>
+    <t>classes/DMLService.cls</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>ApexClass InboundLoggerService</t>
-  </si>
-  <si>
-    <t>classes/InboundLoggerService.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ProjectRestResource.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ProjectRestResource</t>
-  </si>
-  <si>
-    <t>classes/RRuleAdjuster.cls</t>
-  </si>
-  <si>
-    <t>ApexClass RRuleAdjuster</t>
+    <t>ApexClass DMLService</t>
+  </si>
+  <si>
+    <t>classes/DMLService.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/LoggerService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass LoggerService</t>
+  </si>
+  <si>
+    <t>classes/LoggerService.cls-meta.xml</t>
   </si>
   <si>
     <t>classes/SDWorxToResourceAbsenceService.cls</t>
@@ -97,7 +76,19 @@
     <t>ApexClass SDWorxToResourceAbsenceService</t>
   </si>
   <si>
-    <t>classes/SDWorxToResourceAbsenceService.cls-meta.xml</t>
+    <t>classes/ServiceResourceHandler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceResourceHandler</t>
+  </si>
+  <si>
+    <t>classes/TimeSheetController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass TimeSheetController</t>
+  </si>
+  <si>
+    <t>classes/TimeSheetController.cls-meta.xml</t>
   </si>
   <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
@@ -106,22 +97,166 @@
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>flexipages/ATAK_Project_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage ATAK_Project_Record_Page</t>
-  </si>
-  <si>
-    <t>layouts/ATAK_Project__c-ATAK Project Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ATAK_Project__c-ATAK Project Layout</t>
-  </si>
-  <si>
-    <t>layouts/Inbound_Log__c-Inbound Log Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Inbound_Log__c-Inbound Log Layout</t>
+    <t>dashboards/VanInventory.dashboardFolder-meta.xml</t>
+  </si>
+  <si>
+    <t>Dashboard VanInventoryFolder-meta.xml</t>
+  </si>
+  <si>
+    <t>dashboards/VanInventory/HcaOXDkPIDdAkjoIuxtNxFWGBNNyWL.dashboard-meta.xml</t>
+  </si>
+  <si>
+    <t>Dashboard VanInventory/HcaOXDkPIDdAkjoIuxtNxFWGBNNyWL</t>
+  </si>
+  <si>
+    <t>flexipages/ATAK_Personnel_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage ATAK_Personnel_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Work_Order_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Work_Order_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Work_Step_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Work_Step_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Mileage_Entry_Before_Save.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Mileage_Entry_Before_Save</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Operator_Created_Event_e_Create_Service_Resource.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Operator_Created_Event_e_Create_Service_Resource</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Resource_Absence_Before_Save.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Resource_Absence_Before_Save</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Time_Sheet_Entry_Before_Save.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Time_Sheet_Entry_Before_Save</t>
+  </si>
+  <si>
+    <t>flowDefinitions/User_After_Create_RecordTrigered_Create_Service_Resource.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition User_After_Create_RecordTrigered_Create_Service_Resource</t>
+  </si>
+  <si>
+    <t>flowDefinitions/User_After_Update_RecordTrigered_Create_Service_Resource.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition User_After_Update_RecordTrigered_Create_Service_Resource</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Van_Before_Save_Record_Triggered_Set_Naming_Convention.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Van_Before_Save_Record_Triggered_Set_Naming_Convention</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Step_After_Save_Record_Triggered_Relink_After_Work_Photos_to_WO.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Step_After_Save_Record_Triggered_Relink_After_Work_Photos_to_WO</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Step_After_Save_Record_Triggered_Relink_Before_Work_Photos_to_WO.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Step_After_Save_Record_Triggered_Relink_Before_Work_Photos_to_WO</t>
+  </si>
+  <si>
+    <t>flows/Mileage_Entry_Before_Save.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Mileage_Entry_Before_Save</t>
+  </si>
+  <si>
+    <t>flows/Operator_Created_Event_e_Create_Service_Resource.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Operator_Created_Event_e_Create_Service_Resource</t>
+  </si>
+  <si>
+    <t>flows/Resource_Absence_Before_Save.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Resource_Absence_Before_Save</t>
+  </si>
+  <si>
+    <t>flows/Time_Sheet_Entry_Before_Save.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Time_Sheet_Entry_Before_Save</t>
+  </si>
+  <si>
+    <t>flows/User_After_Create_RecordTrigered_Create_Service_Resource.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow User_After_Create_RecordTrigered_Create_Service_Resource</t>
+  </si>
+  <si>
+    <t>flows/User_After_Update_RecordTrigered_Create_Service_Resource.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow User_After_Update_RecordTrigered_Create_Service_Resource</t>
+  </si>
+  <si>
+    <t>flows/Van_Before_Save_Record_Triggered_Set_Naming_Convention.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Van_Before_Save_Record_Triggered_Set_Naming_Convention</t>
+  </si>
+  <si>
+    <t>flows/Work_Step_After_Save_Record_Triggered_Relink_After_Work_Photos_to_WO.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Step_After_Save_Record_Triggered_Relink_After_Work_Photos_to_WO</t>
+  </si>
+  <si>
+    <t>flows/Work_Step_After_Save_Record_Triggered_Relink_Before_Work_Photos_to_WO.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Step_After_Save_Record_Triggered_Relink_Before_Work_Photos_to_WO</t>
+  </si>
+  <si>
+    <t>globalValueSets/Codes_ATAK_Limbus.globalValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>GlobalValueSet Codes_ATAK_Limbus</t>
+  </si>
+  <si>
+    <t>globalValueSets/Mileage_Location_Type.globalValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>GlobalValueSet Mileage_Location_Type</t>
+  </si>
+  <si>
+    <t>layouts/ATAK_Personnel__c-ATAK Personnel Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ATAK_Personnel__c-ATAK Personnel Layout</t>
+  </si>
+  <si>
+    <t>layouts/Error_Log__c-Error Log Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Error_Log__c-Error Log Layout</t>
   </si>
   <si>
     <t>layouts/Location-Van Layout.layout-meta.xml</t>
@@ -136,220 +271,538 @@
     <t>Layout Mileage_Entry__c-Mileage Entry Layout</t>
   </si>
   <si>
-    <t>layouts/Product2-Product Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Product2-Product Layout</t>
-  </si>
-  <si>
-    <t>layouts/ResourceAbsence-Resource Absence Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ResourceAbsence-Resource Absence Layout</t>
-  </si>
-  <si>
-    <t>layouts/SD_Import__c-SD Import Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout SD_Import__c-SD Import Layout</t>
-  </si>
-  <si>
-    <t>layouts/ServiceCrew-Van Crew Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceCrew-Van Crew Layout</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Discipline__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Discipline__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Region__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Region__c</t>
-  </si>
-  <si>
-    <t>objects/Inbound_Log__c/Inbound_Log__c.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject Inbound_Log__c/Inbound_Log__c</t>
-  </si>
-  <si>
-    <t>objects/Inbound_Log__c/fields/JSON_Body__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField JSON_Body__c</t>
-  </si>
-  <si>
-    <t>objects/Inbound_Log__c/fields/Type__c.field-meta.xml</t>
+    <t>layouts/ServiceResource-Service Resource Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceResource-Service Resource Layout</t>
+  </si>
+  <si>
+    <t>layouts/TimeSheet-FSL Time Sheet Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout TimeSheet-FSL Time Sheet Layout</t>
+  </si>
+  <si>
+    <t>layouts/TimeSheet-Time Sheet Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout TimeSheet-Time Sheet Layout</t>
+  </si>
+  <si>
+    <t>layouts/TimeSheetEntry-Time Sheet Entry Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout TimeSheetEntry-Time Sheet Entry Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkOrder-Work Order Layout</t>
+  </si>
+  <si>
+    <t>lwc/colorsPicker/colorsPicker.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle colorsPicker/colorsPicker.css</t>
+  </si>
+  <si>
+    <t>lwc/colorsPicker/colorsPicker.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle colorsPicker/colorsPicker.html</t>
+  </si>
+  <si>
+    <t>lwc/colorsPicker/colorsPicker.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle colorsPicker/colorsPicker.js</t>
+  </si>
+  <si>
+    <t>lwc/colorsPicker/colorsPicker.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle colorsPicker/colorsPicker.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/darkInput/darkInput.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle darkInput/darkInput.css</t>
+  </si>
+  <si>
+    <t>lwc/darkInput/darkInput.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle darkInput/darkInput.html</t>
+  </si>
+  <si>
+    <t>lwc/darkInput/darkInput.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle darkInput/darkInput.js</t>
+  </si>
+  <si>
+    <t>lwc/darkInput/darkInput.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle darkInput/darkInput.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/imageAnnotate/imageAnnotate.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageAnnotate/imageAnnotate.css</t>
+  </si>
+  <si>
+    <t>lwc/imageAnnotate/imageAnnotate.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageAnnotate/imageAnnotate.html</t>
+  </si>
+  <si>
+    <t>lwc/imageAnnotate/imageAnnotate.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageAnnotate/imageAnnotate.js</t>
+  </si>
+  <si>
+    <t>lwc/imageAnnotate/imageAnnotate.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageAnnotate/imageAnnotate.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/imageCapture/imageCapture.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageCapture/imageCapture.html</t>
+  </si>
+  <si>
+    <t>lwc/imageCapture/imageCapture.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageCapture/imageCapture.js</t>
+  </si>
+  <si>
+    <t>lwc/imageCapture/imageCapture.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageCapture/imageCapture.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/imageCropper/imageCropper.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageCropper/imageCropper.css</t>
+  </si>
+  <si>
+    <t>lwc/imageCropper/imageCropper.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageCropper/imageCropper.html</t>
+  </si>
+  <si>
+    <t>lwc/imageCropper/imageCropper.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageCropper/imageCropper.js</t>
+  </si>
+  <si>
+    <t>lwc/imageCropper/imageCropper.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageCropper/imageCropper.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/imageInfoEditor/imageInfoEditor.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageInfoEditor/imageInfoEditor.css</t>
+  </si>
+  <si>
+    <t>lwc/imageInfoEditor/imageInfoEditor.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageInfoEditor/imageInfoEditor.html</t>
+  </si>
+  <si>
+    <t>lwc/imageInfoEditor/imageInfoEditor.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageInfoEditor/imageInfoEditor.js</t>
+  </si>
+  <si>
+    <t>lwc/imageInfoEditor/imageInfoEditor.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageInfoEditor/imageInfoEditor.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/imageInfoViewer/imageInfoViewer.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageInfoViewer/imageInfoViewer.css</t>
+  </si>
+  <si>
+    <t>lwc/imageInfoViewer/imageInfoViewer.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageInfoViewer/imageInfoViewer.html</t>
+  </si>
+  <si>
+    <t>lwc/imageInfoViewer/imageInfoViewer.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageInfoViewer/imageInfoViewer.js</t>
+  </si>
+  <si>
+    <t>lwc/imageInfoViewer/imageInfoViewer.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageInfoViewer/imageInfoViewer.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/imagePainter/imagePainter.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imagePainter/imagePainter.css</t>
+  </si>
+  <si>
+    <t>lwc/imagePainter/imagePainter.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imagePainter/imagePainter.html</t>
+  </si>
+  <si>
+    <t>lwc/imagePainter/imagePainter.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imagePainter/imagePainter.js</t>
+  </si>
+  <si>
+    <t>lwc/imagePainter/imagePainter.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imagePainter/imagePainter.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/imageSelector/imageSelector.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageSelector/imageSelector.css</t>
+  </si>
+  <si>
+    <t>lwc/imageSelector/imageSelector.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageSelector/imageSelector.html</t>
+  </si>
+  <si>
+    <t>lwc/imageSelector/imageSelector.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageSelector/imageSelector.js</t>
+  </si>
+  <si>
+    <t>lwc/imageSelector/imageSelector.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageSelector/imageSelector.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/imageTextEditor/imageTextEditor.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageTextEditor/imageTextEditor.css</t>
+  </si>
+  <si>
+    <t>lwc/imageTextEditor/imageTextEditor.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageTextEditor/imageTextEditor.html</t>
+  </si>
+  <si>
+    <t>lwc/imageTextEditor/imageTextEditor.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageTextEditor/imageTextEditor.js</t>
+  </si>
+  <si>
+    <t>lwc/imageTextEditor/imageTextEditor.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageTextEditor/imageTextEditor.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/infoEditorPrompt/infoEditorPrompt.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle infoEditorPrompt/infoEditorPrompt.css</t>
+  </si>
+  <si>
+    <t>lwc/infoEditorPrompt/infoEditorPrompt.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle infoEditorPrompt/infoEditorPrompt.html</t>
+  </si>
+  <si>
+    <t>lwc/infoEditorPrompt/infoEditorPrompt.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle infoEditorPrompt/infoEditorPrompt.js</t>
+  </si>
+  <si>
+    <t>lwc/infoEditorPrompt/infoEditorPrompt.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle infoEditorPrompt/infoEditorPrompt.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/loadingSpinner/loadingSpinner.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle loadingSpinner/loadingSpinner.css</t>
+  </si>
+  <si>
+    <t>lwc/loadingSpinner/loadingSpinner.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle loadingSpinner/loadingSpinner.html</t>
+  </si>
+  <si>
+    <t>lwc/loadingSpinner/loadingSpinner.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle loadingSpinner/loadingSpinner.js</t>
+  </si>
+  <si>
+    <t>lwc/loadingSpinner/loadingSpinner.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle loadingSpinner/loadingSpinner.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendar/timeSheetCalendar.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.css</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendar/timeSheetCalendar.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.html</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendar/timeSheetCalendar.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.js</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendar/timeSheetCalendar.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/toastMessage/toastMessage.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle toastMessage/toastMessage.css</t>
+  </si>
+  <si>
+    <t>lwc/toastMessage/toastMessage.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle toastMessage/toastMessage.html</t>
+  </si>
+  <si>
+    <t>lwc/toastMessage/toastMessage.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle toastMessage/toastMessage.js</t>
+  </si>
+  <si>
+    <t>lwc/toastMessage/toastMessage.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle toastMessage/toastMessage.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/utilsImageCapture/cropper.esm.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle utilsImageCapture/cropper.esm.js</t>
+  </si>
+  <si>
+    <t>lwc/utilsImageCapture/utilsImageCapture.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle utilsImageCapture/utilsImageCapture.js</t>
+  </si>
+  <si>
+    <t>lwc/utilsImageCapture/utilsImageCapture.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle utilsImageCapture/utilsImageCapture.js-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/ATAK_Personnel__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject ATAK_Personnel__c/ATAK_Personnel__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Create_Service_Resource__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Create_Service_Resource__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/First_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField First_Name__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Last_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Last_Name__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Service_Resource__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Resource__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/User__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField User__c</t>
+  </si>
+  <si>
+    <t>objects/Error_Log__c/Error_Log__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Error_Log__c/Error_Log__c</t>
+  </si>
+  <si>
+    <t>objects/Error_Log__c/fields/Error_Message__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Error_Message__c</t>
+  </si>
+  <si>
+    <t>objects/Error_Log__c/fields/Object__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Object__c</t>
+  </si>
+  <si>
+    <t>objects/Error_Log__c/fields/Record_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Record_Id__c</t>
+  </si>
+  <si>
+    <t>objects/Error_Log__c/fields/Type__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField Type__c</t>
   </si>
   <si>
-    <t>objects/Inbound_Log__c/listViews/All.listView-meta.xml</t>
+    <t>objects/Error_Log__c/listViews/All.listView-meta.xml</t>
   </si>
   <si>
     <t>ListView All</t>
   </si>
   <si>
-    <t>objects/Location/fields/Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Code__c</t>
-  </si>
-  <si>
-    <t>objects/Location/fields/Driver_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Driver_Code__c</t>
-  </si>
-  <si>
-    <t>objects/Location/fields/License_Plate__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField License_Plate__c</t>
-  </si>
-  <si>
-    <t>objects/Logger_Settings__c/Logger_Settings__c.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject Logger_Settings__c/Logger_Settings__c</t>
-  </si>
-  <si>
-    <t>objects/Logger_Settings__c/fields/Enable_Inbound_Logs__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Enable_Inbound_Logs__c</t>
-  </si>
-  <si>
-    <t>objects/Mileage_Entry__c/Mileage_Entry__c.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject Mileage_Entry__c/Mileage_Entry__c</t>
-  </si>
-  <si>
-    <t>objects/Mileage_Entry__c/listViews/All.listView-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/Date_Out_of_Service__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Date_Out_of_Service__c</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/Date_Use_End__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Date_Use_End__c</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/Department_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Department_Code__c</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/Department_Name__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Department_Name__c</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/Depot_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Depot_Code__c</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/Depot_Name__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Depot_Name__c</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/Driver_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/Driver_Name__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Driver_Name__c</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/Group_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Group_Code__c</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/Group_Description__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Group_Description__c</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/License_Plate__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/Means_Category__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Means_Category__c</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/Means_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Means_Code__c</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/Means_Description__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Means_Description__c</t>
-  </si>
-  <si>
-    <t>objects/Product2/fields/Rate__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Rate__c</t>
-  </si>
-  <si>
-    <t>objects/Product2/recordTypes/Material.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Material</t>
-  </si>
-  <si>
-    <t>objects/Product2/recordTypes/Service.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Service</t>
-  </si>
-  <si>
-    <t>objects/Product2/recordTypes/Service_Package.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Service_Package</t>
-  </si>
-  <si>
-    <t>objects/Product2/recordTypes/Vehicle.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Vehicle</t>
-  </si>
-  <si>
-    <t>objects/ResourceAbsence/fields/Unique_Key__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Unique_Key__c</t>
+    <t>objects/Location/compactLayouts/Van_Compact_Layout.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Van_Compact_Layout</t>
+  </si>
+  <si>
+    <t>objects/Location/fields/Contract_Manager__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contract_Manager__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/fields/Allowance_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Allowance_Type__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/fields/Calculated_Mileage__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Calculated_Mileage__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/fields/Codes_ATAK_Limbus__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Codes_ATAK_Limbus__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/fields/Ending_Location_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Ending_Location_Type__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/fields/Ending_Mileage__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Ending_Mileage__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/fields/Service_Resource__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/fields/Soccode__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Soccode__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/fields/Starting_Location_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Starting_Location_Type__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/fields/Starting_Mileage__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Starting_Mileage__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/fields/Time_Sheet__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Time_Sheet__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Code_ATAK_Limbus__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Code_ATAK_Limbus__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Soccode__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/FSL__Break.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType FSL__Break</t>
   </si>
   <si>
     <t>objects/ResourceAbsence/recordTypes/FSL__Non_Availability.recordType-meta.xml</t>
@@ -358,142 +811,58 @@
     <t>RecordType FSL__Non_Availability</t>
   </si>
   <si>
-    <t>objects/SD_Import__c/SD_Import__c.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject SD_Import__c/SD_Import__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/compactLayouts/Custom_Compact_Layout.compactLayout-meta.xml</t>
-  </si>
-  <si>
-    <t>CompactLayout Custom_Compact_Layout</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/AfdelingLabel__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField AfdelingLabel__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/AfwezigheidDagdeelKode__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField AfwezigheidDagdeelKode__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/AfwezigheidPresturen__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField AfwezigheidPresturen__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/AfwezigheidStatusKode__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField AfwezigheidStatusKode__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/AfwezigheidsCodeNilosCode__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField AfwezigheidsCodeNilosCode__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/AfwezigheidscodelabelCode__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField AfwezigheidscodelabelCode__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/AfwezigheidscodelabelLabel__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField AfwezigheidscodelabelLabel__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/ArbeidsContractWerknemer__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ArbeidsContractWerknemer__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/FirmaNaam__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField FirmaNaam__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/FirmaWerkgeversNr__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField FirmaWerkgeversNr__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/KalenderdagDat__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField KalenderdagDat__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/KalenderdagInactiviteitsKode__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField KalenderdagInactiviteitsKode__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/KalenderdagPloegKode__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField KalenderdagPloegKode__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/KalenderdagPrestDag__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField KalenderdagPrestDag__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/KalenderdagPrestUren__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField KalenderdagPrestUren__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/KalenderdagPresturenVM__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField KalenderdagPresturenVM__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/PersoonId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField PersoonId__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/PersoonRoepAchternaam__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField PersoonRoepAchternaam__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/PersoonRoepVoornaam__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField PersoonRoepVoornaam__c</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/listViews/All.listView-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/ServiceCrew/fields/Driver_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>permissionsets/ATAK_Permissions.permissionset-meta.xml</t>
-  </si>
-  <si>
-    <t>PermissionSet ATAK_Permissions</t>
+    <t>objects/TimeSheetEntry/TimeSheetEntry.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject TimeSheetEntry/TimeSheetEntry</t>
+  </si>
+  <si>
+    <t>objects/TimeSheetEntry/fields/Code_ATAK_Limbus__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/TimeSheetEntry/fields/Resource_Absence__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Resource_Absence__c</t>
+  </si>
+  <si>
+    <t>objects/TimeSheetEntry/fields/Soccode__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/TimeSheetEntry/fields/Starting_Allowance_Winter_Service__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Starting_Allowance_Winter_Service__c</t>
+  </si>
+  <si>
+    <t>objects/TimeSheetEntry/fields/Total_Hours_Minus_Breaks__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Total_Hours_Minus_Breaks__c</t>
+  </si>
+  <si>
+    <t>objects/TimeSheetEntry/fields/Total_Hours__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Total_Hours__c</t>
+  </si>
+  <si>
+    <t>objects/TimeSheetEntry/fields/Urgent_Intervention__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Urgent_Intervention__c</t>
+  </si>
+  <si>
+    <t>permissionsetgroups/Operator_Permission_Set_Group.permissionsetgroup-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSetGroup Operator_Permission_Set_Group</t>
+  </si>
+  <si>
+    <t>permissionsets/Field_Service_Mobile_Custom_Permission_Set.permissionset-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSet Field_Service_Mobile_Custom_Permission_Set</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -646,28 +1015,58 @@
     <t>Profile Standard</t>
   </si>
   <si>
+    <t>quickActions/ATAK_Personnel__c.Create_User.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction ATAK_Personnel__c.Create_User</t>
+  </si>
+  <si>
+    <t>quickActions/TimeSheet.Time_Sheet_Review.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction TimeSheet.Time_Sheet_Review</t>
+  </si>
+  <si>
+    <t>quickActions/WorkStep.Take_After_Work_Photos.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkStep.Take_After_Work_Photos</t>
+  </si>
+  <si>
+    <t>quickActions/WorkStep.Take_Before_Work_Photos.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkStep.Take_Before_Work_Photos</t>
+  </si>
+  <si>
+    <t>reportTypes/Vans_with_Material_Items.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Vans_with_Material_Items</t>
+  </si>
+  <si>
+    <t>reports/unfiled$public/Van_Material_Transactions_bWg.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report unfiled$public/Van_Material_Transactions_bWg</t>
+  </si>
+  <si>
+    <t>reports/unfiled$public/Vans_Inventory_UoU.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report unfiled$public/Vans_Inventory_UoU</t>
+  </si>
+  <si>
     <t>settings/Search.settings-meta.xml</t>
   </si>
   <si>
     <t>Settings Search</t>
   </si>
   <si>
-    <t>sharingRules/Inbound_Log__c.sharingRules-meta.xml</t>
-  </si>
-  <si>
-    <t>SharingRules Inbound_Log__c</t>
-  </si>
-  <si>
-    <t>sharingRules/Mileage_Entry__c.sharingRules-meta.xml</t>
-  </si>
-  <si>
-    <t>SharingRules Mileage_Entry__c</t>
-  </si>
-  <si>
-    <t>sharingRules/SD_Import__c.sharingRules-meta.xml</t>
-  </si>
-  <si>
-    <t>SharingRules SD_Import__c</t>
+    <t>sharingRules/Error_Log__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules Error_Log__c</t>
   </si>
   <si>
     <t>standardValueSets/ResourceAbsenceType.standardValueSet-meta.xml</t>
@@ -676,40 +1075,706 @@
     <t>StandardValueSet ResourceAbsenceType</t>
   </si>
   <si>
-    <t>tabs/Inbound_Log__c.tab-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomTab Inbound_Log__c</t>
-  </si>
-  <si>
-    <t>tabs/Mileage_Entry__c.tab-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomTab Mileage_Entry__c</t>
-  </si>
-  <si>
-    <t>tabs/SD_Import__c.tab-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomTab SD_Import__c</t>
-  </si>
-  <si>
-    <t>topicsForObjects/Inbound_Log__c.topicsForObjects-meta.xml</t>
-  </si>
-  <si>
-    <t>TopicsForObjects Inbound_Log__c</t>
-  </si>
-  <si>
-    <t>topicsForObjects/Mileage_Entry__c.topicsForObjects-meta.xml</t>
-  </si>
-  <si>
-    <t>TopicsForObjects Mileage_Entry__c</t>
-  </si>
-  <si>
-    <t>topicsForObjects/SD_Import__c.topicsForObjects-meta.xml</t>
-  </si>
-  <si>
-    <t>TopicsForObjects SD_Import__c</t>
+    <t>staticresources/FullCalendar.resource-meta.xml</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/LICENSE.txt</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/LICENSE.txt</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/README.md</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/README.md</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/background-events.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/background-events.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/daygrid-views.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/daygrid-views.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/external-dragging-2cals.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/external-dragging-2cals.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/external-dragging-builtin.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/external-dragging-builtin.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/full-height.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/full-height.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/google-calendar.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/google-calendar.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/icalendar.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/icalendar.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/js/theme-chooser.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/js/theme-chooser.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/json.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/json.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/json/events.json</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/json/events.json</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/list-sticky-header.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/list-sticky-header.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/list-views.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/list-views.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/locales.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/locales.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/month-view.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/month-view.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/natural-height.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/natural-height.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/php/get-events.php</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/php/get-events.php</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/php/get-time-zones.php</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/php/get-time-zones.php</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/php/utils.php</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/php/utils.php</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/selectable.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/selectable.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/theming.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/theming.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/time-zones.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/time-zones.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/timegrid-sticky-header.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/timegrid-sticky-header.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/timegrid-views-hscroll.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/timegrid-views-hscroll.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/timegrid-views.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/timegrid-views.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/examples/week-numbers.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/examples/week-numbers.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales-all.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales-all.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales-all.min.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales-all.min.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/af.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/af.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ar-dz.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ar-dz.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ar-kw.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ar-kw.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ar-ly.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ar-ly.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ar-ma.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ar-ma.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ar-sa.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ar-sa.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ar-tn.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ar-tn.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ar.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ar.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/az.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/az.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/bg.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/bg.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/bn.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/bn.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/bs.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/bs.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ca.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ca.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/cs.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/cs.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/cy.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/cy.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/da.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/da.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/de-at.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/de-at.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/de.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/de.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/el.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/el.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/en-au.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/en-au.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/en-gb.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/en-gb.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/en-nz.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/en-nz.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/eo.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/eo.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/es-us.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/es-us.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/es.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/es.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/et.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/et.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/eu.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/eu.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/fa.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/fa.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/fi.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/fi.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/fr-ca.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/fr-ca.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/fr-ch.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/fr-ch.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/fr.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/fr.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/gl.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/gl.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/he.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/he.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/hi.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/hi.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/hr.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/hr.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/hu.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/hu.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/hy-am.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/hy-am.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/id.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/id.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/is.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/is.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/it.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/it.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ja.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ja.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ka.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ka.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/kk.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/kk.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/km.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/km.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ko.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ko.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ku.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ku.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/lb.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/lb.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/lt.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/lt.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/lv.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/lv.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/mk.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/mk.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ms.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ms.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/nb.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/nb.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ne.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ne.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/nl.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/nl.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/nn.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/nn.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/pl.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/pl.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/pt-br.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/pt-br.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/pt.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/pt.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ro.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ro.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ru.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ru.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/si-lk.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/si-lk.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/sk.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/sk.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/sl.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/sl.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/sm.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/sm.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/sq.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/sq.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/sr-cyrl.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/sr-cyrl.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/sr.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/sr.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/sv.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/sv.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ta-in.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ta-in.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/th.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/th.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/tr.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/tr.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/ug.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/ug.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/uk.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/uk.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/uz.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/uz.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/vi.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/vi.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/zh-cn.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/zh-cn.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/locales/zh-tw.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/locales/zh-tw.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/main.css</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/main.css</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/main.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/main.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/main.min.css</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/main.min.css</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendar/lib/main.min.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendar/lib/main.min.js</t>
+  </si>
+  <si>
+    <t>tabs/Error_Log__c.tab-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomTab Error_Log__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/Error_Log__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects Error_Log__c</t>
+  </si>
+  <si>
+    <t>triggers/ATAKPersonnelTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger ATAKPersonnelTrigger</t>
+  </si>
+  <si>
+    <t>triggers/ATAKPersonnelTrigger.trigger-meta.xml</t>
+  </si>
+  <si>
+    <t>triggers/ContentDocumentTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger ContentDocumentTrigger</t>
+  </si>
+  <si>
+    <t>triggers/ContentDocumentTrigger.trigger-meta.xml</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -1092,12 +2157,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G296"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="1" max="1" width="109" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="3" max="3" width="84" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -1150,14 +2215,11 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1168,16 +2230,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1190,14 +2249,11 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1211,10 +2267,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1225,14 +2281,17 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
         <v>19</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
@@ -1242,13 +2301,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1262,16 +2321,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1282,13 +2338,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1299,14 +2355,17 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
@@ -1316,16 +2375,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1336,16 +2392,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1356,16 +2409,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>33</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1376,13 +2426,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
+      <c r="D15" t="s">
+        <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1393,16 +2446,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1413,13 +2463,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1430,13 +2480,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -1450,16 +2500,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
         <v>43</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1470,13 +2517,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1487,13 +2534,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1507,13 +2554,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
         <v>49</v>
       </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
+      <c r="D22" t="s">
+        <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1524,13 +2574,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1541,13 +2591,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1558,13 +2608,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1575,13 +2625,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
         <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1592,13 +2642,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>59</v>
       </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
+      <c r="D27" t="s">
+        <v>9</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1609,13 +2662,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1626,13 +2679,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
         <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1643,13 +2696,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>65</v>
       </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
+      <c r="D30" t="s">
+        <v>9</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1660,13 +2716,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
+      <c r="D31" t="s">
+        <v>9</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1677,13 +2736,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1694,13 +2753,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
         <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1711,13 +2770,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
         <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>60</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1731,10 +2790,10 @@
         <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1745,13 +2804,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1762,13 +2821,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
+        <v>78</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1779,13 +2841,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1796,13 +2858,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1813,13 +2878,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
+        <v>84</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1830,13 +2898,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
+        <v>86</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1847,13 +2918,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1864,13 +2935,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" t="s">
-        <v>19</v>
+        <v>90</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1881,13 +2955,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" t="s">
-        <v>19</v>
+        <v>92</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1898,13 +2975,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" t="s">
-        <v>19</v>
+        <v>94</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1915,13 +2995,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -1932,13 +3012,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -1949,13 +3029,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -1966,13 +3046,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -1983,13 +3063,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -2000,16 +3080,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2020,16 +3097,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -2040,16 +3114,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2060,13 +3131,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2077,13 +3148,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2094,16 +3165,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2114,13 +3182,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2131,13 +3199,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2148,13 +3216,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2165,13 +3233,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2182,13 +3250,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -2199,13 +3267,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2216,13 +3284,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2233,13 +3301,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2250,13 +3318,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2267,13 +3335,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2284,13 +3352,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2301,13 +3369,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2318,13 +3386,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2335,13 +3403,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2352,13 +3420,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2369,13 +3437,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2386,13 +3454,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2403,13 +3471,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2420,13 +3488,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2437,13 +3505,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2454,13 +3522,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -2471,13 +3539,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2488,13 +3556,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -2505,16 +3573,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
-      </c>
-      <c r="D80" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -2525,16 +3590,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -2545,16 +3607,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -2565,16 +3624,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>165</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -2585,16 +3641,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>167</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D84" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -2605,16 +3658,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>169</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
-      </c>
-      <c r="D85" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -2625,16 +3675,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>171</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
-      </c>
-      <c r="D86" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -2645,16 +3692,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>173</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
+        <v>178</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
-      </c>
-      <c r="D87" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -2665,16 +3709,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>175</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>176</v>
-      </c>
-      <c r="D88" t="s">
-        <v>9</v>
+        <v>181</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -2685,16 +3726,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>177</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
-      </c>
-      <c r="D89" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -2705,16 +3743,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>179</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
-      </c>
-      <c r="D90" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -2725,16 +3760,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>181</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
-      </c>
-      <c r="D91" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -2745,16 +3777,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>183</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
+        <v>188</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
-      </c>
-      <c r="D92" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -2765,16 +3794,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>185</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>186</v>
-      </c>
-      <c r="D93" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -2785,16 +3811,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>187</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
-      </c>
-      <c r="D94" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -2805,16 +3828,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>189</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
-      </c>
-      <c r="D95" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -2825,16 +3845,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>191</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
+        <v>196</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
-      </c>
-      <c r="D96" t="s">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -2845,16 +3862,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>193</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
+        <v>198</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
-      </c>
-      <c r="D97" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -2865,16 +3879,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>195</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>196</v>
-      </c>
-      <c r="D98" t="s">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -2885,16 +3896,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>197</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
+        <v>202</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
-      </c>
-      <c r="D99" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -2905,16 +3913,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>199</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
-      </c>
-      <c r="D100" t="s">
-        <v>9</v>
+        <v>205</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -2925,16 +3930,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>201</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
-      </c>
-      <c r="D101" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
@@ -2945,16 +3947,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>203</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
-      </c>
-      <c r="D102" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -2965,16 +3964,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>205</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>206</v>
-      </c>
-      <c r="D103" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
@@ -2985,13 +3981,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -3005,16 +4001,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>209</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>210</v>
-      </c>
-      <c r="D105" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
@@ -3025,16 +4018,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>211</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
-      </c>
-      <c r="D106" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -3045,13 +4035,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -3062,13 +4052,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -3079,13 +4069,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -3096,16 +4086,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>219</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
-      </c>
-      <c r="D110" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -3116,13 +4103,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -3133,13 +4120,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -3150,13 +4137,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
@@ -3167,13 +4154,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -3184,13 +4171,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
@@ -3201,13 +4188,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -3218,16 +4205,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>233</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>233</v>
-      </c>
-      <c r="D117" t="s">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
@@ -3238,21 +4222,3140 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>234</v>
-      </c>
-      <c r="B118">
+        <v>240</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>241</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>243</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>244</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>245</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>246</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>247</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>248</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>249</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>250</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>221</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>251</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>252</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>253</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>254</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>255</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>256</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>257</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>258</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>259</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>260</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>261</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>262</v>
+      </c>
+      <c r="B130">
         <v>0</v>
       </c>
-      <c r="C118" t="s">
-        <v>234</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="C130" t="s">
+        <v>263</v>
+      </c>
+      <c r="D130" t="s">
         <v>9</v>
       </c>
-      <c r="F118" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>264</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>265</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>266</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>267</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>268</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>260</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>270</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>252</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>272</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>273</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>274</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>275</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>276</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>277</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>278</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>279</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>280</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>281</v>
+      </c>
+      <c r="D140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>282</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>283</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>284</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>285</v>
+      </c>
+      <c r="D142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>286</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>287</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>288</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>289</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>290</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>291</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>292</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>293</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>294</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>295</v>
+      </c>
+      <c r="D147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>296</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>297</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>298</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>299</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>300</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>301</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>302</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>303</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>304</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>305</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>306</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>307</v>
+      </c>
+      <c r="D153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>308</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>309</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>310</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>311</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>312</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>313</v>
+      </c>
+      <c r="D156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>314</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>315</v>
+      </c>
+      <c r="D157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>316</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>317</v>
+      </c>
+      <c r="D158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>318</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>319</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>320</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>321</v>
+      </c>
+      <c r="D160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>322</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>323</v>
+      </c>
+      <c r="D161" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>324</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>325</v>
+      </c>
+      <c r="D162" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>326</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>327</v>
+      </c>
+      <c r="D163" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>328</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>329</v>
+      </c>
+      <c r="D164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>330</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>331</v>
+      </c>
+      <c r="D165" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>332</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>333</v>
+      </c>
+      <c r="D166" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>334</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>335</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>336</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>337</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>338</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>339</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>340</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>341</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>342</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>343</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>344</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>345</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>346</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>347</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>348</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>349</v>
+      </c>
+      <c r="D174" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>350</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>351</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>352</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>353</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>354</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
+        <v>355</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>356</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>357</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>358</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>359</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>360</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>361</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>362</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>363</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>364</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>365</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>366</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>367</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>368</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>369</v>
+      </c>
+      <c r="F184" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>370</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>371</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>372</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>373</v>
+      </c>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>374</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>375</v>
+      </c>
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>376</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>377</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>378</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>379</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>380</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>381</v>
+      </c>
+      <c r="F190" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>382</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>383</v>
+      </c>
+      <c r="F191" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>384</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>385</v>
+      </c>
+      <c r="F192" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>386</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
+        <v>387</v>
+      </c>
+      <c r="F193" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>388</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>389</v>
+      </c>
+      <c r="F194" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>390</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>391</v>
+      </c>
+      <c r="F195" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>392</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>393</v>
+      </c>
+      <c r="F196" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>394</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>395</v>
+      </c>
+      <c r="F197" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>396</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" t="s">
+        <v>397</v>
+      </c>
+      <c r="F198" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>398</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>399</v>
+      </c>
+      <c r="F199" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>400</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" t="s">
+        <v>401</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>402</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" t="s">
+        <v>403</v>
+      </c>
+      <c r="F201" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>404</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" t="s">
+        <v>405</v>
+      </c>
+      <c r="F202" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>406</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>407</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>408</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>409</v>
+      </c>
+      <c r="F204" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>410</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" t="s">
+        <v>411</v>
+      </c>
+      <c r="F205" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>412</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" t="s">
+        <v>413</v>
+      </c>
+      <c r="F206" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>414</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" t="s">
+        <v>415</v>
+      </c>
+      <c r="F207" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>416</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>417</v>
+      </c>
+      <c r="F208" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>418</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" t="s">
+        <v>419</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>420</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>421</v>
+      </c>
+      <c r="F210" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>422</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>423</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>424</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>425</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>426</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>427</v>
+      </c>
+      <c r="F213" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>428</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" t="s">
+        <v>429</v>
+      </c>
+      <c r="F214" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>430</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" t="s">
+        <v>431</v>
+      </c>
+      <c r="F215" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>432</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216" t="s">
+        <v>433</v>
+      </c>
+      <c r="F216" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>434</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" t="s">
+        <v>435</v>
+      </c>
+      <c r="F217" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>436</v>
+      </c>
+      <c r="B218" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" t="s">
+        <v>437</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>438</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219" t="s">
+        <v>439</v>
+      </c>
+      <c r="F219" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>440</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220" t="s">
+        <v>441</v>
+      </c>
+      <c r="F220" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>442</v>
+      </c>
+      <c r="B221" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221" t="s">
+        <v>443</v>
+      </c>
+      <c r="F221" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>444</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222" t="s">
+        <v>445</v>
+      </c>
+      <c r="F222" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>446</v>
+      </c>
+      <c r="B223" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" t="s">
+        <v>447</v>
+      </c>
+      <c r="F223" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>448</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224" t="s">
+        <v>449</v>
+      </c>
+      <c r="F224" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>450</v>
+      </c>
+      <c r="B225" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225" t="s">
+        <v>451</v>
+      </c>
+      <c r="F225" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>452</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" t="s">
+        <v>453</v>
+      </c>
+      <c r="F226" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>454</v>
+      </c>
+      <c r="B227" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227" t="s">
+        <v>455</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>456</v>
+      </c>
+      <c r="B228" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228" t="s">
+        <v>457</v>
+      </c>
+      <c r="F228" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>458</v>
+      </c>
+      <c r="B229" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" t="s">
+        <v>459</v>
+      </c>
+      <c r="F229" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>460</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230" t="s">
+        <v>461</v>
+      </c>
+      <c r="F230" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>462</v>
+      </c>
+      <c r="B231" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231" t="s">
+        <v>463</v>
+      </c>
+      <c r="F231" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>464</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232" t="s">
+        <v>465</v>
+      </c>
+      <c r="F232" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>466</v>
+      </c>
+      <c r="B233" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233" t="s">
+        <v>467</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>468</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" t="s">
+        <v>469</v>
+      </c>
+      <c r="F234" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>470</v>
+      </c>
+      <c r="B235" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" t="s">
+        <v>471</v>
+      </c>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>472</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
+      </c>
+      <c r="C236" t="s">
+        <v>473</v>
+      </c>
+      <c r="F236" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>474</v>
+      </c>
+      <c r="B237" t="s">
+        <v>13</v>
+      </c>
+      <c r="C237" t="s">
+        <v>475</v>
+      </c>
+      <c r="F237" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>476</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238" t="s">
+        <v>477</v>
+      </c>
+      <c r="F238" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>478</v>
+      </c>
+      <c r="B239" t="s">
+        <v>13</v>
+      </c>
+      <c r="C239" t="s">
+        <v>479</v>
+      </c>
+      <c r="F239" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>480</v>
+      </c>
+      <c r="B240" t="s">
+        <v>13</v>
+      </c>
+      <c r="C240" t="s">
+        <v>481</v>
+      </c>
+      <c r="F240" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>482</v>
+      </c>
+      <c r="B241" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241" t="s">
+        <v>483</v>
+      </c>
+      <c r="F241" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>484</v>
+      </c>
+      <c r="B242" t="s">
+        <v>13</v>
+      </c>
+      <c r="C242" t="s">
+        <v>485</v>
+      </c>
+      <c r="F242" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>486</v>
+      </c>
+      <c r="B243" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243" t="s">
+        <v>487</v>
+      </c>
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>488</v>
+      </c>
+      <c r="B244" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244" t="s">
+        <v>489</v>
+      </c>
+      <c r="F244" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>490</v>
+      </c>
+      <c r="B245" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" t="s">
+        <v>491</v>
+      </c>
+      <c r="F245" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>492</v>
+      </c>
+      <c r="B246" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246" t="s">
+        <v>493</v>
+      </c>
+      <c r="F246" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>494</v>
+      </c>
+      <c r="B247" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247" t="s">
+        <v>495</v>
+      </c>
+      <c r="F247" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>496</v>
+      </c>
+      <c r="B248" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248" t="s">
+        <v>497</v>
+      </c>
+      <c r="F248" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>498</v>
+      </c>
+      <c r="B249" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" t="s">
+        <v>499</v>
+      </c>
+      <c r="F249" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>500</v>
+      </c>
+      <c r="B250" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250" t="s">
+        <v>501</v>
+      </c>
+      <c r="F250" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>502</v>
+      </c>
+      <c r="B251" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251" t="s">
+        <v>503</v>
+      </c>
+      <c r="F251" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>504</v>
+      </c>
+      <c r="B252" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252" t="s">
+        <v>505</v>
+      </c>
+      <c r="F252" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>506</v>
+      </c>
+      <c r="B253" t="s">
+        <v>13</v>
+      </c>
+      <c r="C253" t="s">
+        <v>507</v>
+      </c>
+      <c r="F253" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>508</v>
+      </c>
+      <c r="B254" t="s">
+        <v>13</v>
+      </c>
+      <c r="C254" t="s">
+        <v>509</v>
+      </c>
+      <c r="F254" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>510</v>
+      </c>
+      <c r="B255" t="s">
+        <v>13</v>
+      </c>
+      <c r="C255" t="s">
+        <v>511</v>
+      </c>
+      <c r="F255" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>512</v>
+      </c>
+      <c r="B256" t="s">
+        <v>13</v>
+      </c>
+      <c r="C256" t="s">
+        <v>513</v>
+      </c>
+      <c r="F256" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>514</v>
+      </c>
+      <c r="B257" t="s">
+        <v>13</v>
+      </c>
+      <c r="C257" t="s">
+        <v>515</v>
+      </c>
+      <c r="F257" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>516</v>
+      </c>
+      <c r="B258" t="s">
+        <v>13</v>
+      </c>
+      <c r="C258" t="s">
+        <v>517</v>
+      </c>
+      <c r="F258" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>518</v>
+      </c>
+      <c r="B259" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259" t="s">
+        <v>519</v>
+      </c>
+      <c r="F259" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>520</v>
+      </c>
+      <c r="B260" t="s">
+        <v>13</v>
+      </c>
+      <c r="C260" t="s">
+        <v>521</v>
+      </c>
+      <c r="F260" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>522</v>
+      </c>
+      <c r="B261" t="s">
+        <v>13</v>
+      </c>
+      <c r="C261" t="s">
+        <v>523</v>
+      </c>
+      <c r="F261" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>524</v>
+      </c>
+      <c r="B262" t="s">
+        <v>13</v>
+      </c>
+      <c r="C262" t="s">
+        <v>525</v>
+      </c>
+      <c r="F262" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>526</v>
+      </c>
+      <c r="B263" t="s">
+        <v>13</v>
+      </c>
+      <c r="C263" t="s">
+        <v>527</v>
+      </c>
+      <c r="F263" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>528</v>
+      </c>
+      <c r="B264" t="s">
+        <v>13</v>
+      </c>
+      <c r="C264" t="s">
+        <v>529</v>
+      </c>
+      <c r="F264" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>530</v>
+      </c>
+      <c r="B265" t="s">
+        <v>13</v>
+      </c>
+      <c r="C265" t="s">
+        <v>531</v>
+      </c>
+      <c r="F265" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>532</v>
+      </c>
+      <c r="B266" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266" t="s">
+        <v>533</v>
+      </c>
+      <c r="F266" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>534</v>
+      </c>
+      <c r="B267" t="s">
+        <v>13</v>
+      </c>
+      <c r="C267" t="s">
+        <v>535</v>
+      </c>
+      <c r="F267" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>536</v>
+      </c>
+      <c r="B268" t="s">
+        <v>13</v>
+      </c>
+      <c r="C268" t="s">
+        <v>537</v>
+      </c>
+      <c r="F268" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>538</v>
+      </c>
+      <c r="B269" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269" t="s">
+        <v>539</v>
+      </c>
+      <c r="F269" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>540</v>
+      </c>
+      <c r="B270" t="s">
+        <v>13</v>
+      </c>
+      <c r="C270" t="s">
+        <v>541</v>
+      </c>
+      <c r="F270" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>542</v>
+      </c>
+      <c r="B271" t="s">
+        <v>13</v>
+      </c>
+      <c r="C271" t="s">
+        <v>543</v>
+      </c>
+      <c r="F271" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>544</v>
+      </c>
+      <c r="B272" t="s">
+        <v>13</v>
+      </c>
+      <c r="C272" t="s">
+        <v>545</v>
+      </c>
+      <c r="F272" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>546</v>
+      </c>
+      <c r="B273" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273" t="s">
+        <v>547</v>
+      </c>
+      <c r="F273" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>548</v>
+      </c>
+      <c r="B274" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274" t="s">
+        <v>549</v>
+      </c>
+      <c r="F274" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>550</v>
+      </c>
+      <c r="B275" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275" t="s">
+        <v>551</v>
+      </c>
+      <c r="F275" t="s">
+        <v>10</v>
+      </c>
+      <c r="G275" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>552</v>
+      </c>
+      <c r="B276" t="s">
+        <v>13</v>
+      </c>
+      <c r="C276" t="s">
+        <v>553</v>
+      </c>
+      <c r="F276" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>554</v>
+      </c>
+      <c r="B277" t="s">
+        <v>13</v>
+      </c>
+      <c r="C277" t="s">
+        <v>555</v>
+      </c>
+      <c r="F277" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>556</v>
+      </c>
+      <c r="B278" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" t="s">
+        <v>557</v>
+      </c>
+      <c r="F278" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>558</v>
+      </c>
+      <c r="B279" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" t="s">
+        <v>559</v>
+      </c>
+      <c r="F279" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>560</v>
+      </c>
+      <c r="B280" t="s">
+        <v>13</v>
+      </c>
+      <c r="C280" t="s">
+        <v>561</v>
+      </c>
+      <c r="F280" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>562</v>
+      </c>
+      <c r="B281" t="s">
+        <v>13</v>
+      </c>
+      <c r="C281" t="s">
+        <v>563</v>
+      </c>
+      <c r="F281" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>564</v>
+      </c>
+      <c r="B282" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282" t="s">
+        <v>565</v>
+      </c>
+      <c r="F282" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>566</v>
+      </c>
+      <c r="B283" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283" t="s">
+        <v>567</v>
+      </c>
+      <c r="F283" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>568</v>
+      </c>
+      <c r="B284" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284" t="s">
+        <v>569</v>
+      </c>
+      <c r="F284" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>570</v>
+      </c>
+      <c r="B285" t="s">
+        <v>13</v>
+      </c>
+      <c r="C285" t="s">
+        <v>571</v>
+      </c>
+      <c r="F285" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>572</v>
+      </c>
+      <c r="B286" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" t="s">
+        <v>573</v>
+      </c>
+      <c r="F286" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>574</v>
+      </c>
+      <c r="B287" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287" t="s">
+        <v>575</v>
+      </c>
+      <c r="F287" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>576</v>
+      </c>
+      <c r="B288" t="s">
+        <v>13</v>
+      </c>
+      <c r="C288" t="s">
+        <v>577</v>
+      </c>
+      <c r="F288" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>578</v>
+      </c>
+      <c r="B289" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289" t="s">
+        <v>579</v>
+      </c>
+      <c r="F289" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>580</v>
+      </c>
+      <c r="B290" t="s">
+        <v>13</v>
+      </c>
+      <c r="C290" t="s">
+        <v>581</v>
+      </c>
+      <c r="F290" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>582</v>
+      </c>
+      <c r="B291" t="s">
+        <v>13</v>
+      </c>
+      <c r="C291" t="s">
+        <v>583</v>
+      </c>
+      <c r="F291" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>584</v>
+      </c>
+      <c r="B292" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292" t="s">
+        <v>583</v>
+      </c>
+      <c r="F292" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>585</v>
+      </c>
+      <c r="B293" t="s">
+        <v>13</v>
+      </c>
+      <c r="C293" t="s">
+        <v>586</v>
+      </c>
+      <c r="F293" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>587</v>
+      </c>
+      <c r="B294" t="s">
+        <v>13</v>
+      </c>
+      <c r="C294" t="s">
+        <v>586</v>
+      </c>
+      <c r="F294" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>588</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295" t="s">
+        <v>588</v>
+      </c>
+      <c r="D295" t="s">
+        <v>9</v>
+      </c>
+      <c r="F295" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>589</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296" t="s">
+        <v>589</v>
+      </c>
+      <c r="D296" t="s">
+        <v>9</v>
+      </c>
+      <c r="F296" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="131">
   <si>
     <t>File</t>
   </si>
@@ -34,10 +34,10 @@
     <t>severityIcon</t>
   </si>
   <si>
-    <t>classes/ATAKMaterialService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKMaterialService</t>
+    <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
+  </si>
+  <si>
+    <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
     <t>M</t>
@@ -49,184 +49,79 @@
     <t>📰</t>
   </si>
   <si>
-    <t>classes/ATAKVehicleService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKVehicleService</t>
-  </si>
-  <si>
-    <t>classes/MachineRestResource.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MachineRestResource</t>
-  </si>
-  <si>
-    <t>classes/MaintenancePlanServiceTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MaintenancePlanServiceTest</t>
-  </si>
-  <si>
-    <t>classes/PersonnelRestResource.cls</t>
-  </si>
-  <si>
-    <t>ApexClass PersonnelRestResource</t>
-  </si>
-  <si>
-    <t>classes/PersonnelRestResourceTest.cls</t>
+    <t>digitalExperiences/experiencecontainer/FSL/experience__navigationMenu/menu/content.json</t>
+  </si>
+  <si>
+    <t>DigitalExperienceBundle experiencecontainer/FSL/experience__navigationMenu/menu/content.json</t>
+  </si>
+  <si>
+    <t>flexipages/ATAK_Project_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage ATAK_Project_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Work_Order_Line_Item_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Work_Order_Line_Item_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Work_Plan_Template_Entry_Record_Page.flexipage-meta.xml</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>ApexClass PersonnelRestResourceTest</t>
-  </si>
-  <si>
-    <t>classes/PersonnelRestResourceTest.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ProjectRestResource.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ProjectRestResource</t>
-  </si>
-  <si>
-    <t>classes/ProjectRestResourceTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ProjectRestResourceTest</t>
-  </si>
-  <si>
-    <t>classes/ProjectRestResourceTest.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/SDWorxAbsenceBatch.cls</t>
-  </si>
-  <si>
-    <t>ApexClass SDWorxAbsenceBatch</t>
-  </si>
-  <si>
-    <t>classes/SDWorxAbsenceBatch.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/TimeSheetController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass TimeSheetController</t>
-  </si>
-  <si>
-    <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
-  </si>
-  <si>
-    <t>CleanDataService DataCloudGeoLocation</t>
-  </si>
-  <si>
-    <t>flexipages/ATAK_Project_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage ATAK_Project_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/LMRA_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage LMRA_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Service_Appointment_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Service_Appointment_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Work_Order_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Work_Order_Record_Page</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Check_Out.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Check_Out</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Step_After_Save_Record_Triggered_Relink_Before_Work_Photos_to_WO.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Step_After_Save_Record_Triggered_Relink_Before_Work_Photos_to_WO</t>
-  </si>
-  <si>
-    <t>flows/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Check_Out.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Check_Out</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
-  </si>
-  <si>
-    <t>flows/Work_Step_After_Save_Record_Triggered_Relink_Before_Work_Photos_to_WO.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Step_After_Save_Record_Triggered_Relink_Before_Work_Photos_to_WO</t>
-  </si>
-  <si>
-    <t>layouts/LMRA__c-FSL LMRA Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout LMRA__c-FSL LMRA Layout</t>
-  </si>
-  <si>
-    <t>layouts/LMRA__c-LMRA Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout LMRA__c-LMRA Layout</t>
-  </si>
-  <si>
-    <t>layouts/ServiceAppointment-Service Appointment Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceAppointment-Service Appointment Layout</t>
-  </si>
-  <si>
-    <t>layouts/Service_Status_Time_Log__c-Service Status Time Log Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Service_Status_Time_Log__c-Service Status Time Log Layout</t>
-  </si>
-  <si>
-    <t>layouts/TimeSheet-FSL Time Sheet Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout TimeSheet-FSL Time Sheet Layout</t>
-  </si>
-  <si>
-    <t>layouts/TimeSheet-Time Sheet Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout TimeSheet-Time Sheet Layout</t>
+    <t>FlexiPage Work_Plan_Template_Entry_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Work_Step_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Work_Step_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Platform_Event_Reorder_Work_Steps.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Platform_Event_Reorder_Work_Steps</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Step_After_Save_Record_Triggered_Update_Related_WOL_Status.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Step_After_Save_Record_Triggered_Update_Related_WOL_Status</t>
+  </si>
+  <si>
+    <t>flows/Platform_Event_Reorder_Work_Steps.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Platform_Event_Reorder_Work_Steps</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps</t>
+  </si>
+  <si>
+    <t>flows/Work_Step_After_Save_Record_Triggered_Update_Related_WOL_Status.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Step_After_Save_Record_Triggered_Update_Related_WOL_Status</t>
+  </si>
+  <si>
+    <t>labels/CustomLabels.labels-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomLabel CustomLabels</t>
   </si>
   <si>
     <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
@@ -235,18 +130,24 @@
     <t>Layout WorkOrder-Work Order Layout</t>
   </si>
   <si>
+    <t>layouts/WorkPlanTemplate-Work Plan Template Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkPlanTemplate-Work Plan Template Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkStep-FSL Work Step Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkStep-FSL Work Step Layout</t>
+  </si>
+  <si>
     <t>layouts/WorkStep-Work Step Layout.layout-meta.xml</t>
   </si>
   <si>
     <t>Layout WorkStep-Work Step Layout</t>
   </si>
   <si>
-    <t>lwc/imageCapture/imageCapture.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle imageCapture/imageCapture.js</t>
-  </si>
-  <si>
     <t>lwc/nextAppointmentPicker/nextAppointmentPicker.css</t>
   </si>
   <si>
@@ -271,106 +172,22 @@
     <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.js-meta.xml</t>
   </si>
   <si>
-    <t>lwc/serviceBuilder/serviceBuilder.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle serviceBuilder/serviceBuilder.js</t>
-  </si>
-  <si>
-    <t>lwc/startStopTimer/startStopTimer.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startStopTimer/startStopTimer.css</t>
-  </si>
-  <si>
-    <t>lwc/startStopTimer/startStopTimer.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startStopTimer/startStopTimer.html</t>
-  </si>
-  <si>
-    <t>lwc/startStopTimer/startStopTimer.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startStopTimer/startStopTimer.js</t>
-  </si>
-  <si>
-    <t>lwc/startStopTimer/startStopTimer.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startStopTimer/startStopTimer.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/timeSheetCalendar/timeSheetCalendar.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.html</t>
-  </si>
-  <si>
-    <t>lwc/timeSheetCalendar/timeSheetCalendar.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.js</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Personnel__c/listViews/All.listView-meta.xml</t>
-  </si>
-  <si>
-    <t>ListView All</t>
-  </si>
-  <si>
-    <t>objects/LMRA__c/fields/Date__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Date__c</t>
-  </si>
-  <si>
-    <t>objects/LMRA__c/fields/Limited_LMRA_Done__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Limited_LMRA_Done__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Product__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Product__c</t>
-  </si>
-  <si>
-    <t>objects/Service_Status_Time_Log__c/Service_Status_Time_Log__c.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject Service_Status_Time_Log__c/Service_Status_Time_Log__c</t>
-  </si>
-  <si>
-    <t>objects/Service_Status_Time_Log__c/fields/End_Status__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField End_Status__c</t>
-  </si>
-  <si>
-    <t>objects/Service_Status_Time_Log__c/fields/End_Time__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField End_Time__c</t>
-  </si>
-  <si>
-    <t>objects/Service_Status_Time_Log__c/fields/Service_Appointment__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Service_Appointment__c</t>
-  </si>
-  <si>
-    <t>objects/Service_Status_Time_Log__c/fields/Start_Status__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Start_Status__c</t>
-  </si>
-  <si>
-    <t>objects/Service_Status_Time_Log__c/fields/Start_Time__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Start_Time__c</t>
+    <t>objects/Reorder_Work_Step__e/Reorder_Work_Step__e.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Reorder_Work_Step__e/Reorder_Work_Step__e</t>
+  </si>
+  <si>
+    <t>objects/Reorder_Work_Step__e/fields/Next_Number__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Next_Number__c</t>
+  </si>
+  <si>
+    <t>objects/Reorder_Work_Step__e/fields/Work_Order_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Work_Order_Id__c</t>
   </si>
   <si>
     <t>objects/WorkOrder/compactLayouts/Work_Order_Compact_Layout.compactLayout-meta.xml</t>
@@ -379,10 +196,28 @@
     <t>CompactLayout Work_Order_Compact_Layout</t>
   </si>
   <si>
-    <t>objects/WorkOrder/fields/Special_Equipment__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Special_Equipment__c</t>
+    <t>objects/WorkOrderLineItem/compactLayouts/Work_Order_Line_Item_Compact_Layout.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Work_Order_Line_Item_Compact_Layout</t>
+  </si>
+  <si>
+    <t>objects/WorkStep/WorkStep.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject WorkStep/WorkStep</t>
+  </si>
+  <si>
+    <t>objects/WorkStep/compactLayouts/Work_Step_Compact_Layout.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Work_Step_Compact_Layout</t>
+  </si>
+  <si>
+    <t>objects/WorkStep/fields/Work_Order_Line_Item__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Work_Order_Line_Item__c</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -535,34 +370,16 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>quickActions/ServiceAppointment.Start_Stop.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction ServiceAppointment.Start_Stop</t>
-  </si>
-  <si>
-    <t>quickActions/WorkOrder.Start_Stop.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction WorkOrder.Start_Stop</t>
-  </si>
-  <si>
-    <t>reports/unfiled$public/Van_Material_Transactions_bWg.report-meta.xml</t>
-  </si>
-  <si>
-    <t>Report unfiled$public/Van_Material_Transactions_bWg</t>
-  </si>
-  <si>
-    <t>settings/Search.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings Search</t>
-  </si>
-  <si>
-    <t>sharingRules/Service_Status_Time_Log__c.sharingRules-meta.xml</t>
-  </si>
-  <si>
-    <t>SharingRules Service_Status_Time_Log__c</t>
+    <t>quickActions/ServiceAppointment.Check_Out.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction ServiceAppointment.Check_Out</t>
+  </si>
+  <si>
+    <t>quickActions/WorkStep.Checkout.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkStep.Checkout</t>
   </si>
   <si>
     <t>standardValueSets/ServiceAppointmentStatus.standardValueSet-meta.xml</t>
@@ -571,22 +388,16 @@
     <t>StandardValueSet ServiceAppointmentStatus</t>
   </si>
   <si>
+    <t>standardValueSets/WorkOrderLineItemStatus.standardValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>StandardValueSet WorkOrderLineItemStatus</t>
+  </si>
+  <si>
     <t>standardValueSets/WorkOrderStatus.standardValueSet-meta.xml</t>
   </si>
   <si>
     <t>StandardValueSet WorkOrderStatus</t>
-  </si>
-  <si>
-    <t>topicsForObjects/Service_Status_Time_Log__c.topicsForObjects-meta.xml</t>
-  </si>
-  <si>
-    <t>TopicsForObjects Service_Status_Time_Log__c</t>
-  </si>
-  <si>
-    <t>triggers/ContentDocumentTrigger.trigger-meta.xml</t>
-  </si>
-  <si>
-    <t>ApexTrigger ContentDocumentTrigger</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -969,12 +780,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G62"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="116" customWidth="1"/>
+    <col min="1" max="1" width="103" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="91" customWidth="1"/>
+    <col min="3" max="3" width="92" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -1087,14 +898,11 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1105,13 +913,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
         <v>21</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1125,10 +936,10 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1139,16 +950,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1159,13 +967,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1176,13 +984,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1193,13 +1001,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1210,13 +1018,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1227,13 +1035,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1247,13 +1055,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1267,13 +1075,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1287,13 +1095,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1307,13 +1115,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -1327,13 +1135,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1347,13 +1155,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -1367,13 +1175,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1387,13 +1195,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1407,16 +1215,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1427,16 +1232,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1447,16 +1249,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1467,13 +1266,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1487,16 +1286,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1507,16 +1303,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1527,16 +1320,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1547,16 +1337,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1567,13 +1354,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" t="s">
-        <v>21</v>
+        <v>69</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1584,13 +1374,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1604,13 +1394,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1624,13 +1414,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -1644,13 +1434,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1664,13 +1454,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -1684,13 +1474,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" t="s">
-        <v>21</v>
+        <v>81</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1701,13 +1494,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" t="s">
-        <v>21</v>
+        <v>83</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1718,13 +1514,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" t="s">
-        <v>21</v>
+        <v>85</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1735,13 +1534,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" t="s">
-        <v>21</v>
+        <v>87</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1752,13 +1554,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1772,13 +1574,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" t="s">
-        <v>21</v>
+        <v>91</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1789,13 +1594,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" t="s">
-        <v>21</v>
+        <v>93</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1806,13 +1614,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" t="s">
-        <v>21</v>
+        <v>95</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1823,13 +1634,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" t="s">
-        <v>21</v>
+        <v>97</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1840,13 +1654,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1860,13 +1674,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1880,13 +1694,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1900,13 +1714,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1920,13 +1734,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" t="s">
-        <v>21</v>
+        <v>107</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -1937,13 +1754,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1957,13 +1774,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" t="s">
-        <v>21</v>
+        <v>111</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -1974,13 +1794,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" t="s">
-        <v>21</v>
+        <v>113</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -1991,13 +1814,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" t="s">
-        <v>21</v>
+        <v>115</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2008,13 +1834,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" t="s">
-        <v>21</v>
+        <v>117</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2025,13 +1854,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2042,13 +1871,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2059,13 +1888,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -2079,13 +1908,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" t="s">
-        <v>21</v>
+        <v>125</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2096,13 +1928,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -2116,13 +1948,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -2136,13 +1968,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -2151,654 +1983,6 @@
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s">
-        <v>139</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>141</v>
-      </c>
-      <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
-        <v>143</v>
-      </c>
-      <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
-        <v>147</v>
-      </c>
-      <c r="D71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72" t="s">
-        <v>149</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>152</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74" t="s">
-        <v>153</v>
-      </c>
-      <c r="D74" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
-        <v>155</v>
-      </c>
-      <c r="D75" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>156</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>158</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78" t="s">
-        <v>161</v>
-      </c>
-      <c r="D78" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>162</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79" t="s">
-        <v>163</v>
-      </c>
-      <c r="D79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>164</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
-      </c>
-      <c r="D80" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>166</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81" t="s">
-        <v>167</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>168</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>170</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83" t="s">
-        <v>171</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>172</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84" t="s">
-        <v>173</v>
-      </c>
-      <c r="D84" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>174</v>
-      </c>
-      <c r="B85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" t="s">
-        <v>175</v>
-      </c>
-      <c r="F85" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>176</v>
-      </c>
-      <c r="B86" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" t="s">
-        <v>177</v>
-      </c>
-      <c r="F86" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>178</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87" t="s">
-        <v>179</v>
-      </c>
-      <c r="D87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>180</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>181</v>
-      </c>
-      <c r="D88" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>182</v>
-      </c>
-      <c r="B89" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" t="s">
-        <v>183</v>
-      </c>
-      <c r="F89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>185</v>
-      </c>
-      <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>186</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>187</v>
-      </c>
-      <c r="D91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>188</v>
-      </c>
-      <c r="B92" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" t="s">
-        <v>189</v>
-      </c>
-      <c r="F92" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>190</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93" t="s">
-        <v>191</v>
-      </c>
-      <c r="D93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>192</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94" t="s">
-        <v>192</v>
-      </c>
-      <c r="D94" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>193</v>
-      </c>
-      <c r="D95" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="633">
   <si>
     <t>File</t>
   </si>
@@ -34,19 +34,133 @@
     <t>severityIcon</t>
   </si>
   <si>
+    <t>applications/Krinkels_Field_Service.app-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomApplication Krinkels_Field_Service</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
+    <t>applications/Sales.app-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomApplication Sales</t>
+  </si>
+  <si>
+    <t>classes/ATAKPerformanceService.cls</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKPerformanceService</t>
+  </si>
+  <si>
+    <t>classes/ATAKPerformanceService.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKPerformanceServiceInvocable.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKPerformanceServiceInvocable</t>
+  </si>
+  <si>
+    <t>classes/ATAKPerformanceServiceInvocable.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKPerformanceWrapper.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKPerformanceWrapper</t>
+  </si>
+  <si>
+    <t>classes/ATAKPerformanceWrapper.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKPerformanceWrapperTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKPerformanceWrapperTest</t>
+  </si>
+  <si>
+    <t>classes/ATAKPerformanceWrapperTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKPersonnelService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKPersonnelService</t>
+  </si>
+  <si>
+    <t>classes/ATAKPersonnelWrapper.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKPersonnelWrapper</t>
+  </si>
+  <si>
+    <t>classes/CallOut.cls</t>
+  </si>
+  <si>
+    <t>ApexClass CallOut</t>
+  </si>
+  <si>
+    <t>classes/CallOut.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/CallOutHandler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass CallOutHandler</t>
+  </si>
+  <si>
+    <t>classes/CallOutHandler.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/OutboundLoggerService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass OutboundLoggerService</t>
+  </si>
+  <si>
+    <t>classes/OutboundLoggerService.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/TimeSheetController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass TimeSheetController</t>
+  </si>
+  <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
   </si>
   <si>
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
+    <t>contentassets/Krinkels_Signaturepng.asset</t>
+  </si>
+  <si>
+    <t>ContentAsset Krinkels_Signaturepng</t>
+  </si>
+  <si>
+    <t>contentassets/Krinkels_Signaturepng.asset-meta.xml</t>
+  </si>
+  <si>
+    <t>contentassets/logo_krinkelsbelgie_balk_kort_1.asset</t>
+  </si>
+  <si>
+    <t>ContentAsset logo_krinkelsbelgie_balk_kort_1</t>
+  </si>
+  <si>
+    <t>contentassets/logo_krinkelsbelgie_balk_kort_1.asset-meta.xml</t>
   </si>
   <si>
     <t>digitalExperiences/experiencecontainer/FSL/experience__navigationMenu/menu/content.json</t>
@@ -55,34 +169,133 @@
     <t>DigitalExperienceBundle experiencecontainer/FSL/experience__navigationMenu/menu/content.json</t>
   </si>
   <si>
-    <t>flexipages/ATAK_Project_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage ATAK_Project_Record_Page</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Check_In.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Check_In</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Check_In.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Check_In</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
+    <t>email/CustomerNotifications.emailFolder-meta.xml</t>
+  </si>
+  <si>
+    <t>EmailTemplate CustomerNotificationsFolder-meta.xml</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_Planned_WO_NL_1731941363446.email</t>
+  </si>
+  <si>
+    <t>EmailTemplate CustomerNotifications/Notification_Planned_WO_NL_1731941363446</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_Planned_WO_NL_1731941363446.email-meta.xml</t>
+  </si>
+  <si>
+    <t>flexipages/ATAK_Personnel_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage ATAK_Personnel_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Location_Visit_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Location_Visit_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Operational_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Other_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Other_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Service_Contract_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Time_Sheet_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Time_Sheet_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Mileage_Entry_Before_Save.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Mileage_Entry_Before_Save</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_Appointment_After_Save_Record_Triggered_Add_Start_Date_and_Retrigger_Not.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_Appointment_After_Save_Record_Triggered_Add_Start_Date_and_Retrigger_Not</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_Appointment_Scheduled_Customer_Notification.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_Appointment_Scheduled_Customer_Notification</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_Appointment_Time_Sheet_Automations.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_Appointment_Time_Sheet_Automations</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Time_Sheet_Entry_Before_Save.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Time_Sheet_Entry_Before_Save</t>
+  </si>
+  <si>
+    <t>flows/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
+  </si>
+  <si>
+    <t>flows/Mileage_Entry_Before_Save.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Mileage_Entry_Before_Save</t>
+  </si>
+  <si>
+    <t>flows/Resource_Absence_Before_Save.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Resource_Absence_Before_Save</t>
+  </si>
+  <si>
+    <t>flows/Service_Appointment_After_Save_Record_Triggered_Add_Start_Date_and_Retrigger_Not.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_Appointment_After_Save_Record_Triggered_Add_Start_Date_and_Retrigger_Not</t>
+  </si>
+  <si>
+    <t>flows/Service_Appointment_Scheduled_Customer_Notification.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_Appointment_Scheduled_Customer_Notification</t>
+  </si>
+  <si>
+    <t>flows/Service_Appointment_Time_Sheet_Automations.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_Appointment_Time_Sheet_Automations</t>
+  </si>
+  <si>
+    <t>flows/Time_Sheet_Entry_Before_Save.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Time_Sheet_Entry_Before_Save</t>
   </si>
   <si>
     <t>labels/CustomLabels.labels-meta.xml</t>
@@ -91,16 +304,154 @@
     <t>CustomLabel CustomLabels</t>
   </si>
   <si>
-    <t>layouts/Global-Global Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Global-Global Layout</t>
-  </si>
-  <si>
-    <t>lwc/nextAppointmentPicker/nextAppointmentPicker.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.css</t>
+    <t>layouts/ATAK_Personnel__c-ATAK Personnel Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ATAK_Personnel__c-ATAK Personnel Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Commercial Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Commercial Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-FSL Operational Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-FSL Operational Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Financial Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Financial Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Operational Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Operational Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Other Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Other Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/AccountContactRelation-Account Contact Relationship Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout AccountContactRelation-Account Contact Relationship Layout</t>
+  </si>
+  <si>
+    <t>layouts/Contact-Contact Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Contact-Contact Layout</t>
+  </si>
+  <si>
+    <t>layouts/Contact-FSL Contact Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Contact-FSL Contact Layout</t>
+  </si>
+  <si>
+    <t>layouts/Linked_Operator__c-Linked Operator Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Linked_Operator__c-Linked Operator Layout</t>
+  </si>
+  <si>
+    <t>layouts/Location_Visit__c-Location Visit Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Location_Visit__c-Location Visit Layout</t>
+  </si>
+  <si>
+    <t>layouts/Mileage_Entry__c-Mileage Entry Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Mileage_Entry__c-Mileage Entry Layout</t>
+  </si>
+  <si>
+    <t>layouts/Outbound_Log__c-Outbound Log Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Outbound_Log__c-Outbound Log Layout</t>
+  </si>
+  <si>
+    <t>layouts/ResourceAbsence-Internal Meeting Resource Absence Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ResourceAbsence-Internal Meeting Resource Absence Layout</t>
+  </si>
+  <si>
+    <t>layouts/ResourceAbsence-Physical Check-up Resource Absence Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ResourceAbsence-Physical Check-up Resource Absence Layout</t>
+  </si>
+  <si>
+    <t>layouts/ResourceAbsence-Resource Absence Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ResourceAbsence-Resource Absence Layout</t>
+  </si>
+  <si>
+    <t>layouts/ResourceAbsence-Training Resource Absence Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ResourceAbsence-Training Resource Absence Layout</t>
+  </si>
+  <si>
+    <t>layouts/ServiceAppointment-Service Appointment Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceAppointment-Service Appointment Layout</t>
+  </si>
+  <si>
+    <t>layouts/ServiceContract-Service Contract Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceContract-Service Contract Layout</t>
+  </si>
+  <si>
+    <t>layouts/Service_Appointment_Status__c-Service Appointment Status Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Service_Appointment_Status__c-Service Appointment Status Layout</t>
+  </si>
+  <si>
+    <t>layouts/TimeSheet-FSL Time Sheet Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout TimeSheet-FSL Time Sheet Layout</t>
+  </si>
+  <si>
+    <t>layouts/TimeSheet-Time Sheet Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout TimeSheet-Time Sheet Layout</t>
+  </si>
+  <si>
+    <t>layouts/TimeSheetEntry-Time Sheet Entry Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout TimeSheetEntry-Time Sheet Entry Layout</t>
+  </si>
+  <si>
+    <t>layouts/TimeSlot-Time Slot Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout TimeSlot-Time Slot Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkOrder-Work Order Layout</t>
   </si>
   <si>
     <t>lwc/nextAppointmentPicker/nextAppointmentPicker.html</t>
@@ -115,15 +466,6 @@
     <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.js</t>
   </si>
   <si>
-    <t>lwc/startOperatorDay/startOperatorDay.css</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startOperatorDay/startOperatorDay.css</t>
-  </si>
-  <si>
     <t>lwc/startOperatorDay/startOperatorDay.html</t>
   </si>
   <si>
@@ -136,16 +478,1432 @@
     <t>LightningComponentBundle startOperatorDay/startOperatorDay.js</t>
   </si>
   <si>
-    <t>lwc/startOperatorDay/startOperatorDay.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startOperatorDay/startOperatorDay.js-meta.xml</t>
-  </si>
-  <si>
-    <t>quickActions/Start_Day.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction Start_Day</t>
+    <t>lwc/timeSheetCalendar/timeSheetCalendar.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.css</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendar/timeSheetCalendar.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.html</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendar/timeSheetCalendar.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.js</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendarCustom/timeSheetCalendarCustom.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendarCustom/timeSheetCalendarCustom.css</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendarCustom/timeSheetCalendarCustom.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendarCustom/timeSheetCalendarCustom.html</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendarCustom/timeSheetCalendarCustom.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendarCustom/timeSheetCalendarCustom.js</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendarCustom/timeSheetCalendarCustom.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendarCustom/timeSheetCalendarCustom.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetHeader/timeSheetHeader.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetHeader/timeSheetHeader.css</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetHeader/timeSheetHeader.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetHeader/timeSheetHeader.html</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetHeader/timeSheetHeader.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetHeader/timeSheetHeader.js</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetHeader/timeSheetHeader.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetHeader/timeSheetHeader.js-meta.xml</t>
+  </si>
+  <si>
+    <t>namedCredentials/ATAK_Performance.namedCredential-meta.xml</t>
+  </si>
+  <si>
+    <t>NamedCredential ATAK_Performance</t>
+  </si>
+  <si>
+    <t>namedCredentials/ATAK_Token.namedCredential-meta.xml</t>
+  </si>
+  <si>
+    <t>NamedCredential ATAK_Token</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Personnel__c/fields/Interim_Agency__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Interim_Agency__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Settings__c/ATAK_Settings__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject ATAK_Settings__c/ATAK_Settings__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Settings__c/fields/Token__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Token__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Settings__c/fields/Validity_End__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Validity_End__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Settings__c/fields/Validity_Start__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Validity_Start__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Intervention_Registration_Announcement__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Intervention_Registration_Announcement__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Intervention_Registration_Method__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Intervention_Registration_Method__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Intervention_registration__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Intervention_registration__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Opening_hours_OLD__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Opening_hours_OLD__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Sub_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Sub_Type__c</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Commercial_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Commercial_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Financial_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Financial_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Group_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Group_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Operational_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Operational_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Other.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Other</t>
+  </si>
+  <si>
+    <t>objects/AccountContactRelation/fields/Intervention_Registration_Contact__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Intervention_Registration_Contact__c</t>
+  </si>
+  <si>
+    <t>objects/Linked_Operator__c/Linked_Operator__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Linked_Operator__c/Linked_Operator__c</t>
+  </si>
+  <si>
+    <t>objects/Linked_Operator__c/fields/Location_Visit__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Location_Visit__c</t>
+  </si>
+  <si>
+    <t>objects/Linked_Operator__c/fields/Operator__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Operator__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/compactLayouts/Location_Visit.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Location_Visit</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Access_Information__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Access_Information__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Contact_Visit__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contact_Visit__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Email_Contact_Visit__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Email_Contact_Visit__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Extra_Opportunity_Information__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Extra_Opportunity_Information__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Geolocation__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Geolocation__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Location_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Location_Name__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Phone_Contact_Visit__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Phone_Contact_Visit__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Service_Contract_Status__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Contract_Status__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Site_Boundaries_Info__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Site_Boundaries_Info__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Visit_Address__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Visit_Address__c</t>
+  </si>
+  <si>
+    <t>objects/Logger_Settings__c/fields/Enable_Outbound_Logs__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Enable_Outbound_Logs__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/Mileage_Entry__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Mileage_Entry__c/Mileage_Entry__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/fields/Time_Sheet__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Time_Sheet__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/fields/Work_Order__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Work_Order__c</t>
+  </si>
+  <si>
+    <t>objects/Outbound_Log__c/Outbound_Log__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Outbound_Log__c/Outbound_Log__c</t>
+  </si>
+  <si>
+    <t>objects/Outbound_Log__c/fields/Error_Message__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Error_Message__c</t>
+  </si>
+  <si>
+    <t>objects/Outbound_Log__c/fields/JSON_Body__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField JSON_Body__c</t>
+  </si>
+  <si>
+    <t>objects/Outbound_Log__c/listViews/All.listView-meta.xml</t>
+  </si>
+  <si>
+    <t>ListView All</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Contract_Manager__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contract_Manager__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Depot__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Depot__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/External_Location__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField External_Location__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Remarks__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Remarks__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Status__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Status__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Training_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Training_Type__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/FSL__Break.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType FSL__Break</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/FSL__Non_Availability.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType FSL__Non_Availability</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/Internal_Meeting.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Internal_Meeting</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/Physical_Check_up.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Physical_Check_up</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/Training.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Training</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/Intervention_Registration__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Intervention_Registration__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/Notification_Day__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Notification_Day__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/Scheduling_Notification_Send__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Scheduling_Notification_Send__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/Travel_is_Done__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Travel_is_Done__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Link_contract__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Link_contract__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/SPOC_Client__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SPOC_Client__c</t>
+  </si>
+  <si>
+    <t>objects/Service_Appointment_Status__c/Service_Appointment_Status__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Service_Appointment_Status__c/Service_Appointment_Status__c</t>
+  </si>
+  <si>
+    <t>objects/Service_Appointment_Status__c/fields/New_Status__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField New_Status__c</t>
+  </si>
+  <si>
+    <t>objects/Service_Appointment_Status__c/fields/Previous_Status__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Previous_Status__c</t>
+  </si>
+  <si>
+    <t>objects/Service_Appointment_Status__c/fields/Service_Appointment__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Appointment__c</t>
+  </si>
+  <si>
+    <t>objects/Service_Appointment_Status__c/fields/Status_Change_Date__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Status_Change_Date__c</t>
+  </si>
+  <si>
+    <t>objects/TimeSheet/TimeSheet.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject TimeSheet/TimeSheet</t>
+  </si>
+  <si>
+    <t>objects/TimeSheet/fields/Total_Hours__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Total_Hours__c</t>
+  </si>
+  <si>
+    <t>objects/TimeSheet/fields/Total_KM__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Total_KM__c</t>
+  </si>
+  <si>
+    <t>objects/TimeSheet/fields/Total_Normal_Hours__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Total_Normal_Hours__c</t>
+  </si>
+  <si>
+    <t>objects/TimeSheet/fields/Total_Travel_Time__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Total_Travel_Time__c</t>
+  </si>
+  <si>
+    <t>objects/TimeSheetEntry/fields/Pause_Duration__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Pause_Duration__c</t>
+  </si>
+  <si>
+    <t>objects/TimeSheetEntry/validationRules/Winter_Maintenance_Time_Sheet.validationRule-meta.xml</t>
+  </si>
+  <si>
+    <t>ValidationRule Winter_Maintenance_Time_Sheet</t>
+  </si>
+  <si>
+    <t>objects/TimeSlot/fields/Timeslot_Details__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Timeslot_Details__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Mobile_Contract_Manager__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Mobile_Contract_Manager__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Name_Commercial_Contract__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Name_Commercial_Contract__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Name_Contract_Manager__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Name_Contract_Manager__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Operating_Hours__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Operating_Hours__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Product__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Product__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Scheduled_Date__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Scheduled_Date__c</t>
+  </si>
+  <si>
+    <t>permissionsets/Lightning_Email_Template_Builder.permissionset-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSet Lightning_Email_Template_Builder</t>
+  </si>
+  <si>
+    <t>profiles/Admin.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Admin</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Security User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Security User</t>
+  </si>
+  <si>
+    <t>profiles/Business Support.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Business Support</t>
+  </si>
+  <si>
+    <t>profiles/CPQ Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile CPQ Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter External User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter External User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Free User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Free User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Moderator User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Moderator User</t>
+  </si>
+  <si>
+    <t>profiles/Contract Manager %28custom%29.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Contract Manager %28custom%29</t>
+  </si>
+  <si>
+    <t>profiles/ContractManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ContractManager</t>
+  </si>
+  <si>
+    <t>profiles/Customer Community Plus User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Customer Community Plus User</t>
+  </si>
+  <si>
+    <t>profiles/External Operator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile External Operator</t>
+  </si>
+  <si>
+    <t>profiles/Guest License User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Guest License User</t>
+  </si>
+  <si>
+    <t>profiles/Identity User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Identity User</t>
+  </si>
+  <si>
+    <t>profiles/Manager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Manager</t>
+  </si>
+  <si>
+    <t>profiles/MarketingProfile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile MarketingProfile</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - API Only Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - API Only Integrations</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - Salesforce.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - Salesforce</t>
+  </si>
+  <si>
+    <t>profiles/Operator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Operator</t>
+  </si>
+  <si>
+    <t>profiles/Partner Community User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Partner Community User</t>
+  </si>
+  <si>
+    <t>profiles/Read Only.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Read Only</t>
+  </si>
+  <si>
+    <t>profiles/Sales Insights Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Insights Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Salesforce API Only System Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Salesforce API Only System Integrations</t>
+  </si>
+  <si>
+    <t>profiles/SolutionManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile SolutionManager</t>
+  </si>
+  <si>
+    <t>profiles/Standard.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Standard</t>
+  </si>
+  <si>
+    <t>quickActions/Timesheet.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction Timesheet</t>
+  </si>
+  <si>
+    <t>reportTypes/Service_Appointments.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Service_Appointments</t>
+  </si>
+  <si>
+    <t>reportTypes/Service_Appointments_with_Service_Resources.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Service_Appointments_with_Service_Resources</t>
+  </si>
+  <si>
+    <t>settings/EmailTemplate.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings EmailTemplate</t>
+  </si>
+  <si>
+    <t>settings/LightningExperience.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings LightningExperience</t>
+  </si>
+  <si>
+    <t>settings/Search.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Search</t>
+  </si>
+  <si>
+    <t>sharingRules/Linked_Operator__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules Linked_Operator__c</t>
+  </si>
+  <si>
+    <t>sharingRules/Outbound_Log__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules Outbound_Log__c</t>
+  </si>
+  <si>
+    <t>standardValueSets/ResourceAbsenceType.standardValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>StandardValueSet ResourceAbsenceType</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5.resource-meta.xml</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/LICENSE.txt</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/LICENSE.txt</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/README.md</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/README.md</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/background-events.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/background-events.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/daygrid-views.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/daygrid-views.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/external-dragging-2cals.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/external-dragging-2cals.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/external-dragging-builtin.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/external-dragging-builtin.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/full-height.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/full-height.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/google-calendar.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/google-calendar.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/icalendar.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/icalendar.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/js/theme-chooser.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/js/theme-chooser.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/json.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/json.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/json/events.json</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/json/events.json</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/list-sticky-header.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/list-sticky-header.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/list-views.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/list-views.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/locales.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/locales.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/month-view.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/month-view.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/natural-height.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/natural-height.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/php/get-events.php</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/php/get-events.php</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/php/get-time-zones.php</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/php/get-time-zones.php</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/php/utils.php</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/php/utils.php</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/selectable.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/selectable.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/theming.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/theming.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/time-zones.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/time-zones.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/timegrid-sticky-header.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/timegrid-sticky-header.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/timegrid-views-hscroll.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/timegrid-views-hscroll.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/timegrid-views.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/timegrid-views.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/examples/week-numbers.html</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/examples/week-numbers.html</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales-all.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales-all.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales-all.min.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales-all.min.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/af.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/af.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ar-dz.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ar-dz.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ar-kw.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ar-kw.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ar-ly.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ar-ly.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ar-ma.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ar-ma.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ar-sa.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ar-sa.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ar-tn.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ar-tn.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ar.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ar.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/az.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/az.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/bg.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/bg.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/bn.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/bn.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/bs.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/bs.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ca.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ca.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/cs.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/cs.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/cy.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/cy.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/da.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/da.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/de-at.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/de-at.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/de.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/de.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/el.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/el.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/en-au.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/en-au.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/en-gb.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/en-gb.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/en-nz.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/en-nz.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/eo.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/eo.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/es-us.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/es-us.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/es.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/es.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/et.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/et.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/eu.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/eu.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/fa.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/fa.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/fi.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/fi.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/fr-ca.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/fr-ca.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/fr-ch.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/fr-ch.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/fr.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/fr.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/gl.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/gl.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/he.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/he.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/hi.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/hi.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/hr.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/hr.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/hu.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/hu.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/hy-am.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/hy-am.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/id.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/id.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/is.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/is.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/it.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/it.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ja.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ja.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ka.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ka.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/kk.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/kk.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/km.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/km.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ko.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ko.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ku.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ku.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/lb.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/lb.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/lt.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/lt.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/lv.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/lv.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/mk.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/mk.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ms.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ms.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/nb.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/nb.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ne.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ne.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/nl.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/nl.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/nn.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/nn.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/pl.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/pl.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/pt-br.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/pt-br.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/pt.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/pt.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ro.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ro.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ru.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ru.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/si-lk.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/si-lk.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/sk.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/sk.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/sl.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/sl.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/sm.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/sm.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/sq.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/sq.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/sr-cyrl.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/sr-cyrl.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/sr.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/sr.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/sv.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/sv.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ta-in.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ta-in.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/th.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/th.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/tr.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/tr.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/ug.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/ug.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/uk.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/uk.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/uz.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/uz.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/vi.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/vi.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/zh-cn.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/zh-cn.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/locales/zh-tw.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/locales/zh-tw.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/main.css</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/main.css</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/main.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/main.js</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/main.min.css</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/main.min.css</t>
+  </si>
+  <si>
+    <t>staticresources/FullCalendarV5/lib/main.min.js</t>
+  </si>
+  <si>
+    <t>StaticResource FullCalendarV5/lib/main.min.js</t>
+  </si>
+  <si>
+    <t>tabs/Outbound_Log__c.tab-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomTab Outbound_Log__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/Linked_Operator__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects Linked_Operator__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/Outbound_Log__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects Outbound_Log__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/Service_Appointment_Status__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects Service_Appointment_Status__c</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -528,12 +2286,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G318"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="95" customWidth="1"/>
+    <col min="1" max="1" width="120" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="92" customWidth="1"/>
+    <col min="3" max="3" width="95" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -606,14 +2364,11 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -624,16 +2379,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -646,14 +2398,11 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -666,14 +2415,11 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -684,16 +2430,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -704,16 +2447,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -724,16 +2464,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -744,16 +2481,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -764,13 +2498,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -784,13 +2518,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -804,13 +2538,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -821,13 +2555,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -838,13 +2572,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -855,13 +2589,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -872,13 +2606,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -889,16 +2623,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -909,21 +2640,5339 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>202</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>206</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>208</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>213</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>220</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>236</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>241</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>244</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>246</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>249</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>253</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>259</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>261</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>270</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>271</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>272</v>
+      </c>
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>273</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>275</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>277</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>279</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>281</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>283</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>285</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>287</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>288</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>289</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>290</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>291</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>295</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>297</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>299</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>301</v>
+      </c>
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>303</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>305</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>307</v>
+      </c>
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>309</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>311</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>313</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" t="s">
+        <v>318</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>319</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" t="s">
+        <v>320</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s">
+        <v>322</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>323</v>
+      </c>
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" t="s">
+        <v>324</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>325</v>
+      </c>
+      <c r="B164" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" t="s">
+        <v>326</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>327</v>
+      </c>
+      <c r="B165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" t="s">
+        <v>328</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>329</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" t="s">
+        <v>330</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>331</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>332</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>333</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>334</v>
+      </c>
+      <c r="D168" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>335</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>336</v>
+      </c>
+      <c r="D169" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>337</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>338</v>
+      </c>
+      <c r="D170" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>339</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>340</v>
+      </c>
+      <c r="D171" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>341</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>342</v>
+      </c>
+      <c r="D172" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>343</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>344</v>
+      </c>
+      <c r="D173" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>345</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>346</v>
+      </c>
+      <c r="D174" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>348</v>
+      </c>
+      <c r="D175" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>349</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>350</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>351</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>352</v>
+      </c>
+      <c r="D177" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>353</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>354</v>
+      </c>
+      <c r="D178" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>355</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>356</v>
+      </c>
+      <c r="D179" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>357</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>358</v>
+      </c>
+      <c r="D180" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>359</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>360</v>
+      </c>
+      <c r="D181" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>361</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>362</v>
+      </c>
+      <c r="D182" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>363</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>364</v>
+      </c>
+      <c r="D183" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>365</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>366</v>
+      </c>
+      <c r="D184" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>367</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>368</v>
+      </c>
+      <c r="D185" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>369</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>370</v>
+      </c>
+      <c r="D186" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>371</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>372</v>
+      </c>
+      <c r="D187" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>373</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>374</v>
+      </c>
+      <c r="D188" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>375</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>376</v>
+      </c>
+      <c r="D189" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>377</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>378</v>
+      </c>
+      <c r="D190" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>379</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>380</v>
+      </c>
+      <c r="D191" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>381</v>
+      </c>
+      <c r="B192" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" t="s">
+        <v>382</v>
+      </c>
+      <c r="F192" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>383</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193" t="s">
+        <v>384</v>
+      </c>
+      <c r="D193" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>385</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194" t="s">
+        <v>386</v>
+      </c>
+      <c r="D194" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>387</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195" t="s">
+        <v>388</v>
+      </c>
+      <c r="D195" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>389</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196" t="s">
+        <v>390</v>
+      </c>
+      <c r="D196" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>391</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197" t="s">
+        <v>392</v>
+      </c>
+      <c r="D197" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>393</v>
+      </c>
+      <c r="B198" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" t="s">
+        <v>394</v>
+      </c>
+      <c r="F198" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>395</v>
+      </c>
+      <c r="B199" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" t="s">
+        <v>396</v>
+      </c>
+      <c r="F199" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>397</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200" t="s">
+        <v>398</v>
+      </c>
+      <c r="D200" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>399</v>
+      </c>
+      <c r="B201" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" t="s">
+        <v>400</v>
+      </c>
+      <c r="F201" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>401</v>
+      </c>
+      <c r="B202" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" t="s">
+        <v>402</v>
+      </c>
+      <c r="F202" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>403</v>
+      </c>
+      <c r="B203" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" t="s">
+        <v>404</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>405</v>
+      </c>
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204" t="s">
+        <v>406</v>
+      </c>
+      <c r="F204" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>407</v>
+      </c>
+      <c r="B205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" t="s">
+        <v>408</v>
+      </c>
+      <c r="F205" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>409</v>
+      </c>
+      <c r="B206" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" t="s">
+        <v>410</v>
+      </c>
+      <c r="F206" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>411</v>
+      </c>
+      <c r="B207" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" t="s">
+        <v>412</v>
+      </c>
+      <c r="F207" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>413</v>
+      </c>
+      <c r="B208" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208" t="s">
+        <v>414</v>
+      </c>
+      <c r="F208" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>415</v>
+      </c>
+      <c r="B209" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209" t="s">
+        <v>416</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>417</v>
+      </c>
+      <c r="B210" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" t="s">
+        <v>418</v>
+      </c>
+      <c r="F210" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>419</v>
+      </c>
+      <c r="B211" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211" t="s">
+        <v>420</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>421</v>
+      </c>
+      <c r="B212" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" t="s">
+        <v>422</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>423</v>
+      </c>
+      <c r="B213" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" t="s">
+        <v>424</v>
+      </c>
+      <c r="F213" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>425</v>
+      </c>
+      <c r="B214" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" t="s">
+        <v>426</v>
+      </c>
+      <c r="F214" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>427</v>
+      </c>
+      <c r="B215" t="s">
+        <v>15</v>
+      </c>
+      <c r="C215" t="s">
+        <v>428</v>
+      </c>
+      <c r="F215" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>429</v>
+      </c>
+      <c r="B216" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216" t="s">
+        <v>430</v>
+      </c>
+      <c r="F216" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>431</v>
+      </c>
+      <c r="B217" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" t="s">
+        <v>432</v>
+      </c>
+      <c r="F217" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>433</v>
+      </c>
+      <c r="B218" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218" t="s">
+        <v>434</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>435</v>
+      </c>
+      <c r="B219" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219" t="s">
+        <v>436</v>
+      </c>
+      <c r="F219" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>437</v>
+      </c>
+      <c r="B220" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220" t="s">
+        <v>438</v>
+      </c>
+      <c r="F220" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>439</v>
+      </c>
+      <c r="B221" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221" t="s">
+        <v>440</v>
+      </c>
+      <c r="F221" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>441</v>
+      </c>
+      <c r="B222" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" t="s">
+        <v>442</v>
+      </c>
+      <c r="F222" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>443</v>
+      </c>
+      <c r="B223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223" t="s">
+        <v>444</v>
+      </c>
+      <c r="F223" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>445</v>
+      </c>
+      <c r="B224" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" t="s">
+        <v>446</v>
+      </c>
+      <c r="F224" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>447</v>
+      </c>
+      <c r="B225" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225" t="s">
+        <v>448</v>
+      </c>
+      <c r="F225" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>449</v>
+      </c>
+      <c r="B226" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" t="s">
+        <v>450</v>
+      </c>
+      <c r="F226" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>451</v>
+      </c>
+      <c r="B227" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227" t="s">
+        <v>452</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>453</v>
+      </c>
+      <c r="B228" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228" t="s">
+        <v>454</v>
+      </c>
+      <c r="F228" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>455</v>
+      </c>
+      <c r="B229" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" t="s">
+        <v>456</v>
+      </c>
+      <c r="F229" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>457</v>
+      </c>
+      <c r="B230" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230" t="s">
+        <v>458</v>
+      </c>
+      <c r="F230" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>459</v>
+      </c>
+      <c r="B231" t="s">
+        <v>15</v>
+      </c>
+      <c r="C231" t="s">
+        <v>460</v>
+      </c>
+      <c r="F231" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>461</v>
+      </c>
+      <c r="B232" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232" t="s">
+        <v>462</v>
+      </c>
+      <c r="F232" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>463</v>
+      </c>
+      <c r="B233" t="s">
+        <v>15</v>
+      </c>
+      <c r="C233" t="s">
+        <v>464</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>465</v>
+      </c>
+      <c r="B234" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234" t="s">
+        <v>466</v>
+      </c>
+      <c r="F234" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>467</v>
+      </c>
+      <c r="B235" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235" t="s">
+        <v>468</v>
+      </c>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>469</v>
+      </c>
+      <c r="B236" t="s">
+        <v>15</v>
+      </c>
+      <c r="C236" t="s">
+        <v>470</v>
+      </c>
+      <c r="F236" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>471</v>
+      </c>
+      <c r="B237" t="s">
+        <v>15</v>
+      </c>
+      <c r="C237" t="s">
+        <v>472</v>
+      </c>
+      <c r="F237" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>473</v>
+      </c>
+      <c r="B238" t="s">
+        <v>15</v>
+      </c>
+      <c r="C238" t="s">
+        <v>474</v>
+      </c>
+      <c r="F238" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>475</v>
+      </c>
+      <c r="B239" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239" t="s">
+        <v>476</v>
+      </c>
+      <c r="F239" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>477</v>
+      </c>
+      <c r="B240" t="s">
+        <v>15</v>
+      </c>
+      <c r="C240" t="s">
+        <v>478</v>
+      </c>
+      <c r="F240" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>479</v>
+      </c>
+      <c r="B241" t="s">
+        <v>15</v>
+      </c>
+      <c r="C241" t="s">
+        <v>480</v>
+      </c>
+      <c r="F241" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>481</v>
+      </c>
+      <c r="B242" t="s">
+        <v>15</v>
+      </c>
+      <c r="C242" t="s">
+        <v>482</v>
+      </c>
+      <c r="F242" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>483</v>
+      </c>
+      <c r="B243" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243" t="s">
+        <v>484</v>
+      </c>
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>485</v>
+      </c>
+      <c r="B244" t="s">
+        <v>15</v>
+      </c>
+      <c r="C244" t="s">
+        <v>486</v>
+      </c>
+      <c r="F244" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>487</v>
+      </c>
+      <c r="B245" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245" t="s">
+        <v>488</v>
+      </c>
+      <c r="F245" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>489</v>
+      </c>
+      <c r="B246" t="s">
+        <v>15</v>
+      </c>
+      <c r="C246" t="s">
+        <v>490</v>
+      </c>
+      <c r="F246" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>491</v>
+      </c>
+      <c r="B247" t="s">
+        <v>15</v>
+      </c>
+      <c r="C247" t="s">
+        <v>492</v>
+      </c>
+      <c r="F247" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>493</v>
+      </c>
+      <c r="B248" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248" t="s">
+        <v>494</v>
+      </c>
+      <c r="F248" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>495</v>
+      </c>
+      <c r="B249" t="s">
+        <v>15</v>
+      </c>
+      <c r="C249" t="s">
+        <v>496</v>
+      </c>
+      <c r="F249" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>497</v>
+      </c>
+      <c r="B250" t="s">
+        <v>15</v>
+      </c>
+      <c r="C250" t="s">
+        <v>498</v>
+      </c>
+      <c r="F250" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>499</v>
+      </c>
+      <c r="B251" t="s">
+        <v>15</v>
+      </c>
+      <c r="C251" t="s">
+        <v>500</v>
+      </c>
+      <c r="F251" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>501</v>
+      </c>
+      <c r="B252" t="s">
+        <v>15</v>
+      </c>
+      <c r="C252" t="s">
+        <v>502</v>
+      </c>
+      <c r="F252" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>503</v>
+      </c>
+      <c r="B253" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253" t="s">
+        <v>504</v>
+      </c>
+      <c r="F253" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>505</v>
+      </c>
+      <c r="B254" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254" t="s">
+        <v>506</v>
+      </c>
+      <c r="F254" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>507</v>
+      </c>
+      <c r="B255" t="s">
+        <v>15</v>
+      </c>
+      <c r="C255" t="s">
+        <v>508</v>
+      </c>
+      <c r="F255" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>509</v>
+      </c>
+      <c r="B256" t="s">
+        <v>15</v>
+      </c>
+      <c r="C256" t="s">
+        <v>510</v>
+      </c>
+      <c r="F256" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>511</v>
+      </c>
+      <c r="B257" t="s">
+        <v>15</v>
+      </c>
+      <c r="C257" t="s">
+        <v>512</v>
+      </c>
+      <c r="F257" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>513</v>
+      </c>
+      <c r="B258" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258" t="s">
+        <v>514</v>
+      </c>
+      <c r="F258" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>515</v>
+      </c>
+      <c r="B259" t="s">
+        <v>15</v>
+      </c>
+      <c r="C259" t="s">
+        <v>516</v>
+      </c>
+      <c r="F259" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>517</v>
+      </c>
+      <c r="B260" t="s">
+        <v>15</v>
+      </c>
+      <c r="C260" t="s">
+        <v>518</v>
+      </c>
+      <c r="F260" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>519</v>
+      </c>
+      <c r="B261" t="s">
+        <v>15</v>
+      </c>
+      <c r="C261" t="s">
+        <v>520</v>
+      </c>
+      <c r="F261" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>521</v>
+      </c>
+      <c r="B262" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262" t="s">
+        <v>522</v>
+      </c>
+      <c r="F262" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>523</v>
+      </c>
+      <c r="B263" t="s">
+        <v>15</v>
+      </c>
+      <c r="C263" t="s">
+        <v>524</v>
+      </c>
+      <c r="F263" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>525</v>
+      </c>
+      <c r="B264" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264" t="s">
+        <v>526</v>
+      </c>
+      <c r="F264" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>527</v>
+      </c>
+      <c r="B265" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265" t="s">
+        <v>528</v>
+      </c>
+      <c r="F265" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>529</v>
+      </c>
+      <c r="B266" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266" t="s">
+        <v>530</v>
+      </c>
+      <c r="F266" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>531</v>
+      </c>
+      <c r="B267" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267" t="s">
+        <v>532</v>
+      </c>
+      <c r="F267" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>533</v>
+      </c>
+      <c r="B268" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268" t="s">
+        <v>534</v>
+      </c>
+      <c r="F268" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>535</v>
+      </c>
+      <c r="B269" t="s">
+        <v>15</v>
+      </c>
+      <c r="C269" t="s">
+        <v>536</v>
+      </c>
+      <c r="F269" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>537</v>
+      </c>
+      <c r="B270" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270" t="s">
+        <v>538</v>
+      </c>
+      <c r="F270" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>539</v>
+      </c>
+      <c r="B271" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271" t="s">
+        <v>540</v>
+      </c>
+      <c r="F271" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>541</v>
+      </c>
+      <c r="B272" t="s">
+        <v>15</v>
+      </c>
+      <c r="C272" t="s">
+        <v>542</v>
+      </c>
+      <c r="F272" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>543</v>
+      </c>
+      <c r="B273" t="s">
+        <v>15</v>
+      </c>
+      <c r="C273" t="s">
+        <v>544</v>
+      </c>
+      <c r="F273" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>545</v>
+      </c>
+      <c r="B274" t="s">
+        <v>15</v>
+      </c>
+      <c r="C274" t="s">
+        <v>546</v>
+      </c>
+      <c r="F274" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>547</v>
+      </c>
+      <c r="B275" t="s">
+        <v>15</v>
+      </c>
+      <c r="C275" t="s">
+        <v>548</v>
+      </c>
+      <c r="F275" t="s">
+        <v>10</v>
+      </c>
+      <c r="G275" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>549</v>
+      </c>
+      <c r="B276" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276" t="s">
+        <v>550</v>
+      </c>
+      <c r="F276" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>551</v>
+      </c>
+      <c r="B277" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277" t="s">
+        <v>552</v>
+      </c>
+      <c r="F277" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>553</v>
+      </c>
+      <c r="B278" t="s">
+        <v>15</v>
+      </c>
+      <c r="C278" t="s">
+        <v>554</v>
+      </c>
+      <c r="F278" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>555</v>
+      </c>
+      <c r="B279" t="s">
+        <v>15</v>
+      </c>
+      <c r="C279" t="s">
+        <v>556</v>
+      </c>
+      <c r="F279" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>557</v>
+      </c>
+      <c r="B280" t="s">
+        <v>15</v>
+      </c>
+      <c r="C280" t="s">
+        <v>558</v>
+      </c>
+      <c r="F280" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>559</v>
+      </c>
+      <c r="B281" t="s">
+        <v>15</v>
+      </c>
+      <c r="C281" t="s">
+        <v>560</v>
+      </c>
+      <c r="F281" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>561</v>
+      </c>
+      <c r="B282" t="s">
+        <v>15</v>
+      </c>
+      <c r="C282" t="s">
+        <v>562</v>
+      </c>
+      <c r="F282" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>563</v>
+      </c>
+      <c r="B283" t="s">
+        <v>15</v>
+      </c>
+      <c r="C283" t="s">
+        <v>564</v>
+      </c>
+      <c r="F283" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>565</v>
+      </c>
+      <c r="B284" t="s">
+        <v>15</v>
+      </c>
+      <c r="C284" t="s">
+        <v>566</v>
+      </c>
+      <c r="F284" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>567</v>
+      </c>
+      <c r="B285" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285" t="s">
+        <v>568</v>
+      </c>
+      <c r="F285" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>569</v>
+      </c>
+      <c r="B286" t="s">
+        <v>15</v>
+      </c>
+      <c r="C286" t="s">
+        <v>570</v>
+      </c>
+      <c r="F286" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>571</v>
+      </c>
+      <c r="B287" t="s">
+        <v>15</v>
+      </c>
+      <c r="C287" t="s">
+        <v>572</v>
+      </c>
+      <c r="F287" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>573</v>
+      </c>
+      <c r="B288" t="s">
+        <v>15</v>
+      </c>
+      <c r="C288" t="s">
+        <v>574</v>
+      </c>
+      <c r="F288" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>575</v>
+      </c>
+      <c r="B289" t="s">
+        <v>15</v>
+      </c>
+      <c r="C289" t="s">
+        <v>576</v>
+      </c>
+      <c r="F289" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>577</v>
+      </c>
+      <c r="B290" t="s">
+        <v>15</v>
+      </c>
+      <c r="C290" t="s">
+        <v>578</v>
+      </c>
+      <c r="F290" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>579</v>
+      </c>
+      <c r="B291" t="s">
+        <v>15</v>
+      </c>
+      <c r="C291" t="s">
+        <v>580</v>
+      </c>
+      <c r="F291" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>581</v>
+      </c>
+      <c r="B292" t="s">
+        <v>15</v>
+      </c>
+      <c r="C292" t="s">
+        <v>582</v>
+      </c>
+      <c r="F292" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>583</v>
+      </c>
+      <c r="B293" t="s">
+        <v>15</v>
+      </c>
+      <c r="C293" t="s">
+        <v>584</v>
+      </c>
+      <c r="F293" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>585</v>
+      </c>
+      <c r="B294" t="s">
+        <v>15</v>
+      </c>
+      <c r="C294" t="s">
+        <v>586</v>
+      </c>
+      <c r="F294" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>587</v>
+      </c>
+      <c r="B295" t="s">
+        <v>15</v>
+      </c>
+      <c r="C295" t="s">
+        <v>588</v>
+      </c>
+      <c r="F295" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>589</v>
+      </c>
+      <c r="B296" t="s">
+        <v>15</v>
+      </c>
+      <c r="C296" t="s">
+        <v>590</v>
+      </c>
+      <c r="F296" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>591</v>
+      </c>
+      <c r="B297" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297" t="s">
+        <v>592</v>
+      </c>
+      <c r="F297" t="s">
+        <v>10</v>
+      </c>
+      <c r="G297" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>593</v>
+      </c>
+      <c r="B298" t="s">
+        <v>15</v>
+      </c>
+      <c r="C298" t="s">
+        <v>594</v>
+      </c>
+      <c r="F298" t="s">
+        <v>10</v>
+      </c>
+      <c r="G298" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>595</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>596</v>
+      </c>
+      <c r="F299" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>597</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>598</v>
+      </c>
+      <c r="F300" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>599</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>600</v>
+      </c>
+      <c r="F301" t="s">
+        <v>10</v>
+      </c>
+      <c r="G301" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>601</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>602</v>
+      </c>
+      <c r="F302" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>603</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>604</v>
+      </c>
+      <c r="F303" t="s">
+        <v>10</v>
+      </c>
+      <c r="G303" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>605</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>606</v>
+      </c>
+      <c r="F304" t="s">
+        <v>10</v>
+      </c>
+      <c r="G304" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>607</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>608</v>
+      </c>
+      <c r="F305" t="s">
+        <v>10</v>
+      </c>
+      <c r="G305" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>609</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>610</v>
+      </c>
+      <c r="F306" t="s">
+        <v>10</v>
+      </c>
+      <c r="G306" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>611</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>612</v>
+      </c>
+      <c r="F307" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>613</v>
+      </c>
+      <c r="B308" t="s">
+        <v>15</v>
+      </c>
+      <c r="C308" t="s">
+        <v>614</v>
+      </c>
+      <c r="F308" t="s">
+        <v>10</v>
+      </c>
+      <c r="G308" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>615</v>
+      </c>
+      <c r="B309" t="s">
+        <v>15</v>
+      </c>
+      <c r="C309" t="s">
+        <v>616</v>
+      </c>
+      <c r="F309" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>617</v>
+      </c>
+      <c r="B310" t="s">
+        <v>15</v>
+      </c>
+      <c r="C310" t="s">
+        <v>618</v>
+      </c>
+      <c r="F310" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>619</v>
+      </c>
+      <c r="B311" t="s">
+        <v>15</v>
+      </c>
+      <c r="C311" t="s">
+        <v>620</v>
+      </c>
+      <c r="F311" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>621</v>
+      </c>
+      <c r="B312" t="s">
+        <v>15</v>
+      </c>
+      <c r="C312" t="s">
+        <v>622</v>
+      </c>
+      <c r="F312" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>623</v>
+      </c>
+      <c r="B313" t="s">
+        <v>15</v>
+      </c>
+      <c r="C313" t="s">
+        <v>624</v>
+      </c>
+      <c r="F313" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>625</v>
+      </c>
+      <c r="B314" t="s">
+        <v>15</v>
+      </c>
+      <c r="C314" t="s">
+        <v>626</v>
+      </c>
+      <c r="F314" t="s">
+        <v>10</v>
+      </c>
+      <c r="G314" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>627</v>
+      </c>
+      <c r="B315" t="s">
+        <v>15</v>
+      </c>
+      <c r="C315" t="s">
+        <v>628</v>
+      </c>
+      <c r="F315" t="s">
+        <v>10</v>
+      </c>
+      <c r="G315" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>629</v>
+      </c>
+      <c r="B316" t="s">
+        <v>15</v>
+      </c>
+      <c r="C316" t="s">
+        <v>630</v>
+      </c>
+      <c r="F316" t="s">
+        <v>10</v>
+      </c>
+      <c r="G316" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>631</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317" t="s">
+        <v>631</v>
+      </c>
+      <c r="D317" t="s">
+        <v>9</v>
+      </c>
+      <c r="F317" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>632</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318" t="s">
+        <v>632</v>
+      </c>
+      <c r="D318" t="s">
+        <v>9</v>
+      </c>
+      <c r="F318" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="240">
   <si>
     <t>File</t>
   </si>
@@ -34,10 +34,10 @@
     <t>severityIcon</t>
   </si>
   <si>
-    <t>approvalProcesses/TimeSheet.Time_Sheet_Approval_Process.approvalProcess-meta.xml</t>
-  </si>
-  <si>
-    <t>ApprovalProcess TimeSheet.Time_Sheet_Approval_Process</t>
+    <t>applications/Krinkels_Field_Service.app-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomApplication Krinkels_Field_Service</t>
   </si>
   <si>
     <t>M</t>
@@ -49,58 +49,46 @@
     <t>📰</t>
   </si>
   <si>
-    <t>classes/ATAKMaterialService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKMaterialService</t>
-  </si>
-  <si>
-    <t>classes/ATAKPersonnelService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKPersonnelService</t>
-  </si>
-  <si>
-    <t>classes/ATAKProjectService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKProjectService</t>
-  </si>
-  <si>
-    <t>classes/FieldServiceTestData.cls</t>
-  </si>
-  <si>
-    <t>ApexClass FieldServiceTestData</t>
-  </si>
-  <si>
-    <t>classes/TimeSheetCalculationInvocable.cls</t>
+    <t>applications/Sales.app-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomApplication Sales</t>
+  </si>
+  <si>
+    <t>classes/ATAKPerformanceService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKPerformanceService</t>
+  </si>
+  <si>
+    <t>classes/AccountDetailsController.cls</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>ApexClass TimeSheetCalculationInvocable</t>
-  </si>
-  <si>
-    <t>classes/TimeSheetCalculationInvocable.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/TimeSheetCalculationService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass TimeSheetCalculationService</t>
-  </si>
-  <si>
-    <t>classes/TimeSheetCalculationService.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/TimeSheetCalculationServiceTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass TimeSheetCalculationServiceTest</t>
-  </si>
-  <si>
-    <t>classes/TimeSheetCalculationServiceTest.cls-meta.xml</t>
+    <t>ApexClass AccountDetailsController</t>
+  </si>
+  <si>
+    <t>classes/AccountDetailsController.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/DateTimeRounder.cls</t>
+  </si>
+  <si>
+    <t>ApexClass DateTimeRounder</t>
+  </si>
+  <si>
+    <t>classes/DateTimeRounder.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/DateTimeRounderTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass DateTimeRounderTest</t>
+  </si>
+  <si>
+    <t>classes/DateTimeRounderTest.cls-meta.xml</t>
   </si>
   <si>
     <t>classes/TimeSheetController.cls</t>
@@ -109,31 +97,43 @@
     <t>ApexClass TimeSheetController</t>
   </si>
   <si>
+    <t>classes/TimeSheetControllerTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass TimeSheetControllerTest</t>
+  </si>
+  <si>
+    <t>classes/TimeSheetControllerTest.cls-meta.xml</t>
+  </si>
+  <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
   </si>
   <si>
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>email/unfiled$public/Time_Sheet_Needs_Review_EN_1732107633354.email</t>
-  </si>
-  <si>
-    <t>EmailTemplate unfiled$public/Time_Sheet_Needs_Review_EN_1732107633354</t>
-  </si>
-  <si>
-    <t>email/unfiled$public/Time_Sheet_Needs_Review_EN_1732107633354.email-meta.xml</t>
-  </si>
-  <si>
     <t>flexipages/ATAK_Project_Record_Page.flexipage-meta.xml</t>
   </si>
   <si>
     <t>FlexiPage ATAK_Project_Record_Page</t>
   </si>
   <si>
-    <t>flexipages/Service_Appointment_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Service_Appointment_Record_Page</t>
+    <t>flexipages/Contract_Line_Item_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Contract_Line_Item_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Operational_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Service_Contract_Record_Page</t>
   </si>
   <si>
     <t>flexipages/Time_Sheet_Record_Page.flexipage-meta.xml</t>
@@ -142,148 +142,52 @@
     <t>FlexiPage Time_Sheet_Record_Page</t>
   </si>
   <si>
-    <t>flexipages/Work_Step_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Work_Step_Record_Page</t>
-  </si>
-  <si>
-    <t>flowDefinitions/ResourceAbsence_After_Save_Break_Time.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition ResourceAbsence_After_Save_Break_Time</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Service_Appointment_Time_Sheet_Automations.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Service_Appointment_Time_Sheet_Automations</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Time_Sheet_After_Save_Record_Triggered_Approval.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Time_Sheet_After_Save_Record_Triggered_Approval</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Time_Sheet_After_Save_Send_to_ATAK.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Time_Sheet_After_Save_Send_to_ATAK</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Time_Sheet_Before_Save_Record_Triggered_Approval.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Time_Sheet_Before_Save_Record_Triggered_Approval</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Time_Sheet_Before_Save_Record_Triggered_Review_Approval_Auto_Update.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Time_Sheet_Before_Save_Record_Triggered_Review_Approval_Auto_Update</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Time_Sheet_Entry_Before_Save.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Time_Sheet_Entry_Before_Save</t>
-  </si>
-  <si>
-    <t>flowDefinitions/TimesheetEntry_After_Save_Break_Time.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition TimesheetEntry_After_Save_Break_Time</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_After_Update_Add_Log_KM.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_After_Update_Add_Log_KM</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Log_Mileage.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Log_Mileage</t>
-  </si>
-  <si>
-    <t>flows/ResourceAbsence_After_Save_Break_Time.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow ResourceAbsence_After_Save_Break_Time</t>
-  </si>
-  <si>
-    <t>flows/Service_Appointment_Time_Sheet_Automations.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Service_Appointment_Time_Sheet_Automations</t>
-  </si>
-  <si>
-    <t>flows/Time_Sheet_After_Save_Record_Triggered_Approval.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Time_Sheet_After_Save_Record_Triggered_Approval</t>
-  </si>
-  <si>
-    <t>flows/Time_Sheet_After_Save_Send_to_ATAK.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Time_Sheet_After_Save_Send_to_ATAK</t>
-  </si>
-  <si>
-    <t>flows/Time_Sheet_Before_Save_Record_Triggered_Approval.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Time_Sheet_Before_Save_Record_Triggered_Approval</t>
-  </si>
-  <si>
-    <t>flows/Time_Sheet_Before_Save_Record_Triggered_Review_Approval_Auto_Update.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Time_Sheet_Before_Save_Record_Triggered_Review_Approval_Auto_Update</t>
-  </si>
-  <si>
-    <t>flows/Time_Sheet_Entry_Before_Save.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Time_Sheet_Entry_Before_Save</t>
-  </si>
-  <si>
-    <t>flows/TimesheetEntry_After_Save_Break_Time.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow TimesheetEntry_After_Save_Break_Time</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_After_Update_Add_Log_KM.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_After_Update_Add_Log_KM</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Log_Mileage.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Log_Mileage</t>
-  </si>
-  <si>
-    <t>groups/ANGELIQUE_MOONEN.group-meta.xml</t>
-  </si>
-  <si>
-    <t>Group ANGELIQUE_MOONEN</t>
+    <t>flexipages/Work_Order_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Work_Order_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Mileage_Entry_Before_Save.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Mileage_Entry_Before_Save</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_contract_Scheduled_Contract_Renewal_Reminder.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_contract_Scheduled_Contract_Renewal_Reminder</t>
+  </si>
+  <si>
+    <t>flows/Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Location_Passport_Mobile_Flow_Screen_flow_View_Location_Passport_Information</t>
+  </si>
+  <si>
+    <t>flows/Mileage_Entry_Before_Save.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Mileage_Entry_Before_Save</t>
+  </si>
+  <si>
+    <t>flows/Service_contract_Scheduled_Contract_Renewal_Reminder.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_contract_Scheduled_Contract_Renewal_Reminder</t>
+  </si>
+  <si>
+    <t>globalValueSets/Codes_ATAK_Limbus.globalValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>GlobalValueSet Codes_ATAK_Limbus</t>
   </si>
   <si>
     <t>labels/CustomLabels.labels-meta.xml</t>
@@ -292,22 +196,22 @@
     <t>CustomLabel CustomLabels</t>
   </si>
   <si>
-    <t>layouts/ATAK_Project__c-ATAK Project Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ATAK_Project__c-ATAK Project Layout</t>
-  </si>
-  <si>
-    <t>layouts/ServiceAppointment-Service Appointment Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceAppointment-Service Appointment Layout</t>
-  </si>
-  <si>
-    <t>layouts/TimeSheetEntry-FLS Time Sheet Entry Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout TimeSheetEntry-FLS Time Sheet Entry Layout</t>
+    <t>layouts/Mileage_Entry__c-Mileage Entry Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Mileage_Entry__c-Mileage Entry Layout</t>
+  </si>
+  <si>
+    <t>layouts/TimeSheet-FSL Time Sheet Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout TimeSheet-FSL Time Sheet Layout</t>
+  </si>
+  <si>
+    <t>layouts/TimeSheet-Time Sheet Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout TimeSheet-Time Sheet Layout</t>
   </si>
   <si>
     <t>layouts/TimeSheetEntry-Time Sheet Entry Layout.layout-meta.xml</t>
@@ -316,6 +220,72 @@
     <t>Layout TimeSheetEntry-Time Sheet Entry Layout</t>
   </si>
   <si>
+    <t>lwc/locationPassport/locationPassport.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle locationPassport/locationPassport.css</t>
+  </si>
+  <si>
+    <t>lwc/locationPassport/locationPassport.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle locationPassport/locationPassport.html</t>
+  </si>
+  <si>
+    <t>lwc/locationPassport/locationPassport.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle locationPassport/locationPassport.js</t>
+  </si>
+  <si>
+    <t>lwc/locationPassport/locationPassport.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle locationPassport/locationPassport.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/nextAppointmentPicker/nextAppointmentPicker.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.css</t>
+  </si>
+  <si>
+    <t>lwc/nextAppointmentPicker/nextAppointmentPicker.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.html</t>
+  </si>
+  <si>
+    <t>lwc/nextAppointmentPicker/nextAppointmentPicker.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.js</t>
+  </si>
+  <si>
+    <t>lwc/showMileageScreen/showMileageScreen.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle showMileageScreen/showMileageScreen.css</t>
+  </si>
+  <si>
+    <t>lwc/showMileageScreen/showMileageScreen.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle showMileageScreen/showMileageScreen.html</t>
+  </si>
+  <si>
+    <t>lwc/showMileageScreen/showMileageScreen.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle showMileageScreen/showMileageScreen.js</t>
+  </si>
+  <si>
+    <t>lwc/showMileageScreen/showMileageScreen.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle showMileageScreen/showMileageScreen.js-meta.xml</t>
+  </si>
+  <si>
     <t>lwc/startOperatorDay/startOperatorDay.css</t>
   </si>
   <si>
@@ -340,36 +310,6 @@
     <t>LightningComponentBundle startOperatorDayMetrics/startOperatorDayMetrics.html</t>
   </si>
   <si>
-    <t>lwc/startOperatorDayMetrics/startOperatorDayMetrics.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startOperatorDayMetrics/startOperatorDayMetrics.js</t>
-  </si>
-  <si>
-    <t>lwc/startStopTimer/startStopTimer.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startStopTimer/startStopTimer.css</t>
-  </si>
-  <si>
-    <t>lwc/startStopTimer/startStopTimer.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startStopTimer/startStopTimer.html</t>
-  </si>
-  <si>
-    <t>lwc/startStopTimer/startStopTimer.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startStopTimer/startStopTimer.js</t>
-  </si>
-  <si>
-    <t>lwc/timeSheetCalendar/timeSheetCalendar.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.css</t>
-  </si>
-  <si>
     <t>lwc/timeSheetCalendar/timeSheetCalendar.html</t>
   </si>
   <si>
@@ -382,58 +322,220 @@
     <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.js</t>
   </si>
   <si>
-    <t>lwc/timesheetEntryForm/timesheetEntryForm.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timesheetEntryForm/timesheetEntryForm.css</t>
-  </si>
-  <si>
-    <t>lwc/timesheetEntryForm/timesheetEntryForm.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timesheetEntryForm/timesheetEntryForm.html</t>
-  </si>
-  <si>
-    <t>lwc/timesheetEntryForm/timesheetEntryForm.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timesheetEntryForm/timesheetEntryForm.js</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project__c/fields/Language__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Language__c</t>
-  </si>
-  <si>
-    <t>objects/TimeSheet/fields/Needs_Review__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Needs_Review__c</t>
-  </si>
-  <si>
-    <t>objects/TimeSheetEntry/fields/Break_Duration__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Break_Duration__c</t>
-  </si>
-  <si>
-    <t>objects/TimeSheetEntry/fields/Working_Time__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Working_Time__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Is_First_of_Day__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Is_First_of_Day__c</t>
-  </si>
-  <si>
-    <t>objects/WorkStep/fields/Reason__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Reason__c</t>
+    <t>objects/ATAK_Project__c/fields/SubProject_ATAK__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SubProject_ATAK__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Address_Identifier__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Address_Identifier__c</t>
+  </si>
+  <si>
+    <t>objects/Asset/fields/Unique_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Unique_Id__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/fields/Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Type__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/validationRules/End_Mileage_cannot_be_lower_than_start.validationRule-meta.xml</t>
+  </si>
+  <si>
+    <t>ValidationRule End_Mileage_cannot_be_lower_than_start</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Code_ATAK_Limbus__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Code_ATAK_Limbus__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Contract_Manager__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contract_Manager__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Depot__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Depot__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/External_Location__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField External_Location__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/FSL__Approved__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Approved__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/FSL__EstTravelTimeFrom__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__EstTravelTimeFrom__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/FSL__EstTravelTime__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__EstTravelTime__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/FSL__EstimatedTravelDistanceFrom__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__EstimatedTravelDistanceFrom__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/FSL__EstimatedTravelDistanceTo__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__EstimatedTravelDistanceTo__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/FSL__Estimated_Travel_Time_From_Source__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Estimated_Travel_Time_From_Source__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/FSL__Estimated_Travel_Time_To_Source__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Estimated_Travel_Time_To_Source__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/FSL__GanttLabel__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__GanttLabel__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/FSL__Gantt_Color__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Gantt_Color__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/FSL__InternalSLRGeolocation__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__InternalSLRGeolocation__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/FSL__Last_Updated_Epoch__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Last_Updated_Epoch__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/FSL__Scheduling_Policy_Used__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FSL__Scheduling_Policy_Used__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Remarks__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Remarks__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Soccode__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Soccode__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Status__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Status__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Training_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Training_Type__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Unique_Key__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Unique_Key__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/FSL__Break.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType FSL__Break</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/FSL__Non_Availability.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType FSL__Non_Availability</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/Internal_Meeting.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Internal_Meeting</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/Physical_Check_up.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Physical_Check_up</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/Training.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Training</t>
+  </si>
+  <si>
+    <t>objects/Service_Item__c/fields/Service_Item_Key__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Item_Key__c</t>
+  </si>
+  <si>
+    <t>objects/TimeSheet/fields/Total_Break_Time__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Total_Break_Time__c</t>
+  </si>
+  <si>
+    <t>objects/TimeSheetEntry/fields/Break_Duration_in_Minutes__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Break_Duration_in_Minutes__c</t>
+  </si>
+  <si>
+    <t>objects/TimeSheetEntry/fields/Total_Hours_Minus_Breaks__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Total_Hours_Minus_Breaks__c</t>
+  </si>
+  <si>
+    <t>objects/TimeSheetEntry/fields/Total_Hours_Minus_Breaks_and_Pauses__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Total_Hours_Minus_Breaks_and_Pauses__c</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -586,34 +688,43 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>quickActions/ServiceAppointment.Pause_Work.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction ServiceAppointment.Pause_Work</t>
-  </si>
-  <si>
-    <t>quickActions/ServiceAppointment.Pause_or_Resume_Work.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction ServiceAppointment.Pause_or_Resume_Work</t>
-  </si>
-  <si>
-    <t>quickActions/WorkStep.Set_Service_Status.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction WorkStep.Set_Service_Status</t>
-  </si>
-  <si>
-    <t>standardValueSets/WorkOrderStatus.standardValueSet-meta.xml</t>
-  </si>
-  <si>
-    <t>StandardValueSet WorkOrderStatus</t>
-  </si>
-  <si>
-    <t>workflows/TimeSheet.workflow-meta.xml</t>
-  </si>
-  <si>
-    <t>Workflow TimeSheet</t>
+    <t>quickActions/TimeSheet.test_mileage.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction TimeSheet.test_mileage</t>
+  </si>
+  <si>
+    <t>quickActions/WorkOrder.Location_Passport.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkOrder.Location_Passport</t>
+  </si>
+  <si>
+    <t>triggers/AppointmentStatusTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger AppointmentStatusTrigger</t>
+  </si>
+  <si>
+    <t>triggers/AppointmentStatusTrigger.trigger-meta.xml</t>
+  </si>
+  <si>
+    <t>triggers/ResourceAbsenceTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger ResourceAbsenceTrigger</t>
+  </si>
+  <si>
+    <t>triggers/ResourceAbsenceTrigger.trigger-meta.xml</t>
+  </si>
+  <si>
+    <t>triggers/TimeSheetEntryTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger TimeSheetEntryTrigger</t>
+  </si>
+  <si>
+    <t>triggers/TimeSheetEntryTrigger.trigger-meta.xml</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -996,12 +1107,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G120"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="107" customWidth="1"/>
+    <col min="1" max="1" width="116" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="82" customWidth="1"/>
+    <col min="3" max="3" width="91" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -1094,14 +1205,11 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1112,16 +1220,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1135,10 +1240,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1149,13 +1254,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1166,13 +1271,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1183,13 +1288,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1200,13 +1305,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
+      <c r="D11" t="s">
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1217,13 +1325,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1236,14 +1344,11 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1254,13 +1359,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1274,13 +1379,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
+      <c r="D15" t="s">
+        <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1291,13 +1399,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
+      <c r="D16" t="s">
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1390,11 +1501,14 @@
       <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1427,11 +1541,14 @@
       <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="B23" t="s">
-        <v>21</v>
+      <c r="B23">
+        <v>0</v>
       </c>
       <c r="C23" t="s">
         <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1464,11 +1581,14 @@
       <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" t="s">
-        <v>21</v>
+      <c r="B25">
+        <v>0</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1481,11 +1601,14 @@
       <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B26" t="s">
-        <v>21</v>
+      <c r="B26">
+        <v>0</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1518,11 +1641,14 @@
       <c r="A28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
-        <v>21</v>
+      <c r="B28">
+        <v>0</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1555,11 +1681,14 @@
       <c r="A30" t="s">
         <v>63</v>
       </c>
-      <c r="B30" t="s">
-        <v>21</v>
+      <c r="B30">
+        <v>0</v>
       </c>
       <c r="C30" t="s">
         <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1572,11 +1701,14 @@
       <c r="A31" t="s">
         <v>65</v>
       </c>
-      <c r="B31" t="s">
-        <v>21</v>
+      <c r="B31">
+        <v>0</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1589,11 +1721,14 @@
       <c r="A32" t="s">
         <v>67</v>
       </c>
-      <c r="B32" t="s">
-        <v>21</v>
+      <c r="B32">
+        <v>0</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1606,14 +1741,11 @@
       <c r="A33" t="s">
         <v>69</v>
       </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>17</v>
       </c>
       <c r="C33" t="s">
         <v>70</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1627,7 +1759,7 @@
         <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
@@ -1643,14 +1775,11 @@
       <c r="A35" t="s">
         <v>73</v>
       </c>
-      <c r="B35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>74</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1664,7 +1793,7 @@
         <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
         <v>76</v>
@@ -1680,11 +1809,14 @@
       <c r="A37" t="s">
         <v>77</v>
       </c>
-      <c r="B37" t="s">
-        <v>21</v>
+      <c r="B37">
+        <v>0</v>
       </c>
       <c r="C37" t="s">
         <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1717,11 +1849,14 @@
       <c r="A39" t="s">
         <v>81</v>
       </c>
-      <c r="B39" t="s">
-        <v>21</v>
+      <c r="B39">
+        <v>0</v>
       </c>
       <c r="C39" t="s">
         <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1734,14 +1869,11 @@
       <c r="A40" t="s">
         <v>83</v>
       </c>
-      <c r="B40">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>17</v>
       </c>
       <c r="C40" t="s">
         <v>84</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1755,7 +1887,7 @@
         <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
         <v>86</v>
@@ -1772,7 +1904,7 @@
         <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
         <v>88</v>
@@ -1789,7 +1921,7 @@
         <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
         <v>90</v>
@@ -1985,14 +2117,11 @@
       <c r="A53" t="s">
         <v>109</v>
       </c>
-      <c r="B53">
-        <v>0</v>
+      <c r="B53" t="s">
+        <v>17</v>
       </c>
       <c r="C53" t="s">
         <v>110</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2005,14 +2134,11 @@
       <c r="A54" t="s">
         <v>111</v>
       </c>
-      <c r="B54">
-        <v>0</v>
+      <c r="B54" t="s">
+        <v>17</v>
       </c>
       <c r="C54" t="s">
         <v>112</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2185,11 +2311,14 @@
       <c r="A63" t="s">
         <v>129</v>
       </c>
-      <c r="B63" t="s">
-        <v>21</v>
+      <c r="B63">
+        <v>0</v>
       </c>
       <c r="C63" t="s">
         <v>130</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2202,11 +2331,14 @@
       <c r="A64" t="s">
         <v>131</v>
       </c>
-      <c r="B64" t="s">
-        <v>21</v>
+      <c r="B64">
+        <v>0</v>
       </c>
       <c r="C64" t="s">
         <v>132</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2219,11 +2351,14 @@
       <c r="A65" t="s">
         <v>133</v>
       </c>
-      <c r="B65" t="s">
-        <v>21</v>
+      <c r="B65">
+        <v>0</v>
       </c>
       <c r="C65" t="s">
         <v>134</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2236,11 +2371,14 @@
       <c r="A66" t="s">
         <v>135</v>
       </c>
-      <c r="B66" t="s">
-        <v>21</v>
+      <c r="B66">
+        <v>0</v>
       </c>
       <c r="C66" t="s">
         <v>136</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2253,11 +2391,14 @@
       <c r="A67" t="s">
         <v>137</v>
       </c>
-      <c r="B67" t="s">
-        <v>21</v>
+      <c r="B67">
+        <v>0</v>
       </c>
       <c r="C67" t="s">
         <v>138</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2270,11 +2411,14 @@
       <c r="A68" t="s">
         <v>139</v>
       </c>
-      <c r="B68" t="s">
-        <v>21</v>
+      <c r="B68">
+        <v>0</v>
       </c>
       <c r="C68" t="s">
         <v>140</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2547,14 +2691,11 @@
       <c r="A82" t="s">
         <v>167</v>
       </c>
-      <c r="B82">
-        <v>0</v>
+      <c r="B82" t="s">
+        <v>17</v>
       </c>
       <c r="C82" t="s">
         <v>168</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -2787,11 +2928,14 @@
       <c r="A94" t="s">
         <v>191</v>
       </c>
-      <c r="B94" t="s">
-        <v>21</v>
+      <c r="B94">
+        <v>0</v>
       </c>
       <c r="C94" t="s">
         <v>192</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -2804,11 +2948,14 @@
       <c r="A95" t="s">
         <v>193</v>
       </c>
-      <c r="B95" t="s">
-        <v>21</v>
+      <c r="B95">
+        <v>0</v>
       </c>
       <c r="C95" t="s">
         <v>194</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -2821,11 +2968,14 @@
       <c r="A96" t="s">
         <v>195</v>
       </c>
-      <c r="B96" t="s">
-        <v>21</v>
+      <c r="B96">
+        <v>0</v>
       </c>
       <c r="C96" t="s">
         <v>196</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -2882,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
@@ -2896,13 +3046,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -2911,6 +3061,382 @@
         <v>10</v>
       </c>
       <c r="G100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>206</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>209</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>216</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>218</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>222</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>223</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>224</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" t="s">
+        <v>226</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>227</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>228</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" t="s">
+        <v>230</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>231</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>230</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>232</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>233</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>234</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>233</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" t="s">
+        <v>236</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" t="s">
+        <v>236</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>238</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>File</t>
   </si>
@@ -34,10 +34,10 @@
     <t>severityIcon</t>
   </si>
   <si>
-    <t>classes/TimeSheetController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass TimeSheetController</t>
+    <t>applications/Sales.app-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomApplication Sales</t>
   </si>
   <si>
     <t>M</t>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>CleanDataService DataCloudGeoLocation</t>
-  </si>
-  <si>
-    <t>flexipages/Work_Order_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Work_Order_Record_Page</t>
-  </si>
-  <si>
-    <t>layouts/ServiceResource-Service Resource Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceResource-Service Resource Layout</t>
-  </si>
-  <si>
-    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkOrder-Work Order Layout</t>
-  </si>
-  <si>
-    <t>lwc/showMileageScreen/showMileageScreen.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle showMileageScreen/showMileageScreen.html</t>
-  </si>
-  <si>
-    <t>lwc/timeSheetCalendar/timeSheetCalendar.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.css</t>
-  </si>
-  <si>
-    <t>lwc/timeSheetCalendar/timeSheetCalendar.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.html</t>
-  </si>
-  <si>
-    <t>lwc/timeSheetCalendar/timeSheetCalendar.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.js</t>
-  </si>
-  <si>
-    <t>triggers/TimeSheetEntryTrigger.trigger</t>
-  </si>
-  <si>
-    <t>ApexTrigger TimeSheetEntryTrigger</t>
   </si>
 </sst>
 </file>
@@ -477,12 +429,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="65" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -551,166 +503,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:Z1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>File</t>
   </si>
@@ -34,10 +34,10 @@
     <t>severityIcon</t>
   </si>
   <si>
-    <t>applications/Sales.app-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomApplication Sales</t>
+    <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
+  </si>
+  <si>
+    <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
     <t>M</t>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>📰</t>
-  </si>
-  <si>
-    <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
-  </si>
-  <si>
-    <t>CleanDataService DataCloudGeoLocation</t>
   </si>
 </sst>
 </file>
@@ -429,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" customWidth="1"/>
@@ -483,26 +477,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:Z1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="167">
   <si>
     <t>File</t>
   </si>
@@ -34,19 +34,484 @@
     <t>severityIcon</t>
   </si>
   <si>
+    <t>applications/Sales.app-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomApplication Sales</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
+    <t>classes/AccountDetailsController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass AccountDetailsController</t>
+  </si>
+  <si>
+    <t>classes/TimeSheetController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass TimeSheetController</t>
+  </si>
+  <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
   </si>
   <si>
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
+    <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Operational_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Service_Contract_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Work_Order_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Work_Order_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Time_Sheet_After_Save_Record_Triggered_Approval.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Time_Sheet_After_Save_Record_Triggered_Approval</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
+  </si>
+  <si>
+    <t>flows/Time_Sheet_After_Save_Record_Triggered_Approval.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Time_Sheet_After_Save_Record_Triggered_Approval</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
+  </si>
+  <si>
+    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkOrder-Work Order Layout</t>
+  </si>
+  <si>
+    <t>lwc/generateMaintenancePlan/generateMaintenancePlan.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle generateMaintenancePlan/generateMaintenancePlan.js</t>
+  </si>
+  <si>
+    <t>lwc/startOperatorDay/startOperatorDay.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startOperatorDay/startOperatorDay.css</t>
+  </si>
+  <si>
+    <t>lwc/startOperatorDay/startOperatorDay.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startOperatorDay/startOperatorDay.html</t>
+  </si>
+  <si>
+    <t>lwc/startOperatorDay/startOperatorDay.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startOperatorDay/startOperatorDay.js</t>
+  </si>
+  <si>
+    <t>lwc/startOperatorDayMetrics/startOperatorDayMetrics.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startOperatorDayMetrics/startOperatorDayMetrics.js</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendar/timeSheetCalendar.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.css</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendar/timeSheetCalendar.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.html</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendar/timeSheetCalendar.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.js</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project__c/listViews/All.listView-meta.xml</t>
+  </si>
+  <si>
+    <t>ListView All</t>
+  </si>
+  <si>
+    <t>objects/Asset_Financial_Account__c/fields/Key__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Key__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/Scheduling_Notification_Send__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Scheduling_Notification_Send__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Accepted__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Accepted__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Additional_Work_in_scope_contract__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Additional_Work_in_scope_contract__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Allocation_key__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Allocation_key__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Cancellation_Date_Contract__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Cancellation_Date_Contract__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Check_In_At_Work_Reference__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Check_In_At_Work_Reference__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Check_In_At_Work_Required__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Check_In_At_Work_Required__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Contract_type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contract_type__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Default_LMRA__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Default_LMRA__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/External_Contract_Reference__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField External_Contract_Reference__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Generate_Maintenance_Plan__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Generate_Maintenance_Plan__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Indexation_Date__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Indexation_Date__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Indexation_Formula__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Indexation_Formula__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Indexation_Needed__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Indexation_Needed__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Link_contract__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Link_contract__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Location_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Location_Type__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Payment_Conditions__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Payment_Conditions__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Priority__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Priority__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Product__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Product__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Request_date_for_indexation__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Request_date_for_indexation__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/SLA__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SLA__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/SPOC_Client__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SPOC_Client__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Service_Package_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Package_Type__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Status_custom__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Status_custom__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Tender_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Tender_Code__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceContract/fields/Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Type__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Check_In_At_Work_Reference__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Check_In_At_Work_Required__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/LMRA_Type_formula__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LMRA_Type_formula__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/LMRA__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LMRA__c</t>
+  </si>
+  <si>
+    <t>profiles/Admin.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Admin</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Security User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Security User</t>
+  </si>
+  <si>
+    <t>profiles/Business Support.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Business Support</t>
+  </si>
+  <si>
+    <t>profiles/CPQ Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile CPQ Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter External User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter External User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Free User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Free User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Moderator User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Moderator User</t>
+  </si>
+  <si>
+    <t>profiles/Contract Manager %28custom%29.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Contract Manager %28custom%29</t>
+  </si>
+  <si>
+    <t>profiles/ContractManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ContractManager</t>
+  </si>
+  <si>
+    <t>profiles/Customer Community Plus User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Customer Community Plus User</t>
+  </si>
+  <si>
+    <t>profiles/External Operator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile External Operator</t>
+  </si>
+  <si>
+    <t>profiles/Guest License User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Guest License User</t>
+  </si>
+  <si>
+    <t>profiles/Identity User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Identity User</t>
+  </si>
+  <si>
+    <t>profiles/Manager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Manager</t>
+  </si>
+  <si>
+    <t>profiles/MarketingProfile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile MarketingProfile</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - API Only Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - API Only Integrations</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - Salesforce.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - Salesforce</t>
+  </si>
+  <si>
+    <t>profiles/Operator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Operator</t>
+  </si>
+  <si>
+    <t>profiles/Partner Community User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Partner Community User</t>
+  </si>
+  <si>
+    <t>profiles/Read Only.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Read Only</t>
+  </si>
+  <si>
+    <t>profiles/Sales Insights Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Insights Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Salesforce API Only System Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Salesforce API Only System Integrations</t>
+  </si>
+  <si>
+    <t>profiles/SolutionManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile SolutionManager</t>
+  </si>
+  <si>
+    <t>profiles/Standard.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Standard</t>
+  </si>
+  <si>
+    <t>quickActions/ServiceContract.Create_Service_Contract.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction ServiceContract.Create_Service_Contract</t>
+  </si>
+  <si>
+    <t>manifest/package-all-org-items.xml</t>
+  </si>
+  <si>
+    <t>manifest/package-backup-items.xml</t>
   </si>
 </sst>
 </file>
@@ -423,12 +888,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G81"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="1" max="1" width="95" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="3" max="3" width="75" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -477,6 +942,1577 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Z1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -34,27 +34,63 @@
     <t>severityIcon</t>
   </si>
   <si>
+    <t>applications/Krinkels_Field_Service.app-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomApplication Krinkels_Field_Service</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
     <t>applications/Sales.app-meta.xml</t>
   </si>
   <si>
     <t>CustomApplication Sales</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
-  </si>
-  <si>
     <t>classes/AccountDetailsController.cls</t>
   </si>
   <si>
     <t>ApexClass AccountDetailsController</t>
   </si>
   <si>
+    <t>classes/MaintenancePlanService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MaintenancePlanService</t>
+  </si>
+  <si>
+    <t>classes/SDWorxAbsenceBatchScheduler.cls</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ApexClass SDWorxAbsenceBatchScheduler</t>
+  </si>
+  <si>
+    <t>classes/SDWorxAbsenceBatchScheduler.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ServiceResourceHandler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceResourceHandler</t>
+  </si>
+  <si>
+    <t>classes/TimeSheetCalculationService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass TimeSheetCalculationService</t>
+  </si>
+  <si>
     <t>classes/TimeSheetController.cls</t>
   </si>
   <si>
@@ -67,46 +103,58 @@
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Operational_Account_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Service_Contract_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Work_Order_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Work_Order_Record_Page</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Time_Sheet_After_Save_Record_Triggered_Approval.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Time_Sheet_After_Save_Record_Triggered_Approval</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
-  </si>
-  <si>
-    <t>flows/Time_Sheet_After_Save_Record_Triggered_Approval.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Time_Sheet_After_Save_Record_Triggered_Approval</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Log_LMRA_Information</t>
+    <t>flexipages/Scheduling_Policy_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Scheduling_Policy_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/ResourceAbsence_After_Save_Break_Time.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition ResourceAbsence_After_Save_Break_Time</t>
+  </si>
+  <si>
+    <t>flowDefinitions/TimesheetEntry_After_Save_Break_Time.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition TimesheetEntry_After_Save_Break_Time</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines</t>
+  </si>
+  <si>
+    <t>flows/ResourceAbsence_After_Save_Break_Time.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow ResourceAbsence_After_Save_Break_Time</t>
+  </si>
+  <si>
+    <t>flows/TimesheetEntry_After_Save_Break_Time.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow TimesheetEntry_After_Save_Break_Time</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines</t>
+  </si>
+  <si>
+    <t>layouts/ServiceResource-Service Resource Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceResource-Service Resource Layout</t>
+  </si>
+  <si>
+    <t>layouts/User_Settings__c-User Settings Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout User_Settings__c-User Settings Layout</t>
   </si>
   <si>
     <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
@@ -115,34 +163,16 @@
     <t>Layout WorkOrder-Work Order Layout</t>
   </si>
   <si>
-    <t>lwc/generateMaintenancePlan/generateMaintenancePlan.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle generateMaintenancePlan/generateMaintenancePlan.js</t>
-  </si>
-  <si>
-    <t>lwc/startOperatorDay/startOperatorDay.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startOperatorDay/startOperatorDay.css</t>
-  </si>
-  <si>
-    <t>lwc/startOperatorDay/startOperatorDay.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startOperatorDay/startOperatorDay.html</t>
-  </si>
-  <si>
-    <t>lwc/startOperatorDay/startOperatorDay.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startOperatorDay/startOperatorDay.js</t>
-  </si>
-  <si>
-    <t>lwc/startOperatorDayMetrics/startOperatorDayMetrics.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startOperatorDayMetrics/startOperatorDayMetrics.js</t>
+    <t>layouts/WorkType-Work Type Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkType-Work Type Layout</t>
+  </si>
+  <si>
+    <t>lwc/locationPassport/locationPassport.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle locationPassport/locationPassport.js</t>
   </si>
   <si>
     <t>lwc/timeSheetCalendar/timeSheetCalendar.css</t>
@@ -163,193 +193,121 @@
     <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.js</t>
   </si>
   <si>
-    <t>objects/ATAK_Project__c/listViews/All.listView-meta.xml</t>
+    <t>objects/Account/fieldSets/FSL__Gantt_Lightbox.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Gantt_Lightbox</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Appointment_Expanded.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Service_Appointment_Expanded</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Appointment_List_Columns.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Service_Appointment_List_Columns</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Appt_Resource_Calendar_Tooltip.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Service_Appt_Resource_Calendar_Tooltip</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Info_Window_Map.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Service_Info_Window_Map</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Lightbox.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Service_Lightbox</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Lightbox_Address.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Service_Lightbox_Address</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Lightbox_Time.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Service_Lightbox_Time</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Tooltip_Gantt.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Service_Tooltip_Gantt</t>
+  </si>
+  <si>
+    <t>objects/ServiceResource/fieldSets/FSL__Resource_Lightbox.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Resource_Lightbox</t>
+  </si>
+  <si>
+    <t>objects/User_Settings__c/User_Settings__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject User_Settings__c/User_Settings__c</t>
+  </si>
+  <si>
+    <t>objects/User_Settings__c/fields/End_Time__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField End_Time__c</t>
+  </si>
+  <si>
+    <t>objects/User_Settings__c/fields/Service_Resource__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Resource__c</t>
+  </si>
+  <si>
+    <t>objects/User_Settings__c/fields/Start_Time__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Start_Time__c</t>
+  </si>
+  <si>
+    <t>objects/User_Settings__c/fields/Time_Frame__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Time_Frame__c</t>
+  </si>
+  <si>
+    <t>objects/User_Settings__c/listViews/All.listView-meta.xml</t>
   </si>
   <si>
     <t>ListView All</t>
   </si>
   <si>
-    <t>objects/Asset_Financial_Account__c/fields/Key__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Key__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceAppointment/fields/Scheduling_Notification_Send__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Scheduling_Notification_Send__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Accepted__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Accepted__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Additional_Work_in_scope_contract__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Additional_Work_in_scope_contract__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Allocation_key__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Allocation_key__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Cancellation_Date_Contract__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Cancellation_Date_Contract__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Check_In_At_Work_Reference__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Check_In_At_Work_Reference__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Check_In_At_Work_Required__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Check_In_At_Work_Required__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Contract_type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Contract_type__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Default_LMRA__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Default_LMRA__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/External_Contract_Reference__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField External_Contract_Reference__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Generate_Maintenance_Plan__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Generate_Maintenance_Plan__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Indexation_Date__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Indexation_Date__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Indexation_Formula__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Indexation_Formula__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Indexation_Needed__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Indexation_Needed__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Link_contract__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Link_contract__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Location_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Location_Type__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Payment_Conditions__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Payment_Conditions__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Priority__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Priority__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Product__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Product__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Request_date_for_indexation__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Request_date_for_indexation__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/SLA__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField SLA__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/SPOC_Client__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField SPOC_Client__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Service_Package_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Service_Package_Type__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Status_custom__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Status_custom__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Tender_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Tender_Code__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceContract/fields/Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Type__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Check_In_At_Work_Reference__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Check_In_At_Work_Required__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/LMRA_Type_formula__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField LMRA_Type_formula__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/LMRA__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField LMRA__c</t>
+    <t>objects/WorkOrder/fieldSets/FSL__Gantt_Lightbox.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Goodwill_Tasks__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Goodwill_Tasks__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/WO_with_Goodwill_Tasks__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField WO_with_Goodwill_Tasks__c</t>
+  </si>
+  <si>
+    <t>permissionsets/sfdcInternalInt__sfdc_fieldservice.permissionset-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSet sfdcInternalInt__sfdc_fieldservice</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -502,10 +460,52 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>quickActions/ServiceContract.Create_Service_Contract.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction ServiceContract.Create_Service_Contract</t>
+    <t>quickActions/WorkOrder.Log_Goodwill_Tasks.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkOrder.Log_Goodwill_Tasks</t>
+  </si>
+  <si>
+    <t>settings/Deployment.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Deployment</t>
+  </si>
+  <si>
+    <t>settings/Search.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Search</t>
+  </si>
+  <si>
+    <t>sharingRules/User_Settings__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules User_Settings__c</t>
+  </si>
+  <si>
+    <t>tabs/User_Settings__c.tab-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomTab User_Settings__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/User_Settings__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects User_Settings__c</t>
+  </si>
+  <si>
+    <t>triggers/ResourceAbsenceTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger ResourceAbsenceTrigger</t>
+  </si>
+  <si>
+    <t>triggers/TimeSheetEntryTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger TimeSheetEntryTrigger</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -891,9 +891,9 @@
   <dimension ref="A1:G81"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="95" customWidth="1"/>
+    <col min="1" max="1" width="102" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="75" customWidth="1"/>
+    <col min="3" max="3" width="77" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -1006,14 +1006,11 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1024,16 +1021,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1126,14 +1120,11 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1286,14 +1277,11 @@
       <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1626,14 +1614,11 @@
       <c r="A37" t="s">
         <v>80</v>
       </c>
-      <c r="B37">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>19</v>
       </c>
       <c r="C37" t="s">
         <v>81</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1646,14 +1631,11 @@
       <c r="A38" t="s">
         <v>82</v>
       </c>
-      <c r="B38">
-        <v>0</v>
+      <c r="B38" t="s">
+        <v>19</v>
       </c>
       <c r="C38" t="s">
         <v>83</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1666,14 +1648,11 @@
       <c r="A39" t="s">
         <v>84</v>
       </c>
-      <c r="B39">
-        <v>0</v>
+      <c r="B39" t="s">
+        <v>19</v>
       </c>
       <c r="C39" t="s">
         <v>85</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1686,14 +1665,11 @@
       <c r="A40" t="s">
         <v>86</v>
       </c>
-      <c r="B40">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>19</v>
       </c>
       <c r="C40" t="s">
         <v>87</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1706,14 +1682,11 @@
       <c r="A41" t="s">
         <v>88</v>
       </c>
-      <c r="B41">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>19</v>
       </c>
       <c r="C41" t="s">
         <v>89</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1726,14 +1699,11 @@
       <c r="A42" t="s">
         <v>90</v>
       </c>
-      <c r="B42">
-        <v>0</v>
+      <c r="B42" t="s">
+        <v>19</v>
       </c>
       <c r="C42" t="s">
         <v>91</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1750,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1764,16 +1734,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
         <v>94</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1784,16 +1751,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
         <v>96</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1804,13 +1768,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
         <v>98</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>99</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1824,13 +1788,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
         <v>100</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>101</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1844,13 +1808,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
         <v>102</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
-        <v>103</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1864,13 +1828,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
         <v>104</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>105</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1884,13 +1848,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
         <v>106</v>
       </c>
-      <c r="B50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" t="s">
-        <v>65</v>
+      <c r="D50" t="s">
+        <v>9</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -1901,13 +1868,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
         <v>108</v>
       </c>
-      <c r="B51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" t="s">
-        <v>67</v>
+      <c r="D51" t="s">
+        <v>9</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -1920,11 +1890,14 @@
       <c r="A52" t="s">
         <v>109</v>
       </c>
-      <c r="B52" t="s">
-        <v>107</v>
+      <c r="B52">
+        <v>0</v>
       </c>
       <c r="C52" t="s">
         <v>110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -2317,14 +2290,11 @@
       <c r="A72" t="s">
         <v>149</v>
       </c>
-      <c r="B72">
-        <v>0</v>
+      <c r="B72" t="s">
+        <v>19</v>
       </c>
       <c r="C72" t="s">
         <v>150</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2377,14 +2347,11 @@
       <c r="A75" t="s">
         <v>155</v>
       </c>
-      <c r="B75">
-        <v>0</v>
+      <c r="B75" t="s">
+        <v>19</v>
       </c>
       <c r="C75" t="s">
         <v>156</v>
-      </c>
-      <c r="D75" t="s">
-        <v>9</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2397,14 +2364,11 @@
       <c r="A76" t="s">
         <v>157</v>
       </c>
-      <c r="B76">
-        <v>0</v>
+      <c r="B76" t="s">
+        <v>19</v>
       </c>
       <c r="C76" t="s">
         <v>158</v>
-      </c>
-      <c r="D76" t="s">
-        <v>9</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2417,14 +2381,11 @@
       <c r="A77" t="s">
         <v>159</v>
       </c>
-      <c r="B77">
-        <v>0</v>
+      <c r="B77" t="s">
+        <v>19</v>
       </c>
       <c r="C77" t="s">
         <v>160</v>
-      </c>
-      <c r="D77" t="s">
-        <v>9</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="205">
   <si>
     <t>File</t>
   </si>
@@ -61,112 +61,115 @@
     <t>ApexClass AccountDetailsController</t>
   </si>
   <si>
-    <t>classes/MaintenancePlanService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MaintenancePlanService</t>
-  </si>
-  <si>
-    <t>classes/SDWorxAbsenceBatchScheduler.cls</t>
+    <t>classes/SDWorxToResourceAbsenceService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass SDWorxToResourceAbsenceService</t>
+  </si>
+  <si>
+    <t>classes/TimeSheetController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass TimeSheetController</t>
+  </si>
+  <si>
+    <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
+  </si>
+  <si>
+    <t>CleanDataService DataCloudGeoLocation</t>
+  </si>
+  <si>
+    <t>digitalExperiences/experiencecontainer/FSL/experience__navigationMenu/menu/content.json</t>
+  </si>
+  <si>
+    <t>DigitalExperienceBundle experiencecontainer/FSL/experience__navigationMenu/menu/content.json</t>
+  </si>
+  <si>
+    <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Operational_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Quick_Opportunity_Record_Page.flexipage-meta.xml</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>ApexClass SDWorxAbsenceBatchScheduler</t>
-  </si>
-  <si>
-    <t>classes/SDWorxAbsenceBatchScheduler.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ServiceResourceHandler.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceResourceHandler</t>
-  </si>
-  <si>
-    <t>classes/TimeSheetCalculationService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass TimeSheetCalculationService</t>
-  </si>
-  <si>
-    <t>classes/TimeSheetController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass TimeSheetController</t>
-  </si>
-  <si>
-    <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
-  </si>
-  <si>
-    <t>CleanDataService DataCloudGeoLocation</t>
-  </si>
-  <si>
-    <t>flexipages/Scheduling_Policy_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Scheduling_Policy_Record_Page</t>
-  </si>
-  <si>
-    <t>flowDefinitions/ResourceAbsence_After_Save_Break_Time.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition ResourceAbsence_After_Save_Break_Time</t>
-  </si>
-  <si>
-    <t>flowDefinitions/TimesheetEntry_After_Save_Break_Time.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition TimesheetEntry_After_Save_Break_Time</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines</t>
-  </si>
-  <si>
-    <t>flows/ResourceAbsence_After_Save_Break_Time.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow ResourceAbsence_After_Save_Break_Time</t>
-  </si>
-  <si>
-    <t>flows/TimesheetEntry_After_Save_Break_Time.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow TimesheetEntry_After_Save_Break_Time</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines</t>
-  </si>
-  <si>
-    <t>layouts/ServiceResource-Service Resource Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceResource-Service Resource Layout</t>
-  </si>
-  <si>
-    <t>layouts/User_Settings__c-User Settings Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout User_Settings__c-User Settings Layout</t>
-  </si>
-  <si>
-    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkOrder-Work Order Layout</t>
-  </si>
-  <si>
-    <t>layouts/WorkType-Work Type Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkType-Work Type Layout</t>
+    <t>FlexiPage Quick_Opportunity_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Work_Step_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Work_Step_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Account_Screen_Flow_Add_Extra_Work.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Account_Screen_Flow_Add_Extra_Work</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Opportunity_Screen_Flow_Pricing_Request.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Opportunity_Screen_Flow_Pricing_Request</t>
+  </si>
+  <si>
+    <t>flows/Account_Screen_Flow_Add_Extra_Work.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Account_Screen_Flow_Add_Extra_Work</t>
+  </si>
+  <si>
+    <t>flows/Opportunity_Screen_Flow_Pricing_Request.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Opportunity_Screen_Flow_Pricing_Request</t>
+  </si>
+  <si>
+    <t>labels/CustomLabels.labels-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomLabel CustomLabels</t>
+  </si>
+  <si>
+    <t>layouts/Account-Operational Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Operational Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/Opportunity-Opportunity Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Opportunity-Opportunity Layout</t>
+  </si>
+  <si>
+    <t>layouts/SD_Import__c-SD Import Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout SD_Import__c-SD Import Layout</t>
+  </si>
+  <si>
+    <t>layouts/ServiceContract-Service Contract Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceContract-Service Contract Layout</t>
+  </si>
+  <si>
+    <t>layouts/Work_Schedule_Day__c-Work Schedule Day Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Work_Schedule_Day__c-Work Schedule Day Layout</t>
+  </si>
+  <si>
+    <t>layouts/Work_Schedule__c-Work Schedule Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Work_Schedule__c-Work Schedule Layout</t>
   </si>
   <si>
     <t>lwc/locationPassport/locationPassport.js</t>
@@ -175,6 +178,42 @@
     <t>LightningComponentBundle locationPassport/locationPassport.js</t>
   </si>
   <si>
+    <t>lwc/nextAppointmentPicker/nextAppointmentPicker.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.css</t>
+  </si>
+  <si>
+    <t>lwc/nextAppointmentPicker/nextAppointmentPicker.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.html</t>
+  </si>
+  <si>
+    <t>lwc/nextAppointmentPicker/nextAppointmentPicker.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.js</t>
+  </si>
+  <si>
+    <t>lwc/startOperatorDay/startOperatorDay.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startOperatorDay/startOperatorDay.css</t>
+  </si>
+  <si>
+    <t>lwc/startOperatorDay/startOperatorDay.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startOperatorDay/startOperatorDay.html</t>
+  </si>
+  <si>
+    <t>lwc/startOperatorDayMetrics/startOperatorDayMetrics.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startOperatorDayMetrics/startOperatorDayMetrics.css</t>
+  </si>
+  <si>
     <t>lwc/timeSheetCalendar/timeSheetCalendar.css</t>
   </si>
   <si>
@@ -193,121 +232,163 @@
     <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.js</t>
   </si>
   <si>
-    <t>objects/Account/fieldSets/FSL__Gantt_Lightbox.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Gantt_Lightbox</t>
-  </si>
-  <si>
-    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Appointment_Expanded.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Service_Appointment_Expanded</t>
-  </si>
-  <si>
-    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Appointment_List_Columns.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Service_Appointment_List_Columns</t>
-  </si>
-  <si>
-    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Appt_Resource_Calendar_Tooltip.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Service_Appt_Resource_Calendar_Tooltip</t>
-  </si>
-  <si>
-    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Info_Window_Map.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Service_Info_Window_Map</t>
-  </si>
-  <si>
-    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Lightbox.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Service_Lightbox</t>
-  </si>
-  <si>
-    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Lightbox_Address.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Service_Lightbox_Address</t>
-  </si>
-  <si>
-    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Lightbox_Time.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Service_Lightbox_Time</t>
-  </si>
-  <si>
-    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Tooltip_Gantt.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Service_Tooltip_Gantt</t>
-  </si>
-  <si>
-    <t>objects/ServiceResource/fieldSets/FSL__Resource_Lightbox.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Resource_Lightbox</t>
-  </si>
-  <si>
-    <t>objects/User_Settings__c/User_Settings__c.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject User_Settings__c/User_Settings__c</t>
-  </si>
-  <si>
-    <t>objects/User_Settings__c/fields/End_Time__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField End_Time__c</t>
-  </si>
-  <si>
-    <t>objects/User_Settings__c/fields/Service_Resource__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Service_Resource__c</t>
-  </si>
-  <si>
-    <t>objects/User_Settings__c/fields/Start_Time__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Start_Time__c</t>
-  </si>
-  <si>
-    <t>objects/User_Settings__c/fields/Time_Frame__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Time_Frame__c</t>
-  </si>
-  <si>
-    <t>objects/User_Settings__c/listViews/All.listView-meta.xml</t>
+    <t>lwc/timesheetEntryForm/timesheetEntryForm.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timesheetEntryForm/timesheetEntryForm.html</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/businessProcesses/B2B Tender.businessProcess-meta.xml</t>
+  </si>
+  <si>
+    <t>BusinessProcess B2B Tender</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/businessProcesses/Public Tender.businessProcess-meta.xml</t>
+  </si>
+  <si>
+    <t>BusinessProcess Public Tender</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/businessProcesses/Quick Quote.businessProcess-meta.xml</t>
+  </si>
+  <si>
+    <t>BusinessProcess Quick Quote</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/fields/Price_Request_BS_Comments__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Price_Request_BS_Comments__c</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/fields/Price_Request_Demand_Comments__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Price_Request_Demand_Comments__c</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/fields/Price_Request_Priority__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Price_Request_Priority__c</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/fields/Price_Request_Status__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Price_Request_Status__c</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/fields/Pricing_Request_Needed__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Pricing_Request_Needed__c</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/fields/Service_Contract__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Contract__c</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/fields/Work_Size__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Work_Size__c</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/recordTypes/B2B_Tender.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType B2B_Tender</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/recordTypes/Public_Tender.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Public_Tender</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/recordTypes/Quick_Quote.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Quick_Quote</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/validationRules/Maximum_Value_for_Quick_Quote.validationRule-meta.xml</t>
+  </si>
+  <si>
+    <t>ValidationRule Maximum_Value_for_Quick_Quote</t>
+  </si>
+  <si>
+    <t>objects/Product2/recordTypes/Extra_Work.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Extra_Work</t>
+  </si>
+  <si>
+    <t>objects/SD_Import__c/fields/Werkschema__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Werkschema__c</t>
+  </si>
+  <si>
+    <t>objects/Work_Schedule_Day__c/Work_Schedule_Day__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Work_Schedule_Day__c/Work_Schedule_Day__c</t>
+  </si>
+  <si>
+    <t>objects/Work_Schedule_Day__c/fields/Day_of_Week_Number__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Day_of_Week_Number__c</t>
+  </si>
+  <si>
+    <t>objects/Work_Schedule_Day__c/fields/Day_of_Week__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Day_of_Week__c</t>
+  </si>
+  <si>
+    <t>objects/Work_Schedule_Day__c/fields/Hours__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Hours__c</t>
+  </si>
+  <si>
+    <t>objects/Work_Schedule_Day__c/fields/Work_Schedule__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Work_Schedule__c</t>
+  </si>
+  <si>
+    <t>objects/Work_Schedule_Day__c/listViews/All.listView-meta.xml</t>
   </si>
   <si>
     <t>ListView All</t>
   </si>
   <si>
-    <t>objects/WorkOrder/fieldSets/FSL__Gantt_Lightbox.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Goodwill_Tasks__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Goodwill_Tasks__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/WO_with_Goodwill_Tasks__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField WO_with_Goodwill_Tasks__c</t>
-  </si>
-  <si>
-    <t>permissionsets/sfdcInternalInt__sfdc_fieldservice.permissionset-meta.xml</t>
-  </si>
-  <si>
-    <t>PermissionSet sfdcInternalInt__sfdc_fieldservice</t>
+    <t>objects/Work_Schedule__c/Work_Schedule__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Work_Schedule__c/Work_Schedule__c</t>
+  </si>
+  <si>
+    <t>objects/Work_Schedule__c/fields/Total_Weekly_Hours__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Total_Weekly_Hours__c</t>
+  </si>
+  <si>
+    <t>objects/Work_Schedule__c/listViews/All.listView-meta.xml</t>
+  </si>
+  <si>
+    <t>pathAssistants/Default_Opportunity.pathAssistant-meta.xml</t>
+  </si>
+  <si>
+    <t>PathAssistant Default_Opportunity</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -460,16 +541,34 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>quickActions/WorkOrder.Log_Goodwill_Tasks.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction WorkOrder.Log_Goodwill_Tasks</t>
-  </si>
-  <si>
-    <t>settings/Deployment.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings Deployment</t>
+    <t>quickActions/Account.Add_Extra_Work.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction Account.Add_Extra_Work</t>
+  </si>
+  <si>
+    <t>quickActions/Opportunity.Price_Request.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction Opportunity.Price_Request</t>
+  </si>
+  <si>
+    <t>reportTypes/Opportunities_with_Historical_Trending.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Opportunities_with_Historical_Trending</t>
+  </si>
+  <si>
+    <t>settings/Forecasting.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Forecasting</t>
+  </si>
+  <si>
+    <t>settings/ForecastingObjectList.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings ForecastingObjectList</t>
   </si>
   <si>
     <t>settings/Search.settings-meta.xml</t>
@@ -478,34 +577,49 @@
     <t>Settings Search</t>
   </si>
   <si>
-    <t>sharingRules/User_Settings__c.sharingRules-meta.xml</t>
-  </si>
-  <si>
-    <t>SharingRules User_Settings__c</t>
-  </si>
-  <si>
-    <t>tabs/User_Settings__c.tab-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomTab User_Settings__c</t>
-  </si>
-  <si>
-    <t>topicsForObjects/User_Settings__c.topicsForObjects-meta.xml</t>
-  </si>
-  <si>
-    <t>TopicsForObjects User_Settings__c</t>
-  </si>
-  <si>
-    <t>triggers/ResourceAbsenceTrigger.trigger</t>
-  </si>
-  <si>
-    <t>ApexTrigger ResourceAbsenceTrigger</t>
-  </si>
-  <si>
-    <t>triggers/TimeSheetEntryTrigger.trigger</t>
-  </si>
-  <si>
-    <t>ApexTrigger TimeSheetEntryTrigger</t>
+    <t>sharingRules/Work_Schedule_Day__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules Work_Schedule_Day__c</t>
+  </si>
+  <si>
+    <t>sharingRules/Work_Schedule__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules Work_Schedule__c</t>
+  </si>
+  <si>
+    <t>standardValueSets/OpportunityStage.standardValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>StandardValueSet OpportunityStage</t>
+  </si>
+  <si>
+    <t>tabs/Work_Schedule_Day__c.tab-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomTab Work_Schedule_Day__c</t>
+  </si>
+  <si>
+    <t>tabs/Work_Schedule__c.tab-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomTab Work_Schedule__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/Work_Schedule_Day__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects Work_Schedule_Day__c</t>
+  </si>
+  <si>
+    <t>topicsForObjects/Work_Schedule__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects Work_Schedule__c</t>
+  </si>
+  <si>
+    <t>uiFormatSpecificationSets/Price_Request_Status_Icon.uiFormatSpecificationSet-meta.xml</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -888,12 +1002,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G100"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="102" customWidth="1"/>
+    <col min="1" max="1" width="89" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="77" customWidth="1"/>
+    <col min="3" max="3" width="92" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -1006,11 +1120,14 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1021,13 +1138,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1080,14 +1200,11 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1098,13 +1215,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1118,13 +1235,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1135,16 +1252,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1155,16 +1269,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1175,16 +1286,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1195,13 +1303,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1215,13 +1323,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1235,13 +1343,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -1255,13 +1363,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1275,13 +1383,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1292,16 +1403,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1312,16 +1420,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1332,13 +1437,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1352,13 +1457,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1372,13 +1477,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1392,13 +1497,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1412,13 +1517,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1432,13 +1537,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1452,13 +1557,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -1472,13 +1577,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1492,13 +1597,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1512,13 +1617,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1532,13 +1637,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1552,16 +1657,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1572,16 +1674,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1592,16 +1691,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1612,13 +1708,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1629,13 +1725,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1646,13 +1742,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1663,13 +1759,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1680,13 +1776,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1697,13 +1793,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1714,16 +1810,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1734,13 +1827,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1751,13 +1844,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1768,16 +1861,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -1788,16 +1878,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -1808,16 +1895,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -1828,16 +1912,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -1848,16 +1929,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -1868,16 +1946,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -1888,16 +1963,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -1908,16 +1980,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -1928,16 +1997,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -1948,16 +2014,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -1968,16 +2031,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -1988,16 +2048,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2008,16 +2065,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2028,13 +2082,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -2048,13 +2102,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -2068,13 +2122,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -2088,13 +2142,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -2108,13 +2162,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
@@ -2128,13 +2182,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -2148,13 +2202,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -2168,13 +2222,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -2188,13 +2242,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -2208,13 +2262,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -2228,13 +2282,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -2248,13 +2302,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -2268,13 +2322,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -2288,13 +2342,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>149</v>
-      </c>
-      <c r="B72" t="s">
-        <v>19</v>
+        <v>150</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2305,13 +2362,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
@@ -2325,13 +2382,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -2345,13 +2402,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>155</v>
-      </c>
-      <c r="B75" t="s">
-        <v>19</v>
+        <v>156</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2362,13 +2422,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>157</v>
-      </c>
-      <c r="B76" t="s">
-        <v>19</v>
+        <v>158</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2379,13 +2442,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>159</v>
-      </c>
-      <c r="B77" t="s">
-        <v>19</v>
+        <v>160</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -2396,13 +2462,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -2416,13 +2482,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -2436,13 +2502,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -2456,13 +2522,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -2471,6 +2537,359 @@
         <v>10</v>
       </c>
       <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
+        <v>177</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
+        <v>179</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>187</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" t="s">
+        <v>189</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" t="s">
+        <v>191</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" t="s">
+        <v>197</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" t="s">
+        <v>199</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" t="s">
+        <v>201</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" t="s">
+        <v>202</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>204</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="346">
   <si>
     <t>File</t>
   </si>
@@ -34,25 +34,58 @@
     <t>severityIcon</t>
   </si>
   <si>
-    <t>applications/Krinkels_Field_Service.app-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomApplication Krinkels_Field_Service</t>
+    <t>aura/CustomAccountLightboxApp/CustomAccountLightboxApp.app</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AuraDefinitionBundle CustomAccountLightboxApp/CustomAccountLightboxApp.app</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
+    <t>aura/CustomAccountLightboxApp/CustomAccountLightboxApp.app-meta.xml</t>
+  </si>
+  <si>
+    <t>AuraDefinitionBundle CustomAccountLightboxApp/CustomAccountLightboxApp.app-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKPerformanceService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKPerformanceService</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
-  </si>
-  <si>
-    <t>applications/Sales.app-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomApplication Sales</t>
+    <t>classes/ATAKPerformanceServiceInvocable.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKPerformanceServiceInvocable</t>
+  </si>
+  <si>
+    <t>classes/ATAKWorkLogService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKWorkLogService</t>
+  </si>
+  <si>
+    <t>classes/ATAKWorkLogService.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKWorkLogServiceTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKWorkLogServiceTest</t>
+  </si>
+  <si>
+    <t>classes/ATAKWorkLogServiceTest.cls-meta.xml</t>
   </si>
   <si>
     <t>classes/AccountDetailsController.cls</t>
@@ -61,73 +94,139 @@
     <t>ApexClass AccountDetailsController</t>
   </si>
   <si>
-    <t>classes/SDWorxToResourceAbsenceService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass SDWorxToResourceAbsenceService</t>
-  </si>
-  <si>
-    <t>classes/TimeSheetController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass TimeSheetController</t>
-  </si>
-  <si>
-    <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
-  </si>
-  <si>
-    <t>CleanDataService DataCloudGeoLocation</t>
-  </si>
-  <si>
-    <t>digitalExperiences/experiencecontainer/FSL/experience__navigationMenu/menu/content.json</t>
-  </si>
-  <si>
-    <t>DigitalExperienceBundle experiencecontainer/FSL/experience__navigationMenu/menu/content.json</t>
-  </si>
-  <si>
-    <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Operational_Account_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Quick_Opportunity_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>FlexiPage Quick_Opportunity_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Work_Step_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Work_Step_Record_Page</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Account_Screen_Flow_Add_Extra_Work.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Account_Screen_Flow_Add_Extra_Work</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Opportunity_Screen_Flow_Pricing_Request.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Opportunity_Screen_Flow_Pricing_Request</t>
-  </si>
-  <si>
-    <t>flows/Account_Screen_Flow_Add_Extra_Work.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Account_Screen_Flow_Add_Extra_Work</t>
-  </si>
-  <si>
-    <t>flows/Opportunity_Screen_Flow_Pricing_Request.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Opportunity_Screen_Flow_Pricing_Request</t>
+    <t>classes/ImageCaptureService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ImageCaptureService</t>
+  </si>
+  <si>
+    <t>classes/ImageCaptureService.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/MileageEntryProjectLinkService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MileageEntryProjectLinkService</t>
+  </si>
+  <si>
+    <t>classes/MileageEntryProjectLinkService.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/MileageEntryProjectLinkServiceTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MileageEntryProjectLinkServiceTest</t>
+  </si>
+  <si>
+    <t>classes/MileageEntryProjectLinkServiceTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/TimeSheetControllerTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass TimeSheetControllerTest</t>
+  </si>
+  <si>
+    <t>classes/TimeSheetProjectLinkService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass TimeSheetProjectLinkService</t>
+  </si>
+  <si>
+    <t>classes/TimeSheetProjectLinkService.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/TimeSheetProjectLinkServiceTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass TimeSheetProjectLinkServiceTest</t>
+  </si>
+  <si>
+    <t>classes/TimeSheetProjectLinkServiceTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderSequence.cls</t>
+  </si>
+  <si>
+    <t>ApexClass WorkOrderSequence</t>
+  </si>
+  <si>
+    <t>classes/WorkOrderSequence.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/WorkStepSignatureController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass WorkStepSignatureController</t>
+  </si>
+  <si>
+    <t>classes/WorkStepSignatureController.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/WorkStepSignatureControllerTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass WorkStepSignatureControllerTest</t>
+  </si>
+  <si>
+    <t>classes/WorkStepSignatureControllerTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/fsl_Console_AccountController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass fsl_Console_AccountController</t>
+  </si>
+  <si>
+    <t>classes/fsl_Console_AccountController.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>corsWhitelistOrigins/https_krinkelsgreencare_upeodev_sandbox_lightning_force_com.corsWhitelistOrigin-meta.xml</t>
+  </si>
+  <si>
+    <t>CorsWhitelistOrigin https_krinkelsgreencare_upeodev_sandbox_lightning_force_com</t>
+  </si>
+  <si>
+    <t>flexipages/Time_Sheet_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Time_Sheet_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Mileage_Entry_After_Save_Record_Triggered.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Mileage_Entry_After_Save_Record_Triggered</t>
+  </si>
+  <si>
+    <t>flowDefinitions/ResourceAbsence_Before_Save_Set_Timesheet_Id.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition ResourceAbsence_Before_Save_Set_Timesheet_Id</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Goodwill_Task_Check.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Goodwill_Task_Check</t>
+  </si>
+  <si>
+    <t>flows/Mileage_Entry_After_Save_Record_Triggered.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Mileage_Entry_After_Save_Record_Triggered</t>
+  </si>
+  <si>
+    <t>flows/ResourceAbsence_Before_Save_Set_Timesheet_Id.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow ResourceAbsence_Before_Save_Set_Timesheet_Id</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Goodwill_Task_Check.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Goodwill_Task_Check</t>
   </si>
   <si>
     <t>labels/CustomLabels.labels-meta.xml</t>
@@ -136,40 +235,106 @@
     <t>CustomLabel CustomLabels</t>
   </si>
   <si>
-    <t>layouts/Account-Operational Account Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-Operational Account Layout</t>
-  </si>
-  <si>
-    <t>layouts/Opportunity-Opportunity Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Opportunity-Opportunity Layout</t>
-  </si>
-  <si>
-    <t>layouts/SD_Import__c-SD Import Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout SD_Import__c-SD Import Layout</t>
-  </si>
-  <si>
-    <t>layouts/ServiceContract-Service Contract Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceContract-Service Contract Layout</t>
-  </si>
-  <si>
-    <t>layouts/Work_Schedule_Day__c-Work Schedule Day Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Work_Schedule_Day__c-Work Schedule Day Layout</t>
-  </si>
-  <si>
-    <t>layouts/Work_Schedule__c-Work Schedule Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Work_Schedule__c-Work Schedule Layout</t>
+    <t>layouts/ATAK_Work_Log__c-ATAK Work Log Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ATAK_Work_Log__c-ATAK Work Log Layout</t>
+  </si>
+  <si>
+    <t>layouts/IframeWhiteListUrl-Trusted Domain for Inline Frames Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout IframeWhiteListUrl-Trusted Domain for Inline Frames Layout</t>
+  </si>
+  <si>
+    <t>layouts/ResourceAbsence-Internal Meeting Resource Absence Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ResourceAbsence-Internal Meeting Resource Absence Layout</t>
+  </si>
+  <si>
+    <t>layouts/ResourceAbsence-Physical Check-up Resource Absence Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ResourceAbsence-Physical Check-up Resource Absence Layout</t>
+  </si>
+  <si>
+    <t>layouts/ResourceAbsence-Resource Absence Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ResourceAbsence-Resource Absence Layout</t>
+  </si>
+  <si>
+    <t>layouts/ResourceAbsence-Training Resource Absence Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ResourceAbsence-Training Resource Absence Layout</t>
+  </si>
+  <si>
+    <t>layouts/TimeSheet-FSL Time Sheet Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout TimeSheet-FSL Time Sheet Layout</t>
+  </si>
+  <si>
+    <t>layouts/TimeSheet-Time Sheet Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout TimeSheet-Time Sheet Layout</t>
+  </si>
+  <si>
+    <t>layouts/TimeSheetEntry-FLS Time Sheet Entry Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout TimeSheetEntry-FLS Time Sheet Entry Layout</t>
+  </si>
+  <si>
+    <t>layouts/TimeSheetEntry-Time Sheet Entry Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout TimeSheetEntry-Time Sheet Entry Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkOrder-Work Order Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkStep-FSL Work Step Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkStep-FSL Work Step Layout</t>
+  </si>
+  <si>
+    <t>lwc/fslConsoleAccount/fslConsoleAccount.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fslConsoleAccount/fslConsoleAccount.css</t>
+  </si>
+  <si>
+    <t>lwc/fslConsoleAccount/fslConsoleAccount.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fslConsoleAccount/fslConsoleAccount.html</t>
+  </si>
+  <si>
+    <t>lwc/fslConsoleAccount/fslConsoleAccount.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fslConsoleAccount/fslConsoleAccount.js</t>
+  </si>
+  <si>
+    <t>lwc/fslConsoleAccount/fslConsoleAccount.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle fslConsoleAccount/fslConsoleAccount.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/imageCapture/imageCapture.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageCapture/imageCapture.js</t>
   </si>
   <si>
     <t>lwc/locationPassport/locationPassport.js</t>
@@ -178,24 +343,24 @@
     <t>LightningComponentBundle locationPassport/locationPassport.js</t>
   </si>
   <si>
-    <t>lwc/nextAppointmentPicker/nextAppointmentPicker.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.css</t>
-  </si>
-  <si>
-    <t>lwc/nextAppointmentPicker/nextAppointmentPicker.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.html</t>
-  </si>
-  <si>
     <t>lwc/nextAppointmentPicker/nextAppointmentPicker.js</t>
   </si>
   <si>
     <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.js</t>
   </si>
   <si>
+    <t>lwc/showMileageScreen/showMileageScreen.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle showMileageScreen/showMileageScreen.html</t>
+  </si>
+  <si>
+    <t>lwc/showMileageScreen/showMileageScreen.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle showMileageScreen/showMileageScreen.js</t>
+  </si>
+  <si>
     <t>lwc/startOperatorDay/startOperatorDay.css</t>
   </si>
   <si>
@@ -208,22 +373,34 @@
     <t>LightningComponentBundle startOperatorDay/startOperatorDay.html</t>
   </si>
   <si>
+    <t>lwc/startOperatorDay/startOperatorDay.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startOperatorDay/startOperatorDay.js</t>
+  </si>
+  <si>
     <t>lwc/startOperatorDayMetrics/startOperatorDayMetrics.css</t>
   </si>
   <si>
     <t>LightningComponentBundle startOperatorDayMetrics/startOperatorDayMetrics.css</t>
   </si>
   <si>
-    <t>lwc/timeSheetCalendar/timeSheetCalendar.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.css</t>
-  </si>
-  <si>
-    <t>lwc/timeSheetCalendar/timeSheetCalendar.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.html</t>
+    <t>lwc/startOperatorDayMetrics/startOperatorDayMetrics.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startOperatorDayMetrics/startOperatorDayMetrics.html</t>
+  </si>
+  <si>
+    <t>lwc/startOperatorDayMetrics/startOperatorDayMetrics.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startOperatorDayMetrics/startOperatorDayMetrics.js</t>
+  </si>
+  <si>
+    <t>lwc/startStopTimer/startStopTimer.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startStopTimer/startStopTimer.js</t>
   </si>
   <si>
     <t>lwc/timeSheetCalendar/timeSheetCalendar.js</t>
@@ -232,163 +409,199 @@
     <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.js</t>
   </si>
   <si>
-    <t>lwc/timesheetEntryForm/timesheetEntryForm.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timesheetEntryForm/timesheetEntryForm.html</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/businessProcesses/B2B Tender.businessProcess-meta.xml</t>
-  </si>
-  <si>
-    <t>BusinessProcess B2B Tender</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/businessProcesses/Public Tender.businessProcess-meta.xml</t>
-  </si>
-  <si>
-    <t>BusinessProcess Public Tender</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/businessProcesses/Quick Quote.businessProcess-meta.xml</t>
-  </si>
-  <si>
-    <t>BusinessProcess Quick Quote</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/fields/Price_Request_BS_Comments__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Price_Request_BS_Comments__c</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/fields/Price_Request_Demand_Comments__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Price_Request_Demand_Comments__c</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/fields/Price_Request_Priority__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Price_Request_Priority__c</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/fields/Price_Request_Status__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Price_Request_Status__c</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/fields/Pricing_Request_Needed__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Pricing_Request_Needed__c</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/fields/Service_Contract__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Service_Contract__c</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/fields/Work_Size__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Work_Size__c</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/recordTypes/B2B_Tender.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType B2B_Tender</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/recordTypes/Public_Tender.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Public_Tender</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/recordTypes/Quick_Quote.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Quick_Quote</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/validationRules/Maximum_Value_for_Quick_Quote.validationRule-meta.xml</t>
-  </si>
-  <si>
-    <t>ValidationRule Maximum_Value_for_Quick_Quote</t>
-  </si>
-  <si>
-    <t>objects/Product2/recordTypes/Extra_Work.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Extra_Work</t>
-  </si>
-  <si>
-    <t>objects/SD_Import__c/fields/Werkschema__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Werkschema__c</t>
-  </si>
-  <si>
-    <t>objects/Work_Schedule_Day__c/Work_Schedule_Day__c.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject Work_Schedule_Day__c/Work_Schedule_Day__c</t>
-  </si>
-  <si>
-    <t>objects/Work_Schedule_Day__c/fields/Day_of_Week_Number__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Day_of_Week_Number__c</t>
-  </si>
-  <si>
-    <t>objects/Work_Schedule_Day__c/fields/Day_of_Week__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Day_of_Week__c</t>
-  </si>
-  <si>
-    <t>objects/Work_Schedule_Day__c/fields/Hours__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Hours__c</t>
-  </si>
-  <si>
-    <t>objects/Work_Schedule_Day__c/fields/Work_Schedule__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Work_Schedule__c</t>
-  </si>
-  <si>
-    <t>objects/Work_Schedule_Day__c/listViews/All.listView-meta.xml</t>
-  </si>
-  <si>
-    <t>ListView All</t>
-  </si>
-  <si>
-    <t>objects/Work_Schedule__c/Work_Schedule__c.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject Work_Schedule__c/Work_Schedule__c</t>
-  </si>
-  <si>
-    <t>objects/Work_Schedule__c/fields/Total_Weekly_Hours__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Total_Weekly_Hours__c</t>
-  </si>
-  <si>
-    <t>objects/Work_Schedule__c/listViews/All.listView-meta.xml</t>
-  </si>
-  <si>
-    <t>pathAssistants/Default_Opportunity.pathAssistant-meta.xml</t>
-  </si>
-  <si>
-    <t>PathAssistant Default_Opportunity</t>
+    <t>lwc/workStepSignature/workStepSignature.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle workStepSignature/workStepSignature.css</t>
+  </si>
+  <si>
+    <t>lwc/workStepSignature/workStepSignature.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle workStepSignature/workStepSignature.html</t>
+  </si>
+  <si>
+    <t>lwc/workStepSignature/workStepSignature.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle workStepSignature/workStepSignature.js</t>
+  </si>
+  <si>
+    <t>lwc/workStepSignature/workStepSignature.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle workStepSignature/workStepSignature.js-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/ATAK_Work_Log__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject ATAK_Work_Log__c/ATAK_Work_Log__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/Comments__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Comments__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/Dossier__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Dossier__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/End_Timestamp__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField End_Timestamp__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/External_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField External_Id__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/Performance_Date__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Performance_Date__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/Performance_Resource_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Performance_Resource_Code__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/Performance_Resource_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Performance_Resource_Type__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/Project_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Project_Code__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/Quantity_Registration_Unit__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Quantity_Registration_Unit__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/Quantity__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Quantity__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/Registration_Timestamp__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Registration_Timestamp__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/Source_Record_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Source_Record_Id__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/Source_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Source_Type__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/Start_Timestamp__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Start_Timestamp__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/Status__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Status__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Work_Log__c/fields/Time_Sheet__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Time_Sheet__c</t>
+  </si>
+  <si>
+    <t>objects/Mileage_Entry__c/fields/Allowance_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Allowance_Type__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fieldSets/FSL__Absence_Resource_Calendar_Tooltip.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Absence_Resource_Calendar_Tooltip</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fieldSets/FSL__Resource_Absence_Lightbox.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Resource_Absence_Lightbox</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fieldSets/FSL__Resource_Absence_Resource_Calendar.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Resource_Absence_Resource_Calendar</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Time_Sheet__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fieldSets/FSL__Gantt_Filter.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Gantt_Filter</t>
+  </si>
+  <si>
+    <t>objects/TimeSheetEntry/fields/Atak_Project__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Atak_Project__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Signature_Required__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Signature_Required__c</t>
+  </si>
+  <si>
+    <t>pages/CustomAccountLightboxVfPage.page</t>
+  </si>
+  <si>
+    <t>ApexPage CustomAccountLightboxVfPage</t>
+  </si>
+  <si>
+    <t>pages/CustomAccountLightboxVfPage.page-meta.xml</t>
+  </si>
+  <si>
+    <t>pages/test.page</t>
+  </si>
+  <si>
+    <t>ApexPage test</t>
+  </si>
+  <si>
+    <t>pages/test.page-meta.xml</t>
+  </si>
+  <si>
+    <t>permissionsets/Query_All_Files.permissionset-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSet Query_All_Files</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -541,34 +754,238 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>quickActions/Account.Add_Extra_Work.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction Account.Add_Extra_Work</t>
-  </si>
-  <si>
-    <t>quickActions/Opportunity.Price_Request.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction Opportunity.Price_Request</t>
-  </si>
-  <si>
-    <t>reportTypes/Opportunities_with_Historical_Trending.reportType-meta.xml</t>
-  </si>
-  <si>
-    <t>ReportType Opportunities_with_Historical_Trending</t>
-  </si>
-  <si>
-    <t>settings/Forecasting.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings Forecasting</t>
-  </si>
-  <si>
-    <t>settings/ForecastingObjectList.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings ForecastingObjectList</t>
+    <t>quickActions/WorkOrder.Log_Edit_Goodwill_Tasks.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkOrder.Log_Edit_Goodwill_Tasks</t>
+  </si>
+  <si>
+    <t>quickActions/WorkStep.Work_Step_Signature.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkStep.Work_Step_Signature</t>
+  </si>
+  <si>
+    <t>reportTypes/Work_Orders.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Work_Orders</t>
+  </si>
+  <si>
+    <t>reports/Sales_Marketing_Reports/Closed_Lost_by_Reason.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Sales_Marketing_Reports/Closed_Lost_by_Reason</t>
+  </si>
+  <si>
+    <t>reports/Sales_Marketing_Reports/Hot_Leads_w_o_Activity_96_Hours.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Sales_Marketing_Reports/Hot_Leads_w_o_Activity_96_Hours</t>
+  </si>
+  <si>
+    <t>reports/Sales_Marketing_Reports/Open_Oppties_This_Q_No_Acti_Last_96hrs.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Sales_Marketing_Reports/Open_Oppties_This_Q_No_Acti_Last_96hrs</t>
+  </si>
+  <si>
+    <t>reports/Sales_Marketing_Reports/Pipeline_Report_This_Q.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Sales_Marketing_Reports/Pipeline_Report_This_Q</t>
+  </si>
+  <si>
+    <t>reports/Sales_and_Marketing_Reports/Marketing_Exec_Converted_Amount.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Sales_and_Marketing_Reports/Marketing_Exec_Converted_Amount</t>
+  </si>
+  <si>
+    <t>reports/Sales_and_Marketing_Reports/Marketing_Exec_Converted_and_Won_Amount.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Sales_and_Marketing_Reports/Marketing_Exec_Converted_and_Won_Amount</t>
+  </si>
+  <si>
+    <t>reports/Sales_and_Marketing_Reports/Marketing_Exec_Converted_by_Month.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Sales_and_Marketing_Reports/Marketing_Exec_Converted_by_Month</t>
+  </si>
+  <si>
+    <t>reports/Sales_and_Marketing_Reports/Marketing_Exec_Leads_Converted.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Sales_and_Marketing_Reports/Marketing_Exec_Leads_Converted</t>
+  </si>
+  <si>
+    <t>reports/Sales_and_Marketing_Reports/Sales_Exec_Lost_Deals.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Sales_and_Marketing_Reports/Sales_Exec_Lost_Deals</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Age_of_Cases_Currently_Open_by_Type.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Age_of_Cases_Currently_Open_by_Type</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Aged_Cases_by_Account.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Aged_Cases_by_Account</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Aged_Cases_by_Agent.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Aged_Cases_by_Agent</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Average_Case_Resolution_Time_1.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Average_Case_Resolution_Time_1</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Average_Case_Resolution_Time_MTD.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Average_Case_Resolution_Time_MTD</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Avg_Case_Resolution_Time_MTD_by_Agen.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Avg_Case_Resolution_Time_MTD_by_Agen</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Case_Resolution_Time_MTD_by_Origin.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Case_Resolution_Time_MTD_by_Origin</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Cases_Closed_MTD.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Cases_Closed_MTD</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Cases_Closed_MTD_by_Agent.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Cases_Closed_MTD_by_Agent</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Cases_Currently_Open.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Cases_Currently_Open</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Cases_Currently_Open_by_Account.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Cases_Currently_Open_by_Account</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Cases_Currently_Open_by_Agent.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Cases_Currently_Open_by_Agent</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Cases_Currently_Open_by_Origin.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Cases_Currently_Open_by_Origin</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Cases_Currently_Open_by_Priority.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Cases_Currently_Open_by_Priority</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Cases_Currently_Open_by_Type.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Cases_Currently_Open_by_Type</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/High_Priority_Open_Cases_by_Account.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/High_Priority_Open_Cases_by_Account</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Top_10_Cases_by_Age.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Top_10_Cases_by_Age</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Trend_of_Case_Resolution_Time.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Trend_of_Case_Resolution_Time</t>
+  </si>
+  <si>
+    <t>reports/Service_Dashboards_Reports/Trend_of_Cases_Closed.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report Service_Dashboards_Reports/Trend_of_Cases_Closed</t>
+  </si>
+  <si>
+    <t>reports/unfiled$public/Crew_Members_Planning_oXN.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report unfiled$public/Crew_Members_Planning_oXN</t>
+  </si>
+  <si>
+    <t>reports/unfiled$public/Goodwill_Tasks_Report_S7D.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report unfiled$public/Goodwill_Tasks_Report_S7D</t>
+  </si>
+  <si>
+    <t>reports/unfiled$public/SampleReportLoginLeaderboard.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report unfiled$public/SampleReportLoginLeaderboard</t>
+  </si>
+  <si>
+    <t>reports/unfiled$public/SampleReportLoginWallofShame.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report unfiled$public/SampleReportLoginWallofShame</t>
+  </si>
+  <si>
+    <t>reports/unfiled$public/SampleReportOpenCasesByPriority.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Report unfiled$public/SampleReportOpenCasesByPriority</t>
+  </si>
+  <si>
+    <t>settings/Content.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Content</t>
+  </si>
+  <si>
+    <t>settings/Flow.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Flow</t>
+  </si>
+  <si>
+    <t>settings/Language.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Language</t>
   </si>
   <si>
     <t>settings/Search.settings-meta.xml</t>
@@ -577,49 +994,55 @@
     <t>Settings Search</t>
   </si>
   <si>
-    <t>sharingRules/Work_Schedule_Day__c.sharingRules-meta.xml</t>
-  </si>
-  <si>
-    <t>SharingRules Work_Schedule_Day__c</t>
-  </si>
-  <si>
-    <t>sharingRules/Work_Schedule__c.sharingRules-meta.xml</t>
-  </si>
-  <si>
-    <t>SharingRules Work_Schedule__c</t>
-  </si>
-  <si>
-    <t>standardValueSets/OpportunityStage.standardValueSet-meta.xml</t>
-  </si>
-  <si>
-    <t>StandardValueSet OpportunityStage</t>
-  </si>
-  <si>
-    <t>tabs/Work_Schedule_Day__c.tab-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomTab Work_Schedule_Day__c</t>
-  </si>
-  <si>
-    <t>tabs/Work_Schedule__c.tab-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomTab Work_Schedule__c</t>
-  </si>
-  <si>
-    <t>topicsForObjects/Work_Schedule_Day__c.topicsForObjects-meta.xml</t>
-  </si>
-  <si>
-    <t>TopicsForObjects Work_Schedule_Day__c</t>
-  </si>
-  <si>
-    <t>topicsForObjects/Work_Schedule__c.topicsForObjects-meta.xml</t>
-  </si>
-  <si>
-    <t>TopicsForObjects Work_Schedule__c</t>
-  </si>
-  <si>
-    <t>uiFormatSpecificationSets/Price_Request_Status_Icon.uiFormatSpecificationSet-meta.xml</t>
+    <t>sharingRules/ATAK_Work_Log__c.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules ATAK_Work_Log__c</t>
+  </si>
+  <si>
+    <t>standardValueSets/ResourceAbsenceType.standardValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>StandardValueSet ResourceAbsenceType</t>
+  </si>
+  <si>
+    <t>staticresources/signature_pad.js</t>
+  </si>
+  <si>
+    <t>StaticResource signature_pad.js</t>
+  </si>
+  <si>
+    <t>staticresources/signature_pad.resource-meta.xml</t>
+  </si>
+  <si>
+    <t>StaticResource signature_pad</t>
+  </si>
+  <si>
+    <t>topicsForObjects/ATAK_Work_Log__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects ATAK_Work_Log__c</t>
+  </si>
+  <si>
+    <t>triggers/MileageEntryTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger MileageEntryTrigger</t>
+  </si>
+  <si>
+    <t>triggers/MileageEntryTrigger.trigger-meta.xml</t>
+  </si>
+  <si>
+    <t>triggers/ResourceAbsenceTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger ResourceAbsenceTrigger</t>
+  </si>
+  <si>
+    <t>triggers/TimeSheetEntryTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger TimeSheetEntryTrigger</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -1002,12 +1425,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G177"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="89" customWidth="1"/>
+    <col min="1" max="1" width="109" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="92" customWidth="1"/>
+    <col min="3" max="3" width="83" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -1040,13 +1463,10 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -1060,14 +1480,11 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1087,7 +1504,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1098,16 +1515,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1118,16 +1535,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1138,16 +1552,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1160,14 +1571,11 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1180,14 +1588,11 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1198,13 +1603,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1215,16 +1623,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1235,13 +1640,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1252,13 +1657,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1269,13 +1674,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1286,13 +1691,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1303,16 +1708,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1323,16 +1725,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1343,16 +1745,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1363,16 +1762,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1383,16 +1779,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1403,13 +1796,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1420,13 +1813,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1437,16 +1830,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1457,16 +1847,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1477,16 +1864,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1497,16 +1881,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1517,16 +1898,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1537,16 +1915,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1557,16 +1932,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1577,16 +1949,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1597,16 +1966,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1617,16 +1986,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1637,16 +2003,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1657,13 +2020,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1674,13 +2037,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1691,13 +2054,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1708,13 +2071,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1725,13 +2088,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" t="s">
-        <v>27</v>
+        <v>72</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1742,13 +2108,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1759,13 +2125,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1776,13 +2142,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" t="s">
-        <v>27</v>
+        <v>78</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1793,13 +2162,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" t="s">
-        <v>27</v>
+        <v>80</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1810,13 +2182,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" t="s">
-        <v>27</v>
+        <v>82</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1827,13 +2202,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1844,13 +2222,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" t="s">
-        <v>27</v>
+        <v>86</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1861,13 +2242,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" t="s">
-        <v>27</v>
+        <v>88</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -1878,13 +2262,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" t="s">
-        <v>27</v>
+        <v>90</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -1895,13 +2282,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" t="s">
-        <v>27</v>
+        <v>92</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -1912,13 +2302,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" t="s">
-        <v>27</v>
+        <v>94</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -1929,13 +2322,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" t="s">
-        <v>27</v>
+        <v>96</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -1946,13 +2342,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -1963,13 +2359,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -1980,13 +2376,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -1997,13 +2393,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2014,13 +2410,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55" t="s">
-        <v>27</v>
+        <v>106</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>107</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2031,13 +2430,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" t="s">
-        <v>27</v>
+        <v>108</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>109</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2048,13 +2450,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" t="s">
-        <v>27</v>
+        <v>110</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2065,13 +2470,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" t="s">
-        <v>27</v>
+        <v>112</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2082,16 +2490,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2102,16 +2510,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2122,16 +2530,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -2142,16 +2550,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2162,16 +2570,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2182,16 +2590,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2202,16 +2610,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2222,16 +2630,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2242,16 +2650,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2262,16 +2670,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2282,16 +2687,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2302,16 +2704,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>146</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2322,16 +2721,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
-      </c>
-      <c r="D71" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2342,16 +2738,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2362,16 +2755,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
-      </c>
-      <c r="D73" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2382,16 +2772,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
-      </c>
-      <c r="D74" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2402,16 +2789,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>156</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
-      </c>
-      <c r="D75" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2422,16 +2806,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>158</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
-      </c>
-      <c r="D76" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2442,16 +2823,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>160</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -2462,16 +2840,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>162</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
-      </c>
-      <c r="D78" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2482,16 +2857,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>164</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
-      </c>
-      <c r="D79" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -2502,16 +2874,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
-      </c>
-      <c r="D80" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -2522,16 +2891,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>168</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -2542,16 +2908,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>170</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -2562,16 +2925,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>172</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -2582,16 +2942,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>174</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
-      </c>
-      <c r="D84" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -2602,13 +2959,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -2619,13 +2976,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -2636,16 +2993,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>180</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
-      </c>
-      <c r="D87" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -2656,16 +3010,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>182</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
-      </c>
-      <c r="D88" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -2676,16 +3027,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -2696,16 +3047,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -2716,13 +3067,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>188</v>
-      </c>
-      <c r="B91" t="s">
-        <v>27</v>
+        <v>178</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>189</v>
+        <v>179</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -2733,13 +3087,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>190</v>
-      </c>
-      <c r="B92" t="s">
-        <v>27</v>
+        <v>180</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>191</v>
+        <v>181</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -2750,16 +3107,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>192</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
-      </c>
-      <c r="D93" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -2770,13 +3124,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" t="s">
-        <v>27</v>
+        <v>183</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>195</v>
+        <v>184</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -2787,13 +3144,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -2804,13 +3161,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -2821,13 +3178,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B97" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -2838,13 +3195,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -2855,16 +3212,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>203</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>203</v>
-      </c>
-      <c r="D99" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -2875,21 +3229,1525 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>193</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
         <v>204</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100" t="s">
-        <v>204</v>
-      </c>
-      <c r="D100" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>206</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>210</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>212</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>213</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>216</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>217</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>218</v>
+      </c>
+      <c r="D112" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>220</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>222</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>224</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>226</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>228</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>230</v>
+      </c>
+      <c r="D118" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>232</v>
+      </c>
+      <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>234</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>236</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>237</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>238</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>240</v>
+      </c>
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>242</v>
+      </c>
+      <c r="D124" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>244</v>
+      </c>
+      <c r="D125" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>246</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>251</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>253</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>254</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>256</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>258</v>
+      </c>
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>260</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>262</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>264</v>
+      </c>
+      <c r="D135" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>266</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>267</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>268</v>
+      </c>
+      <c r="D137" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>269</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>270</v>
+      </c>
+      <c r="D138" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>271</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>272</v>
+      </c>
+      <c r="D139" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>274</v>
+      </c>
+      <c r="D140" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>275</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>276</v>
+      </c>
+      <c r="D141" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>277</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>278</v>
+      </c>
+      <c r="D142" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>279</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>280</v>
+      </c>
+      <c r="D143" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>281</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>282</v>
+      </c>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>283</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>284</v>
+      </c>
+      <c r="D145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>285</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>286</v>
+      </c>
+      <c r="D146" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>287</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>288</v>
+      </c>
+      <c r="D147" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>289</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>290</v>
+      </c>
+      <c r="D148" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>291</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>292</v>
+      </c>
+      <c r="D149" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>293</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>294</v>
+      </c>
+      <c r="D150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>295</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>296</v>
+      </c>
+      <c r="D151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>297</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>298</v>
+      </c>
+      <c r="D152" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>299</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>300</v>
+      </c>
+      <c r="D153" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>301</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>302</v>
+      </c>
+      <c r="D154" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>303</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>304</v>
+      </c>
+      <c r="D155" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>305</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>306</v>
+      </c>
+      <c r="D156" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>307</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>308</v>
+      </c>
+      <c r="D157" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>309</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>310</v>
+      </c>
+      <c r="D158" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>312</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>314</v>
+      </c>
+      <c r="D160" t="s">
+        <v>16</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>316</v>
+      </c>
+      <c r="D161" t="s">
+        <v>16</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>317</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>318</v>
+      </c>
+      <c r="D162" t="s">
+        <v>16</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>320</v>
+      </c>
+      <c r="D163" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>321</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>322</v>
+      </c>
+      <c r="D164" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>324</v>
+      </c>
+      <c r="D165" t="s">
+        <v>16</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>326</v>
+      </c>
+      <c r="D166" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>329</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>330</v>
+      </c>
+      <c r="D168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>332</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>333</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>335</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>336</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>338</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>339</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>338</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>340</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>341</v>
+      </c>
+      <c r="D174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>342</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>343</v>
+      </c>
+      <c r="D175" t="s">
+        <v>16</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>344</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>344</v>
+      </c>
+      <c r="D176" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>345</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>345</v>
+      </c>
+      <c r="D177" t="s">
+        <v>16</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="163">
   <si>
     <t>File</t>
   </si>
@@ -34,25 +34,472 @@
     <t>severityIcon</t>
   </si>
   <si>
-    <t>applications/Sales.app-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomApplication Sales</t>
+    <t>classes/AccountWasteRetriever.cls</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ApexClass AccountWasteRetriever</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
+    <t>classes/AccountWasteRetriever.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/GetRecordsIn.cls</t>
+  </si>
+  <si>
+    <t>ApexClass GetRecordsIn</t>
+  </si>
+  <si>
+    <t>classes/GetRecordsIn.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/GetRecordsInTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass GetRecordsInTest</t>
+  </si>
+  <si>
+    <t>classes/GetRecordsInTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ManageMultiselectField.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ManageMultiselectField</t>
+  </si>
+  <si>
+    <t>classes/ManageMultiselectField.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ManageMultiselectFieldTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ManageMultiselectFieldTest</t>
+  </si>
+  <si>
+    <t>classes/ManageMultiselectFieldTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/MultiSelectFlowValues.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MultiSelectFlowValues</t>
+  </si>
+  <si>
+    <t>classes/MultiSelectFlowValues.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ObjectFieldSelectorController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ObjectFieldSelectorController</t>
+  </si>
+  <si>
+    <t>classes/ObjectFieldSelectorController.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ObjectFieldSelectorControllerTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ObjectFieldSelectorControllerTest</t>
+  </si>
+  <si>
+    <t>classes/ObjectFieldSelectorControllerTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
+  </si>
+  <si>
+    <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
-  </si>
-  <si>
-    <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
-  </si>
-  <si>
-    <t>CleanDataService DataCloudGeoLocation</t>
+    <t>flexipages/Other_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Other_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Work_Order_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Work_Order_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Screen_Flow_Create_Waste_Depot_Visit.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Screen_Flow_Create_Waste_Depot_Visit</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Screen_Flow_Create_Waste_Depot_Visit.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Screen_Flow_Create_Waste_Depot_Visit</t>
+  </si>
+  <si>
+    <t>globalValueSets/Type_of_Waste.globalValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>GlobalValueSet Type_of_Waste</t>
+  </si>
+  <si>
+    <t>layouts/Account-Other Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Other Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkOrder-Work Order Layout</t>
+  </si>
+  <si>
+    <t>lwc/df_combobox/df_combobox.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle df_combobox/df_combobox.css</t>
+  </si>
+  <si>
+    <t>lwc/df_combobox/df_combobox.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle df_combobox/df_combobox.html</t>
+  </si>
+  <si>
+    <t>lwc/df_combobox/df_combobox.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle df_combobox/df_combobox.js</t>
+  </si>
+  <si>
+    <t>lwc/df_combobox/df_combobox.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle df_combobox/df_combobox.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/df_comboboxUtils/df_comboboxUtils.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle df_comboboxUtils/df_comboboxUtils.js</t>
+  </si>
+  <si>
+    <t>lwc/df_comboboxUtils/df_comboboxUtils.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle df_comboboxUtils/df_comboboxUtils.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/df_fieldSelector2/df_fieldSelector2.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle df_fieldSelector2/df_fieldSelector2.html</t>
+  </si>
+  <si>
+    <t>lwc/df_fieldSelector2/df_fieldSelector2.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle df_fieldSelector2/df_fieldSelector2.js</t>
+  </si>
+  <si>
+    <t>lwc/df_fieldSelector2/df_fieldSelector2.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle df_fieldSelector2/df_fieldSelector2.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/df_objectFieldSelectorUtils/df_objectFieldSelectorUtils.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle df_objectFieldSelectorUtils/df_objectFieldSelectorUtils.js</t>
+  </si>
+  <si>
+    <t>lwc/df_objectFieldSelectorUtils/fsc_objectSelector.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle df_objectFieldSelectorUtils/fsc_objectSelector.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/df_objectSelector/df_objectSelector.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle df_objectSelector/df_objectSelector.html</t>
+  </si>
+  <si>
+    <t>lwc/df_objectSelector/df_objectSelector.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle df_objectSelector/df_objectSelector.js</t>
+  </si>
+  <si>
+    <t>lwc/df_objectSelector/df_objectSelector.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle df_objectSelector/df_objectSelector.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/getRecordsInCPE/getRecordsInCPE.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle getRecordsInCPE/getRecordsInCPE.html</t>
+  </si>
+  <si>
+    <t>lwc/getRecordsInCPE/getRecordsInCPE.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle getRecordsInCPE/getRecordsInCPE.js</t>
+  </si>
+  <si>
+    <t>lwc/getRecordsInCPE/getRecordsInCPE.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle getRecordsInCPE/getRecordsInCPE.js-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Contract__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contract__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Type_of_Waste__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Type_of_Waste__c</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Commercial_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Commercial_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Financial_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Financial_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Group_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Group_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Operational_Account.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Operational_Account</t>
+  </si>
+  <si>
+    <t>objects/Account/recordTypes/Other.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Other</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Waste_to_Drop_Off__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Waste_to_Drop_Off__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Work_Order_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Work_Order_Type__c</t>
+  </si>
+  <si>
+    <t>profiles/Admin.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Admin</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Security User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Security User</t>
+  </si>
+  <si>
+    <t>profiles/Business Support.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Business Support</t>
+  </si>
+  <si>
+    <t>profiles/CPQ Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile CPQ Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter External User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter External User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Free User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Free User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Moderator User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Moderator User</t>
+  </si>
+  <si>
+    <t>profiles/Contract Manager %28custom%29.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Contract Manager %28custom%29</t>
+  </si>
+  <si>
+    <t>profiles/ContractManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ContractManager</t>
+  </si>
+  <si>
+    <t>profiles/Customer Community Plus User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Customer Community Plus User</t>
+  </si>
+  <si>
+    <t>profiles/External Operator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile External Operator</t>
+  </si>
+  <si>
+    <t>profiles/Guest License User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Guest License User</t>
+  </si>
+  <si>
+    <t>profiles/Identity User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Identity User</t>
+  </si>
+  <si>
+    <t>profiles/Manager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Manager</t>
+  </si>
+  <si>
+    <t>profiles/MarketingProfile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile MarketingProfile</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - API Only Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - API Only Integrations</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - Salesforce.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - Salesforce</t>
+  </si>
+  <si>
+    <t>profiles/Operator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Operator</t>
+  </si>
+  <si>
+    <t>profiles/Partner Community User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Partner Community User</t>
+  </si>
+  <si>
+    <t>profiles/Read Only.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Read Only</t>
+  </si>
+  <si>
+    <t>profiles/Sales Insights Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Insights Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Salesforce API Only System Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Salesforce API Only System Integrations</t>
+  </si>
+  <si>
+    <t>profiles/SolutionManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile SolutionManager</t>
+  </si>
+  <si>
+    <t>profiles/Standard.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Standard</t>
+  </si>
+  <si>
+    <t>quickActions/WorkOrder.Create_Waste_Depot_Visit.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkOrder.Create_Waste_Depot_Visit</t>
+  </si>
+  <si>
+    <t>reportTypes/Work_Orders.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Work_Orders</t>
+  </si>
+  <si>
+    <t>installedPackages/MultiselectMagic.json</t>
+  </si>
+  <si>
+    <t>InstalledPackage MultiselectMagic.json</t>
+  </si>
+  <si>
+    <t>installedPackages/getRecordsIn.json</t>
+  </si>
+  <si>
+    <t>InstalledPackage getRecordsIn.json</t>
+  </si>
+  <si>
+    <t>manifest/package-all-org-items.xml</t>
+  </si>
+  <si>
+    <t>manifest/package-backup-items.xml</t>
   </si>
 </sst>
 </file>
@@ -429,12 +876,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G82"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="1" max="1" width="87" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="3" max="3" width="83" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -467,13 +914,10 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -487,19 +931,1476 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>154</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>158</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>160</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="220">
   <si>
     <t>File</t>
   </si>
@@ -37,82 +37,88 @@
     <t>classes/AccountWasteRetriever.cls</t>
   </si>
   <si>
+    <t>ApexClass AccountWasteRetriever</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
+    <t>classes/CheckInService.cls</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>ApexClass AccountWasteRetriever</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
-  </si>
-  <si>
-    <t>classes/AccountWasteRetriever.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/GetRecordsIn.cls</t>
-  </si>
-  <si>
-    <t>ApexClass GetRecordsIn</t>
-  </si>
-  <si>
-    <t>classes/GetRecordsIn.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/GetRecordsInTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass GetRecordsInTest</t>
-  </si>
-  <si>
-    <t>classes/GetRecordsInTest.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ManageMultiselectField.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ManageMultiselectField</t>
-  </si>
-  <si>
-    <t>classes/ManageMultiselectField.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ManageMultiselectFieldTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ManageMultiselectFieldTest</t>
-  </si>
-  <si>
-    <t>classes/ManageMultiselectFieldTest.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/MultiSelectFlowValues.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MultiSelectFlowValues</t>
-  </si>
-  <si>
-    <t>classes/MultiSelectFlowValues.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ObjectFieldSelectorController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ObjectFieldSelectorController</t>
-  </si>
-  <si>
-    <t>classes/ObjectFieldSelectorController.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ObjectFieldSelectorControllerTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ObjectFieldSelectorControllerTest</t>
-  </si>
-  <si>
-    <t>classes/ObjectFieldSelectorControllerTest.cls-meta.xml</t>
+    <t>ApexClass CheckInService</t>
+  </si>
+  <si>
+    <t>classes/CheckInService.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/FieldServiceTestData.cls</t>
+  </si>
+  <si>
+    <t>ApexClass FieldServiceTestData</t>
+  </si>
+  <si>
+    <t>classes/GanttRoundPinAction.cls</t>
+  </si>
+  <si>
+    <t>ApexClass GanttRoundPinAction</t>
+  </si>
+  <si>
+    <t>classes/GanttRoundPinActionTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass GanttRoundPinActionTest</t>
+  </si>
+  <si>
+    <t>classes/GanttRoundPinActionTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/InternalWorkOrderController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass InternalWorkOrderController</t>
+  </si>
+  <si>
+    <t>classes/MachineRestResource.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MachineRestResource</t>
+  </si>
+  <si>
+    <t>classes/RRuleAdjuster.cls</t>
+  </si>
+  <si>
+    <t>ApexClass RRuleAdjuster</t>
+  </si>
+  <si>
+    <t>classes/ServiceAppointmentRescheduler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ServiceAppointmentRescheduler</t>
+  </si>
+  <si>
+    <t>classes/TimeSheetMapController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass TimeSheetMapController</t>
+  </si>
+  <si>
+    <t>classes/TimeSheetMapController.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/WorkStepSignatureControllerTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass WorkStepSignatureControllerTest</t>
   </si>
   <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
@@ -121,13 +127,16 @@
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>flexipages/Other_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Other_Record_Page</t>
+    <t>flexipages/Location_Visit_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Location_Visit_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Time_Sheet_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Time_Sheet_Record_Page</t>
   </si>
   <si>
     <t>flexipages/Work_Order_Record_Page.flexipage-meta.xml</t>
@@ -136,28 +145,82 @@
     <t>FlexiPage Work_Order_Record_Page</t>
   </si>
   <si>
-    <t>flowDefinitions/Work_Order_Screen_Flow_Create_Waste_Depot_Visit.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Screen_Flow_Create_Waste_Depot_Visit</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Screen_Flow_Create_Waste_Depot_Visit.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Screen_Flow_Create_Waste_Depot_Visit</t>
-  </si>
-  <si>
-    <t>globalValueSets/Type_of_Waste.globalValueSet-meta.xml</t>
-  </si>
-  <si>
-    <t>GlobalValueSet Type_of_Waste</t>
-  </si>
-  <si>
-    <t>layouts/Account-Other Account Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-Other Account Layout</t>
+    <t>flexipages/Work_Step_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Work_Step_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_After_Update_Add_Log_KM.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_After_Update_Add_Log_KM</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Before_Save_Record_Triggered_Goodwill_Task_Check.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Before_Save_Record_Triggered_Goodwill_Task_Check</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_After_Update_Add_Log_KM.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_After_Update_Add_Log_KM</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Before_Save_Record_Triggered_Goodwill_Task_Check.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Before_Save_Record_Triggered_Goodwill_Task_Check</t>
+  </si>
+  <si>
+    <t>labels/CustomLabels.labels-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomLabel CustomLabels</t>
+  </si>
+  <si>
+    <t>layouts/AssignedResource-Assigned Resource Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout AssignedResource-Assigned Resource Layout</t>
+  </si>
+  <si>
+    <t>layouts/Location_Visit__c-Location Visit Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Location_Visit__c-Location Visit Layout</t>
+  </si>
+  <si>
+    <t>layouts/ResourceAbsence-Internal Meeting Resource Absence Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ResourceAbsence-Internal Meeting Resource Absence Layout</t>
+  </si>
+  <si>
+    <t>layouts/ResourceAbsence-Physical Check-up Resource Absence Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ResourceAbsence-Physical Check-up Resource Absence Layout</t>
+  </si>
+  <si>
+    <t>layouts/ResourceAbsence-Resource Absence Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ResourceAbsence-Resource Absence Layout</t>
+  </si>
+  <si>
+    <t>layouts/ResourceAbsence-Training Resource Absence Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ResourceAbsence-Training Resource Absence Layout</t>
+  </si>
+  <si>
+    <t>layouts/ServiceResource-Service Resource Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceResource-Service Resource Layout</t>
   </si>
   <si>
     <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
@@ -166,160 +229,250 @@
     <t>Layout WorkOrder-Work Order Layout</t>
   </si>
   <si>
-    <t>lwc/df_combobox/df_combobox.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle df_combobox/df_combobox.css</t>
-  </si>
-  <si>
-    <t>lwc/df_combobox/df_combobox.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle df_combobox/df_combobox.html</t>
-  </si>
-  <si>
-    <t>lwc/df_combobox/df_combobox.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle df_combobox/df_combobox.js</t>
-  </si>
-  <si>
-    <t>lwc/df_combobox/df_combobox.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle df_combobox/df_combobox.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/df_comboboxUtils/df_comboboxUtils.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle df_comboboxUtils/df_comboboxUtils.js</t>
-  </si>
-  <si>
-    <t>lwc/df_comboboxUtils/df_comboboxUtils.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle df_comboboxUtils/df_comboboxUtils.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/df_fieldSelector2/df_fieldSelector2.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle df_fieldSelector2/df_fieldSelector2.html</t>
-  </si>
-  <si>
-    <t>lwc/df_fieldSelector2/df_fieldSelector2.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle df_fieldSelector2/df_fieldSelector2.js</t>
-  </si>
-  <si>
-    <t>lwc/df_fieldSelector2/df_fieldSelector2.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle df_fieldSelector2/df_fieldSelector2.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/df_objectFieldSelectorUtils/df_objectFieldSelectorUtils.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle df_objectFieldSelectorUtils/df_objectFieldSelectorUtils.js</t>
-  </si>
-  <si>
-    <t>lwc/df_objectFieldSelectorUtils/fsc_objectSelector.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle df_objectFieldSelectorUtils/fsc_objectSelector.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/df_objectSelector/df_objectSelector.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle df_objectSelector/df_objectSelector.html</t>
-  </si>
-  <si>
-    <t>lwc/df_objectSelector/df_objectSelector.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle df_objectSelector/df_objectSelector.js</t>
-  </si>
-  <si>
-    <t>lwc/df_objectSelector/df_objectSelector.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle df_objectSelector/df_objectSelector.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/getRecordsInCPE/getRecordsInCPE.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle getRecordsInCPE/getRecordsInCPE.html</t>
-  </si>
-  <si>
-    <t>lwc/getRecordsInCPE/getRecordsInCPE.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle getRecordsInCPE/getRecordsInCPE.js</t>
-  </si>
-  <si>
-    <t>lwc/getRecordsInCPE/getRecordsInCPE.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle getRecordsInCPE/getRecordsInCPE.js-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Contract__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Contract__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Type_of_Waste__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Type_of_Waste__c</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Commercial_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Commercial_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Financial_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Financial_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Group_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Group_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Operational_Account.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Operational_Account</t>
-  </si>
-  <si>
-    <t>objects/Account/recordTypes/Other.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Other</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Waste_to_Drop_Off__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Waste_to_Drop_Off__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Work_Order_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Work_Order_Type__c</t>
+    <t>layouts/WorkStep-FSL Work Step Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkStep-FSL Work Step Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkStep-Work Step Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkStep-Work Step Layout</t>
+  </si>
+  <si>
+    <t>lwc/checkIn/checkIn.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle checkIn/checkIn.css</t>
+  </si>
+  <si>
+    <t>lwc/checkIn/checkIn.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle checkIn/checkIn.html</t>
+  </si>
+  <si>
+    <t>lwc/checkIn/checkIn.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle checkIn/checkIn.js</t>
+  </si>
+  <si>
+    <t>lwc/checkIn/checkIn.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle checkIn/checkIn.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/internalWorkOrderForm/internalWorkOrderForm.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle internalWorkOrderForm/internalWorkOrderForm.css</t>
+  </si>
+  <si>
+    <t>lwc/internalWorkOrderForm/internalWorkOrderForm.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle internalWorkOrderForm/internalWorkOrderForm.html</t>
+  </si>
+  <si>
+    <t>lwc/internalWorkOrderForm/internalWorkOrderForm.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle internalWorkOrderForm/internalWorkOrderForm.js</t>
+  </si>
+  <si>
+    <t>lwc/locationServiceUtil/locationServiceUtil.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle locationServiceUtil/locationServiceUtil.html</t>
+  </si>
+  <si>
+    <t>lwc/locationServiceUtil/locationServiceUtil.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle locationServiceUtil/locationServiceUtil.js</t>
+  </si>
+  <si>
+    <t>lwc/locationServiceUtil/locationServiceUtil.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle locationServiceUtil/locationServiceUtil.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/nextAppointmentPicker/nextAppointmentPicker.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.html</t>
+  </si>
+  <si>
+    <t>lwc/nextAppointmentPicker/nextAppointmentPicker.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.js</t>
+  </si>
+  <si>
+    <t>lwc/showMileageScreen/showMileageScreen.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle showMileageScreen/showMileageScreen.css</t>
+  </si>
+  <si>
+    <t>lwc/showMileageScreen/showMileageScreen.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle showMileageScreen/showMileageScreen.html</t>
+  </si>
+  <si>
+    <t>lwc/startOperatorDay/startOperatorDay.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startOperatorDay/startOperatorDay.css</t>
+  </si>
+  <si>
+    <t>lwc/startOperatorDay/startOperatorDay.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startOperatorDay/startOperatorDay.html</t>
+  </si>
+  <si>
+    <t>lwc/startOperatorDay/startOperatorDay.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startOperatorDay/startOperatorDay.js</t>
+  </si>
+  <si>
+    <t>lwc/startOperatorDayMetrics/startOperatorDayMetrics.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startOperatorDayMetrics/startOperatorDayMetrics.html</t>
+  </si>
+  <si>
+    <t>lwc/startOperatorDayMetrics/startOperatorDayMetrics.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle startOperatorDayMetrics/startOperatorDayMetrics.js</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendar/timeSheetCalendar.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.html</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendar/timeSheetCalendar.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.js</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetMap/timeSheetMap.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetMap/timeSheetMap.css</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetMap/timeSheetMap.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetMap/timeSheetMap.html</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetMap/timeSheetMap.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetMap/timeSheetMap.js</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetMap/timeSheetMap.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetMap/timeSheetMap.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/workStepSignature/workStepSignature.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle workStepSignature/workStepSignature.css</t>
+  </si>
+  <si>
+    <t>lwc/workStepSignature/workStepSignature.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle workStepSignature/workStepSignature.html</t>
+  </si>
+  <si>
+    <t>lwc/workStepSignature/workStepSignature.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle workStepSignature/workStepSignature.js</t>
+  </si>
+  <si>
+    <t>lwc/workStepSignature/workStepSignature.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle workStepSignature/workStepSignature.js-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/AssignedResource/fields/External_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField External_Id__c</t>
+  </si>
+  <si>
+    <t>objects/Location/fields/Current_User_is_CM__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Current_User_is_CM__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Work_Order__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Work_Order__c</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fieldSets/FSL__Absence_Resource_Calendar_Tooltip.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Absence_Resource_Calendar_Tooltip</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fieldSets/FSL__Resource_Absence_Lightbox.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Resource_Absence_Lightbox</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fieldSets/FSL__Resource_Absence_Resource_Calendar.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Resource_Absence_Resource_Calendar</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/fields/Absence_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Absence_Type__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Appointment_List_Columns.fieldSet-meta.xml</t>
+  </si>
+  <si>
+    <t>FieldSet FSL__Service_Appointment_List_Columns</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Checkin_Location__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Checkin_Location__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/webLinks/Waste_Depot_Visit.webLink-meta.xml</t>
+  </si>
+  <si>
+    <t>WebLink Waste_Depot_Visit</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -472,28 +625,46 @@
     <t>Profile Standard</t>
   </si>
   <si>
+    <t>quickActions/WorkOrder.Create_Depot_Visit.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkOrder.Create_Depot_Visit</t>
+  </si>
+  <si>
     <t>quickActions/WorkOrder.Create_Waste_Depot_Visit.quickAction-meta.xml</t>
   </si>
   <si>
     <t>QuickAction WorkOrder.Create_Waste_Depot_Visit</t>
   </si>
   <si>
-    <t>reportTypes/Work_Orders.reportType-meta.xml</t>
-  </si>
-  <si>
-    <t>ReportType Work_Orders</t>
-  </si>
-  <si>
-    <t>installedPackages/MultiselectMagic.json</t>
-  </si>
-  <si>
-    <t>InstalledPackage MultiselectMagic.json</t>
-  </si>
-  <si>
-    <t>installedPackages/getRecordsIn.json</t>
-  </si>
-  <si>
-    <t>InstalledPackage getRecordsIn.json</t>
+    <t>quickActions/WorkStep.Check_In.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkStep.Check_In</t>
+  </si>
+  <si>
+    <t>reportTypes/Service_Appointments.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Service_Appointments</t>
+  </si>
+  <si>
+    <t>reportTypes/Service_Appointments_with_Service_Resources.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Service_Appointments_with_Service_Resources</t>
+  </si>
+  <si>
+    <t>reportTypes/Vans_with_Material_Items.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Vans_with_Material_Items</t>
+  </si>
+  <si>
+    <t>installedPackages/FSL.json</t>
+  </si>
+  <si>
+    <t>InstalledPackage FSL.json</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -876,12 +1047,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G108"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="87" customWidth="1"/>
+    <col min="1" max="1" width="99" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="83" customWidth="1"/>
+    <col min="3" max="3" width="77" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -914,10 +1085,13 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -932,10 +1106,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -946,10 +1120,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -963,13 +1137,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -980,13 +1157,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -997,13 +1177,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1014,13 +1194,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1031,13 +1211,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1048,13 +1231,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1065,13 +1251,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1082,13 +1271,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1099,13 +1291,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1116,13 +1308,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1133,13 +1325,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1150,13 +1345,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1167,13 +1365,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1184,16 +1385,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1204,16 +1405,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1224,16 +1425,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1244,13 +1445,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1261,13 +1465,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1278,13 +1482,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1295,16 +1502,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1315,16 +1519,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1335,13 +1539,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1352,13 +1559,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1369,13 +1579,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1386,13 +1599,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
+        <v>62</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1403,13 +1619,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
+        <v>64</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1420,13 +1639,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1437,13 +1659,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1454,13 +1679,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1471,13 +1699,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
+        <v>72</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1488,13 +1719,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
+        <v>74</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1505,13 +1739,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1522,13 +1756,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1539,13 +1773,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1556,13 +1790,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1573,13 +1807,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
+        <v>84</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1590,13 +1827,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
+        <v>86</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1607,13 +1847,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1624,13 +1867,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1641,13 +1884,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1658,16 +1901,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1678,16 +1918,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -1698,16 +1938,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -1718,16 +1958,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -1738,16 +1978,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -1758,13 +1998,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
+        <v>104</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -1775,16 +2018,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -1795,16 +2038,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -1815,16 +2058,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -1835,16 +2078,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -1855,16 +2098,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -1875,16 +2118,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -1895,16 +2138,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -1915,16 +2155,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -1935,16 +2172,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -1955,16 +2189,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -1975,16 +2206,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -1995,16 +2226,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D62" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2015,16 +2246,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2035,16 +2266,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2055,16 +2286,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2075,16 +2303,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2095,16 +2320,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2115,16 +2337,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2135,16 +2357,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2155,16 +2377,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2175,16 +2397,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>141</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
-      </c>
-      <c r="D71" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2195,16 +2414,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2215,16 +2434,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
-      </c>
-      <c r="D73" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2235,16 +2451,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
-      </c>
-      <c r="D74" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2255,16 +2468,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2275,16 +2488,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2295,13 +2508,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
+        <v>158</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -2312,16 +2528,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D78" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2332,13 +2548,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" t="s">
-        <v>8</v>
+        <v>162</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -2349,13 +2568,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
+        <v>164</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>165</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -2366,16 +2588,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -2386,21 +2608,538 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D82" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
       </c>
       <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>177</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>179</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>187</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>189</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>191</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>199</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>201</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>205</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>207</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>209</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>211</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>213</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>215</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>216</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>217</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>218</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>218</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>219</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="253">
   <si>
     <t>File</t>
   </si>
@@ -34,10 +34,10 @@
     <t>severityIcon</t>
   </si>
   <si>
-    <t>classes/AccountWasteRetriever.cls</t>
-  </si>
-  <si>
-    <t>ApexClass AccountWasteRetriever</t>
+    <t>classes/ATAKWorkLogService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKWorkLogService</t>
   </si>
   <si>
     <t>M</t>
@@ -49,94 +49,97 @@
     <t>📰</t>
   </si>
   <si>
-    <t>classes/CheckInService.cls</t>
+    <t>classes/AccountDetailsController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass AccountDetailsController</t>
+  </si>
+  <si>
+    <t>classes/InternalWorkOrderController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass InternalWorkOrderController</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_Planned_WO_NL_1731941363446.email</t>
+  </si>
+  <si>
+    <t>EmailTemplate CustomerNotifications/Notification_Planned_WO_NL_1731941363446</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_Planned_WO_NL_1731941363446.email-meta.xml</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_REScheduled_WO_ENG_1732012846597.email</t>
+  </si>
+  <si>
+    <t>EmailTemplate CustomerNotifications/Notification_REScheduled_WO_ENG_1732012846597</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_REScheduled_WO_ENG_1732012846597.email-meta.xml</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_REScheduled_WO_FR_1732001152863.email</t>
+  </si>
+  <si>
+    <t>EmailTemplate CustomerNotifications/Notification_REScheduled_WO_FR_1732001152863</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_REScheduled_WO_FR_1732001152863.email-meta.xml</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_REScheduled_WO_NL_1732001423106.email</t>
+  </si>
+  <si>
+    <t>EmailTemplate CustomerNotifications/Notification_REScheduled_WO_NL_1732001423106</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_REScheduled_WO_NL_1732001423106.email-meta.xml</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_Scheduled_WO_ENG_1732012994513.email</t>
+  </si>
+  <si>
+    <t>EmailTemplate CustomerNotifications/Notification_Scheduled_WO_ENG_1732012994513</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_Scheduled_WO_ENG_1732012994513.email-meta.xml</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_Scheduled_WO_FR_1732000418709.email</t>
+  </si>
+  <si>
+    <t>EmailTemplate CustomerNotifications/Notification_Scheduled_WO_FR_1732000418709</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_Scheduled_WO_FR_1732000418709.email-meta.xml</t>
+  </si>
+  <si>
+    <t>flexipages/Location_Visit_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Location_Visit_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Operational_Account_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Quick_Opportunity_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Quick_Opportunity_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Quote_Record_Page.flexipage-meta.xml</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>ApexClass CheckInService</t>
-  </si>
-  <si>
-    <t>classes/CheckInService.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/FieldServiceTestData.cls</t>
-  </si>
-  <si>
-    <t>ApexClass FieldServiceTestData</t>
-  </si>
-  <si>
-    <t>classes/GanttRoundPinAction.cls</t>
-  </si>
-  <si>
-    <t>ApexClass GanttRoundPinAction</t>
-  </si>
-  <si>
-    <t>classes/GanttRoundPinActionTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass GanttRoundPinActionTest</t>
-  </si>
-  <si>
-    <t>classes/GanttRoundPinActionTest.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/InternalWorkOrderController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass InternalWorkOrderController</t>
-  </si>
-  <si>
-    <t>classes/MachineRestResource.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MachineRestResource</t>
-  </si>
-  <si>
-    <t>classes/RRuleAdjuster.cls</t>
-  </si>
-  <si>
-    <t>ApexClass RRuleAdjuster</t>
-  </si>
-  <si>
-    <t>classes/ServiceAppointmentRescheduler.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ServiceAppointmentRescheduler</t>
-  </si>
-  <si>
-    <t>classes/TimeSheetMapController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass TimeSheetMapController</t>
-  </si>
-  <si>
-    <t>classes/TimeSheetMapController.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/WorkStepSignatureControllerTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass WorkStepSignatureControllerTest</t>
-  </si>
-  <si>
-    <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
-  </si>
-  <si>
-    <t>CleanDataService DataCloudGeoLocation</t>
-  </si>
-  <si>
-    <t>flexipages/Location_Visit_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Location_Visit_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Time_Sheet_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Time_Sheet_Record_Page</t>
+    <t>FlexiPage Quote_Record_Page</t>
   </si>
   <si>
     <t>flexipages/Work_Order_Record_Page.flexipage-meta.xml</t>
@@ -145,34 +148,160 @@
     <t>FlexiPage Work_Order_Record_Page</t>
   </si>
   <si>
-    <t>flexipages/Work_Step_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Work_Step_Record_Page</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_After_Update_Add_Log_KM.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_After_Update_Add_Log_KM</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Before_Save_Record_Triggered_Goodwill_Task_Check.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Before_Save_Record_Triggered_Goodwill_Task_Check</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_After_Update_Add_Log_KM.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_After_Update_Add_Log_KM</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Before_Save_Record_Triggered_Goodwill_Task_Check.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Before_Save_Record_Triggered_Goodwill_Task_Check</t>
+    <t>flowDefinitions/Account_Screen_Flow_Add_Extra_Work.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Account_Screen_Flow_Add_Extra_Work</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Opportunity_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Quote.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Opportunity_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Quote</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Quote_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Opportunity.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Quote_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Opportunity</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_Appointment_After_Save_Record_Triggered_Populate_Start_End_Date_on_WO.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_Appointment_After_Save_Record_Triggered_Populate_Start_End_Date_on_WO</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_After_Update_Create_Signature_Work_Step.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_After_Update_Create_Signature_Work_Step</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Log_Waste_Depot_Visit.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Log_Waste_Depot_Visit</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Depot_Visit.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Depot_Visit</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Screen_Flow_Create_Depot_Visit.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Screen_Flow_Create_Depot_Visit</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Screen_Flow_Create_Rework_WO.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Screen_Flow_Create_Rework_WO</t>
+  </si>
+  <si>
+    <t>flows/Account_Screen_Flow_Add_Extra_Work.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Account_Screen_Flow_Add_Extra_Work</t>
+  </si>
+  <si>
+    <t>flows/Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit</t>
+  </si>
+  <si>
+    <t>flows/Opportunity_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Quote.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Opportunity_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Quote</t>
+  </si>
+  <si>
+    <t>flows/Quote_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Opportunity.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Quote_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Opportunity</t>
+  </si>
+  <si>
+    <t>flows/Service_Appointment_After_Save_Record_Triggered_Populate_Start_End_Date_on_WO.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_Appointment_After_Save_Record_Triggered_Populate_Start_End_Date_on_WO</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_After_Update_Create_Signature_Work_Step.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_After_Update_Create_Signature_Work_Step</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Log_Waste_Depot_Visit.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Log_Waste_Depot_Visit</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Depot_Visit.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Depot_Visit</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Screen_Flow_Create_Depot_Visit.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Screen_Flow_Create_Depot_Visit</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Screen_Flow_Create_Rework_WO.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Screen_Flow_Create_Rework_WO</t>
   </si>
   <si>
     <t>labels/CustomLabels.labels-meta.xml</t>
@@ -181,10 +310,10 @@
     <t>CustomLabel CustomLabels</t>
   </si>
   <si>
-    <t>layouts/AssignedResource-Assigned Resource Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout AssignedResource-Assigned Resource Layout</t>
+    <t>layouts/Account-Operational Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Operational Account Layout</t>
   </si>
   <si>
     <t>layouts/Location_Visit__c-Location Visit Layout.layout-meta.xml</t>
@@ -193,34 +322,16 @@
     <t>Layout Location_Visit__c-Location Visit Layout</t>
   </si>
   <si>
-    <t>layouts/ResourceAbsence-Internal Meeting Resource Absence Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ResourceAbsence-Internal Meeting Resource Absence Layout</t>
-  </si>
-  <si>
-    <t>layouts/ResourceAbsence-Physical Check-up Resource Absence Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ResourceAbsence-Physical Check-up Resource Absence Layout</t>
-  </si>
-  <si>
-    <t>layouts/ResourceAbsence-Resource Absence Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ResourceAbsence-Resource Absence Layout</t>
-  </si>
-  <si>
-    <t>layouts/ResourceAbsence-Training Resource Absence Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ResourceAbsence-Training Resource Absence Layout</t>
-  </si>
-  <si>
-    <t>layouts/ServiceResource-Service Resource Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ServiceResource-Service Resource Layout</t>
+    <t>layouts/Opportunity-Opportunity Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Opportunity-Opportunity Layout</t>
+  </si>
+  <si>
+    <t>layouts/Quote-Quote Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Quote-Quote Layout</t>
   </si>
   <si>
     <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
@@ -229,40 +340,40 @@
     <t>Layout WorkOrder-Work Order Layout</t>
   </si>
   <si>
-    <t>layouts/WorkStep-FSL Work Step Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkStep-FSL Work Step Layout</t>
-  </si>
-  <si>
     <t>layouts/WorkStep-Work Step Layout.layout-meta.xml</t>
   </si>
   <si>
     <t>Layout WorkStep-Work Step Layout</t>
   </si>
   <si>
-    <t>lwc/checkIn/checkIn.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle checkIn/checkIn.css</t>
-  </si>
-  <si>
-    <t>lwc/checkIn/checkIn.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle checkIn/checkIn.html</t>
-  </si>
-  <si>
-    <t>lwc/checkIn/checkIn.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle checkIn/checkIn.js</t>
-  </si>
-  <si>
-    <t>lwc/checkIn/checkIn.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle checkIn/checkIn.js-meta.xml</t>
+    <t>lwc/debugPanel/debugPanel.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle debugPanel/debugPanel.css</t>
+  </si>
+  <si>
+    <t>lwc/debugPanel/debugPanel.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle debugPanel/debugPanel.html</t>
+  </si>
+  <si>
+    <t>lwc/debugPanel/debugPanel.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle debugPanel/debugPanel.js</t>
+  </si>
+  <si>
+    <t>lwc/debugPanel/debugPanel.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle debugPanel/debugPanel.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/imageCapture/imageCapture.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageCapture/imageCapture.js</t>
   </si>
   <si>
     <t>lwc/internalWorkOrderForm/internalWorkOrderForm.css</t>
@@ -283,22 +394,10 @@
     <t>LightningComponentBundle internalWorkOrderForm/internalWorkOrderForm.js</t>
   </si>
   <si>
-    <t>lwc/locationServiceUtil/locationServiceUtil.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle locationServiceUtil/locationServiceUtil.html</t>
-  </si>
-  <si>
-    <t>lwc/locationServiceUtil/locationServiceUtil.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle locationServiceUtil/locationServiceUtil.js</t>
-  </si>
-  <si>
-    <t>lwc/locationServiceUtil/locationServiceUtil.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle locationServiceUtil/locationServiceUtil.js-meta.xml</t>
+    <t>lwc/nextAppointmentPicker/nextAppointmentPicker.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.css</t>
   </si>
   <si>
     <t>lwc/nextAppointmentPicker/nextAppointmentPicker.html</t>
@@ -313,16 +412,10 @@
     <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.js</t>
   </si>
   <si>
-    <t>lwc/showMileageScreen/showMileageScreen.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle showMileageScreen/showMileageScreen.css</t>
-  </si>
-  <si>
-    <t>lwc/showMileageScreen/showMileageScreen.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle showMileageScreen/showMileageScreen.html</t>
+    <t>lwc/serviceBuilder/serviceBuilder.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle serviceBuilder/serviceBuilder.js</t>
   </si>
   <si>
     <t>lwc/startOperatorDay/startOperatorDay.css</t>
@@ -343,22 +436,16 @@
     <t>LightningComponentBundle startOperatorDay/startOperatorDay.js</t>
   </si>
   <si>
-    <t>lwc/startOperatorDayMetrics/startOperatorDayMetrics.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startOperatorDayMetrics/startOperatorDayMetrics.html</t>
-  </si>
-  <si>
     <t>lwc/startOperatorDayMetrics/startOperatorDayMetrics.js</t>
   </si>
   <si>
     <t>LightningComponentBundle startOperatorDayMetrics/startOperatorDayMetrics.js</t>
   </si>
   <si>
-    <t>lwc/timeSheetCalendar/timeSheetCalendar.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.html</t>
+    <t>lwc/timeSheetCalendar/timeSheetCalendar.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.css</t>
   </si>
   <si>
     <t>lwc/timeSheetCalendar/timeSheetCalendar.js</t>
@@ -367,40 +454,28 @@
     <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.js</t>
   </si>
   <si>
-    <t>lwc/timeSheetMap/timeSheetMap.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timeSheetMap/timeSheetMap.css</t>
-  </si>
-  <si>
-    <t>lwc/timeSheetMap/timeSheetMap.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timeSheetMap/timeSheetMap.html</t>
-  </si>
-  <si>
-    <t>lwc/timeSheetMap/timeSheetMap.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timeSheetMap/timeSheetMap.js</t>
-  </si>
-  <si>
-    <t>lwc/timeSheetMap/timeSheetMap.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timeSheetMap/timeSheetMap.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/workStepSignature/workStepSignature.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle workStepSignature/workStepSignature.css</t>
-  </si>
-  <si>
-    <t>lwc/workStepSignature/workStepSignature.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle workStepSignature/workStepSignature.html</t>
+    <t>lwc/workOrderActions/workOrderActions.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle workOrderActions/workOrderActions.css</t>
+  </si>
+  <si>
+    <t>lwc/workOrderActions/workOrderActions.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle workOrderActions/workOrderActions.html</t>
+  </si>
+  <si>
+    <t>lwc/workOrderActions/workOrderActions.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle workOrderActions/workOrderActions.js</t>
+  </si>
+  <si>
+    <t>lwc/workOrderActions/workOrderActions.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle workOrderActions/workOrderActions.js-meta.xml</t>
   </si>
   <si>
     <t>lwc/workStepSignature/workStepSignature.js</t>
@@ -409,70 +484,100 @@
     <t>LightningComponentBundle workStepSignature/workStepSignature.js</t>
   </si>
   <si>
-    <t>lwc/workStepSignature/workStepSignature.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle workStepSignature/workStepSignature.js-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/AssignedResource/fields/External_Id__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField External_Id__c</t>
-  </si>
-  <si>
-    <t>objects/Location/fields/Current_User_is_CM__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Current_User_is_CM__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Work_Order__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Work_Order__c</t>
-  </si>
-  <si>
-    <t>objects/ResourceAbsence/fieldSets/FSL__Absence_Resource_Calendar_Tooltip.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Absence_Resource_Calendar_Tooltip</t>
-  </si>
-  <si>
-    <t>objects/ResourceAbsence/fieldSets/FSL__Resource_Absence_Lightbox.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Resource_Absence_Lightbox</t>
-  </si>
-  <si>
-    <t>objects/ResourceAbsence/fieldSets/FSL__Resource_Absence_Resource_Calendar.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Resource_Absence_Resource_Calendar</t>
-  </si>
-  <si>
-    <t>objects/ResourceAbsence/fields/Absence_Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Absence_Type__c</t>
-  </si>
-  <si>
-    <t>objects/ServiceAppointment/fieldSets/FSL__Service_Appointment_List_Columns.fieldSet-meta.xml</t>
-  </si>
-  <si>
-    <t>FieldSet FSL__Service_Appointment_List_Columns</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Checkin_Location__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Checkin_Location__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/webLinks/Waste_Depot_Visit.webLink-meta.xml</t>
-  </si>
-  <si>
-    <t>WebLink Waste_Depot_Visit</t>
+    <t>objects/Account/fields/Signature_Required__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Signature_Required__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Fixed_date_Already_planned__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Fixed_date_Already_planned__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Status__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Status__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/fields/Visitor_Internal__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Visitor_Internal__c</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/compactLayouts/Opportunity.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Opportunity</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/fields/Amount__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Amount__c</t>
+  </si>
+  <si>
+    <t>objects/Quote/Quote.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Quote/Quote</t>
+  </si>
+  <si>
+    <t>objects/Quote/fields/Amount__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/compactLayouts/Work_Order_Compact_Layout.compactLayout-meta.xml</t>
+  </si>
+  <si>
+    <t>CompactLayout Work_Order_Compact_Layout</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Customer_Reference__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Customer_Reference__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Excecution_Week__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Excecution_Week__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Production_Work__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Production_Work__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Rework_for_Work_Order__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Rework_for_Work_Order__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Rework_reasons__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Rework_reasons__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Signature_Required__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Type__c</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Waste_Visit_Done__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Waste_Visit_Done__c</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -625,46 +730,40 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>quickActions/WorkOrder.Create_Depot_Visit.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction WorkOrder.Create_Depot_Visit</t>
-  </si>
-  <si>
-    <t>quickActions/WorkOrder.Create_Waste_Depot_Visit.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction WorkOrder.Create_Waste_Depot_Visit</t>
-  </si>
-  <si>
-    <t>quickActions/WorkStep.Check_In.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction WorkStep.Check_In</t>
-  </si>
-  <si>
-    <t>reportTypes/Service_Appointments.reportType-meta.xml</t>
-  </si>
-  <si>
-    <t>ReportType Service_Appointments</t>
-  </si>
-  <si>
-    <t>reportTypes/Service_Appointments_with_Service_Resources.reportType-meta.xml</t>
-  </si>
-  <si>
-    <t>ReportType Service_Appointments_with_Service_Resources</t>
-  </si>
-  <si>
-    <t>reportTypes/Vans_with_Material_Items.reportType-meta.xml</t>
-  </si>
-  <si>
-    <t>ReportType Vans_with_Material_Items</t>
-  </si>
-  <si>
-    <t>installedPackages/FSL.json</t>
-  </si>
-  <si>
-    <t>InstalledPackage FSL.json</t>
+    <t>quickActions/WorkOrder.Rework.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkOrder.Rework</t>
+  </si>
+  <si>
+    <t>quickActions/WorkOrder.Work_Order_Actions.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkOrder.Work_Order_Actions</t>
+  </si>
+  <si>
+    <t>reportTypes/Opportunities_with_Historical_Trending.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Opportunities_with_Historical_Trending</t>
+  </si>
+  <si>
+    <t>reportTypes/Work_Orders.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Work_Orders</t>
+  </si>
+  <si>
+    <t>settings/Forecasting.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Forecasting</t>
+  </si>
+  <si>
+    <t>settings/ForecastingObjectList.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings ForecastingObjectList</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -1047,12 +1146,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G127"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="99" customWidth="1"/>
+    <col min="1" max="1" width="120" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="77" customWidth="1"/>
+    <col min="3" max="3" width="95" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -1105,11 +1204,14 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1120,13 +1222,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1163,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -1177,13 +1282,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1194,13 +1302,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1211,13 +1322,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1231,13 +1342,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1251,13 +1362,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1271,13 +1382,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1291,13 +1402,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1308,13 +1422,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1325,13 +1442,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1345,13 +1462,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1365,13 +1482,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1385,13 +1502,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -1405,13 +1522,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1425,16 +1542,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1445,13 +1559,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1465,13 +1579,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1482,16 +1599,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1502,13 +1616,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1519,16 +1633,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1539,13 +1650,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1559,13 +1670,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1579,13 +1690,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1599,16 +1710,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1619,16 +1727,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1639,16 +1744,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1659,13 +1761,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1679,13 +1781,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1699,16 +1801,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1719,13 +1818,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1739,13 +1838,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1756,13 +1855,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1773,13 +1872,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1790,13 +1889,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
+        <v>79</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1807,13 +1909,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -1827,13 +1929,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1847,16 +1949,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1867,13 +1966,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1884,13 +1983,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1901,13 +2000,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" t="s">
-        <v>13</v>
+        <v>91</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1918,13 +2020,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1938,16 +2040,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -1958,13 +2057,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1978,13 +2077,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1998,13 +2097,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -2018,13 +2117,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -2038,13 +2137,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -2058,13 +2157,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -2078,13 +2177,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -2098,16 +2197,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2118,16 +2214,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2138,13 +2231,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2155,13 +2248,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2172,13 +2265,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" t="s">
-        <v>13</v>
+        <v>119</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2189,13 +2285,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" t="s">
-        <v>13</v>
+        <v>121</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2206,13 +2305,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -2226,13 +2325,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -2246,13 +2345,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
@@ -2266,13 +2365,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -2286,13 +2385,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" t="s">
-        <v>13</v>
+        <v>131</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2303,13 +2405,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" t="s">
-        <v>13</v>
+        <v>133</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2320,13 +2425,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" t="s">
-        <v>13</v>
+        <v>135</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2337,13 +2445,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -2357,13 +2465,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -2377,13 +2485,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -2397,13 +2505,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" t="s">
-        <v>13</v>
+        <v>143</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2414,13 +2525,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -2434,13 +2545,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2451,13 +2562,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2468,16 +2579,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
-      </c>
-      <c r="D75" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2488,16 +2596,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>156</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
       </c>
       <c r="C76" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2508,13 +2613,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -2528,16 +2633,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>161</v>
-      </c>
-      <c r="D78" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2548,16 +2650,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>162</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
-      </c>
-      <c r="D79" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -2568,16 +2667,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>164</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
-      </c>
-      <c r="D80" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -2588,16 +2684,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>166</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>41</v>
       </c>
       <c r="C81" t="s">
-        <v>167</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -2608,16 +2701,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>168</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>41</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -2628,16 +2718,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>170</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>171</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -2648,16 +2735,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>172</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>41</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
-      </c>
-      <c r="D84" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -2668,16 +2752,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>174</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>41</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
-      </c>
-      <c r="D85" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -2688,13 +2769,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -2708,16 +2789,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>178</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>41</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
-      </c>
-      <c r="D87" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -2728,16 +2806,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>180</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>41</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
-      </c>
-      <c r="D88" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -2748,16 +2823,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>182</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>41</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
-      </c>
-      <c r="D89" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -2768,16 +2840,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>41</v>
       </c>
       <c r="C90" t="s">
-        <v>185</v>
-      </c>
-      <c r="D90" t="s">
-        <v>9</v>
+        <v>181</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -2788,16 +2857,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>186</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>41</v>
       </c>
       <c r="C91" t="s">
-        <v>187</v>
-      </c>
-      <c r="D91" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -2808,13 +2874,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2828,16 +2894,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>190</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="B93" t="s">
+        <v>41</v>
       </c>
       <c r="C93" t="s">
-        <v>191</v>
-      </c>
-      <c r="D93" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -2848,16 +2911,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>192</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="B94" t="s">
+        <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>193</v>
-      </c>
-      <c r="D94" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -2868,13 +2928,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -2888,13 +2948,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -2908,13 +2968,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
@@ -2928,13 +2988,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -2948,13 +3008,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
@@ -2968,13 +3028,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -2988,13 +3048,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
@@ -3008,13 +3068,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>208</v>
-      </c>
-      <c r="B102" t="s">
-        <v>13</v>
+        <v>203</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -3025,13 +3088,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -3045,13 +3108,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -3065,13 +3128,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
@@ -3085,13 +3148,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -3105,13 +3168,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -3125,21 +3188,395 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>216</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>218</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>219</v>
       </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108" t="s">
-        <v>219</v>
-      </c>
-      <c r="D108" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>224</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>226</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>228</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>230</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>232</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>238</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" t="s">
+        <v>240</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" t="s">
+        <v>242</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>244</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>246</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>248</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>250</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>251</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>252</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="229">
   <si>
     <t>File</t>
   </si>
@@ -34,97 +34,94 @@
     <t>severityIcon</t>
   </si>
   <si>
+    <t>classes/ATAKPerformanceService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKPerformanceService</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
+    <t>classes/ATAKPerformanceServiceTest.cls</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKPerformanceServiceTest</t>
+  </si>
+  <si>
+    <t>classes/ATAKPerformanceServiceTest.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/ATAKProjectService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKProjectService</t>
+  </si>
+  <si>
     <t>classes/ATAKWorkLogService.cls</t>
   </si>
   <si>
     <t>ApexClass ATAKWorkLogService</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
-  </si>
-  <si>
-    <t>classes/AccountDetailsController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass AccountDetailsController</t>
-  </si>
-  <si>
-    <t>classes/InternalWorkOrderController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass InternalWorkOrderController</t>
-  </si>
-  <si>
-    <t>email/CustomerNotifications/Notification_Planned_WO_NL_1731941363446.email</t>
-  </si>
-  <si>
-    <t>EmailTemplate CustomerNotifications/Notification_Planned_WO_NL_1731941363446</t>
-  </si>
-  <si>
-    <t>email/CustomerNotifications/Notification_Planned_WO_NL_1731941363446.email-meta.xml</t>
-  </si>
-  <si>
-    <t>email/CustomerNotifications/Notification_REScheduled_WO_ENG_1732012846597.email</t>
-  </si>
-  <si>
-    <t>EmailTemplate CustomerNotifications/Notification_REScheduled_WO_ENG_1732012846597</t>
-  </si>
-  <si>
-    <t>email/CustomerNotifications/Notification_REScheduled_WO_ENG_1732012846597.email-meta.xml</t>
-  </si>
-  <si>
-    <t>email/CustomerNotifications/Notification_REScheduled_WO_FR_1732001152863.email</t>
-  </si>
-  <si>
-    <t>EmailTemplate CustomerNotifications/Notification_REScheduled_WO_FR_1732001152863</t>
-  </si>
-  <si>
-    <t>email/CustomerNotifications/Notification_REScheduled_WO_FR_1732001152863.email-meta.xml</t>
-  </si>
-  <si>
-    <t>email/CustomerNotifications/Notification_REScheduled_WO_NL_1732001423106.email</t>
-  </si>
-  <si>
-    <t>EmailTemplate CustomerNotifications/Notification_REScheduled_WO_NL_1732001423106</t>
-  </si>
-  <si>
-    <t>email/CustomerNotifications/Notification_REScheduled_WO_NL_1732001423106.email-meta.xml</t>
-  </si>
-  <si>
-    <t>email/CustomerNotifications/Notification_Scheduled_WO_ENG_1732012994513.email</t>
-  </si>
-  <si>
-    <t>EmailTemplate CustomerNotifications/Notification_Scheduled_WO_ENG_1732012994513</t>
-  </si>
-  <si>
-    <t>email/CustomerNotifications/Notification_Scheduled_WO_ENG_1732012994513.email-meta.xml</t>
-  </si>
-  <si>
-    <t>email/CustomerNotifications/Notification_Scheduled_WO_FR_1732000418709.email</t>
-  </si>
-  <si>
-    <t>EmailTemplate CustomerNotifications/Notification_Scheduled_WO_FR_1732000418709</t>
-  </si>
-  <si>
-    <t>email/CustomerNotifications/Notification_Scheduled_WO_FR_1732000418709.email-meta.xml</t>
-  </si>
-  <si>
-    <t>flexipages/Location_Visit_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Location_Visit_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Operational_Account_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Operational_Account_Record_Page</t>
+    <t>classes/AccountTriggerHandler.cls</t>
+  </si>
+  <si>
+    <t>ApexClass AccountTriggerHandler</t>
+  </si>
+  <si>
+    <t>classes/AccountTriggerHandler.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/FirstWorkOrderChecker.cls</t>
+  </si>
+  <si>
+    <t>ApexClass FirstWorkOrderChecker</t>
+  </si>
+  <si>
+    <t>classes/FirstWorkOrderChecker.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/LocationMonitorController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass LocationMonitorController</t>
+  </si>
+  <si>
+    <t>classes/LocationMonitorController.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/MaintenancePlanService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MaintenancePlanService</t>
+  </si>
+  <si>
+    <t>classes/WorkStepSignatureControllerTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass WorkStepSignatureControllerTest</t>
+  </si>
+  <si>
+    <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
+  </si>
+  <si>
+    <t>CleanDataService DataCloudGeoLocation</t>
+  </si>
+  <si>
+    <t>flexipages/Product_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Product_Record_Page</t>
   </si>
   <si>
     <t>flexipages/Quick_Opportunity_Record_Page.flexipage-meta.xml</t>
@@ -136,16 +133,19 @@
     <t>flexipages/Quote_Record_Page.flexipage-meta.xml</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>FlexiPage Quote_Record_Page</t>
   </si>
   <si>
-    <t>flexipages/Work_Order_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Work_Order_Record_Page</t>
+    <t>flexipages/Time_Sheet_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Time_Sheet_Record_Page</t>
+  </si>
+  <si>
+    <t>flexipages/Work_Step_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Work_Step_Record_Page</t>
   </si>
   <si>
     <t>flowDefinitions/Account_Screen_Flow_Add_Extra_Work.flowDefinition-meta.xml</t>
@@ -154,76 +154,16 @@
     <t>FlowDefinition Account_Screen_Flow_Add_Extra_Work</t>
   </si>
   <si>
-    <t>flowDefinitions/Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Opportunity_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Quote.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Opportunity_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Quote</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Quote_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Opportunity.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Quote_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Opportunity</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Service_Appointment_After_Save_Record_Triggered_Populate_Start_End_Date_on_WO.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Service_Appointment_After_Save_Record_Triggered_Populate_Start_End_Date_on_WO</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_After_Update_Create_Signature_Work_Step.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_After_Update_Create_Signature_Work_Step</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Log_Waste_Depot_Visit.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Log_Waste_Depot_Visit</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Screen_Flow_Depot_Visit.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Screen_Flow_Depot_Visit</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Screen_Flow_Create_Depot_Visit.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Screen_Flow_Create_Depot_Visit</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Screen_Flow_Create_Rework_WO.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Screen_Flow_Create_Rework_WO</t>
+    <t>flowDefinitions/ContractLineItem_After_Save_Add_Default_Financial_Accounts.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition ContractLineItem_After_Save_Add_Default_Financial_Accounts</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Time_Sheet_Entry_Before_Save.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Time_Sheet_Entry_Before_Save</t>
   </si>
   <si>
     <t>flows/Account_Screen_Flow_Add_Extra_Work.flow-meta.xml</t>
@@ -232,76 +172,22 @@
     <t>Flow Account_Screen_Flow_Add_Extra_Work</t>
   </si>
   <si>
-    <t>flows/Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit</t>
-  </si>
-  <si>
-    <t>flows/Opportunity_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Quote.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Opportunity_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Quote</t>
-  </si>
-  <si>
-    <t>flows/Quote_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Opportunity.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Quote_After_Save_Record_Triggered_Sync_Amount_and_stages_to_Opportunity</t>
-  </si>
-  <si>
-    <t>flows/Service_Appointment_After_Save_Record_Triggered_Populate_Start_End_Date_on_WO.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Service_Appointment_After_Save_Record_Triggered_Populate_Start_End_Date_on_WO</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_After_Save_Record_Triggered_Add_WOL_As_Work_Steps</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_After_Save_Record_Triggered_Assign_Work_Order_Lines</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_After_Update_Create_Signature_Work_Step.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_After_Update_Create_Signature_Work_Step</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Log_Waste_Depot_Visit.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Log_Waste_Depot_Visit</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Screen_Flow_Depot_Visit.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Screen_Flow_Depot_Visit</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Screen_Flow_Create_Depot_Visit.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Screen_Flow_Create_Depot_Visit</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Screen_Flow_Create_Rework_WO.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Screen_Flow_Create_Rework_WO</t>
+    <t>flows/ContractLineItem_After_Save_Add_Default_Financial_Accounts.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow ContractLineItem_After_Save_Add_Default_Financial_Accounts</t>
+  </si>
+  <si>
+    <t>flows/Time_Sheet_Entry_Before_Save.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Time_Sheet_Entry_Before_Save</t>
+  </si>
+  <si>
+    <t>globalValueSets/Codes_ATAK_Limbus.globalValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>GlobalValueSet Codes_ATAK_Limbus</t>
   </si>
   <si>
     <t>labels/CustomLabels.labels-meta.xml</t>
@@ -310,16 +196,22 @@
     <t>CustomLabel CustomLabels</t>
   </si>
   <si>
-    <t>layouts/Account-Operational Account Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-Operational Account Layout</t>
-  </si>
-  <si>
-    <t>layouts/Location_Visit__c-Location Visit Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Location_Visit__c-Location Visit Layout</t>
+    <t>layouts/ATAK_Project_Financial_Account__c-ATAK Project Financial Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ATAK_Project_Financial_Account__c-ATAK Project Financial Account Layout</t>
+  </si>
+  <si>
+    <t>layouts/ATAK_Project__c-ATAK Project Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ATAK_Project__c-ATAK Project Layout</t>
+  </si>
+  <si>
+    <t>layouts/Account-Financial Account Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Account-Financial Account Layout</t>
   </si>
   <si>
     <t>layouts/Opportunity-Opportunity Layout.layout-meta.xml</t>
@@ -328,46 +220,40 @@
     <t>Layout Opportunity-Opportunity Layout</t>
   </si>
   <si>
+    <t>layouts/OpportunityTeamMember-Opportunity Team Member Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout OpportunityTeamMember-Opportunity Team Member Layout</t>
+  </si>
+  <si>
+    <t>layouts/Product2-Product Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Product2-Product Layout</t>
+  </si>
+  <si>
     <t>layouts/Quote-Quote Layout.layout-meta.xml</t>
   </si>
   <si>
     <t>Layout Quote-Quote Layout</t>
   </si>
   <si>
-    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkOrder-Work Order Layout</t>
-  </si>
-  <si>
-    <t>layouts/WorkStep-Work Step Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout WorkStep-Work Step Layout</t>
-  </si>
-  <si>
-    <t>lwc/debugPanel/debugPanel.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle debugPanel/debugPanel.css</t>
-  </si>
-  <si>
-    <t>lwc/debugPanel/debugPanel.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle debugPanel/debugPanel.html</t>
-  </si>
-  <si>
-    <t>lwc/debugPanel/debugPanel.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle debugPanel/debugPanel.js</t>
-  </si>
-  <si>
-    <t>lwc/debugPanel/debugPanel.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle debugPanel/debugPanel.js-meta.xml</t>
+    <t>lwc/checkIn/checkIn.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle checkIn/checkIn.css</t>
+  </si>
+  <si>
+    <t>lwc/checkIn/checkIn.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle checkIn/checkIn.html</t>
+  </si>
+  <si>
+    <t>lwc/checkIn/checkIn.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle checkIn/checkIn.js</t>
   </si>
   <si>
     <t>lwc/imageCapture/imageCapture.js</t>
@@ -376,10 +262,40 @@
     <t>LightningComponentBundle imageCapture/imageCapture.js</t>
   </si>
   <si>
-    <t>lwc/internalWorkOrderForm/internalWorkOrderForm.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle internalWorkOrderForm/internalWorkOrderForm.css</t>
+    <t>lwc/imageCaptureTest/imageCaptureTest.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageCaptureTest/imageCaptureTest.html</t>
+  </si>
+  <si>
+    <t>lwc/imageCaptureTest/imageCaptureTest.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageCaptureTest/imageCaptureTest.js</t>
+  </si>
+  <si>
+    <t>lwc/imageCaptureTest/imageCaptureTest.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageCaptureTest/imageCaptureTest.js-meta.xml</t>
+  </si>
+  <si>
+    <t>lwc/imageSelector/imageSelector.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageSelector/imageSelector.css</t>
+  </si>
+  <si>
+    <t>lwc/imageSelector/imageSelector.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageSelector/imageSelector.html</t>
+  </si>
+  <si>
+    <t>lwc/imageSelector/imageSelector.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle imageSelector/imageSelector.js</t>
   </si>
   <si>
     <t>lwc/internalWorkOrderForm/internalWorkOrderForm.html</t>
@@ -394,6 +310,30 @@
     <t>LightningComponentBundle internalWorkOrderForm/internalWorkOrderForm.js</t>
   </si>
   <si>
+    <t>lwc/locationMonitor/locationMonitor.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle locationMonitor/locationMonitor.css</t>
+  </si>
+  <si>
+    <t>lwc/locationMonitor/locationMonitor.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle locationMonitor/locationMonitor.html</t>
+  </si>
+  <si>
+    <t>lwc/locationMonitor/locationMonitor.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle locationMonitor/locationMonitor.js</t>
+  </si>
+  <si>
+    <t>lwc/locationMonitor/locationMonitor.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle locationMonitor/locationMonitor.js-meta.xml</t>
+  </si>
+  <si>
     <t>lwc/nextAppointmentPicker/nextAppointmentPicker.css</t>
   </si>
   <si>
@@ -412,12 +352,6 @@
     <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.js</t>
   </si>
   <si>
-    <t>lwc/serviceBuilder/serviceBuilder.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle serviceBuilder/serviceBuilder.js</t>
-  </si>
-  <si>
     <t>lwc/startOperatorDay/startOperatorDay.css</t>
   </si>
   <si>
@@ -442,18 +376,6 @@
     <t>LightningComponentBundle startOperatorDayMetrics/startOperatorDayMetrics.js</t>
   </si>
   <si>
-    <t>lwc/timeSheetCalendar/timeSheetCalendar.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.css</t>
-  </si>
-  <si>
-    <t>lwc/timeSheetCalendar/timeSheetCalendar.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.js</t>
-  </si>
-  <si>
     <t>lwc/workOrderActions/workOrderActions.css</t>
   </si>
   <si>
@@ -472,112 +394,109 @@
     <t>LightningComponentBundle workOrderActions/workOrderActions.js</t>
   </si>
   <si>
-    <t>lwc/workOrderActions/workOrderActions.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle workOrderActions/workOrderActions.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/workStepSignature/workStepSignature.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle workStepSignature/workStepSignature.js</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Signature_Required__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Signature_Required__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Fixed_date_Already_planned__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Fixed_date_Already_planned__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Status__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Status__c</t>
-  </si>
-  <si>
-    <t>objects/Location_Visit__c/fields/Visitor_Internal__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Visitor_Internal__c</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/compactLayouts/Opportunity.compactLayout-meta.xml</t>
-  </si>
-  <si>
-    <t>CompactLayout Opportunity</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/fields/Amount__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Amount__c</t>
-  </si>
-  <si>
-    <t>objects/Quote/Quote.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject Quote/Quote</t>
-  </si>
-  <si>
-    <t>objects/Quote/fields/Amount__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/compactLayouts/Work_Order_Compact_Layout.compactLayout-meta.xml</t>
-  </si>
-  <si>
-    <t>CompactLayout Work_Order_Compact_Layout</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Customer_Reference__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Customer_Reference__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Excecution_Week__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Excecution_Week__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Production_Work__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Production_Work__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Rework_for_Work_Order__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Rework_for_Work_Order__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Rework_reasons__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Rework_reasons__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Signature_Required__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Type__c</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Waste_Visit_Done__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Waste_Visit_Done__c</t>
+    <t>objects/ATAK_Project_Financial_Account__c/ATAK_Project_Financial_Account__c.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject ATAK_Project_Financial_Account__c/ATAK_Project_Financial_Account__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project_Financial_Account__c/fields/ATAK_Project_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ATAK_Project_Code__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project_Financial_Account__c/fields/ATAK_Project__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ATAK_Project__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project_Financial_Account__c/fields/Account__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Account__c</t>
+  </si>
+  <si>
+    <t>objects/ATAK_Project_Financial_Account__c/fields/External_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField External_Id__c</t>
+  </si>
+  <si>
+    <t>objects/Account/fields/Financial_External_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Financial_External_Id__c</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/recordTypes/B2B_Tender.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType B2B_Tender</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/recordTypes/Public_Tender.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Public_Tender</t>
+  </si>
+  <si>
+    <t>objects/Opportunity/recordTypes/Quick_Quote.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Quick_Quote</t>
+  </si>
+  <si>
+    <t>objects/Quote/fields/ATAK_Project__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/Quote/validationRules/ATAK_Project_needed_for_Closed.validationRule-meta.xml</t>
+  </si>
+  <si>
+    <t>ValidationRule ATAK_Project_needed_for_Closed</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/FSL__Break.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType FSL__Break</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/FSL__Non_Availability.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType FSL__Non_Availability</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/Internal_Meeting.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Internal_Meeting</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/Physical_Check_up.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Physical_Check_up</t>
+  </si>
+  <si>
+    <t>objects/ResourceAbsence/recordTypes/Training.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Training</t>
+  </si>
+  <si>
+    <t>objects/WorkOrder/fields/Checkin_Deviation_KM__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Checkin_Deviation_KM__c</t>
+  </si>
+  <si>
+    <t>permissionsets/Query_All_Files.permissionset-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSet Query_All_Files</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -730,40 +649,49 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>quickActions/WorkOrder.Rework.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction WorkOrder.Rework</t>
-  </si>
-  <si>
-    <t>quickActions/WorkOrder.Work_Order_Actions.quickAction-meta.xml</t>
-  </si>
-  <si>
-    <t>QuickAction WorkOrder.Work_Order_Actions</t>
-  </si>
-  <si>
-    <t>reportTypes/Opportunities_with_Historical_Trending.reportType-meta.xml</t>
-  </si>
-  <si>
-    <t>ReportType Opportunities_with_Historical_Trending</t>
-  </si>
-  <si>
     <t>reportTypes/Work_Orders.reportType-meta.xml</t>
   </si>
   <si>
     <t>ReportType Work_Orders</t>
   </si>
   <si>
-    <t>settings/Forecasting.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings Forecasting</t>
-  </si>
-  <si>
-    <t>settings/ForecastingObjectList.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings ForecastingObjectList</t>
+    <t>settings/Opportunity.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Opportunity</t>
+  </si>
+  <si>
+    <t>settings/Search.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings Search</t>
+  </si>
+  <si>
+    <t>sharingRules/SocialPersonaFieldBackup.sharingRules-meta.xml</t>
+  </si>
+  <si>
+    <t>SharingRules SocialPersonaFieldBackup</t>
+  </si>
+  <si>
+    <t>standardValueSets/OpportunityType.standardValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>StandardValueSet OpportunityType</t>
+  </si>
+  <si>
+    <t>topicsForObjects/ATAK_Project_Financial_Account__c.topicsForObjects-meta.xml</t>
+  </si>
+  <si>
+    <t>TopicsForObjects ATAK_Project_Financial_Account__c</t>
+  </si>
+  <si>
+    <t>triggers/AccountTrigger.trigger</t>
+  </si>
+  <si>
+    <t>ApexTrigger AccountTrigger</t>
+  </si>
+  <si>
+    <t>triggers/AccountTrigger.trigger-meta.xml</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -1146,12 +1074,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G114"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="120" customWidth="1"/>
+    <col min="1" max="1" width="98" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="95" customWidth="1"/>
+    <col min="3" max="3" width="80" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -1204,14 +1132,11 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1222,16 +1147,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1268,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -1282,16 +1204,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1302,16 +1221,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1322,16 +1238,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1342,16 +1255,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1362,16 +1272,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1382,16 +1289,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1402,13 +1306,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -1422,13 +1326,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1442,13 +1346,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1462,13 +1366,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1482,13 +1386,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1502,13 +1406,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -1522,13 +1426,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1542,13 +1446,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1559,13 +1466,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1579,16 +1486,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1599,13 +1503,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1616,13 +1523,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1633,13 +1543,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1650,13 +1560,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1670,13 +1580,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1690,13 +1600,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1710,13 +1620,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1727,13 +1637,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
+        <v>63</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1744,13 +1657,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1761,13 +1677,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1781,16 +1697,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1801,13 +1714,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1818,13 +1734,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1838,13 +1754,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" t="s">
-        <v>41</v>
+        <v>75</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1855,13 +1774,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1872,13 +1794,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
+        <v>79</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1889,13 +1814,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1909,16 +1834,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1929,16 +1851,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1949,13 +1868,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1966,13 +1885,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
+        <v>89</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1983,13 +1905,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" t="s">
-        <v>41</v>
+        <v>91</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -2000,13 +1925,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -2020,13 +1945,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -2040,13 +1965,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" t="s">
-        <v>41</v>
+        <v>97</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -2057,16 +1985,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -2077,16 +2002,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -2097,16 +2019,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -2117,16 +2036,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2137,13 +2053,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -2157,13 +2073,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -2177,13 +2093,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -2197,13 +2113,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" t="s">
-        <v>41</v>
+        <v>113</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2214,13 +2133,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" t="s">
-        <v>41</v>
+        <v>115</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2231,13 +2153,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" t="s">
-        <v>41</v>
+        <v>117</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2248,13 +2173,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" t="s">
-        <v>41</v>
+        <v>119</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2265,13 +2193,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -2285,13 +2213,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -2305,13 +2233,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -2325,16 +2253,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2345,16 +2270,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2365,16 +2287,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2385,16 +2304,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2405,16 +2321,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2425,16 +2338,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2445,13 +2355,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -2465,13 +2375,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -2485,13 +2395,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -2505,16 +2415,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2525,16 +2432,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>145</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2545,13 +2449,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>147</v>
-      </c>
-      <c r="B73" t="s">
-        <v>41</v>
+        <v>148</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2562,13 +2469,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" t="s">
-        <v>41</v>
+        <v>150</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2579,13 +2489,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" t="s">
-        <v>41</v>
+        <v>152</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2596,13 +2509,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" t="s">
-        <v>41</v>
+        <v>154</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2613,13 +2529,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -2633,13 +2549,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2650,13 +2566,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" t="s">
-        <v>41</v>
+        <v>160</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -2667,13 +2586,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>161</v>
-      </c>
-      <c r="B80" t="s">
-        <v>41</v>
+        <v>162</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -2684,13 +2606,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>163</v>
-      </c>
-      <c r="B81" t="s">
-        <v>41</v>
+        <v>164</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -2701,13 +2626,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" t="s">
-        <v>41</v>
+        <v>166</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -2718,13 +2646,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>167</v>
-      </c>
-      <c r="B83" t="s">
-        <v>41</v>
+        <v>168</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -2735,13 +2666,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" t="s">
-        <v>41</v>
+        <v>170</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -2752,13 +2686,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>171</v>
-      </c>
-      <c r="B85" t="s">
-        <v>41</v>
+        <v>172</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>173</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -2769,13 +2706,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -2789,13 +2726,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>174</v>
-      </c>
-      <c r="B87" t="s">
-        <v>41</v>
+        <v>176</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -2806,13 +2746,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>176</v>
-      </c>
-      <c r="B88" t="s">
-        <v>41</v>
+        <v>178</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -2823,13 +2766,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>178</v>
-      </c>
-      <c r="B89" t="s">
-        <v>41</v>
+        <v>180</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -2840,13 +2786,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>180</v>
-      </c>
-      <c r="B90" t="s">
-        <v>41</v>
+        <v>182</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -2857,13 +2806,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>182</v>
-      </c>
-      <c r="B91" t="s">
-        <v>41</v>
+        <v>184</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -2874,13 +2826,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2894,13 +2846,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>185</v>
-      </c>
-      <c r="B93" t="s">
-        <v>41</v>
+        <v>188</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -2911,13 +2866,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>187</v>
-      </c>
-      <c r="B94" t="s">
-        <v>41</v>
+        <v>190</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>191</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -2928,13 +2886,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -2948,13 +2906,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -2968,13 +2926,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
@@ -2988,13 +2946,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -3008,13 +2966,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
@@ -3028,13 +2986,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -3048,13 +3006,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
@@ -3068,13 +3026,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
@@ -3088,13 +3046,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -3108,13 +3066,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -3128,13 +3086,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
@@ -3148,13 +3106,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -3168,13 +3126,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -3188,16 +3146,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>215</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
-      </c>
-      <c r="D108" t="s">
-        <v>9</v>
+        <v>219</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -3208,13 +3163,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -3228,16 +3183,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>219</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
-      </c>
-      <c r="D110" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -3248,16 +3200,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>221</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
-      </c>
-      <c r="D111" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -3268,16 +3217,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>223</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
+        <v>226</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>224</v>
-      </c>
-      <c r="D112" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -3288,13 +3234,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -3308,7 +3254,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -3323,260 +3269,6 @@
         <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>229</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115" t="s">
-        <v>230</v>
-      </c>
-      <c r="D115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>231</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116" t="s">
-        <v>232</v>
-      </c>
-      <c r="D116" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>233</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-      <c r="C117" t="s">
-        <v>234</v>
-      </c>
-      <c r="D117" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>235</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118" t="s">
-        <v>236</v>
-      </c>
-      <c r="D118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>237</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119" t="s">
-        <v>238</v>
-      </c>
-      <c r="D119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>239</v>
-      </c>
-      <c r="B120" t="s">
-        <v>41</v>
-      </c>
-      <c r="C120" t="s">
-        <v>240</v>
-      </c>
-      <c r="F120" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>241</v>
-      </c>
-      <c r="B121" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" t="s">
-        <v>242</v>
-      </c>
-      <c r="F121" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>243</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122" t="s">
-        <v>244</v>
-      </c>
-      <c r="D122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>245</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123" t="s">
-        <v>246</v>
-      </c>
-      <c r="D123" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>247</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124" t="s">
-        <v>248</v>
-      </c>
-      <c r="D124" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>249</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125" t="s">
-        <v>250</v>
-      </c>
-      <c r="D125" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>251</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126" t="s">
-        <v>251</v>
-      </c>
-      <c r="D126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>252</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127" t="s">
-        <v>252</v>
-      </c>
-      <c r="D127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="188">
   <si>
     <t>File</t>
   </si>
@@ -34,6 +34,21 @@
     <t>severityIcon</t>
   </si>
   <si>
+    <t>approvalProcesses/Quote.Approval_Process_Quote_Over_5000.approvalProcess-meta.xml</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ApprovalProcess Quote.Approval_Process_Quote_Over_5000</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
     <t>classes/ATAKPerformanceService.cls</t>
   </si>
   <si>
@@ -43,73 +58,52 @@
     <t>M</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
-  </si>
-  <si>
     <t>classes/ATAKPerformanceServiceTest.cls</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>ApexClass ATAKPerformanceServiceTest</t>
   </si>
   <si>
-    <t>classes/ATAKPerformanceServiceTest.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/ATAKProjectService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKProjectService</t>
-  </si>
-  <si>
     <t>classes/ATAKWorkLogService.cls</t>
   </si>
   <si>
     <t>ApexClass ATAKWorkLogService</t>
   </si>
   <si>
-    <t>classes/AccountTriggerHandler.cls</t>
-  </si>
-  <si>
-    <t>ApexClass AccountTriggerHandler</t>
-  </si>
-  <si>
-    <t>classes/AccountTriggerHandler.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/FirstWorkOrderChecker.cls</t>
-  </si>
-  <si>
-    <t>ApexClass FirstWorkOrderChecker</t>
-  </si>
-  <si>
-    <t>classes/FirstWorkOrderChecker.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/LocationMonitorController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass LocationMonitorController</t>
-  </si>
-  <si>
-    <t>classes/LocationMonitorController.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>classes/MaintenancePlanService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MaintenancePlanService</t>
-  </si>
-  <si>
-    <t>classes/WorkStepSignatureControllerTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass WorkStepSignatureControllerTest</t>
+    <t>classes/ATAKWorkLogServiceTest.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ATAKWorkLogServiceTest</t>
+  </si>
+  <si>
+    <t>classes/InternalWorkOrderController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass InternalWorkOrderController</t>
+  </si>
+  <si>
+    <t>classes/MaterialPickupController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass MaterialPickupController</t>
+  </si>
+  <si>
+    <t>classes/MaterialPickupController.cls-meta.xml</t>
+  </si>
+  <si>
+    <t>classes/TimeSheetController.cls</t>
+  </si>
+  <si>
+    <t>ApexClass TimeSheetController</t>
+  </si>
+  <si>
+    <t>classes/ValidationService.cls</t>
+  </si>
+  <si>
+    <t>ApexClass ValidationService</t>
+  </si>
+  <si>
+    <t>classes/ValidationService.cls-meta.xml</t>
   </si>
   <si>
     <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
@@ -118,16 +112,19 @@
     <t>CleanDataService DataCloudGeoLocation</t>
   </si>
   <si>
-    <t>flexipages/Product_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Product_Record_Page</t>
-  </si>
-  <si>
-    <t>flexipages/Quick_Opportunity_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Quick_Opportunity_Record_Page</t>
+    <t>email/unfiled$public/Quote_Approval_EN_1733415638553.email</t>
+  </si>
+  <si>
+    <t>EmailTemplate unfiled$public/Quote_Approval_EN_1733415638553</t>
+  </si>
+  <si>
+    <t>email/unfiled$public/Quote_Approval_EN_1733415638553.email-meta.xml</t>
+  </si>
+  <si>
+    <t>flexipages/Location_Visit_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Location_Visit_Record_Page</t>
   </si>
   <si>
     <t>flexipages/Quote_Record_Page.flexipage-meta.xml</t>
@@ -148,82 +145,64 @@
     <t>FlexiPage Work_Step_Record_Page</t>
   </si>
   <si>
-    <t>flowDefinitions/Account_Screen_Flow_Add_Extra_Work.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Account_Screen_Flow_Add_Extra_Work</t>
-  </si>
-  <si>
-    <t>flowDefinitions/ContractLineItem_After_Save_Add_Default_Financial_Accounts.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition ContractLineItem_After_Save_Add_Default_Financial_Accounts</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Time_Sheet_Entry_Before_Save.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Time_Sheet_Entry_Before_Save</t>
-  </si>
-  <si>
-    <t>flows/Account_Screen_Flow_Add_Extra_Work.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Account_Screen_Flow_Add_Extra_Work</t>
-  </si>
-  <si>
-    <t>flows/ContractLineItem_After_Save_Add_Default_Financial_Accounts.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow ContractLineItem_After_Save_Add_Default_Financial_Accounts</t>
-  </si>
-  <si>
-    <t>flows/Time_Sheet_Entry_Before_Save.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Time_Sheet_Entry_Before_Save</t>
-  </si>
-  <si>
-    <t>globalValueSets/Codes_ATAK_Limbus.globalValueSet-meta.xml</t>
-  </si>
-  <si>
-    <t>GlobalValueSet Codes_ATAK_Limbus</t>
-  </si>
-  <si>
-    <t>labels/CustomLabels.labels-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomLabel CustomLabels</t>
-  </si>
-  <si>
-    <t>layouts/ATAK_Project_Financial_Account__c-ATAK Project Financial Account Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ATAK_Project_Financial_Account__c-ATAK Project Financial Account Layout</t>
-  </si>
-  <si>
-    <t>layouts/ATAK_Project__c-ATAK Project Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ATAK_Project__c-ATAK Project Layout</t>
-  </si>
-  <si>
-    <t>layouts/Account-Financial Account Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Account-Financial Account Layout</t>
-  </si>
-  <si>
-    <t>layouts/Opportunity-Opportunity Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Opportunity-Opportunity Layout</t>
-  </si>
-  <si>
-    <t>layouts/OpportunityTeamMember-Opportunity Team Member Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout OpportunityTeamMember-Opportunity Team Member Layout</t>
+    <t>flowDefinitions/Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Quote_After_Save_Record_Triggered_Trigged_Quote_Approval_Process.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Quote_After_Save_Record_Triggered_Trigged_Quote_Approval_Process</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Service_Appointments_After_Save_Record_Triggered_Assign_Van_Inventory_to_Related.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Service_Appointments_After_Save_Record_Triggered_Assign_Van_Inventory_to_Related</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Work_Order_Mobile_Flow_Log_Waste_Depot_Visit.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Work_Order_Mobile_Flow_Log_Waste_Depot_Visit</t>
+  </si>
+  <si>
+    <t>flows/Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit</t>
+  </si>
+  <si>
+    <t>flows/Quote_After_Save_Record_Triggered_Trigged_Quote_Approval_Process.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Quote_After_Save_Record_Triggered_Trigged_Quote_Approval_Process</t>
+  </si>
+  <si>
+    <t>flows/Service_Appointments_After_Save_Record_Triggered_Assign_Van_Inventory_to_Related.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Service_Appointments_After_Save_Record_Triggered_Assign_Van_Inventory_to_Related</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status</t>
+  </si>
+  <si>
+    <t>flows/Work_Order_Mobile_Flow_Log_Waste_Depot_Visit.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Work_Order_Mobile_Flow_Log_Waste_Depot_Visit</t>
   </si>
   <si>
     <t>layouts/Product2-Product Layout.layout-meta.xml</t>
@@ -232,130 +211,70 @@
     <t>Layout Product2-Product Layout</t>
   </si>
   <si>
+    <t>layouts/ProductItem-Material Item Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ProductItem-Material Item Layout</t>
+  </si>
+  <si>
+    <t>layouts/ProductRequired-Product Required Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ProductRequired-Product Required Layout</t>
+  </si>
+  <si>
     <t>layouts/Quote-Quote Layout.layout-meta.xml</t>
   </si>
   <si>
     <t>Layout Quote-Quote Layout</t>
   </si>
   <si>
-    <t>lwc/checkIn/checkIn.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle checkIn/checkIn.css</t>
-  </si>
-  <si>
-    <t>lwc/checkIn/checkIn.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle checkIn/checkIn.html</t>
-  </si>
-  <si>
-    <t>lwc/checkIn/checkIn.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle checkIn/checkIn.js</t>
-  </si>
-  <si>
-    <t>lwc/imageCapture/imageCapture.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle imageCapture/imageCapture.js</t>
-  </si>
-  <si>
-    <t>lwc/imageCaptureTest/imageCaptureTest.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle imageCaptureTest/imageCaptureTest.html</t>
-  </si>
-  <si>
-    <t>lwc/imageCaptureTest/imageCaptureTest.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle imageCaptureTest/imageCaptureTest.js</t>
-  </si>
-  <si>
-    <t>lwc/imageCaptureTest/imageCaptureTest.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle imageCaptureTest/imageCaptureTest.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/imageSelector/imageSelector.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle imageSelector/imageSelector.css</t>
-  </si>
-  <si>
-    <t>lwc/imageSelector/imageSelector.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle imageSelector/imageSelector.html</t>
-  </si>
-  <si>
-    <t>lwc/imageSelector/imageSelector.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle imageSelector/imageSelector.js</t>
-  </si>
-  <si>
-    <t>lwc/internalWorkOrderForm/internalWorkOrderForm.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle internalWorkOrderForm/internalWorkOrderForm.html</t>
-  </si>
-  <si>
-    <t>lwc/internalWorkOrderForm/internalWorkOrderForm.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle internalWorkOrderForm/internalWorkOrderForm.js</t>
-  </si>
-  <si>
-    <t>lwc/locationMonitor/locationMonitor.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle locationMonitor/locationMonitor.css</t>
-  </si>
-  <si>
-    <t>lwc/locationMonitor/locationMonitor.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle locationMonitor/locationMonitor.html</t>
-  </si>
-  <si>
-    <t>lwc/locationMonitor/locationMonitor.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle locationMonitor/locationMonitor.js</t>
-  </si>
-  <si>
-    <t>lwc/locationMonitor/locationMonitor.js-meta.xml</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle locationMonitor/locationMonitor.js-meta.xml</t>
-  </si>
-  <si>
-    <t>lwc/nextAppointmentPicker/nextAppointmentPicker.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.css</t>
-  </si>
-  <si>
-    <t>lwc/nextAppointmentPicker/nextAppointmentPicker.html</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.html</t>
-  </si>
-  <si>
-    <t>lwc/nextAppointmentPicker/nextAppointmentPicker.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle nextAppointmentPicker/nextAppointmentPicker.js</t>
-  </si>
-  <si>
-    <t>lwc/startOperatorDay/startOperatorDay.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startOperatorDay/startOperatorDay.css</t>
+    <t>layouts/ServiceResource-Service Resource Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ServiceResource-Service Resource Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkOrder-Work Order Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkOrder-Work Order Layout</t>
+  </si>
+  <si>
+    <t>layouts/WorkStep-Work Step Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout WorkStep-Work Step Layout</t>
+  </si>
+  <si>
+    <t>layouts/Work_Schedule__c-Work Schedule Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Work_Schedule__c-Work Schedule Layout</t>
+  </si>
+  <si>
+    <t>lwc/materialPickup/materialPickup.css</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle materialPickup/materialPickup.css</t>
+  </si>
+  <si>
+    <t>lwc/materialPickup/materialPickup.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle materialPickup/materialPickup.html</t>
+  </si>
+  <si>
+    <t>lwc/materialPickup/materialPickup.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle materialPickup/materialPickup.js</t>
+  </si>
+  <si>
+    <t>lwc/materialPickup/materialPickup.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle materialPickup/materialPickup.js-meta.xml</t>
   </si>
   <si>
     <t>lwc/startOperatorDay/startOperatorDay.html</t>
@@ -364,22 +283,22 @@
     <t>LightningComponentBundle startOperatorDay/startOperatorDay.html</t>
   </si>
   <si>
-    <t>lwc/startOperatorDay/startOperatorDay.js</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle startOperatorDay/startOperatorDay.js</t>
-  </si>
-  <si>
     <t>lwc/startOperatorDayMetrics/startOperatorDayMetrics.js</t>
   </si>
   <si>
     <t>LightningComponentBundle startOperatorDayMetrics/startOperatorDayMetrics.js</t>
   </si>
   <si>
-    <t>lwc/workOrderActions/workOrderActions.css</t>
-  </si>
-  <si>
-    <t>LightningComponentBundle workOrderActions/workOrderActions.css</t>
+    <t>lwc/timeSheetCalendar/timeSheetCalendar.html</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.html</t>
+  </si>
+  <si>
+    <t>lwc/timeSheetCalendar/timeSheetCalendar.js</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle timeSheetCalendar/timeSheetCalendar.js</t>
   </si>
   <si>
     <t>lwc/workOrderActions/workOrderActions.html</t>
@@ -394,109 +313,82 @@
     <t>LightningComponentBundle workOrderActions/workOrderActions.js</t>
   </si>
   <si>
-    <t>objects/ATAK_Project_Financial_Account__c/ATAK_Project_Financial_Account__c.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject ATAK_Project_Financial_Account__c/ATAK_Project_Financial_Account__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project_Financial_Account__c/fields/ATAK_Project_Code__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ATAK_Project_Code__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project_Financial_Account__c/fields/ATAK_Project__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ATAK_Project__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project_Financial_Account__c/fields/Account__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Account__c</t>
-  </si>
-  <si>
-    <t>objects/ATAK_Project_Financial_Account__c/fields/External_Id__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField External_Id__c</t>
-  </si>
-  <si>
-    <t>objects/Account/fields/Financial_External_Id__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Financial_External_Id__c</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/recordTypes/B2B_Tender.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType B2B_Tender</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/recordTypes/Public_Tender.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Public_Tender</t>
-  </si>
-  <si>
-    <t>objects/Opportunity/recordTypes/Quick_Quote.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Quick_Quote</t>
-  </si>
-  <si>
-    <t>objects/Quote/fields/ATAK_Project__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/Quote/validationRules/ATAK_Project_needed_for_Closed.validationRule-meta.xml</t>
-  </si>
-  <si>
-    <t>ValidationRule ATAK_Project_needed_for_Closed</t>
-  </si>
-  <si>
-    <t>objects/ResourceAbsence/recordTypes/FSL__Break.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType FSL__Break</t>
-  </si>
-  <si>
-    <t>objects/ResourceAbsence/recordTypes/FSL__Non_Availability.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType FSL__Non_Availability</t>
-  </si>
-  <si>
-    <t>objects/ResourceAbsence/recordTypes/Internal_Meeting.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Internal_Meeting</t>
-  </si>
-  <si>
-    <t>objects/ResourceAbsence/recordTypes/Physical_Check_up.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Physical_Check_up</t>
-  </si>
-  <si>
-    <t>objects/ResourceAbsence/recordTypes/Training.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Training</t>
-  </si>
-  <si>
-    <t>objects/WorkOrder/fields/Checkin_Deviation_KM__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Checkin_Deviation_KM__c</t>
-  </si>
-  <si>
-    <t>permissionsets/Query_All_Files.permissionset-meta.xml</t>
-  </si>
-  <si>
-    <t>PermissionSet Query_All_Files</t>
+    <t>objects/Location_Visit__c/fields/Location_Visit_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Location_Visit_Type__c</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/validationRules/Internal_Visitor_Mandatory.validationRule-meta.xml</t>
+  </si>
+  <si>
+    <t>ValidationRule Internal_Visitor_Mandatory</t>
+  </si>
+  <si>
+    <t>objects/Location_Visit__c/validationRules/Planned_Date.validationRule-meta.xml</t>
+  </si>
+  <si>
+    <t>ValidationRule Planned_Date</t>
+  </si>
+  <si>
+    <t>objects/ProductItem/fields/Is_Temporary__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Is_Temporary__c</t>
+  </si>
+  <si>
+    <t>objects/ProductRequired/ProductRequired.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject ProductRequired/ProductRequired</t>
+  </si>
+  <si>
+    <t>objects/ProductRequired/fields/ATAK_Code__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ATAK_Code__c</t>
+  </si>
+  <si>
+    <t>objects/ProductRequired/fields/Action_Required__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Action_Required__c</t>
+  </si>
+  <si>
+    <t>objects/ProductRequired/fields/Material_Item__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Material_Item__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceAppointment/fields/Work_Type_Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Work_Type_Name__c</t>
+  </si>
+  <si>
+    <t>objects/ServiceResource/fields/Work_Schedule__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Work_Schedule__c</t>
+  </si>
+  <si>
+    <t>objects/TimeSheetEntry/fields/Work_Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Work_Type__c</t>
+  </si>
+  <si>
+    <t>objects/Work_Schedule_Day__c/fields/Day_of_Week_Number__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Day_of_Week_Number__c</t>
+  </si>
+  <si>
+    <t>objects/Work_Schedule_Day__c/fields/Day_of_Week__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Day_of_Week__c</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -649,49 +541,34 @@
     <t>Profile Standard</t>
   </si>
   <si>
-    <t>reportTypes/Work_Orders.reportType-meta.xml</t>
-  </si>
-  <si>
-    <t>ReportType Work_Orders</t>
-  </si>
-  <si>
-    <t>settings/Opportunity.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings Opportunity</t>
-  </si>
-  <si>
-    <t>settings/Search.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings Search</t>
-  </si>
-  <si>
-    <t>sharingRules/SocialPersonaFieldBackup.sharingRules-meta.xml</t>
-  </si>
-  <si>
-    <t>SharingRules SocialPersonaFieldBackup</t>
-  </si>
-  <si>
-    <t>standardValueSets/OpportunityType.standardValueSet-meta.xml</t>
-  </si>
-  <si>
-    <t>StandardValueSet OpportunityType</t>
-  </si>
-  <si>
-    <t>topicsForObjects/ATAK_Project_Financial_Account__c.topicsForObjects-meta.xml</t>
-  </si>
-  <si>
-    <t>TopicsForObjects ATAK_Project_Financial_Account__c</t>
-  </si>
-  <si>
-    <t>triggers/AccountTrigger.trigger</t>
-  </si>
-  <si>
-    <t>ApexTrigger AccountTrigger</t>
-  </si>
-  <si>
-    <t>triggers/AccountTrigger.trigger-meta.xml</t>
+    <t>quickActions/WorkStep.Material_Pickup.quickAction-meta.xml</t>
+  </si>
+  <si>
+    <t>QuickAction WorkStep.Material_Pickup</t>
+  </si>
+  <si>
+    <t>reportTypes/Service_Appointments.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Service_Appointments</t>
+  </si>
+  <si>
+    <t>reportTypes/Service_Appointments_with_Service_Resources.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Service_Appointments_with_Service_Resources</t>
+  </si>
+  <si>
+    <t>reportTypes/Vans_with_Material_Items.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>ReportType Vans_with_Material_Items</t>
+  </si>
+  <si>
+    <t>workflows/Quote.workflow-meta.xml</t>
+  </si>
+  <si>
+    <t>Workflow Quote</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -1074,12 +951,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G92"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="98" customWidth="1"/>
+    <col min="1" max="1" width="120" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="80" customWidth="1"/>
+    <col min="3" max="3" width="95" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -1112,13 +989,10 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -1132,10 +1006,13 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
@@ -1149,10 +1026,13 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
@@ -1164,16 +1044,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1184,16 +1064,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1204,13 +1084,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1221,13 +1104,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1238,10 +1121,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1255,13 +1138,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1272,13 +1158,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1289,13 +1175,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1306,16 +1192,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1326,16 +1212,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1346,17 +1229,14 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
@@ -1366,16 +1246,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1386,16 +1266,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1406,16 +1286,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1426,16 +1306,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1446,16 +1326,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1466,16 +1346,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1486,13 +1363,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1503,16 +1380,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1523,16 +1400,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1543,13 +1420,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1560,16 +1440,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1580,16 +1457,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1600,16 +1474,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1620,13 +1494,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1637,16 +1514,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1657,16 +1534,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1677,16 +1554,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1697,13 +1574,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1714,16 +1594,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1734,16 +1614,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1754,16 +1634,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1774,16 +1654,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1794,16 +1674,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1814,16 +1691,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1834,13 +1708,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1851,13 +1725,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1868,13 +1742,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" t="s">
-        <v>13</v>
+        <v>88</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1885,16 +1762,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1905,16 +1782,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1925,16 +1802,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1945,16 +1822,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -1965,16 +1842,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -1985,13 +1862,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -2002,13 +1882,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -2019,13 +1899,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -2036,13 +1916,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2053,16 +1933,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -2073,16 +1950,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2093,16 +1967,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2113,16 +1984,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2133,16 +2001,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2153,16 +2018,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2173,16 +2035,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2193,16 +2052,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2213,16 +2072,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2233,16 +2092,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -2253,13 +2112,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" t="s">
-        <v>13</v>
+        <v>128</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2270,13 +2132,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" t="s">
-        <v>13</v>
+        <v>130</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2287,13 +2152,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" t="s">
-        <v>13</v>
+        <v>132</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2304,13 +2172,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65" t="s">
-        <v>13</v>
+        <v>134</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2321,13 +2192,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66" t="s">
-        <v>13</v>
+        <v>136</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2338,13 +2212,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" t="s">
-        <v>13</v>
+        <v>138</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2355,16 +2232,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2375,16 +2252,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2395,16 +2272,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2415,13 +2292,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" t="s">
-        <v>13</v>
+        <v>146</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>147</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2432,13 +2312,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>146</v>
-      </c>
-      <c r="B72" t="s">
-        <v>13</v>
+        <v>148</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2449,16 +2332,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2469,16 +2352,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2489,16 +2372,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2509,16 +2392,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2529,16 +2412,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -2549,13 +2432,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>158</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
+        <v>160</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2566,16 +2452,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -2586,16 +2472,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -2606,16 +2492,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -2626,16 +2512,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -2646,16 +2532,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -2666,16 +2552,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -2686,16 +2572,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -2706,16 +2592,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
-      </c>
-      <c r="D86" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -2726,16 +2609,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -2746,16 +2629,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -2766,16 +2649,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -2786,16 +2669,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>182</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>183</v>
-      </c>
-      <c r="D90" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -2806,16 +2686,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -2826,7 +2706,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2835,440 +2715,12 @@
         <v>187</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>188</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>190</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94" t="s">
-        <v>191</v>
-      </c>
-      <c r="D94" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>192</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>193</v>
-      </c>
-      <c r="D95" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>194</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>196</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97" t="s">
-        <v>197</v>
-      </c>
-      <c r="D97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>198</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98" t="s">
-        <v>199</v>
-      </c>
-      <c r="D98" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>200</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>202</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100" t="s">
-        <v>203</v>
-      </c>
-      <c r="D100" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>204</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101" t="s">
-        <v>205</v>
-      </c>
-      <c r="D101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>206</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102" t="s">
-        <v>207</v>
-      </c>
-      <c r="D102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>208</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103" t="s">
-        <v>209</v>
-      </c>
-      <c r="D103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>210</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104" t="s">
-        <v>211</v>
-      </c>
-      <c r="D104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>212</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>214</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106" t="s">
-        <v>215</v>
-      </c>
-      <c r="D106" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>216</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107" t="s">
-        <v>217</v>
-      </c>
-      <c r="D107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>218</v>
-      </c>
-      <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" t="s">
-        <v>219</v>
-      </c>
-      <c r="F108" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>220</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109" t="s">
-        <v>221</v>
-      </c>
-      <c r="D109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>222</v>
-      </c>
-      <c r="B110" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" t="s">
-        <v>223</v>
-      </c>
-      <c r="F110" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>224</v>
-      </c>
-      <c r="B111" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" t="s">
-        <v>225</v>
-      </c>
-      <c r="F111" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>226</v>
-      </c>
-      <c r="B112" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" t="s">
-        <v>225</v>
-      </c>
-      <c r="F112" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>227</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113" t="s">
-        <v>227</v>
-      </c>
-      <c r="D113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>228</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114" t="s">
-        <v>228</v>
-      </c>
-      <c r="D114" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_krinkelsgreencare__upeodev_sandbox.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="224">
   <si>
     <t>File</t>
   </si>
@@ -37,88 +37,85 @@
     <t>approvalProcesses/Quote.Approval_Process_Quote_Over_5000.approvalProcess-meta.xml</t>
   </si>
   <si>
+    <t>ApprovalProcess Quote.Approval_Process_Quote_Over_5000</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>📰</t>
+  </si>
+  <si>
+    <t>briefcaseDefinitions/SFS.briefcaseDefinition-meta.xml</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>ApprovalProcess Quote.Approval_Process_Quote_Over_5000</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>📰</t>
-  </si>
-  <si>
-    <t>classes/ATAKPerformanceService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKPerformanceService</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>classes/ATAKPerformanceServiceTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKPerformanceServiceTest</t>
-  </si>
-  <si>
-    <t>classes/ATAKWorkLogService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKWorkLogService</t>
-  </si>
-  <si>
-    <t>classes/ATAKWorkLogServiceTest.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ATAKWorkLogServiceTest</t>
-  </si>
-  <si>
-    <t>classes/InternalWorkOrderController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass InternalWorkOrderController</t>
-  </si>
-  <si>
-    <t>classes/MaterialPickupController.cls</t>
-  </si>
-  <si>
-    <t>ApexClass MaterialPickupController</t>
-  </si>
-  <si>
-    <t>classes/MaterialPickupController.cls-meta.xml</t>
-  </si>
-  <si>
     <t>classes/TimeSheetController.cls</t>
   </si>
   <si>
     <t>ApexClass TimeSheetController</t>
   </si>
   <si>
-    <t>classes/ValidationService.cls</t>
-  </si>
-  <si>
-    <t>ApexClass ValidationService</t>
-  </si>
-  <si>
-    <t>classes/ValidationService.cls-meta.xml</t>
-  </si>
-  <si>
-    <t>cleanDataServices/DataCloudGeoLocation.cleanDataService-meta.xml</t>
-  </si>
-  <si>
-    <t>CleanDataService DataCloudGeoLocation</t>
-  </si>
-  <si>
-    <t>email/unfiled$public/Quote_Approval_EN_1733415638553.email</t>
-  </si>
-  <si>
-    <t>EmailTemplate unfiled$public/Quote_Approval_EN_1733415638553</t>
-  </si>
-  <si>
-    <t>email/unfiled$public/Quote_Approval_EN_1733415638553.email-meta.xml</t>
+    <t>email/Approvals.emailFolder-meta.xml</t>
+  </si>
+  <si>
+    <t>EmailTemplate ApprovalsFolder-meta.xml</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_Crew_on_its_way_ENG_1732013701917.email</t>
+  </si>
+  <si>
+    <t>EmailTemplate CustomerNotifications/Notification_Crew_on_its_way_ENG_1732013701917</t>
+  </si>
+  <si>
+    <t>email/CustomerNotifications/Notification_Crew_on_its_way_ENG_1732013701917.email-meta.xml</t>
+  </si>
+  <si>
+    <t>email/unfiled$public/Quote_Approval_Email.email</t>
+  </si>
+  <si>
+    <t>EmailTemplate unfiled$public/Quote_Approval_Email</t>
+  </si>
+  <si>
+    <t>email/unfiled$public/Quote_Approval_Email.email-meta.xml</t>
+  </si>
+  <si>
+    <t>email/unfiled$public/Quote_Approval_Request_Email.email</t>
+  </si>
+  <si>
+    <t>EmailTemplate unfiled$public/Quote_Approval_Request_Email</t>
+  </si>
+  <si>
+    <t>email/unfiled$public/Quote_Approval_Request_Email.email-meta.xml</t>
+  </si>
+  <si>
+    <t>email/unfiled$public/Quote_Rejection_Email.email</t>
+  </si>
+  <si>
+    <t>EmailTemplate unfiled$public/Quote_Rejection_Email</t>
+  </si>
+  <si>
+    <t>email/unfiled$public/Quote_Rejection_Email.email-meta.xml</t>
+  </si>
+  <si>
+    <t>email/unfiled$public/Quote_Submission_Confirmation_Email.email</t>
+  </si>
+  <si>
+    <t>EmailTemplate unfiled$public/Quote_Submission_Confirmation_Email</t>
+  </si>
+  <si>
+    <t>email/unfiled$public/Quote_Submission_Confirmation_Email.email-meta.xml</t>
+  </si>
+  <si>
+    <t>flexipages/Home_Page_Default.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Home_Page_Default</t>
   </si>
   <si>
     <t>flexipages/Location_Visit_Record_Page.flexipage-meta.xml</t>
@@ -127,100 +124,112 @@
     <t>FlexiPage Location_Visit_Record_Page</t>
   </si>
   <si>
+    <t>flexipages/Quick_Opportunity_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Quick_Opportunity_Record_Page</t>
+  </si>
+  <si>
     <t>flexipages/Quote_Record_Page.flexipage-meta.xml</t>
   </si>
   <si>
     <t>FlexiPage Quote_Record_Page</t>
   </si>
   <si>
+    <t>flexipages/Service_Contract_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Service_Contract_Record_Page</t>
+  </si>
+  <si>
     <t>flexipages/Time_Sheet_Record_Page.flexipage-meta.xml</t>
   </si>
   <si>
     <t>FlexiPage Time_Sheet_Record_Page</t>
   </si>
   <si>
-    <t>flexipages/Work_Step_Record_Page.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Work_Step_Record_Page</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Quote_After_Save_Record_Triggered_Trigged_Quote_Approval_Process.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Quote_After_Save_Record_Triggered_Trigged_Quote_Approval_Process</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Service_Appointments_After_Save_Record_Triggered_Assign_Van_Inventory_to_Related.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Service_Appointments_After_Save_Record_Triggered_Assign_Van_Inventory_to_Related</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status</t>
-  </si>
-  <si>
-    <t>flowDefinitions/Work_Order_Mobile_Flow_Log_Waste_Depot_Visit.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Work_Order_Mobile_Flow_Log_Waste_Depot_Visit</t>
-  </si>
-  <si>
-    <t>flows/Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Location_Visit_After_Save_Record_Triggered_Inform_visitor_when_Opportunity_visit</t>
-  </si>
-  <si>
-    <t>flows/Quote_After_Save_Record_Triggered_Trigged_Quote_Approval_Process.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Quote_After_Save_Record_Triggered_Trigged_Quote_Approval_Process</t>
-  </si>
-  <si>
-    <t>flows/Service_Appointments_After_Save_Record_Triggered_Assign_Van_Inventory_to_Related.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Service_Appointments_After_Save_Record_Triggered_Assign_Van_Inventory_to_Related</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_After_Save_Record_Triggered_Update_Related_SA_Status</t>
-  </si>
-  <si>
-    <t>flows/Work_Order_Mobile_Flow_Log_Waste_Depot_Visit.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Work_Order_Mobile_Flow_Log_Waste_Depot_Visit</t>
-  </si>
-  <si>
-    <t>layouts/Product2-Product Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout Product2-Product Layout</t>
-  </si>
-  <si>
-    <t>layouts/ProductItem-Material Item Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ProductItem-Material Item Layout</t>
-  </si>
-  <si>
-    <t>layouts/ProductRequired-Product Required Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ProductRequired-Product Required Layout</t>
+    <t>flexipages/Work_Order_Record_Page.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Work_Order_Record_Page</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Account_Screen_Flow_Add_Extra_Work.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Account_Screen_Flow_Add_Extra_Work</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Approval_Scheduled_flow_Send_Reminder_for_Pending_Approval_Request.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Approval_Scheduled_flow_Send_Reminder_for_Pending_Approval_Request</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Opportunity_Screen_Flow_ATAK_Project_Request.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Opportunity_Screen_Flow_ATAK_Project_Request</t>
+  </si>
+  <si>
+    <t>flowDefi